--- a/VerveStacks_IND/SuppXLS/Scen_Base_VS.xlsx
+++ b/VerveStacks_IND/SuppXLS/Scen_Base_VS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_IND\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2636F2D0-80D1-4A6F-BF63-8DF3A888FECB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0FAFAB3-4509-46CD-B7DE-4D7C143F355C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_IND/SuppXLS/Scen_Base_VS.xlsx
+++ b/VerveStacks_IND/SuppXLS/Scen_Base_VS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_IND\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0FAFAB3-4509-46CD-B7DE-4D7C143F355C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD6A75DC-AA68-420A-92EB-A4AB30AB0138}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Veda" sheetId="1" r:id="rId1"/>
@@ -65,12 +65,38 @@
         </r>
       </text>
     </comment>
+    <comment ref="E27" authorId="0" shapeId="0" xr:uid="{611EBA31-8D3D-48AF-B590-BE94B249D2E8}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Amit Kanudia:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+03-08-2025
+CO2 transport and storage cost
+</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="79">
   <si>
     <t>~TFM_INS-AT</t>
   </si>
@@ -237,30 +263,60 @@
     <t>Geothermal*</t>
   </si>
   <si>
+    <t>COM_AGG</t>
+  </si>
+  <si>
+    <t>co2</t>
+  </si>
+  <si>
+    <t>co2net</t>
+  </si>
+  <si>
+    <t>co2captured</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>flo_cost</t>
+  </si>
+  <si>
+    <t>model_fuel</t>
+  </si>
+  <si>
+    <t>ember_min</t>
+  </si>
+  <si>
+    <t>ember_max</t>
+  </si>
+  <si>
+    <t>irena_min</t>
+  </si>
+  <si>
+    <t>irena_max</t>
+  </si>
+  <si>
+    <t>bioenergy</t>
+  </si>
+  <si>
+    <t>VERVESTACKS: the open USE platform. Powered by data | Guided by intuition | Built with AI.</t>
+  </si>
+  <si>
     <t>EMBER Utilization Factors</t>
   </si>
   <si>
-    <t>model_fuel</t>
-  </si>
-  <si>
-    <t>bioenergy</t>
-  </si>
-  <si>
     <t>IRENA Utilization Factors</t>
   </si>
   <si>
+    <t>EMBER Capacity (GW)</t>
+  </si>
+  <si>
     <t>EMBER Generation (TWh)</t>
   </si>
   <si>
-    <t>Total</t>
-  </si>
-  <si>
     <t>IRENA Generation (TWh)</t>
   </si>
   <si>
-    <t>EMBER Capacity (GW)</t>
-  </si>
-  <si>
     <t>IRENA Capacity (GW)</t>
   </si>
   <si>
@@ -277,18 +333,6 @@
   </si>
   <si>
     <t>Import</t>
-  </si>
-  <si>
-    <t>ember_min</t>
-  </si>
-  <si>
-    <t>ember_max</t>
-  </si>
-  <si>
-    <t>irena_min</t>
-  </si>
-  <si>
-    <t>irena_max</t>
   </si>
 </sst>
 </file>
@@ -299,7 +343,7 @@
     <numFmt numFmtId="164" formatCode="0.0%"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -330,27 +374,38 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="7"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="9"/>
+      <color rgb="FF969696"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
-      <color theme="1"/>
-      <name val="Aptos Narrow"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Segoe UI"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <name val="Aptos Narrow"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -365,18 +420,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFDCE6F1"/>
+        <fgColor rgb="FF19375F"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFC8"/>
+        <fgColor rgb="FF4F81BD"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF7F9FC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -384,12 +445,42 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -398,11 +489,21 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="8" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="8" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="8" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -738,16 +839,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:AJ40"/>
+  <dimension ref="A1:AJ40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="2" max="2" width="10.9296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.9296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.73046875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.59765625" customWidth="1"/>
     <col min="5" max="5" width="9.53125" customWidth="1"/>
     <col min="6" max="7" width="9.73046875" bestFit="1" customWidth="1"/>
@@ -776,7 +877,7 @@
     <col min="36" max="36" width="11.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:36" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.45">
       <c r="AA1">
         <v>1.1000000000000001</v>
       </c>
@@ -784,29 +885,29 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="2" spans="2:36" x14ac:dyDescent="0.45">
-      <c r="F2" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="G2" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="H2" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="I2" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="J2" s="10" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="3" spans="2:36" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.45">
+      <c r="F2" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" spans="1:36" x14ac:dyDescent="0.45">
       <c r="B3" t="s">
         <v>0</v>
       </c>
       <c r="F3" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="G3" s="4">
         <v>0.30675375468566057</v>
@@ -824,7 +925,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:36" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>59</v>
+      </c>
       <c r="B4" t="s">
         <v>2</v>
       </c>
@@ -850,7 +954,7 @@
         <v>0.69256828336161436</v>
       </c>
     </row>
-    <row r="5" spans="2:36" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.45">
       <c r="B5" t="s">
         <v>6</v>
       </c>
@@ -877,7 +981,10 @@
         <v>0.59269411500882951</v>
       </c>
     </row>
-    <row r="6" spans="2:36" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.45">
+      <c r="A6" s="6">
+        <v>0.28000000000000003</v>
+      </c>
       <c r="B6" t="s">
         <v>9</v>
       </c>
@@ -885,7 +992,7 @@
         <v>7</v>
       </c>
       <c r="D6" s="5">
-        <f t="shared" ref="D6:D7" si="0">IFERROR(VLOOKUP(B6,$F$3:$J$11,5,FALSE),"")</f>
+        <f>IFERROR(MIN(VLOOKUP(B6,$F$3:$J$11,5,FALSE),$A$6),"")</f>
         <v>0.15841134011670518</v>
       </c>
       <c r="F6" t="s">
@@ -910,7 +1017,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="2:36" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.45">
       <c r="B7" t="s">
         <v>12</v>
       </c>
@@ -918,7 +1025,7 @@
         <v>7</v>
       </c>
       <c r="D7" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="D7" si="0">IFERROR(VLOOKUP(B7,$F$3:$J$11,5,FALSE),"")</f>
         <v>0.19080736612574969</v>
       </c>
       <c r="F7" t="s">
@@ -982,7 +1089,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="2:36" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.45">
       <c r="B8" t="s">
         <v>19</v>
       </c>
@@ -1060,7 +1167,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="2:36" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.45">
       <c r="F9" t="s">
         <v>9</v>
       </c>
@@ -1128,7 +1235,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="2:36" ht="14.65" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:36" ht="14.65" customHeight="1" x14ac:dyDescent="0.45">
       <c r="F10" t="s">
         <v>12</v>
       </c>
@@ -1145,18 +1252,18 @@
         <v>0.19080736612574969</v>
       </c>
     </row>
-    <row r="11" spans="2:36" ht="14.65" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:36" ht="14.65" customHeight="1" x14ac:dyDescent="0.45">
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
     </row>
-    <row r="13" spans="2:36" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:36" x14ac:dyDescent="0.45">
       <c r="B13" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="2:36" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:36" x14ac:dyDescent="0.45">
       <c r="B14" t="s">
         <v>27</v>
       </c>
@@ -1167,7 +1274,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="2:36" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:36" x14ac:dyDescent="0.45">
       <c r="B15" t="s">
         <v>29</v>
       </c>
@@ -1182,7 +1289,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="2:36" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:36" x14ac:dyDescent="0.45">
       <c r="L16" t="s">
         <v>31</v>
       </c>
@@ -1223,6 +1330,9 @@
       <c r="E21" t="s">
         <v>28</v>
       </c>
+      <c r="F21" t="s">
+        <v>14</v>
+      </c>
       <c r="L21" t="s">
         <v>38</v>
       </c>
@@ -1238,10 +1348,10 @@
         <v>40</v>
       </c>
       <c r="E22">
-        <f>G22*3.6</f>
+        <f>I22*3.6</f>
         <v>338.40000000000003</v>
       </c>
-      <c r="G22">
+      <c r="I22">
         <v>94</v>
       </c>
       <c r="L22" t="s">
@@ -1259,10 +1369,10 @@
         <v>40</v>
       </c>
       <c r="E23">
-        <f>G23*3.6</f>
+        <f>I23*3.6</f>
         <v>198</v>
       </c>
-      <c r="G23">
+      <c r="I23">
         <v>55</v>
       </c>
       <c r="L23" t="s">
@@ -1280,10 +1390,10 @@
         <v>40</v>
       </c>
       <c r="E24">
-        <f>G24*3.6</f>
+        <f>I24*3.6</f>
         <v>252</v>
       </c>
-      <c r="G24">
+      <c r="I24">
         <v>70</v>
       </c>
       <c r="L24" t="s">
@@ -1291,16 +1401,53 @@
       </c>
     </row>
     <row r="25" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B25" t="s">
+        <v>55</v>
+      </c>
+      <c r="C25" t="s">
+        <v>56</v>
+      </c>
+      <c r="D25" t="s">
+        <v>57</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
       <c r="L25" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="26" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B26" t="s">
+        <v>55</v>
+      </c>
+      <c r="C26" t="s">
+        <v>58</v>
+      </c>
+      <c r="D26" t="s">
+        <v>57</v>
+      </c>
+      <c r="E26">
+        <v>-1</v>
+      </c>
       <c r="L26" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="27" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B27" t="s">
+        <v>60</v>
+      </c>
+      <c r="C27" t="s">
+        <v>58</v>
+      </c>
+      <c r="E27">
+        <v>0.03</v>
+      </c>
+      <c r="F27" t="str">
+        <f>C27</f>
+        <v>co2captured</v>
+      </c>
       <c r="L27" s="2" t="s">
         <v>46</v>
       </c>
@@ -1386,7 +1533,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z88"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:Z88"/>
     </sheetView>
   </sheetViews>
@@ -1405,4551 +1552,4432 @@
     <col min="26" max="27" width="4.73046875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="6" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.45">
-      <c r="A2" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="B2" s="7">
+    <row r="1" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8"/>
+      <c r="O1" s="8"/>
+      <c r="P1" s="8"/>
+      <c r="Q1" s="8"/>
+      <c r="R1" s="8"/>
+      <c r="S1" s="8"/>
+      <c r="T1" s="8"/>
+      <c r="U1" s="8"/>
+      <c r="V1" s="8"/>
+      <c r="W1" s="8"/>
+      <c r="X1" s="8"/>
+      <c r="Y1" s="8"/>
+    </row>
+    <row r="2" spans="1:25" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A2" s="9" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" ht="19.149999999999999" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="A3" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="B3" s="10">
         <v>2000</v>
       </c>
-      <c r="C2" s="7">
+      <c r="C3" s="10">
         <v>2001</v>
       </c>
-      <c r="D2" s="7">
+      <c r="D3" s="10">
         <v>2002</v>
       </c>
-      <c r="E2" s="7">
+      <c r="E3" s="10">
         <v>2003</v>
       </c>
-      <c r="F2" s="7">
+      <c r="F3" s="10">
         <v>2004</v>
       </c>
-      <c r="G2" s="7">
+      <c r="G3" s="10">
         <v>2005</v>
       </c>
-      <c r="H2" s="7">
+      <c r="H3" s="10">
         <v>2006</v>
       </c>
-      <c r="I2" s="7">
+      <c r="I3" s="10">
         <v>2007</v>
       </c>
-      <c r="J2" s="7">
+      <c r="J3" s="10">
         <v>2008</v>
       </c>
-      <c r="K2" s="7">
+      <c r="K3" s="10">
         <v>2009</v>
       </c>
-      <c r="L2" s="7">
+      <c r="L3" s="10">
         <v>2010</v>
       </c>
-      <c r="M2" s="7">
+      <c r="M3" s="10">
         <v>2011</v>
       </c>
-      <c r="N2" s="7">
+      <c r="N3" s="10">
         <v>2012</v>
       </c>
-      <c r="O2" s="7">
+      <c r="O3" s="10">
         <v>2013</v>
       </c>
-      <c r="P2" s="7">
+      <c r="P3" s="10">
         <v>2014</v>
       </c>
-      <c r="Q2" s="7">
+      <c r="Q3" s="10">
         <v>2015</v>
       </c>
-      <c r="R2" s="7">
+      <c r="R3" s="10">
         <v>2016</v>
       </c>
-      <c r="S2" s="7">
+      <c r="S3" s="10">
         <v>2017</v>
       </c>
-      <c r="T2" s="7">
+      <c r="T3" s="10">
         <v>2018</v>
       </c>
-      <c r="U2" s="7">
+      <c r="U3" s="10">
         <v>2019</v>
       </c>
-      <c r="V2" s="7">
+      <c r="V3" s="10">
         <v>2020</v>
       </c>
-      <c r="W2" s="7">
+      <c r="W3" s="10">
         <v>2021</v>
       </c>
-      <c r="X2" s="7">
+      <c r="X3" s="10">
         <v>2022</v>
       </c>
-      <c r="Y2" s="7">
+      <c r="Y3" s="10">
         <v>2023</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B3" s="4">
+    <row r="4" spans="1:25" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A4" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="B4" s="12">
         <v>0.55120678408349644</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C4" s="12">
         <v>0.56262230919765166</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D4" s="12">
         <v>0.50894216133942172</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E4" s="12">
         <v>0.50714873867804477</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F4" s="12">
         <v>0.50380517503805178</v>
       </c>
-      <c r="G3" s="4">
+      <c r="G4" s="12">
         <v>0.49062469639560874</v>
       </c>
-      <c r="H3" s="4">
+      <c r="H4" s="12">
         <v>0.52305561793547428</v>
       </c>
-      <c r="I3" s="4">
+      <c r="I4" s="12">
         <v>0.55943633009767468</v>
       </c>
-      <c r="J3" s="4">
+      <c r="J4" s="12">
         <v>0.48923679060665365</v>
       </c>
-      <c r="K3" s="4">
+      <c r="K4" s="12">
         <v>0.54014923710880947</v>
       </c>
-      <c r="L3" s="4">
+      <c r="L4" s="12">
         <v>0.5300065231572082</v>
       </c>
-      <c r="M3" s="4">
+      <c r="M4" s="12">
         <v>0.54350583460172497</v>
       </c>
-      <c r="N3" s="4">
+      <c r="N4" s="12">
         <v>0.59277492389649933</v>
       </c>
-      <c r="O3" s="4">
+      <c r="O4" s="12">
         <v>0.62897305040737761</v>
       </c>
-      <c r="P3" s="4">
+      <c r="P4" s="12">
         <v>0.57379869616568546</v>
       </c>
-      <c r="Q3" s="4">
+      <c r="Q4" s="12">
         <v>0.65457561609631798</v>
       </c>
-      <c r="R3" s="4">
+      <c r="R4" s="12">
         <v>0.32343987823439879</v>
       </c>
-      <c r="S3" s="4">
+      <c r="S4" s="12">
         <v>0.30675375468566057</v>
       </c>
-      <c r="T3" s="4">
+      <c r="T4" s="12">
         <v>0.31135330020772134</v>
       </c>
-      <c r="U3" s="4">
+      <c r="U4" s="12">
         <v>0.35755784925152284</v>
       </c>
-      <c r="V3" s="4">
+      <c r="V4" s="12">
         <v>0.36242913550834932</v>
       </c>
-      <c r="W3" s="4">
+      <c r="W4" s="12">
         <v>0.39079184334861278</v>
       </c>
-      <c r="X3" s="4">
+      <c r="X4" s="12">
         <v>0.42295562310563695</v>
       </c>
-      <c r="Y3" s="4">
+      <c r="Y4" s="12">
         <v>0.40685542663069574</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.45">
-      <c r="A4" t="s">
+    <row r="5" spans="1:25" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A5" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B5" s="14">
         <v>0.71653214818993149</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C5" s="14">
         <v>0.73782566864942978</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D5" s="14">
         <v>0.75860528986295694</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E5" s="14">
         <v>0.76554942611972032</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F5" s="14">
         <v>0.796969584304135</v>
       </c>
-      <c r="G4" s="4">
+      <c r="G5" s="14">
         <v>0.78433378182380886</v>
       </c>
-      <c r="H4" s="4">
+      <c r="H5" s="14">
         <v>0.80218147145848917</v>
       </c>
-      <c r="I4" s="4">
+      <c r="I5" s="14">
         <v>0.78915699735877243</v>
       </c>
-      <c r="J4" s="4">
+      <c r="J5" s="14">
         <v>0.79466364064431649</v>
       </c>
-      <c r="K4" s="4">
+      <c r="K5" s="14">
         <v>0.79463965742241882</v>
       </c>
-      <c r="L4" s="4">
+      <c r="L5" s="14">
         <v>0.74109856448388545</v>
       </c>
-      <c r="M4" s="4">
+      <c r="M5" s="14">
         <v>0.70592036916237833</v>
       </c>
-      <c r="N4" s="4">
+      <c r="N5" s="14">
         <v>0.68299652501558394</v>
       </c>
-      <c r="O4" s="4">
+      <c r="O5" s="14">
         <v>0.64810008242168105</v>
       </c>
-      <c r="P4" s="4">
+      <c r="P5" s="14">
         <v>0.63968556935402887</v>
       </c>
-      <c r="Q4" s="4">
+      <c r="Q5" s="14">
         <v>0.60612421815967543</v>
       </c>
-      <c r="R4" s="4">
+      <c r="R5" s="14">
         <v>0.59186303001676133</v>
       </c>
-      <c r="S4" s="4">
+      <c r="S5" s="14">
         <v>0.59922104058695769</v>
       </c>
-      <c r="T4" s="4">
+      <c r="T5" s="14">
         <v>0.62783817039894319</v>
       </c>
-      <c r="U4" s="4">
+      <c r="U5" s="14">
         <v>0.60652756341834713</v>
       </c>
-      <c r="V4" s="4">
+      <c r="V5" s="14">
         <v>0.57817160320012806</v>
       </c>
-      <c r="W4" s="4">
+      <c r="W5" s="14">
         <v>0.62009503817291545</v>
       </c>
-      <c r="X4" s="4">
+      <c r="X5" s="14">
         <v>0.66585892127934132</v>
       </c>
-      <c r="Y4" s="4">
+      <c r="Y5" s="14">
         <v>0.70675954342511094</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.45">
-      <c r="A5" t="s">
+    <row r="6" spans="1:25" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A6" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B6" s="12">
         <v>0.50659221680263911</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C6" s="12">
         <v>0.47576029779038992</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D6" s="12">
         <v>0.5116238197990608</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E6" s="12">
         <v>0.57792088199617675</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F6" s="12">
         <v>0.59917814478547582</v>
       </c>
-      <c r="G5" s="4">
+      <c r="G6" s="12">
         <v>0.55546723427807665</v>
       </c>
-      <c r="H5" s="4">
+      <c r="H6" s="12">
         <v>0.51246377766069551</v>
       </c>
-      <c r="I5" s="4">
+      <c r="I6" s="12">
         <v>0.55296828215690175</v>
       </c>
-      <c r="J5" s="4">
+      <c r="J6" s="12">
         <v>0.52566503850061819</v>
       </c>
-      <c r="K5" s="4">
+      <c r="K6" s="12">
         <v>0.56094084565178148</v>
       </c>
-      <c r="L5" s="4">
+      <c r="L6" s="12">
         <v>0.60285209361241354</v>
       </c>
-      <c r="M5" s="4">
+      <c r="M6" s="12">
         <v>0.55777603176229906</v>
       </c>
-      <c r="N5" s="4">
+      <c r="N6" s="12">
         <v>0.46262917567892337</v>
       </c>
-      <c r="O5" s="4">
+      <c r="O6" s="12">
         <v>0.28597033257258586</v>
       </c>
-      <c r="P5" s="4">
+      <c r="P6" s="12">
         <v>0.25966871448368078</v>
       </c>
-      <c r="Q5" s="4">
+      <c r="Q6" s="12">
         <v>0.24507244336885503</v>
       </c>
-      <c r="R5" s="4">
+      <c r="R6" s="12">
         <v>0.2642637659515315</v>
       </c>
-      <c r="S5" s="4">
+      <c r="S6" s="12">
         <v>0.26718171919803441</v>
       </c>
-      <c r="T5" s="4">
+      <c r="T6" s="12">
         <v>0.24413875139096738</v>
       </c>
-      <c r="U5" s="4">
+      <c r="U6" s="12">
         <v>0.25179246841308106</v>
       </c>
-      <c r="V5" s="4">
+      <c r="V6" s="12">
         <v>0.26424237799061323</v>
       </c>
-      <c r="W5" s="4">
+      <c r="W6" s="12">
         <v>0.21353289467171793</v>
       </c>
-      <c r="X5" s="4">
+      <c r="X6" s="12">
         <v>0.16467833870451151</v>
       </c>
-      <c r="Y5" s="4">
+      <c r="Y6" s="12">
         <v>0.18513279169411459</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.45">
-      <c r="A6" t="s">
+    <row r="7" spans="1:25" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A7" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B7" s="14">
         <v>0.3706795776207561</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C7" s="14">
         <v>0.33312241439281248</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D7" s="14">
         <v>0.31638499446995594</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E7" s="14">
         <v>0.29105809065892524</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F7" s="14">
         <v>0.40141804594290165</v>
       </c>
-      <c r="G6" s="4">
+      <c r="G7" s="14">
         <v>0.35920557384399371</v>
       </c>
-      <c r="H6" s="4">
+      <c r="H7" s="14">
         <v>0.38910909151215634</v>
       </c>
-      <c r="I6" s="4">
+      <c r="I7" s="14">
         <v>0.41166398066075749</v>
       </c>
-      <c r="J6" s="4">
+      <c r="J7" s="14">
         <v>0.37899280120993384</v>
       </c>
-      <c r="K6" s="4">
+      <c r="K7" s="14">
         <v>0.34903017269674225</v>
       </c>
-      <c r="L6" s="4">
+      <c r="L7" s="14">
         <v>0.34606194617040481</v>
       </c>
-      <c r="M6" s="4">
+      <c r="M7" s="14">
         <v>0.39952821087808832</v>
       </c>
-      <c r="N6" s="4">
+      <c r="N7" s="14">
         <v>0.34553973796520132</v>
       </c>
-      <c r="O6" s="4">
+      <c r="O7" s="14">
         <v>0.38248819613257423</v>
       </c>
-      <c r="P6" s="4">
+      <c r="P7" s="14">
         <v>0.39063466047946332</v>
       </c>
-      <c r="Q6" s="4">
+      <c r="Q7" s="14">
         <v>0.35951351304693097</v>
       </c>
-      <c r="R6" s="4">
+      <c r="R7" s="14">
         <v>0.34209269704837791</v>
       </c>
-      <c r="S6" s="4">
+      <c r="S7" s="14">
         <v>0.34654819423436883</v>
       </c>
-      <c r="T6" s="4">
+      <c r="T7" s="14">
         <v>0.35201227597157908</v>
       </c>
-      <c r="U6" s="4">
+      <c r="U7" s="14">
         <v>0.40670788200728542</v>
       </c>
-      <c r="V6" s="4">
+      <c r="V7" s="14">
         <v>0.40642050047568828</v>
       </c>
-      <c r="W6" s="4">
+      <c r="W7" s="14">
         <v>0.39127090568697159</v>
       </c>
-      <c r="X6" s="4">
+      <c r="X7" s="14">
         <v>0.42292078853670473</v>
       </c>
-      <c r="Y6" s="4">
+      <c r="Y7" s="14">
         <v>0.35978319908695094</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.45">
-      <c r="A7" t="s">
+    <row r="8" spans="1:25" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A8" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B8" s="12">
         <v>0.6294504582175815</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C8" s="12">
         <v>0.79279143164114962</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D8" s="12">
         <v>0.81209709911361805</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E8" s="12">
         <v>0.76131479989255979</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F8" s="12">
         <v>0.87615185533191575</v>
       </c>
-      <c r="G7" s="4">
+      <c r="G8" s="12">
         <v>0.60237279843444236</v>
       </c>
-      <c r="H7" s="4">
+      <c r="H8" s="12">
         <v>0.51604027631424887</v>
       </c>
-      <c r="I7" s="4">
+      <c r="I8" s="12">
         <v>0.49402624462472838</v>
       </c>
-      <c r="J7" s="4">
+      <c r="J8" s="12">
         <v>0.42198652303054485</v>
       </c>
-      <c r="K7" s="4">
+      <c r="K8" s="12">
         <v>0.42107265881598976</v>
       </c>
-      <c r="L7" s="4">
+      <c r="L8" s="12">
         <v>0.55119313731109454</v>
       </c>
-      <c r="M7" s="4">
+      <c r="M8" s="12">
         <v>0.76947326187883303</v>
       </c>
-      <c r="N7" s="4">
+      <c r="N8" s="12">
         <v>0.79144456544582642</v>
       </c>
-      <c r="O7" s="4">
+      <c r="O8" s="12">
         <v>0.79550448023537967</v>
       </c>
-      <c r="P7" s="4">
+      <c r="P8" s="12">
         <v>0.68512900728381598</v>
       </c>
-      <c r="Q7" s="4">
+      <c r="Q8" s="12">
         <v>0.75662416457316206</v>
       </c>
-      <c r="R7" s="4">
+      <c r="R8" s="12">
         <v>0.74852664675862279</v>
       </c>
-      <c r="S7" s="4">
+      <c r="S8" s="12">
         <v>0.6298743282013981</v>
       </c>
-      <c r="T7" s="4">
+      <c r="T8" s="12">
         <v>0.65748710281380907</v>
       </c>
-      <c r="U7" s="4">
+      <c r="U8" s="12">
         <v>0.76036152530273027</v>
       </c>
-      <c r="V7" s="4">
+      <c r="V8" s="12">
         <v>0.75110114357295832</v>
       </c>
-      <c r="W7" s="4">
+      <c r="W8" s="12">
         <v>0.73948357376651719</v>
       </c>
-      <c r="X7" s="4">
+      <c r="X8" s="12">
         <v>0.77770369472393952</v>
       </c>
-      <c r="Y7" s="4">
+      <c r="Y8" s="12">
         <v>0.73559934559128759</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.45">
-      <c r="A8" t="s">
+    <row r="9" spans="1:25" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A9" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B9" s="14">
         <v>0.49024552625738904</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C9" s="14">
         <v>0.43317552097481471</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D9" s="14">
         <v>0.42911926842309039</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E9" s="14">
         <v>0.45501112281934197</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F9" s="14">
         <v>0.39548639090339333</v>
       </c>
-      <c r="G8" s="4">
+      <c r="G9" s="14">
         <v>0.33833162633892372</v>
       </c>
-      <c r="H8" s="4">
+      <c r="H9" s="14">
         <v>0.24527952610144385</v>
       </c>
-      <c r="I8" s="4">
+      <c r="I9" s="14">
         <v>0.15787931213779932</v>
       </c>
-      <c r="J8" s="4">
+      <c r="J9" s="14">
         <v>0.17483958725491541</v>
       </c>
-      <c r="K8" s="4">
+      <c r="K9" s="14">
         <v>0.14179968517868063</v>
       </c>
-      <c r="L8" s="4">
+      <c r="L9" s="14">
         <v>0.11321008346880737</v>
       </c>
-      <c r="M8" s="4">
+      <c r="M9" s="14">
         <v>9.5640824209096406E-2</v>
       </c>
-      <c r="N8" s="4">
+      <c r="N9" s="14">
         <v>9.4690558401600802E-2</v>
       </c>
-      <c r="O8" s="4">
+      <c r="O9" s="14">
         <v>9.5955282135559136E-2</v>
       </c>
-      <c r="P8" s="4">
+      <c r="P9" s="14">
         <v>9.9961573213414076E-2</v>
       </c>
-      <c r="Q8" s="4">
+      <c r="Q9" s="14">
         <v>7.894530437421779E-2</v>
       </c>
-      <c r="R8" s="4">
+      <c r="R9" s="14">
         <v>7.6292678497301786E-2</v>
       </c>
-      <c r="S8" s="4">
+      <c r="S9" s="14">
         <v>7.0763375002415127E-2</v>
       </c>
-      <c r="T8" s="4">
+      <c r="T9" s="14">
         <v>4.6357462392508632E-2</v>
       </c>
-      <c r="U8" s="4">
+      <c r="U9" s="14">
         <v>2.4767252367813866E-2</v>
       </c>
-      <c r="V8" s="4">
+      <c r="V9" s="14">
         <v>2.0676420048499254E-2</v>
       </c>
-      <c r="W8" s="4">
+      <c r="W9" s="14">
         <v>2.1043300781395491E-2</v>
       </c>
-      <c r="X8" s="4">
+      <c r="X9" s="14">
         <v>2.2646432571477804E-2</v>
       </c>
-      <c r="Y8" s="4">
+      <c r="Y9" s="14">
         <v>2.5681859514084471E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.45">
-      <c r="A9" t="s">
+    <row r="10" spans="1:25" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A10" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B10" s="12">
         <v>65535</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C10" s="12">
         <v>0.11415525114155252</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D10" s="12">
         <v>0.11415525114155252</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E10" s="12">
         <v>0.22831050228310504</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F10" s="12">
         <v>0.22831050228310504</v>
       </c>
-      <c r="G9" s="4">
+      <c r="G10" s="12">
         <v>0.22831050228310504</v>
       </c>
-      <c r="H9" s="4">
+      <c r="H10" s="12">
         <v>0.11415525114155252</v>
       </c>
-      <c r="I9" s="4">
+      <c r="I10" s="12">
         <v>0.22831050228310504</v>
       </c>
-      <c r="J9" s="4">
+      <c r="J10" s="12">
         <v>0.22831050228310504</v>
       </c>
-      <c r="K9" s="4">
+      <c r="K10" s="12">
         <v>0.22831050228310504</v>
       </c>
-      <c r="L9" s="4">
+      <c r="L10" s="12">
         <v>0.17938682322243965</v>
       </c>
-      <c r="M9" s="4">
+      <c r="M10" s="12">
         <v>0.16622606745173435</v>
       </c>
-      <c r="N9" s="4">
+      <c r="N10" s="12">
         <v>0.24214750242147504</v>
       </c>
-      <c r="O9" s="4">
+      <c r="O10" s="12">
         <v>0.2447203196347032</v>
       </c>
-      <c r="P9" s="4">
+      <c r="P10" s="12">
         <v>0.14828102727646106</v>
       </c>
-      <c r="Q9" s="4">
+      <c r="Q10" s="12">
         <v>0.13157894736842105</v>
       </c>
-      <c r="R9" s="4">
+      <c r="R10" s="12">
         <v>0.13222792617197865</v>
       </c>
-      <c r="S9" s="4">
+      <c r="S10" s="12">
         <v>0.1346606850815466</v>
       </c>
-      <c r="T9" s="4">
+      <c r="T10" s="12">
         <v>0.15091922394369006</v>
       </c>
-      <c r="U9" s="4">
+      <c r="U10" s="12">
         <v>0.14984293532821658</v>
       </c>
-      <c r="V9" s="4">
+      <c r="V10" s="12">
         <v>0.16868874683924204</v>
       </c>
-      <c r="W9" s="4">
+      <c r="W10" s="12">
         <v>0.15611501912871775</v>
       </c>
-      <c r="X9" s="4">
+      <c r="X10" s="12">
         <v>0.17136793971651898</v>
       </c>
-      <c r="Y9" s="4">
+      <c r="Y10" s="12">
         <v>0.1770803861573447</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.45">
-      <c r="A10" t="s">
+    <row r="11" spans="1:25" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A11" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B11" s="14">
         <v>0.1918779753230351</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C11" s="14">
         <v>0.15293876595246458</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D11" s="14">
         <v>0.14818911483592839</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E11" s="14">
         <v>0.12065189145042136</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F11" s="14">
         <v>0.15670130274811542</v>
       </c>
-      <c r="G10" s="4">
+      <c r="G11" s="14">
         <v>0.15435439149839722</v>
       </c>
-      <c r="H10" s="4">
+      <c r="H11" s="14">
         <v>0.16870412114906652</v>
       </c>
-      <c r="I10" s="4">
+      <c r="I11" s="14">
         <v>0.17006802721088435</v>
       </c>
-      <c r="J10" s="4">
+      <c r="J11" s="14">
         <v>0.16030786244292239</v>
       </c>
-      <c r="K10" s="4">
+      <c r="K11" s="14">
         <v>0.16992735005242995</v>
       </c>
-      <c r="L10" s="4">
+      <c r="L11" s="14">
         <v>0.16854788977349106</v>
       </c>
-      <c r="M10" s="4">
+      <c r="M11" s="14">
         <v>0.16897517088011019</v>
       </c>
-      <c r="N10" s="4">
+      <c r="N11" s="14">
         <v>0.18099875946894714</v>
       </c>
-      <c r="O10" s="4">
+      <c r="O11" s="14">
         <v>0.18598257799989093</v>
       </c>
-      <c r="P10" s="4">
+      <c r="P11" s="14">
         <v>0.16993738988361959</v>
       </c>
-      <c r="Q10" s="4">
+      <c r="Q11" s="14">
         <v>0.14896145565462054</v>
       </c>
-      <c r="R10" s="4">
+      <c r="R11" s="14">
         <v>0.17282389066552117</v>
       </c>
-      <c r="S10" s="4">
+      <c r="S11" s="14">
         <v>0.18289165502526358</v>
       </c>
-      <c r="T10" s="4">
+      <c r="T11" s="14">
         <v>0.19508935098744778</v>
       </c>
-      <c r="U10" s="4">
+      <c r="U11" s="14">
         <v>0.19267312582702456</v>
       </c>
-      <c r="V10" s="4">
+      <c r="V11" s="14">
         <v>0.17890046230508347</v>
       </c>
-      <c r="W10" s="4">
+      <c r="W11" s="14">
         <v>0.193981308965019</v>
       </c>
-      <c r="X10" s="4">
+      <c r="X11" s="14">
         <v>0.19071250518640001</v>
       </c>
-      <c r="Y10" s="4">
+      <c r="Y11" s="14">
         <v>0.20950575930337231</v>
       </c>
     </row>
-    <row r="15" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A15" s="6" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.45">
-      <c r="A16" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="B16" s="7">
+    <row r="15" spans="1:25" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A15" s="9" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" ht="19.149999999999999" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="A16" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="B16" s="10">
         <v>2000</v>
       </c>
-      <c r="C16" s="7">
+      <c r="C16" s="10">
         <v>2001</v>
       </c>
-      <c r="D16" s="7">
+      <c r="D16" s="10">
         <v>2002</v>
       </c>
-      <c r="E16" s="7">
+      <c r="E16" s="10">
         <v>2003</v>
       </c>
-      <c r="F16" s="7">
+      <c r="F16" s="10">
         <v>2004</v>
       </c>
-      <c r="G16" s="7">
+      <c r="G16" s="10">
         <v>2005</v>
       </c>
-      <c r="H16" s="7">
+      <c r="H16" s="10">
         <v>2006</v>
       </c>
-      <c r="I16" s="7">
+      <c r="I16" s="10">
         <v>2007</v>
       </c>
-      <c r="J16" s="7">
+      <c r="J16" s="10">
         <v>2008</v>
       </c>
-      <c r="K16" s="7">
+      <c r="K16" s="10">
         <v>2009</v>
       </c>
-      <c r="L16" s="7">
+      <c r="L16" s="10">
         <v>2010</v>
       </c>
-      <c r="M16" s="7">
+      <c r="M16" s="10">
         <v>2011</v>
       </c>
-      <c r="N16" s="7">
+      <c r="N16" s="10">
         <v>2012</v>
       </c>
-      <c r="O16" s="7">
+      <c r="O16" s="10">
         <v>2013</v>
       </c>
-      <c r="P16" s="7">
+      <c r="P16" s="10">
         <v>2014</v>
       </c>
-      <c r="Q16" s="7">
+      <c r="Q16" s="10">
         <v>2015</v>
       </c>
-      <c r="R16" s="7">
+      <c r="R16" s="10">
         <v>2016</v>
       </c>
-      <c r="S16" s="7">
+      <c r="S16" s="10">
         <v>2017</v>
       </c>
-      <c r="T16" s="7">
+      <c r="T16" s="10">
         <v>2018</v>
       </c>
-      <c r="U16" s="7">
+      <c r="U16" s="10">
         <v>2019</v>
       </c>
-      <c r="V16" s="7">
+      <c r="V16" s="10">
         <v>2020</v>
       </c>
-      <c r="W16" s="7">
+      <c r="W16" s="10">
         <v>2021</v>
       </c>
-      <c r="X16" s="7">
+      <c r="X16" s="10">
         <v>2022</v>
       </c>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.45">
-      <c r="A17" t="s">
-        <v>57</v>
-      </c>
-      <c r="B17" s="4">
+    <row r="17" spans="1:25" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A17" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="B17" s="12">
         <v>0.92615514320577175</v>
       </c>
-      <c r="C17" s="4">
+      <c r="C17" s="12">
         <v>0.81099996042764533</v>
       </c>
-      <c r="D17" s="4">
+      <c r="D17" s="12">
         <v>0.82167224457063737</v>
       </c>
-      <c r="E17" s="4">
+      <c r="E17" s="12">
         <v>0.76898932025082123</v>
       </c>
-      <c r="F17" s="4">
+      <c r="F17" s="12">
         <v>0.78346966534340223</v>
       </c>
-      <c r="G17" s="4">
+      <c r="G17" s="12">
         <v>0.73673456763973511</v>
       </c>
-      <c r="H17" s="4">
+      <c r="H17" s="12">
         <v>0.67271232013327142</v>
       </c>
-      <c r="I17" s="4">
+      <c r="I17" s="12">
         <v>0.68553215888333363</v>
       </c>
-      <c r="J17" s="4">
+      <c r="J17" s="12">
         <v>0.5335674596010449</v>
       </c>
-      <c r="K17" s="4">
+      <c r="K17" s="12">
         <v>0.51284202847520821</v>
       </c>
-      <c r="L17" s="4">
+      <c r="L17" s="12">
         <v>0.61622005122643342</v>
       </c>
-      <c r="M17" s="4">
+      <c r="M17" s="12">
         <v>0.54638364289314678</v>
       </c>
-      <c r="N17" s="4">
+      <c r="N17" s="12">
         <v>0.69484778512841583</v>
       </c>
-      <c r="O17" s="4">
+      <c r="O17" s="12">
         <v>0.78135528101999385</v>
       </c>
-      <c r="P17" s="4">
+      <c r="P17" s="12">
         <v>0.75427583820121702</v>
       </c>
-      <c r="Q17" s="4">
+      <c r="Q17" s="12">
         <v>0.60152027427680455</v>
       </c>
-      <c r="R17" s="4">
+      <c r="R17" s="12">
         <v>0.23372519435278491</v>
       </c>
-      <c r="S17" s="4">
+      <c r="S17" s="12">
         <v>0.20200500305682581</v>
       </c>
-      <c r="T17" s="4">
+      <c r="T17" s="12">
         <v>0.21089944825947265</v>
       </c>
-      <c r="U17" s="4">
+      <c r="U17" s="12">
         <v>0.23346470815738626</v>
       </c>
-      <c r="V17" s="4">
+      <c r="V17" s="12">
         <v>0.22394282789661374</v>
       </c>
-      <c r="W17" s="4">
+      <c r="W17" s="12">
         <v>0.23983833725154463</v>
       </c>
-      <c r="X17" s="4">
+      <c r="X17" s="12">
         <v>0.26268894842528234</v>
       </c>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.45">
-      <c r="A18" t="s">
+    <row r="18" spans="1:25" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A18" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B18" s="4">
+      <c r="B18" s="14">
         <v>0.6562589339986783</v>
       </c>
-      <c r="C18" s="4">
+      <c r="C18" s="14">
         <v>0.64840737974378071</v>
       </c>
-      <c r="D18" s="4">
+      <c r="D18" s="14">
         <v>0.65379634214798832</v>
       </c>
-      <c r="E18" s="4">
+      <c r="E18" s="14">
         <v>0.67136658081725142</v>
       </c>
-      <c r="F18" s="4">
+      <c r="F18" s="14">
         <v>0.67078607739887808</v>
       </c>
-      <c r="G18" s="4">
+      <c r="G18" s="14">
         <v>0.68516450636909287</v>
       </c>
-      <c r="H18" s="4">
+      <c r="H18" s="14">
         <v>0.68437729020656124</v>
       </c>
-      <c r="I18" s="4">
+      <c r="I18" s="14">
         <v>0.68164613352272707</v>
       </c>
-      <c r="J18" s="4">
+      <c r="J18" s="14">
         <v>0.69256828336161436</v>
       </c>
-      <c r="K18" s="4">
+      <c r="K18" s="14">
         <v>0.67375132675720706</v>
       </c>
-      <c r="L18" s="4">
+      <c r="L18" s="14">
         <v>0.63619962664451646</v>
       </c>
-      <c r="M18" s="4">
+      <c r="M18" s="14">
         <v>0.57419002737404723</v>
       </c>
-      <c r="N18" s="4">
+      <c r="N18" s="14">
         <v>0.54864593581519505</v>
       </c>
-      <c r="O18" s="4">
+      <c r="O18" s="14">
         <v>0.55078543214529752</v>
       </c>
-      <c r="P18" s="4">
+      <c r="P18" s="14">
         <v>0.53285577562133479</v>
       </c>
-      <c r="Q18" s="4">
+      <c r="Q18" s="14">
         <v>0.52512171974026645</v>
       </c>
-      <c r="R18" s="4">
+      <c r="R18" s="14">
         <v>0.54544989126569188</v>
       </c>
-      <c r="S18" s="4">
+      <c r="S18" s="14">
         <v>0.55432901843813465</v>
       </c>
-      <c r="T18" s="4">
+      <c r="T18" s="14">
         <v>0.54351512226161725</v>
       </c>
-      <c r="U18" s="4">
+      <c r="U18" s="14">
         <v>0.53760738521190743</v>
       </c>
-      <c r="V18" s="4">
+      <c r="V18" s="14">
         <v>0.53462731121505191</v>
       </c>
-      <c r="W18" s="4">
+      <c r="W18" s="14">
         <v>0.53361890626399289</v>
       </c>
-      <c r="X18" s="4">
+      <c r="X18" s="14">
         <v>0.57177833891742502</v>
       </c>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.45">
-      <c r="A19" t="s">
+    <row r="19" spans="1:25" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A19" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B19" s="4">
+      <c r="B19" s="12">
         <v>0.53634672841876152</v>
       </c>
-      <c r="C19" s="4">
+      <c r="C19" s="12">
         <v>0.50289690778182383</v>
       </c>
-      <c r="D19" s="4">
+      <c r="D19" s="12">
         <v>0.48997400107692962</v>
       </c>
-      <c r="E19" s="4">
+      <c r="E19" s="12">
         <v>0.52589817500167535</v>
       </c>
-      <c r="F19" s="4">
+      <c r="F19" s="12">
         <v>0.56012993747044437</v>
       </c>
-      <c r="G19" s="4">
+      <c r="G19" s="12">
         <v>0.54921049267894595</v>
       </c>
-      <c r="H19" s="4">
+      <c r="H19" s="12">
         <v>0.51942126765131147</v>
       </c>
-      <c r="I19" s="4">
+      <c r="I19" s="12">
         <v>0.51190447017143426</v>
       </c>
-      <c r="J19" s="4">
+      <c r="J19" s="12">
         <v>0.57063251009305083</v>
       </c>
-      <c r="K19" s="4">
+      <c r="K19" s="12">
         <v>0.50637563843705091</v>
       </c>
-      <c r="L19" s="4">
+      <c r="L19" s="12">
         <v>0.59269411500882951</v>
       </c>
-      <c r="M19" s="4">
+      <c r="M19" s="12">
         <v>0.54873651170174065</v>
       </c>
-      <c r="N19" s="4">
+      <c r="N19" s="12">
         <v>0.52058707412271554</v>
       </c>
-      <c r="O19" s="4">
+      <c r="O19" s="12">
         <v>0.35226839883156225</v>
       </c>
-      <c r="P19" s="4">
+      <c r="P19" s="12">
         <v>0.25908635136304076</v>
       </c>
-      <c r="Q19" s="4">
+      <c r="Q19" s="12">
         <v>0.24104761435707611</v>
       </c>
-      <c r="R19" s="4">
+      <c r="R19" s="12">
         <v>0.25163766184456327</v>
       </c>
-      <c r="S19" s="4">
+      <c r="S19" s="12">
         <v>0.25953271151682106</v>
       </c>
-      <c r="T19" s="4">
+      <c r="T19" s="12">
         <v>0.25362733623682032</v>
       </c>
-      <c r="U19" s="4">
+      <c r="U19" s="12">
         <v>0.24673077590042675</v>
       </c>
-      <c r="V19" s="4">
+      <c r="V19" s="12">
         <v>0.25996599807553605</v>
       </c>
-      <c r="W19" s="4">
+      <c r="W19" s="12">
         <v>0.25285993124018152</v>
       </c>
-      <c r="X19" s="4">
+      <c r="X19" s="12">
         <v>0.20182150983689692</v>
       </c>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.45">
-      <c r="A20" t="s">
+    <row r="20" spans="1:25" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A20" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B20" s="4">
+      <c r="B20" s="14">
         <v>0.3374870914559655</v>
       </c>
-      <c r="C20" s="4">
+      <c r="C20" s="14">
         <v>0.32230006775510378</v>
       </c>
-      <c r="D20" s="4">
+      <c r="D20" s="14">
         <v>0.30359355498235663</v>
       </c>
-      <c r="E20" s="4">
+      <c r="E20" s="14">
         <v>0.25853504497430296</v>
       </c>
-      <c r="F20" s="4">
+      <c r="F20" s="14">
         <v>0.28624022314991371</v>
       </c>
-      <c r="G20" s="4">
+      <c r="G20" s="14">
         <v>0.30045116693533575</v>
       </c>
-      <c r="H20" s="4">
+      <c r="H20" s="14">
         <v>0.33708739474205707</v>
       </c>
-      <c r="I20" s="4">
+      <c r="I20" s="14">
         <v>0.35786883027868316</v>
       </c>
-      <c r="J20" s="4">
+      <c r="J20" s="14">
         <v>0.35379789064905481</v>
       </c>
-      <c r="K20" s="4">
+      <c r="K20" s="14">
         <v>0.32803703550793484</v>
       </c>
-      <c r="L20" s="4">
+      <c r="L20" s="14">
         <v>0.31487080974576742</v>
       </c>
-      <c r="M20" s="4">
+      <c r="M20" s="14">
         <v>0.33551256009891262</v>
       </c>
-      <c r="N20" s="4">
+      <c r="N20" s="14">
         <v>0.35308292438536631</v>
       </c>
-      <c r="O20" s="4">
+      <c r="O20" s="14">
         <v>0.32549288011235827</v>
       </c>
-      <c r="P20" s="4">
+      <c r="P20" s="14">
         <v>0.35401833291244655</v>
       </c>
-      <c r="Q20" s="4">
+      <c r="Q20" s="14">
         <v>0.32840520966892622</v>
       </c>
-      <c r="R20" s="4">
+      <c r="R20" s="14">
         <v>0.31200798972811922</v>
       </c>
-      <c r="S20" s="4">
+      <c r="S20" s="14">
         <v>0.30279078208234245</v>
       </c>
-      <c r="T20" s="4">
+      <c r="T20" s="14">
         <v>0.31133287056461517</v>
       </c>
-      <c r="U20" s="4">
+      <c r="U20" s="14">
         <v>0.33952699547617743</v>
       </c>
-      <c r="V20" s="4">
+      <c r="V20" s="14">
         <v>0.37031923094731656</v>
       </c>
-      <c r="W20" s="4">
+      <c r="W20" s="14">
         <v>0.35763339217297302</v>
       </c>
-      <c r="X20" s="4">
+      <c r="X20" s="14">
         <v>0.36330633881396285</v>
       </c>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.45">
-      <c r="A21" t="s">
+    <row r="21" spans="1:25" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A21" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="4">
+      <c r="B21" s="12">
         <v>0.67463358559248976</v>
       </c>
-      <c r="C21" s="4">
+      <c r="C21" s="12">
         <v>0.73635383091592799</v>
       </c>
-      <c r="D21" s="4">
+      <c r="D21" s="12">
         <v>0.8164513665055062</v>
       </c>
-      <c r="E21" s="4">
+      <c r="E21" s="12">
         <v>0.79688339376846629</v>
       </c>
-      <c r="F21" s="4">
+      <c r="F21" s="12">
         <v>0.72481372500535746</v>
       </c>
-      <c r="G21" s="4">
+      <c r="G21" s="12">
         <v>0.58060345999130247</v>
       </c>
-      <c r="H21" s="4">
+      <c r="H21" s="12">
         <v>0.51789895796745111</v>
       </c>
-      <c r="I21" s="4">
+      <c r="I21" s="12">
         <v>0.50817789378020128</v>
       </c>
-      <c r="J21" s="4">
+      <c r="J21" s="12">
         <v>0.45577592321673982</v>
       </c>
-      <c r="K21" s="4">
+      <c r="K21" s="12">
         <v>0.39689878234398784</v>
       </c>
-      <c r="L21" s="4">
+      <c r="L21" s="12">
         <v>0.49062708966202406</v>
       </c>
-      <c r="M21" s="4">
+      <c r="M21" s="12">
         <v>0.66323341166580696</v>
       </c>
-      <c r="N21" s="4">
+      <c r="N21" s="12">
         <v>0.77452303165778269</v>
       </c>
-      <c r="O21" s="4">
+      <c r="O21" s="12">
         <v>0.79303342503964391</v>
       </c>
-      <c r="P21" s="4">
+      <c r="P21" s="12">
         <v>0.68525201055442331</v>
       </c>
-      <c r="Q21" s="4">
+      <c r="Q21" s="12">
         <v>0.71948539286786417</v>
       </c>
-      <c r="R21" s="4">
+      <c r="R21" s="12">
         <v>0.74140047558104627</v>
       </c>
-      <c r="S21" s="4">
+      <c r="S21" s="12">
         <v>0.64020271817459351</v>
       </c>
-      <c r="T21" s="4">
+      <c r="T21" s="12">
         <v>0.64339010789186557</v>
       </c>
-      <c r="U21" s="4">
+      <c r="U21" s="12">
         <v>0.67310451771931945</v>
       </c>
-      <c r="V21" s="4">
+      <c r="V21" s="12">
         <v>0.76796527525221903</v>
       </c>
-      <c r="W21" s="4">
+      <c r="W21" s="12">
         <v>0.74166944478118557</v>
       </c>
-      <c r="X21" s="4">
+      <c r="X21" s="12">
         <v>0.7879624297894694</v>
       </c>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.45">
-      <c r="A22" t="s">
+    <row r="22" spans="1:25" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A22" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="B22" s="4">
+      <c r="B22" s="14">
         <v>0.17720087513261917</v>
       </c>
-      <c r="C22" s="4">
+      <c r="C22" s="14">
         <v>0.17550509108599993</v>
       </c>
-      <c r="D22" s="4">
+      <c r="D22" s="14">
         <v>0.18528032422869742</v>
       </c>
-      <c r="E22" s="4">
+      <c r="E22" s="14">
         <v>0.18296467118150853</v>
       </c>
-      <c r="F22" s="4">
+      <c r="F22" s="14">
         <v>0.15907203986845228</v>
       </c>
-      <c r="G22" s="4">
+      <c r="G22" s="14">
         <v>0.14242484796911359</v>
       </c>
-      <c r="H22" s="4">
+      <c r="H22" s="14">
         <v>0.15141467605032932</v>
       </c>
-      <c r="I22" s="4">
+      <c r="I22" s="14">
         <v>0.1532892015016751</v>
       </c>
-      <c r="J22" s="4">
+      <c r="J22" s="14">
         <v>0.16448877281244687</v>
       </c>
-      <c r="K22" s="4">
+      <c r="K22" s="14">
         <v>0.1556085545319251</v>
       </c>
-      <c r="L22" s="4">
+      <c r="L22" s="14">
         <v>0.12802567443430526</v>
       </c>
-      <c r="M22" s="4">
+      <c r="M22" s="14">
         <v>0.10811299533641031</v>
       </c>
-      <c r="N22" s="4">
+      <c r="N22" s="14">
         <v>8.9479674830827402E-2</v>
       </c>
-      <c r="O22" s="4">
+      <c r="O22" s="14">
         <v>9.8629874465586215E-2</v>
       </c>
-      <c r="P22" s="4">
+      <c r="P22" s="14">
         <v>9.7348308588321997E-2</v>
       </c>
-      <c r="Q22" s="4">
+      <c r="Q22" s="14">
         <v>9.4034176456629232E-2</v>
       </c>
-      <c r="R22" s="4">
+      <c r="R22" s="14">
         <v>7.6304742744512793E-2</v>
       </c>
-      <c r="S22" s="4">
+      <c r="S22" s="14">
         <v>7.7298498516814765E-2</v>
       </c>
-      <c r="T22" s="4">
+      <c r="T22" s="14">
         <v>5.8998220557805604E-2</v>
       </c>
-      <c r="U22" s="4">
+      <c r="U22" s="14">
         <v>4.2524667780158308E-2</v>
       </c>
-      <c r="V22" s="4">
+      <c r="V22" s="14">
         <v>2.1405234787563447E-2</v>
       </c>
-      <c r="W22" s="4">
+      <c r="W22" s="14">
         <v>2.486717047371282E-2</v>
       </c>
-      <c r="X22" s="4">
+      <c r="X22" s="14">
         <v>2.4708099525161863E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.45">
-      <c r="A23" t="s">
+    <row r="23" spans="1:25" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A23" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4">
+      <c r="B23" s="12"/>
+      <c r="C23" s="12">
         <v>0.15410443297735871</v>
       </c>
-      <c r="D23" s="4">
+      <c r="D23" s="12">
         <v>0.15411384538901315</v>
       </c>
-      <c r="E23" s="4">
+      <c r="E23" s="12">
         <v>0.15411320842128429</v>
       </c>
-      <c r="F23" s="4">
+      <c r="F23" s="12">
         <v>0.1541168973158169</v>
       </c>
-      <c r="G23" s="4">
+      <c r="G23" s="12">
         <v>0.1541125620553008</v>
       </c>
-      <c r="H23" s="4">
+      <c r="H23" s="12">
         <v>0.15410710199858738</v>
       </c>
-      <c r="I23" s="4">
+      <c r="I23" s="12">
         <v>0.15659276568267702</v>
       </c>
-      <c r="J23" s="4">
+      <c r="J23" s="12">
         <v>0.15410995196870808</v>
       </c>
-      <c r="K23" s="4">
+      <c r="K23" s="12">
         <v>0.13530737627185596</v>
       </c>
-      <c r="L23" s="4">
+      <c r="L23" s="12">
         <v>0.11570591304034018</v>
       </c>
-      <c r="M23" s="4">
+      <c r="M23" s="12">
         <v>6.296530820143173E-2</v>
       </c>
-      <c r="N23" s="4">
+      <c r="N23" s="12">
         <v>0.11346214529445367</v>
       </c>
-      <c r="O23" s="4">
+      <c r="O23" s="12">
         <v>0.12030836176353334</v>
       </c>
-      <c r="P23" s="4">
+      <c r="P23" s="12">
         <v>9.3852233882114999E-2</v>
       </c>
-      <c r="Q23" s="4">
+      <c r="Q23" s="12">
         <v>0.11991091410355517</v>
       </c>
-      <c r="R23" s="4">
+      <c r="R23" s="12">
         <v>0.11649130783487328</v>
       </c>
-      <c r="S23" s="4">
+      <c r="S23" s="12">
         <v>0.11339457449910567</v>
       </c>
-      <c r="T23" s="4">
+      <c r="T23" s="12">
         <v>0.12919793014915235</v>
       </c>
-      <c r="U23" s="4">
+      <c r="U23" s="12">
         <v>0.14227518526568148</v>
       </c>
-      <c r="V23" s="4">
+      <c r="V23" s="12">
         <v>0.15841134011670518</v>
       </c>
-      <c r="W23" s="4">
+      <c r="W23" s="12">
         <v>0.15137910145487501</v>
       </c>
-      <c r="X23" s="4">
+      <c r="X23" s="12">
         <v>0.15060599528352506</v>
       </c>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.45">
-      <c r="A24" t="s">
+    <row r="24" spans="1:25" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A24" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B24" s="4">
+      <c r="B24" s="14">
         <v>0.16000004852508018</v>
       </c>
-      <c r="C24" s="4">
+      <c r="C24" s="14">
         <v>0.11224565216756209</v>
       </c>
-      <c r="D24" s="4">
+      <c r="D24" s="14">
         <v>0.15678704856787049</v>
       </c>
-      <c r="E24" s="4">
+      <c r="E24" s="14">
         <v>0.11830964878590024</v>
       </c>
-      <c r="F24" s="4">
+      <c r="F24" s="14">
         <v>0.1174508141457906</v>
       </c>
-      <c r="G24" s="4">
+      <c r="G24" s="14">
         <v>0.14319582799232278</v>
       </c>
-      <c r="H24" s="4">
+      <c r="H24" s="14">
         <v>0.12425463761356775</v>
       </c>
-      <c r="I24" s="4">
+      <c r="I24" s="14">
         <v>0.13660247177874596</v>
       </c>
-      <c r="J24" s="4">
+      <c r="J24" s="14">
         <v>0.13190552615066375</v>
       </c>
-      <c r="K24" s="4">
+      <c r="K24" s="14">
         <v>0.15250343249427917</v>
       </c>
-      <c r="L24" s="4">
+      <c r="L24" s="14">
         <v>0.13943871705568114</v>
       </c>
-      <c r="M24" s="4">
+      <c r="M24" s="14">
         <v>0.13778601609109956</v>
       </c>
-      <c r="N24" s="4">
+      <c r="N24" s="14">
         <v>0.15222622568771019</v>
       </c>
-      <c r="O24" s="4">
+      <c r="O24" s="14">
         <v>0.15269918258186849</v>
       </c>
-      <c r="P24" s="4">
+      <c r="P24" s="14">
         <v>0.13839388059193961</v>
       </c>
-      <c r="Q24" s="4">
+      <c r="Q24" s="14">
         <v>0.14502662781202258</v>
       </c>
-      <c r="R24" s="4">
+      <c r="R24" s="14">
         <v>0.14427542004685923</v>
       </c>
-      <c r="S24" s="4">
+      <c r="S24" s="14">
         <v>0.16566242312279042</v>
       </c>
-      <c r="T24" s="4">
+      <c r="T24" s="14">
         <v>0.17795028991560258</v>
       </c>
-      <c r="U24" s="4">
+      <c r="U24" s="14">
         <v>0.19080736612574969</v>
       </c>
-      <c r="V24" s="4">
+      <c r="V24" s="14">
         <v>0.18806181018385656</v>
       </c>
-      <c r="W24" s="4">
+      <c r="W24" s="14">
         <v>0.17741991108220906</v>
       </c>
-      <c r="X24" s="4">
+      <c r="X24" s="14">
         <v>0.18903531409943225</v>
       </c>
     </row>
-    <row r="30" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A30" s="6" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.45">
-      <c r="A31" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="B31" s="7">
+    <row r="28" spans="1:25" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A28" s="9" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="29" spans="1:25" ht="19.149999999999999" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="A29" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="B29" s="10">
         <v>2000</v>
       </c>
-      <c r="C31" s="7">
+      <c r="C29" s="10">
         <v>2001</v>
       </c>
-      <c r="D31" s="7">
+      <c r="D29" s="10">
         <v>2002</v>
       </c>
-      <c r="E31" s="7">
+      <c r="E29" s="10">
         <v>2003</v>
       </c>
-      <c r="F31" s="7">
+      <c r="F29" s="10">
         <v>2004</v>
       </c>
-      <c r="G31" s="7">
+      <c r="G29" s="10">
         <v>2005</v>
       </c>
-      <c r="H31" s="7">
+      <c r="H29" s="10">
         <v>2006</v>
       </c>
-      <c r="I31" s="7">
+      <c r="I29" s="10">
         <v>2007</v>
       </c>
-      <c r="J31" s="7">
+      <c r="J29" s="10">
         <v>2008</v>
       </c>
-      <c r="K31" s="7">
+      <c r="K29" s="10">
         <v>2009</v>
       </c>
-      <c r="L31" s="7">
+      <c r="L29" s="10">
         <v>2010</v>
       </c>
-      <c r="M31" s="7">
+      <c r="M29" s="10">
         <v>2011</v>
       </c>
-      <c r="N31" s="7">
+      <c r="N29" s="10">
         <v>2012</v>
       </c>
-      <c r="O31" s="7">
+      <c r="O29" s="10">
         <v>2013</v>
       </c>
-      <c r="P31" s="7">
+      <c r="P29" s="10">
         <v>2014</v>
       </c>
-      <c r="Q31" s="7">
+      <c r="Q29" s="10">
         <v>2015</v>
       </c>
-      <c r="R31" s="7">
+      <c r="R29" s="10">
         <v>2016</v>
       </c>
-      <c r="S31" s="7">
+      <c r="S29" s="10">
         <v>2017</v>
       </c>
-      <c r="T31" s="7">
+      <c r="T29" s="10">
         <v>2018</v>
       </c>
-      <c r="U31" s="7">
+      <c r="U29" s="10">
         <v>2019</v>
       </c>
-      <c r="V31" s="7">
+      <c r="V29" s="10">
         <v>2020</v>
       </c>
-      <c r="W31" s="7">
+      <c r="W29" s="10">
         <v>2021</v>
       </c>
-      <c r="X31" s="7">
+      <c r="X29" s="10">
         <v>2022</v>
       </c>
-      <c r="Y31" s="7">
+      <c r="Y29" s="10">
         <v>2023</v>
       </c>
     </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.45">
-      <c r="A32" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="B32" s="8">
-        <v>571.39</v>
-      </c>
-      <c r="C32" s="8">
-        <v>586.08999999999992</v>
-      </c>
-      <c r="D32" s="8">
-        <v>609.64</v>
-      </c>
-      <c r="E32" s="8">
-        <v>638.13</v>
-      </c>
-      <c r="F32" s="8">
-        <v>698.31999999999994</v>
-      </c>
-      <c r="G32" s="8">
-        <v>704.5200000000001</v>
-      </c>
-      <c r="H32" s="8">
-        <v>744.42999999999984</v>
-      </c>
-      <c r="I32" s="8">
-        <v>796.25999999999988</v>
-      </c>
-      <c r="J32" s="8">
-        <v>828.41000000000008</v>
-      </c>
-      <c r="K32" s="8">
-        <v>879.71</v>
-      </c>
-      <c r="L32" s="8">
-        <v>937.46999999999991</v>
-      </c>
-      <c r="M32" s="8">
-        <v>1034</v>
-      </c>
-      <c r="N32" s="8">
-        <v>1091.8400000000001</v>
-      </c>
-      <c r="O32" s="8">
-        <v>1146.1400000000001</v>
-      </c>
-      <c r="P32" s="8">
-        <v>1262.2199999999998</v>
-      </c>
-      <c r="Q32" s="8">
-        <v>1322.1</v>
-      </c>
-      <c r="R32" s="8">
-        <v>1401.7399999999998</v>
-      </c>
-      <c r="S32" s="8">
-        <v>1471.33</v>
-      </c>
-      <c r="T32" s="8">
-        <v>1579.1799999999998</v>
-      </c>
-      <c r="U32" s="8">
-        <v>1622.1</v>
-      </c>
-      <c r="V32" s="8">
-        <v>1581.9399999999998</v>
-      </c>
-      <c r="W32" s="8">
-        <v>1695.51</v>
-      </c>
-      <c r="X32" s="8">
-        <v>1829.3</v>
-      </c>
-      <c r="Y32" s="8">
-        <v>1958.2399999999998</v>
-      </c>
-    </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.45">
-      <c r="A33" t="s">
-        <v>57</v>
-      </c>
-      <c r="B33" s="9">
+    <row r="30" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A30" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="B30" s="15">
+        <v>0.35</v>
+      </c>
+      <c r="C30" s="15">
+        <v>0.42</v>
+      </c>
+      <c r="D30" s="15">
+        <v>0.48</v>
+      </c>
+      <c r="E30" s="15">
+        <v>0.61</v>
+      </c>
+      <c r="F30" s="15">
+        <v>0.75</v>
+      </c>
+      <c r="G30" s="15">
+        <v>0.94</v>
+      </c>
+      <c r="H30" s="15">
+        <v>1.22</v>
+      </c>
+      <c r="I30" s="15">
+        <v>1.51</v>
+      </c>
+      <c r="J30" s="15">
+        <v>2.17</v>
+      </c>
+      <c r="K30" s="15">
+        <v>2.46</v>
+      </c>
+      <c r="L30" s="15">
+        <v>3.08</v>
+      </c>
+      <c r="M30" s="16">
+        <v>3.6</v>
+      </c>
+      <c r="N30" s="16">
+        <v>3.84</v>
+      </c>
+      <c r="O30" s="16">
+        <v>4.08</v>
+      </c>
+      <c r="P30" s="16">
+        <v>4.91</v>
+      </c>
+      <c r="Q30" s="16">
+        <v>5.34</v>
+      </c>
+      <c r="R30" s="16">
+        <v>8.76</v>
+      </c>
+      <c r="S30" s="16">
+        <v>9.27</v>
+      </c>
+      <c r="T30" s="16">
+        <v>9.98</v>
+      </c>
+      <c r="U30" s="16">
+        <v>10.06</v>
+      </c>
+      <c r="V30" s="16">
+        <v>10.35</v>
+      </c>
+      <c r="W30" s="16">
+        <v>10.37</v>
+      </c>
+      <c r="X30" s="16">
+        <v>10.41</v>
+      </c>
+      <c r="Y30" s="16">
+        <v>10.46</v>
+      </c>
+    </row>
+    <row r="31" spans="1:25" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A31" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B31" s="17">
+        <v>62.17</v>
+      </c>
+      <c r="C31" s="17">
+        <v>63.17</v>
+      </c>
+      <c r="D31" s="17">
+        <v>64.209999999999994</v>
+      </c>
+      <c r="E31" s="17">
+        <v>65.83</v>
+      </c>
+      <c r="F31" s="17">
+        <v>66.319999999999993</v>
+      </c>
+      <c r="G31" s="17">
+        <v>69.64</v>
+      </c>
+      <c r="H31" s="17">
+        <v>71.930000000000007</v>
+      </c>
+      <c r="I31" s="17">
+        <v>77.14</v>
+      </c>
+      <c r="J31" s="17">
+        <v>82.33</v>
+      </c>
+      <c r="K31" s="17">
+        <v>87.79</v>
+      </c>
+      <c r="L31" s="17">
+        <v>99.04</v>
+      </c>
+      <c r="M31" s="18">
+        <v>113.4</v>
+      </c>
+      <c r="N31" s="18">
+        <v>131.56</v>
+      </c>
+      <c r="O31" s="18">
+        <v>149.36000000000001</v>
+      </c>
+      <c r="P31" s="18">
+        <v>169.52</v>
+      </c>
+      <c r="Q31" s="18">
+        <v>189.57</v>
+      </c>
+      <c r="R31" s="18">
+        <v>207.07</v>
+      </c>
+      <c r="S31" s="18">
+        <v>212.46</v>
+      </c>
+      <c r="T31" s="18">
+        <v>217.98</v>
+      </c>
+      <c r="U31" s="18">
+        <v>225.62</v>
+      </c>
+      <c r="V31" s="18">
+        <v>225.83</v>
+      </c>
+      <c r="W31" s="18">
+        <v>231.14</v>
+      </c>
+      <c r="X31" s="18">
+        <v>232.17</v>
+      </c>
+      <c r="Y31" s="18">
+        <v>237.64</v>
+      </c>
+    </row>
+    <row r="32" spans="1:25" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A32" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B32" s="15">
+        <v>12.61</v>
+      </c>
+      <c r="C32" s="15">
+        <v>13.42</v>
+      </c>
+      <c r="D32" s="15">
+        <v>14.03</v>
+      </c>
+      <c r="E32" s="15">
+        <v>14.38</v>
+      </c>
+      <c r="F32" s="15">
+        <v>14.59</v>
+      </c>
+      <c r="G32" s="15">
+        <v>15.51</v>
+      </c>
+      <c r="H32" s="15">
+        <v>16.64</v>
+      </c>
+      <c r="I32" s="15">
+        <v>18.59</v>
+      </c>
+      <c r="J32" s="15">
+        <v>18.649999999999999</v>
+      </c>
+      <c r="K32" s="15">
+        <v>21.24</v>
+      </c>
+      <c r="L32" s="15">
+        <v>22.35</v>
+      </c>
+      <c r="M32" s="16">
+        <v>24.06</v>
+      </c>
+      <c r="N32" s="16">
+        <v>23.75</v>
+      </c>
+      <c r="O32" s="16">
+        <v>26.47</v>
+      </c>
+      <c r="P32" s="16">
+        <v>28.14</v>
+      </c>
+      <c r="Q32" s="16">
+        <v>30.17</v>
+      </c>
+      <c r="R32" s="16">
+        <v>31.37</v>
+      </c>
+      <c r="S32" s="16">
+        <v>32.04</v>
+      </c>
+      <c r="T32" s="16">
+        <v>33.32</v>
+      </c>
+      <c r="U32" s="16">
+        <v>32.619999999999997</v>
+      </c>
+      <c r="V32" s="16">
+        <v>32.31</v>
+      </c>
+      <c r="W32" s="16">
+        <v>32.29</v>
+      </c>
+      <c r="X32" s="16">
+        <v>32.22</v>
+      </c>
+      <c r="Y32" s="16">
+        <v>32.44</v>
+      </c>
+    </row>
+    <row r="33" spans="1:25" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A33" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B33" s="17">
+        <v>23.71</v>
+      </c>
+      <c r="C33" s="17">
+        <v>24.68</v>
+      </c>
+      <c r="D33" s="17">
+        <v>24.73</v>
+      </c>
+      <c r="E33" s="17">
+        <v>27.18</v>
+      </c>
+      <c r="F33" s="17">
+        <v>28.62</v>
+      </c>
+      <c r="G33" s="17">
+        <v>30.96</v>
+      </c>
+      <c r="H33" s="17">
+        <v>33.04</v>
+      </c>
+      <c r="I33" s="17">
+        <v>34</v>
+      </c>
+      <c r="J33" s="17">
+        <v>34.69</v>
+      </c>
+      <c r="K33" s="17">
+        <v>34.78</v>
+      </c>
+      <c r="L33" s="17">
+        <v>35.869999999999997</v>
+      </c>
+      <c r="M33" s="18">
+        <v>37.630000000000003</v>
+      </c>
+      <c r="N33" s="18">
+        <v>38.25</v>
+      </c>
+      <c r="O33" s="18">
+        <v>39.39</v>
+      </c>
+      <c r="P33" s="18">
+        <v>40.619999999999997</v>
+      </c>
+      <c r="Q33" s="18">
+        <v>42.32</v>
+      </c>
+      <c r="R33" s="18">
+        <v>42.84</v>
+      </c>
+      <c r="S33" s="18">
+        <v>44.74</v>
+      </c>
+      <c r="T33" s="18">
+        <v>45.32</v>
+      </c>
+      <c r="U33" s="18">
+        <v>45.49</v>
+      </c>
+      <c r="V33" s="18">
+        <v>45.98</v>
+      </c>
+      <c r="W33" s="18">
+        <v>46.78</v>
+      </c>
+      <c r="X33" s="18">
+        <v>47.22</v>
+      </c>
+      <c r="Y33" s="18">
+        <v>47.33</v>
+      </c>
+    </row>
+    <row r="34" spans="1:25" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A34" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B34" s="15">
+        <v>2.86</v>
+      </c>
+      <c r="C34" s="15">
+        <v>2.72</v>
+      </c>
+      <c r="D34" s="15">
+        <v>2.72</v>
+      </c>
+      <c r="E34" s="15">
+        <v>2.72</v>
+      </c>
+      <c r="F34" s="15">
+        <v>2.77</v>
+      </c>
+      <c r="G34" s="15">
+        <v>3.36</v>
+      </c>
+      <c r="H34" s="15">
+        <v>3.9</v>
+      </c>
+      <c r="I34" s="15">
+        <v>4.12</v>
+      </c>
+      <c r="J34" s="15">
+        <v>4.12</v>
+      </c>
+      <c r="K34" s="15">
+        <v>4.5599999999999996</v>
+      </c>
+      <c r="L34" s="15">
+        <v>4.78</v>
+      </c>
+      <c r="M34" s="16">
+        <v>4.78</v>
+      </c>
+      <c r="N34" s="16">
+        <v>4.78</v>
+      </c>
+      <c r="O34" s="16">
+        <v>4.78</v>
+      </c>
+      <c r="P34" s="16">
+        <v>5.78</v>
+      </c>
+      <c r="Q34" s="16">
+        <v>5.78</v>
+      </c>
+      <c r="R34" s="16">
+        <v>5.78</v>
+      </c>
+      <c r="S34" s="16">
+        <v>6.78</v>
+      </c>
+      <c r="T34" s="16">
+        <v>6.78</v>
+      </c>
+      <c r="U34" s="16">
+        <v>6.78</v>
+      </c>
+      <c r="V34" s="16">
+        <v>6.78</v>
+      </c>
+      <c r="W34" s="16">
+        <v>6.78</v>
+      </c>
+      <c r="X34" s="16">
+        <v>6.78</v>
+      </c>
+      <c r="Y34" s="16">
+        <v>7.48</v>
+      </c>
+    </row>
+    <row r="35" spans="1:25" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A35" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B35" s="17">
+        <v>6.79</v>
+      </c>
+      <c r="C35" s="17">
+        <v>7.06</v>
+      </c>
+      <c r="D35" s="17">
+        <v>7.43</v>
+      </c>
+      <c r="E35" s="17">
+        <v>7.8</v>
+      </c>
+      <c r="F35" s="17">
+        <v>8.16</v>
+      </c>
+      <c r="G35" s="17">
+        <v>8.56</v>
+      </c>
+      <c r="H35" s="17">
+        <v>8.8800000000000008</v>
+      </c>
+      <c r="I35" s="17">
+        <v>9.66</v>
+      </c>
+      <c r="J35" s="17">
+        <v>9.9700000000000006</v>
+      </c>
+      <c r="K35" s="17">
+        <v>10.53</v>
+      </c>
+      <c r="L35" s="17">
+        <v>10.87</v>
+      </c>
+      <c r="M35" s="18">
+        <v>11.16</v>
+      </c>
+      <c r="N35" s="18">
+        <v>12.14</v>
+      </c>
+      <c r="O35" s="18">
+        <v>12.67</v>
+      </c>
+      <c r="P35" s="18">
+        <v>13.19</v>
+      </c>
+      <c r="Q35" s="18">
+        <v>13.39</v>
+      </c>
+      <c r="R35" s="18">
+        <v>14.08</v>
+      </c>
+      <c r="S35" s="18">
+        <v>14.18</v>
+      </c>
+      <c r="T35" s="18">
+        <v>15.76</v>
+      </c>
+      <c r="U35" s="18">
+        <v>14.15</v>
+      </c>
+      <c r="V35" s="18">
+        <v>17.059999999999999</v>
+      </c>
+      <c r="W35" s="18">
+        <v>18.39</v>
+      </c>
+      <c r="X35" s="18">
+        <v>18.55</v>
+      </c>
+      <c r="Y35" s="18">
+        <v>18.579999999999998</v>
+      </c>
+    </row>
+    <row r="36" spans="1:25" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A36" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B36" s="15">
+        <v>0</v>
+      </c>
+      <c r="C36" s="15">
+        <v>0.01</v>
+      </c>
+      <c r="D36" s="15">
+        <v>0.01</v>
+      </c>
+      <c r="E36" s="15">
+        <v>0.01</v>
+      </c>
+      <c r="F36" s="15">
+        <v>0.01</v>
+      </c>
+      <c r="G36" s="15">
+        <v>0.01</v>
+      </c>
+      <c r="H36" s="15">
+        <v>0.01</v>
+      </c>
+      <c r="I36" s="15">
+        <v>0.03</v>
+      </c>
+      <c r="J36" s="15">
+        <v>0.03</v>
+      </c>
+      <c r="K36" s="15">
+        <v>0.04</v>
+      </c>
+      <c r="L36" s="15">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="M36" s="16">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="N36" s="16">
+        <v>0.99</v>
+      </c>
+      <c r="O36" s="16">
+        <v>1.6</v>
+      </c>
+      <c r="P36" s="16">
+        <v>3.78</v>
+      </c>
+      <c r="Q36" s="16">
+        <v>5.7</v>
+      </c>
+      <c r="R36" s="16">
+        <v>9.98</v>
+      </c>
+      <c r="S36" s="16">
+        <v>18.260000000000002</v>
+      </c>
+      <c r="T36" s="16">
+        <v>27.48</v>
+      </c>
+      <c r="U36" s="16">
+        <v>35.25</v>
+      </c>
+      <c r="V36" s="16">
+        <v>39.71</v>
+      </c>
+      <c r="W36" s="16">
+        <v>49.95</v>
+      </c>
+      <c r="X36" s="16">
+        <v>63.39</v>
+      </c>
+      <c r="Y36" s="16">
+        <v>73.11</v>
+      </c>
+    </row>
+    <row r="37" spans="1:25" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A37" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B37" s="17">
+        <v>0.94</v>
+      </c>
+      <c r="C37" s="17">
+        <v>1.56</v>
+      </c>
+      <c r="D37" s="17">
+        <v>1.61</v>
+      </c>
+      <c r="E37" s="17">
+        <v>2.46</v>
+      </c>
+      <c r="F37" s="17">
+        <v>3.81</v>
+      </c>
+      <c r="G37" s="17">
+        <v>4.43</v>
+      </c>
+      <c r="H37" s="17">
+        <v>6.32</v>
+      </c>
+      <c r="I37" s="17">
+        <v>7.84</v>
+      </c>
+      <c r="J37" s="17">
+        <v>10.24</v>
+      </c>
+      <c r="K37" s="17">
+        <v>10.93</v>
+      </c>
+      <c r="L37" s="17">
+        <v>13.18</v>
+      </c>
+      <c r="M37" s="18">
+        <v>16.18</v>
+      </c>
+      <c r="N37" s="18">
+        <v>17.3</v>
+      </c>
+      <c r="O37" s="18">
+        <v>18.420000000000002</v>
+      </c>
+      <c r="P37" s="18">
+        <v>22.47</v>
+      </c>
+      <c r="Q37" s="18">
+        <v>25.09</v>
+      </c>
+      <c r="R37" s="18">
+        <v>28.7</v>
+      </c>
+      <c r="S37" s="18">
+        <v>32.85</v>
+      </c>
+      <c r="T37" s="18">
+        <v>35.29</v>
+      </c>
+      <c r="U37" s="18">
+        <v>37.51</v>
+      </c>
+      <c r="V37" s="18">
+        <v>38.56</v>
+      </c>
+      <c r="W37" s="18">
+        <v>40.07</v>
+      </c>
+      <c r="X37" s="18">
+        <v>41.93</v>
+      </c>
+      <c r="Y37" s="18">
+        <v>44.74</v>
+      </c>
+    </row>
+    <row r="41" spans="1:25" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A41" s="9" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="42" spans="1:25" ht="19.149999999999999" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="A42" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="B42" s="10">
+        <v>2000</v>
+      </c>
+      <c r="C42" s="10">
+        <v>2001</v>
+      </c>
+      <c r="D42" s="10">
+        <v>2002</v>
+      </c>
+      <c r="E42" s="10">
+        <v>2003</v>
+      </c>
+      <c r="F42" s="10">
+        <v>2004</v>
+      </c>
+      <c r="G42" s="10">
+        <v>2005</v>
+      </c>
+      <c r="H42" s="10">
+        <v>2006</v>
+      </c>
+      <c r="I42" s="10">
+        <v>2007</v>
+      </c>
+      <c r="J42" s="10">
+        <v>2008</v>
+      </c>
+      <c r="K42" s="10">
+        <v>2009</v>
+      </c>
+      <c r="L42" s="10">
+        <v>2010</v>
+      </c>
+      <c r="M42" s="10">
+        <v>2011</v>
+      </c>
+      <c r="N42" s="10">
+        <v>2012</v>
+      </c>
+      <c r="O42" s="10">
+        <v>2013</v>
+      </c>
+      <c r="P42" s="10">
+        <v>2014</v>
+      </c>
+      <c r="Q42" s="10">
+        <v>2015</v>
+      </c>
+      <c r="R42" s="10">
+        <v>2016</v>
+      </c>
+      <c r="S42" s="10">
+        <v>2017</v>
+      </c>
+      <c r="T42" s="10">
+        <v>2018</v>
+      </c>
+      <c r="U42" s="10">
+        <v>2019</v>
+      </c>
+      <c r="V42" s="10">
+        <v>2020</v>
+      </c>
+      <c r="W42" s="10">
+        <v>2021</v>
+      </c>
+      <c r="X42" s="10">
+        <v>2022</v>
+      </c>
+      <c r="Y42" s="10">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="43" spans="1:25" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A43" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="B43" s="16">
         <v>1.69</v>
       </c>
-      <c r="C33" s="9">
+      <c r="C43" s="16">
         <v>2.0699999999999998</v>
       </c>
-      <c r="D33" s="9">
+      <c r="D43" s="16">
         <v>2.14</v>
       </c>
-      <c r="E33" s="9">
+      <c r="E43" s="16">
         <v>2.71</v>
       </c>
-      <c r="F33" s="9">
+      <c r="F43" s="16">
         <v>3.31</v>
       </c>
-      <c r="G33" s="9">
+      <c r="G43" s="16">
         <v>4.04</v>
       </c>
-      <c r="H33" s="9">
+      <c r="H43" s="16">
         <v>5.59</v>
       </c>
-      <c r="I33" s="9">
+      <c r="I43" s="16">
         <v>7.4</v>
       </c>
-      <c r="J33" s="9">
+      <c r="J43" s="16">
         <v>9.3000000000000007</v>
       </c>
-      <c r="K33" s="9">
+      <c r="K43" s="16">
         <v>11.64</v>
       </c>
-      <c r="L33" s="9">
+      <c r="L43" s="16">
         <v>14.3</v>
       </c>
-      <c r="M33" s="9">
+      <c r="M43" s="16">
         <v>17.14</v>
       </c>
-      <c r="N33" s="9">
+      <c r="N43" s="16">
         <v>19.940000000000001</v>
       </c>
-      <c r="O33" s="9">
+      <c r="O43" s="16">
         <v>22.48</v>
       </c>
-      <c r="P33" s="9">
+      <c r="P43" s="16">
         <v>24.68</v>
       </c>
-      <c r="Q33" s="9">
+      <c r="Q43" s="16">
         <v>30.62</v>
       </c>
-      <c r="R33" s="9">
+      <c r="R43" s="16">
         <v>24.82</v>
       </c>
-      <c r="S33" s="9">
+      <c r="S43" s="16">
         <v>24.91</v>
       </c>
-      <c r="T33" s="9">
+      <c r="T43" s="16">
         <v>27.22</v>
       </c>
-      <c r="U33" s="9">
+      <c r="U43" s="16">
         <v>31.51</v>
       </c>
-      <c r="V33" s="9">
+      <c r="V43" s="16">
         <v>32.86</v>
       </c>
-      <c r="W33" s="9">
+      <c r="W43" s="16">
         <v>35.5</v>
       </c>
-      <c r="X33" s="9">
+      <c r="X43" s="16">
         <v>38.57</v>
       </c>
-      <c r="Y33" s="9">
+      <c r="Y43" s="16">
         <v>37.28</v>
       </c>
     </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.45">
-      <c r="A34" t="s">
+    <row r="44" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A44" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B34" s="9">
+      <c r="B44" s="18">
         <v>390.23</v>
       </c>
-      <c r="C34" s="9">
+      <c r="C44" s="18">
         <v>408.29</v>
       </c>
-      <c r="D34" s="9">
+      <c r="D44" s="18">
         <v>426.7</v>
       </c>
-      <c r="E34" s="9">
+      <c r="E44" s="18">
         <v>441.47</v>
       </c>
-      <c r="F34" s="9">
+      <c r="F44" s="18">
         <v>463.01</v>
       </c>
-      <c r="G34" s="9">
+      <c r="G44" s="18">
         <v>478.48</v>
       </c>
-      <c r="H34" s="9">
+      <c r="H44" s="18">
         <v>505.46</v>
       </c>
-      <c r="I34" s="9">
+      <c r="I44" s="18">
         <v>533.27</v>
       </c>
-      <c r="J34" s="9">
+      <c r="J44" s="18">
         <v>573.12</v>
       </c>
-      <c r="K34" s="9">
+      <c r="K44" s="18">
         <v>611.11</v>
       </c>
-      <c r="L34" s="9">
+      <c r="L44" s="18">
         <v>642.97</v>
       </c>
-      <c r="M34" s="9">
+      <c r="M44" s="18">
         <v>701.25</v>
       </c>
-      <c r="N34" s="9">
+      <c r="N44" s="18">
         <v>787.13</v>
       </c>
-      <c r="O34" s="9">
+      <c r="O44" s="18">
         <v>847.97</v>
       </c>
-      <c r="P34" s="9">
+      <c r="P44" s="18">
         <v>949.93</v>
       </c>
-      <c r="Q34" s="9">
+      <c r="Q44" s="18">
         <v>1006.55</v>
       </c>
-      <c r="R34" s="9">
+      <c r="R44" s="18">
         <v>1073.5999999999999</v>
       </c>
-      <c r="S34" s="9">
+      <c r="S44" s="18">
         <v>1115.24</v>
       </c>
-      <c r="T34" s="9">
+      <c r="T44" s="18">
         <v>1198.8599999999999</v>
       </c>
-      <c r="U34" s="9">
+      <c r="U44" s="18">
         <v>1198.76</v>
       </c>
-      <c r="V34" s="9">
+      <c r="V44" s="18">
         <v>1143.78</v>
       </c>
-      <c r="W34" s="9">
+      <c r="W44" s="18">
         <v>1255.56</v>
       </c>
-      <c r="X34" s="9">
+      <c r="X44" s="18">
         <v>1354.23</v>
       </c>
-      <c r="Y34" s="9">
+      <c r="Y44" s="18">
         <v>1471.28</v>
       </c>
     </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.45">
-      <c r="A35" t="s">
+    <row r="45" spans="1:25" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A45" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B35" s="9">
+      <c r="B45" s="16">
         <v>55.96</v>
       </c>
-      <c r="C35" s="9">
+      <c r="C45" s="16">
         <v>55.93</v>
       </c>
-      <c r="D35" s="9">
+      <c r="D45" s="16">
         <v>62.88</v>
       </c>
-      <c r="E35" s="9">
+      <c r="E45" s="16">
         <v>72.8</v>
       </c>
-      <c r="F35" s="9">
+      <c r="F45" s="16">
         <v>76.58</v>
       </c>
-      <c r="G35" s="9">
+      <c r="G45" s="16">
         <v>75.47</v>
       </c>
-      <c r="H35" s="9">
+      <c r="H45" s="16">
         <v>74.7</v>
       </c>
-      <c r="I35" s="9">
+      <c r="I45" s="16">
         <v>90.05</v>
       </c>
-      <c r="J35" s="9">
+      <c r="J45" s="16">
         <v>85.88</v>
       </c>
-      <c r="K35" s="9">
+      <c r="K45" s="16">
         <v>104.37</v>
       </c>
-      <c r="L35" s="9">
+      <c r="L45" s="16">
         <v>118.03</v>
       </c>
-      <c r="M35" s="9">
+      <c r="M45" s="16">
         <v>117.56</v>
       </c>
-      <c r="N35" s="9">
+      <c r="N45" s="16">
         <v>96.25</v>
       </c>
-      <c r="O35" s="9">
+      <c r="O45" s="16">
         <v>66.31</v>
       </c>
-      <c r="P35" s="9">
+      <c r="P45" s="16">
         <v>64.010000000000005</v>
       </c>
-      <c r="Q35" s="9">
+      <c r="Q45" s="16">
         <v>64.77</v>
       </c>
-      <c r="R35" s="9">
+      <c r="R45" s="16">
         <v>72.62</v>
       </c>
-      <c r="S35" s="9">
+      <c r="S45" s="16">
         <v>74.989999999999995</v>
       </c>
-      <c r="T35" s="9">
+      <c r="T45" s="16">
         <v>71.260000000000005</v>
       </c>
-      <c r="U35" s="9">
+      <c r="U45" s="16">
         <v>71.95</v>
       </c>
-      <c r="V35" s="9">
+      <c r="V45" s="16">
         <v>74.790000000000006</v>
       </c>
-      <c r="W35" s="9">
+      <c r="W45" s="16">
         <v>60.4</v>
       </c>
-      <c r="X35" s="9">
+      <c r="X45" s="16">
         <v>46.48</v>
       </c>
-      <c r="Y35" s="9">
+      <c r="Y45" s="16">
         <v>52.61</v>
       </c>
     </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.45">
-      <c r="A36" t="s">
+    <row r="46" spans="1:25" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A46" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B36" s="9">
+      <c r="B46" s="18">
         <v>76.989999999999995</v>
       </c>
-      <c r="C36" s="9">
+      <c r="C46" s="18">
         <v>72.02</v>
       </c>
-      <c r="D36" s="9">
+      <c r="D46" s="18">
         <v>68.540000000000006</v>
       </c>
-      <c r="E36" s="9">
+      <c r="E46" s="18">
         <v>69.3</v>
       </c>
-      <c r="F36" s="9">
+      <c r="F46" s="18">
         <v>100.64</v>
       </c>
-      <c r="G36" s="9">
+      <c r="G46" s="18">
         <v>97.42</v>
       </c>
-      <c r="H36" s="9">
+      <c r="H46" s="18">
         <v>112.62</v>
       </c>
-      <c r="I36" s="9">
+      <c r="I46" s="18">
         <v>122.61</v>
       </c>
-      <c r="J36" s="9">
+      <c r="J46" s="18">
         <v>115.17</v>
       </c>
-      <c r="K36" s="9">
+      <c r="K46" s="18">
         <v>106.34</v>
       </c>
-      <c r="L36" s="9">
+      <c r="L46" s="18">
         <v>108.74</v>
       </c>
-      <c r="M36" s="9">
+      <c r="M46" s="18">
         <v>131.69999999999999</v>
       </c>
-      <c r="N36" s="9">
+      <c r="N46" s="18">
         <v>115.78</v>
       </c>
-      <c r="O36" s="9">
+      <c r="O46" s="18">
         <v>131.97999999999999</v>
       </c>
-      <c r="P36" s="9">
+      <c r="P46" s="18">
         <v>139</v>
       </c>
-      <c r="Q36" s="9">
+      <c r="Q46" s="18">
         <v>133.28</v>
       </c>
-      <c r="R36" s="9">
+      <c r="R46" s="18">
         <v>128.38</v>
       </c>
-      <c r="S36" s="9">
+      <c r="S46" s="18">
         <v>135.82</v>
       </c>
-      <c r="T36" s="9">
+      <c r="T46" s="18">
         <v>139.75</v>
       </c>
-      <c r="U36" s="9">
+      <c r="U46" s="18">
         <v>162.07</v>
       </c>
-      <c r="V36" s="9">
+      <c r="V46" s="18">
         <v>163.69999999999999</v>
       </c>
-      <c r="W36" s="9">
+      <c r="W46" s="18">
         <v>160.34</v>
       </c>
-      <c r="X36" s="9">
+      <c r="X46" s="18">
         <v>174.94</v>
       </c>
-      <c r="Y36" s="9">
+      <c r="Y46" s="18">
         <v>149.16999999999999</v>
       </c>
     </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.45">
-      <c r="A37" t="s">
+    <row r="47" spans="1:25" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A47" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="B37" s="9">
+      <c r="B47" s="16">
         <v>15.77</v>
       </c>
-      <c r="C37" s="9">
+      <c r="C47" s="16">
         <v>18.89</v>
       </c>
-      <c r="D37" s="9">
+      <c r="D47" s="16">
         <v>19.350000000000001</v>
       </c>
-      <c r="E37" s="9">
+      <c r="E47" s="16">
         <v>18.14</v>
       </c>
-      <c r="F37" s="9">
+      <c r="F47" s="16">
         <v>21.26</v>
       </c>
-      <c r="G37" s="9">
+      <c r="G47" s="16">
         <v>17.73</v>
       </c>
-      <c r="H37" s="9">
+      <c r="H47" s="16">
         <v>17.63</v>
       </c>
-      <c r="I37" s="9">
+      <c r="I47" s="16">
         <v>17.829999999999998</v>
       </c>
-      <c r="J37" s="9">
+      <c r="J47" s="16">
         <v>15.23</v>
       </c>
-      <c r="K37" s="9">
+      <c r="K47" s="16">
         <v>16.82</v>
       </c>
-      <c r="L37" s="9">
+      <c r="L47" s="16">
         <v>23.08</v>
       </c>
-      <c r="M37" s="9">
+      <c r="M47" s="16">
         <v>32.22</v>
       </c>
-      <c r="N37" s="9">
+      <c r="N47" s="16">
         <v>33.14</v>
       </c>
-      <c r="O37" s="9">
+      <c r="O47" s="16">
         <v>33.31</v>
       </c>
-      <c r="P37" s="9">
+      <c r="P47" s="16">
         <v>34.69</v>
       </c>
-      <c r="Q37" s="9">
+      <c r="Q47" s="16">
         <v>38.31</v>
       </c>
-      <c r="R37" s="9">
+      <c r="R47" s="16">
         <v>37.9</v>
       </c>
-      <c r="S37" s="9">
+      <c r="S47" s="16">
         <v>37.409999999999997</v>
       </c>
-      <c r="T37" s="9">
+      <c r="T47" s="16">
         <v>39.049999999999997</v>
       </c>
-      <c r="U37" s="9">
+      <c r="U47" s="16">
         <v>45.16</v>
       </c>
-      <c r="V37" s="9">
+      <c r="V47" s="16">
         <v>44.61</v>
       </c>
-      <c r="W37" s="9">
+      <c r="W47" s="16">
         <v>43.92</v>
       </c>
-      <c r="X37" s="9">
+      <c r="X47" s="16">
         <v>46.19</v>
       </c>
-      <c r="Y37" s="9">
+      <c r="Y47" s="16">
         <v>48.2</v>
       </c>
     </row>
-    <row r="38" spans="1:25" x14ac:dyDescent="0.45">
-      <c r="A38" t="s">
+    <row r="48" spans="1:25" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A48" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="B38" s="9">
+      <c r="B48" s="18">
         <v>29.16</v>
       </c>
-      <c r="C38" s="9">
+      <c r="C48" s="18">
         <v>26.79</v>
       </c>
-      <c r="D38" s="9">
+      <c r="D48" s="18">
         <v>27.93</v>
       </c>
-      <c r="E38" s="9">
+      <c r="E48" s="18">
         <v>31.09</v>
       </c>
-      <c r="F38" s="9">
+      <c r="F48" s="18">
         <v>28.27</v>
       </c>
-      <c r="G38" s="9">
+      <c r="G48" s="18">
         <v>25.37</v>
       </c>
-      <c r="H38" s="9">
+      <c r="H48" s="18">
         <v>19.079999999999998</v>
       </c>
-      <c r="I38" s="9">
+      <c r="I48" s="18">
         <v>13.36</v>
       </c>
-      <c r="J38" s="9">
+      <c r="J48" s="18">
         <v>15.27</v>
       </c>
-      <c r="K38" s="9">
+      <c r="K48" s="18">
         <v>13.08</v>
       </c>
-      <c r="L38" s="9">
+      <c r="L48" s="18">
         <v>10.78</v>
       </c>
-      <c r="M38" s="9">
+      <c r="M48" s="18">
         <v>9.35</v>
       </c>
-      <c r="N38" s="9">
+      <c r="N48" s="18">
         <v>10.07</v>
       </c>
-      <c r="O38" s="9">
+      <c r="O48" s="18">
         <v>10.65</v>
       </c>
-      <c r="P38" s="9">
+      <c r="P48" s="18">
         <v>11.55</v>
       </c>
-      <c r="Q38" s="9">
+      <c r="Q48" s="18">
         <v>9.26</v>
       </c>
-      <c r="R38" s="9">
+      <c r="R48" s="18">
         <v>9.41</v>
       </c>
-      <c r="S38" s="9">
+      <c r="S48" s="18">
         <v>8.7899999999999991</v>
       </c>
-      <c r="T38" s="9">
+      <c r="T48" s="18">
         <v>6.4</v>
       </c>
-      <c r="U38" s="9">
+      <c r="U48" s="18">
         <v>3.07</v>
       </c>
-      <c r="V38" s="9">
+      <c r="V48" s="18">
         <v>3.09</v>
       </c>
-      <c r="W38" s="9">
+      <c r="W48" s="18">
         <v>3.39</v>
       </c>
-      <c r="X38" s="9">
+      <c r="X48" s="18">
         <v>3.68</v>
       </c>
-      <c r="Y38" s="9">
+      <c r="Y48" s="18">
         <v>4.18</v>
       </c>
     </row>
-    <row r="39" spans="1:25" x14ac:dyDescent="0.45">
-      <c r="A39" t="s">
+    <row r="49" spans="1:25" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A49" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B39" s="9">
+      <c r="B49" s="16">
         <v>0.01</v>
       </c>
-      <c r="C39" s="9">
+      <c r="C49" s="16">
         <v>0.01</v>
       </c>
-      <c r="D39" s="9">
+      <c r="D49" s="16">
         <v>0.01</v>
       </c>
-      <c r="E39" s="9">
+      <c r="E49" s="16">
         <v>0.02</v>
       </c>
-      <c r="F39" s="9">
+      <c r="F49" s="16">
         <v>0.02</v>
       </c>
-      <c r="G39" s="9">
+      <c r="G49" s="16">
         <v>0.02</v>
       </c>
-      <c r="H39" s="9">
+      <c r="H49" s="16">
         <v>0.01</v>
       </c>
-      <c r="I39" s="9">
+      <c r="I49" s="16">
         <v>0.06</v>
       </c>
-      <c r="J39" s="9">
+      <c r="J49" s="16">
         <v>0.06</v>
       </c>
-      <c r="K39" s="9">
+      <c r="K49" s="16">
         <v>0.08</v>
       </c>
-      <c r="L39" s="9">
+      <c r="L49" s="16">
         <v>0.11</v>
       </c>
-      <c r="M39" s="9">
+      <c r="M49" s="16">
         <v>0.83</v>
       </c>
-      <c r="N39" s="9">
+      <c r="N49" s="16">
         <v>2.1</v>
       </c>
-      <c r="O39" s="9">
+      <c r="O49" s="16">
         <v>3.43</v>
       </c>
-      <c r="P39" s="9">
+      <c r="P49" s="16">
         <v>4.91</v>
       </c>
-      <c r="Q39" s="9">
+      <c r="Q49" s="16">
         <v>6.57</v>
       </c>
-      <c r="R39" s="9">
+      <c r="R49" s="16">
         <v>11.56</v>
       </c>
-      <c r="S39" s="9">
+      <c r="S49" s="16">
         <v>21.54</v>
       </c>
-      <c r="T39" s="9">
+      <c r="T49" s="16">
         <v>36.33</v>
       </c>
-      <c r="U39" s="9">
+      <c r="U49" s="16">
         <v>46.27</v>
       </c>
-      <c r="V39" s="9">
+      <c r="V49" s="16">
         <v>58.68</v>
       </c>
-      <c r="W39" s="9">
+      <c r="W49" s="16">
         <v>68.31</v>
       </c>
-      <c r="X39" s="9">
+      <c r="X49" s="16">
         <v>95.16</v>
       </c>
-      <c r="Y39" s="9">
+      <c r="Y49" s="16">
         <v>113.41</v>
       </c>
     </row>
-    <row r="40" spans="1:25" x14ac:dyDescent="0.45">
-      <c r="A40" t="s">
+    <row r="50" spans="1:25" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A50" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B40" s="9">
+      <c r="B50" s="18">
         <v>1.58</v>
       </c>
-      <c r="C40" s="9">
+      <c r="C50" s="18">
         <v>2.09</v>
       </c>
-      <c r="D40" s="9">
+      <c r="D50" s="18">
         <v>2.09</v>
       </c>
-      <c r="E40" s="9">
+      <c r="E50" s="18">
         <v>2.6</v>
       </c>
-      <c r="F40" s="9">
+      <c r="F50" s="18">
         <v>5.23</v>
       </c>
-      <c r="G40" s="9">
+      <c r="G50" s="18">
         <v>5.99</v>
       </c>
-      <c r="H40" s="9">
+      <c r="H50" s="18">
         <v>9.34</v>
       </c>
-      <c r="I40" s="9">
+      <c r="I50" s="18">
         <v>11.68</v>
       </c>
-      <c r="J40" s="9">
+      <c r="J50" s="18">
         <v>14.38</v>
       </c>
-      <c r="K40" s="9">
+      <c r="K50" s="18">
         <v>16.27</v>
       </c>
-      <c r="L40" s="9">
+      <c r="L50" s="18">
         <v>19.46</v>
       </c>
-      <c r="M40" s="9">
+      <c r="M50" s="18">
         <v>23.95</v>
       </c>
-      <c r="N40" s="9">
+      <c r="N50" s="18">
         <v>27.43</v>
       </c>
-      <c r="O40" s="9">
+      <c r="O50" s="18">
         <v>30.01</v>
       </c>
-      <c r="P40" s="9">
+      <c r="P50" s="18">
         <v>33.450000000000003</v>
       </c>
-      <c r="Q40" s="9">
+      <c r="Q50" s="18">
         <v>32.74</v>
       </c>
-      <c r="R40" s="9">
+      <c r="R50" s="18">
         <v>43.45</v>
       </c>
-      <c r="S40" s="9">
+      <c r="S50" s="18">
         <v>52.63</v>
       </c>
-      <c r="T40" s="9">
+      <c r="T50" s="18">
         <v>60.31</v>
       </c>
-      <c r="U40" s="9">
+      <c r="U50" s="18">
         <v>63.31</v>
       </c>
-      <c r="V40" s="9">
+      <c r="V50" s="18">
         <v>60.43</v>
       </c>
-      <c r="W40" s="9">
+      <c r="W50" s="18">
         <v>68.09</v>
       </c>
-      <c r="X40" s="9">
+      <c r="X50" s="18">
         <v>70.05</v>
       </c>
-      <c r="Y40" s="9">
+      <c r="Y50" s="18">
         <v>82.11</v>
       </c>
     </row>
-    <row r="44" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A44" s="6" t="s">
+    <row r="54" spans="1:25" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A54" s="9" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="55" spans="1:25" ht="19.149999999999999" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="A55" s="10" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="45" spans="1:25" x14ac:dyDescent="0.45">
-      <c r="A45" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="B45" s="7">
+      <c r="B55" s="10">
         <v>2000</v>
       </c>
-      <c r="C45" s="7">
+      <c r="C55" s="10">
         <v>2001</v>
       </c>
-      <c r="D45" s="7">
+      <c r="D55" s="10">
         <v>2002</v>
       </c>
-      <c r="E45" s="7">
+      <c r="E55" s="10">
         <v>2003</v>
       </c>
-      <c r="F45" s="7">
+      <c r="F55" s="10">
         <v>2004</v>
       </c>
-      <c r="G45" s="7">
+      <c r="G55" s="10">
         <v>2005</v>
       </c>
-      <c r="H45" s="7">
+      <c r="H55" s="10">
         <v>2006</v>
       </c>
-      <c r="I45" s="7">
+      <c r="I55" s="10">
         <v>2007</v>
       </c>
-      <c r="J45" s="7">
+      <c r="J55" s="10">
         <v>2008</v>
       </c>
-      <c r="K45" s="7">
+      <c r="K55" s="10">
         <v>2009</v>
       </c>
-      <c r="L45" s="7">
+      <c r="L55" s="10">
         <v>2010</v>
       </c>
-      <c r="M45" s="7">
+      <c r="M55" s="10">
         <v>2011</v>
       </c>
-      <c r="N45" s="7">
+      <c r="N55" s="10">
         <v>2012</v>
       </c>
-      <c r="O45" s="7">
+      <c r="O55" s="10">
         <v>2013</v>
       </c>
-      <c r="P45" s="7">
+      <c r="P55" s="10">
         <v>2014</v>
       </c>
-      <c r="Q45" s="7">
+      <c r="Q55" s="10">
         <v>2015</v>
       </c>
-      <c r="R45" s="7">
+      <c r="R55" s="10">
         <v>2016</v>
       </c>
-      <c r="S45" s="7">
+      <c r="S55" s="10">
         <v>2017</v>
       </c>
-      <c r="T45" s="7">
+      <c r="T55" s="10">
         <v>2018</v>
       </c>
-      <c r="U45" s="7">
+      <c r="U55" s="10">
         <v>2019</v>
       </c>
-      <c r="V45" s="7">
+      <c r="V55" s="10">
         <v>2020</v>
       </c>
-      <c r="W45" s="7">
+      <c r="W55" s="10">
         <v>2021</v>
       </c>
-      <c r="X45" s="7">
+      <c r="X55" s="10">
         <v>2022</v>
       </c>
     </row>
-    <row r="46" spans="1:25" x14ac:dyDescent="0.45">
-      <c r="A46" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="B46" s="8">
-        <v>563.61920999999995</v>
-      </c>
-      <c r="C46" s="8">
-        <v>568.52094799999998</v>
-      </c>
-      <c r="D46" s="8">
-        <v>587.82039399999996</v>
-      </c>
-      <c r="E46" s="8">
-        <v>610.77497499999993</v>
-      </c>
-      <c r="F46" s="8">
-        <v>646.25317599999994</v>
-      </c>
-      <c r="G46" s="8">
-        <v>680.369463</v>
-      </c>
-      <c r="H46" s="8">
-        <v>721.78285200000005</v>
-      </c>
-      <c r="I46" s="8">
-        <v>776.38187500000004</v>
-      </c>
-      <c r="J46" s="8">
-        <v>820.38496800000007</v>
-      </c>
-      <c r="K46" s="8">
-        <v>857.42248800000004</v>
-      </c>
-      <c r="L46" s="8">
-        <v>921.28221099999996</v>
-      </c>
-      <c r="M46" s="8">
-        <v>988.91190400000005</v>
-      </c>
-      <c r="N46" s="8">
-        <v>1070.452575</v>
-      </c>
-      <c r="O46" s="8">
-        <v>1126.03774</v>
-      </c>
-      <c r="P46" s="8">
-        <v>1202.9179689999999</v>
-      </c>
-      <c r="Q46" s="8">
-        <v>1294.1903179999999</v>
-      </c>
-      <c r="R46" s="8">
-        <v>1355.3692000000001</v>
-      </c>
-      <c r="S46" s="8">
-        <v>1428.1222829999999</v>
-      </c>
-      <c r="T46" s="8">
-        <v>1511.3393689999998</v>
-      </c>
-      <c r="U46" s="8">
-        <v>1597.655278</v>
-      </c>
-      <c r="V46" s="8">
-        <v>1619.7945120000002</v>
-      </c>
-      <c r="W46" s="8">
-        <v>1624.5931880000001</v>
-      </c>
-      <c r="X46" s="8">
-        <v>1735.3183390000002</v>
-      </c>
-    </row>
-    <row r="47" spans="1:25" x14ac:dyDescent="0.45">
-      <c r="A47" t="s">
-        <v>57</v>
-      </c>
-      <c r="B47" s="9">
+    <row r="56" spans="1:25" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A56" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="B56" s="16">
         <v>2.814441</v>
       </c>
-      <c r="C47" s="9">
+      <c r="C56" s="16">
         <v>2.9511509999999999</v>
       </c>
-      <c r="D47" s="9">
+      <c r="D56" s="16">
         <v>3.4832550000000002</v>
       </c>
-      <c r="E47" s="9">
+      <c r="E56" s="16">
         <v>4.1322770000000002</v>
       </c>
-      <c r="F47" s="9">
+      <c r="F56" s="16">
         <v>5.1441699999999999</v>
       </c>
-      <c r="G47" s="9">
+      <c r="G56" s="16">
         <v>6.1981600000000006</v>
       </c>
-      <c r="H47" s="9">
-        <v>7.3552390000000001</v>
-      </c>
-      <c r="I47" s="9">
+      <c r="H56" s="16">
+        <v>7.3552389999999992</v>
+      </c>
+      <c r="I56" s="16">
         <v>9.2891490000000001</v>
       </c>
-      <c r="J47" s="9">
-        <v>10.342782</v>
-      </c>
-      <c r="K47" s="9">
+      <c r="J56" s="16">
+        <v>10.342782000000001</v>
+      </c>
+      <c r="K56" s="16">
         <v>11.282382999999999</v>
       </c>
-      <c r="L47" s="9">
+      <c r="L56" s="16">
         <v>16.974319000000001</v>
       </c>
-      <c r="M47" s="9">
+      <c r="M56" s="16">
         <v>17.600090999999999</v>
       </c>
-      <c r="N47" s="9">
-        <v>23.914817999999997</v>
-      </c>
-      <c r="O47" s="9">
-        <v>28.613111999999997</v>
-      </c>
-      <c r="P47" s="9">
-        <v>33.236034000000004</v>
-      </c>
-      <c r="Q47" s="9">
-        <v>28.866459999999996</v>
-      </c>
-      <c r="R47" s="9">
-        <v>18.212264000000001</v>
-      </c>
-      <c r="S47" s="9">
+      <c r="N56" s="16">
+        <v>23.914818</v>
+      </c>
+      <c r="O56" s="16">
+        <v>28.613112000000001</v>
+      </c>
+      <c r="P56" s="16">
+        <v>33.236033999999997</v>
+      </c>
+      <c r="Q56" s="16">
+        <v>28.86646</v>
+      </c>
+      <c r="R56" s="16">
+        <v>18.212263999999998</v>
+      </c>
+      <c r="S56" s="16">
         <v>16.664293999999998</v>
       </c>
-      <c r="T47" s="9">
+      <c r="T56" s="16">
         <v>18.728638999999998</v>
       </c>
-      <c r="U47" s="9">
+      <c r="U56" s="16">
         <v>20.912963999999999</v>
       </c>
-      <c r="V47" s="9">
+      <c r="V56" s="16">
         <v>20.662521999999999</v>
       </c>
-      <c r="W47" s="9">
-        <v>22.253251000000002</v>
-      </c>
-      <c r="X47" s="9">
-        <v>24.551217999999999</v>
-      </c>
-    </row>
-    <row r="48" spans="1:25" x14ac:dyDescent="0.45">
-      <c r="A48" t="s">
+      <c r="W56" s="16">
+        <v>22.253250999999999</v>
+      </c>
+      <c r="X56" s="16">
+        <v>24.551218000000002</v>
+      </c>
+    </row>
+    <row r="57" spans="1:25" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A57" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B48" s="9">
+      <c r="B57" s="18">
         <v>398.14011999999997</v>
       </c>
-      <c r="C48" s="9">
+      <c r="C57" s="18">
         <v>402.047481</v>
       </c>
-      <c r="D48" s="9">
+      <c r="D57" s="18">
         <v>418.91692399999999</v>
       </c>
-      <c r="E48" s="9">
+      <c r="E57" s="18">
         <v>439.27336700000001</v>
       </c>
-      <c r="F48" s="9">
+      <c r="F57" s="18">
         <v>458.73731099999998</v>
       </c>
-      <c r="G48" s="9">
+      <c r="G57" s="18">
         <v>476.19325400000002</v>
       </c>
-      <c r="H48" s="9">
+      <c r="H57" s="18">
         <v>494.04950300000002</v>
       </c>
-      <c r="I48" s="9">
+      <c r="I57" s="18">
         <v>523.62525000000005</v>
       </c>
-      <c r="J48" s="9">
+      <c r="J57" s="18">
         <v>551.80562199999997</v>
       </c>
-      <c r="K48" s="9">
+      <c r="K57" s="18">
         <v>593.3918000000001</v>
       </c>
-      <c r="L48" s="9">
+      <c r="L57" s="18">
         <v>627.24084800000003</v>
       </c>
-      <c r="M48" s="9">
+      <c r="M57" s="18">
         <v>672.806332</v>
       </c>
-      <c r="N48" s="9">
+      <c r="N57" s="18">
         <v>739.146838</v>
       </c>
-      <c r="O48" s="9">
+      <c r="O57" s="18">
         <v>819.30900600000007</v>
       </c>
-      <c r="P48" s="9">
+      <c r="P57" s="18">
         <v>888.70661899999993</v>
       </c>
-      <c r="Q48" s="9">
+      <c r="Q57" s="18">
         <v>980.78397400000006</v>
       </c>
-      <c r="R48" s="9">
+      <c r="R57" s="18">
         <v>1044.4478120000001</v>
       </c>
-      <c r="S48" s="9">
+      <c r="S57" s="18">
         <v>1093.8221880000001</v>
       </c>
-      <c r="T48" s="9">
+      <c r="T57" s="18">
         <v>1149.472673</v>
       </c>
-      <c r="U48" s="9">
+      <c r="U57" s="18">
         <v>1204.822467</v>
       </c>
-      <c r="V48" s="9">
+      <c r="V57" s="18">
         <v>1193.453534</v>
       </c>
-      <c r="W48" s="9">
+      <c r="W57" s="18">
         <v>1195.393597</v>
       </c>
-      <c r="X48" s="9">
+      <c r="X57" s="18">
         <v>1287.1116669999999</v>
       </c>
     </row>
-    <row r="49" spans="1:25" x14ac:dyDescent="0.45">
-      <c r="A49" t="s">
+    <row r="58" spans="1:25" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A58" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B49" s="9">
+      <c r="B58" s="16">
         <v>59.268980999999997</v>
       </c>
-      <c r="C49" s="9">
+      <c r="C58" s="16">
         <v>59.128382999999999</v>
       </c>
-      <c r="D49" s="9">
+      <c r="D58" s="16">
         <v>60.233739999999997</v>
       </c>
-      <c r="E49" s="9">
+      <c r="E58" s="16">
         <v>66.255597999999992</v>
       </c>
-      <c r="F49" s="9">
+      <c r="F58" s="16">
         <v>71.606205000000003</v>
       </c>
-      <c r="G49" s="9">
+      <c r="G58" s="16">
         <v>74.643812999999994</v>
       </c>
-      <c r="H49" s="9">
+      <c r="H58" s="16">
         <v>75.710014000000001</v>
       </c>
-      <c r="I49" s="9">
+      <c r="I58" s="16">
         <v>83.348249999999993</v>
       </c>
-      <c r="J49" s="9">
+      <c r="J58" s="16">
         <v>93.201521999999997</v>
       </c>
-      <c r="K49" s="9">
+      <c r="K58" s="16">
         <v>94.20526799999999</v>
       </c>
-      <c r="L49" s="9">
+      <c r="L58" s="16">
         <v>116.02822999999999</v>
       </c>
-      <c r="M49" s="9">
+      <c r="M58" s="16">
         <v>115.646368</v>
       </c>
-      <c r="N49" s="9">
+      <c r="N58" s="16">
         <v>108.29788000000001</v>
       </c>
-      <c r="O49" s="9">
+      <c r="O58" s="16">
         <v>81.683047000000002</v>
       </c>
-      <c r="P49" s="9">
+      <c r="P58" s="16">
         <v>63.877936999999996</v>
       </c>
-      <c r="Q49" s="9">
+      <c r="Q58" s="16">
         <v>63.709078999999996</v>
       </c>
-      <c r="R49" s="9">
+      <c r="R58" s="16">
         <v>69.141384000000002</v>
       </c>
-      <c r="S49" s="9">
+      <c r="S58" s="16">
         <v>72.854422</v>
       </c>
-      <c r="T49" s="9">
+      <c r="T58" s="16">
         <v>74.022139999999993</v>
       </c>
-      <c r="U49" s="9">
+      <c r="U58" s="16">
         <v>70.505566999999999</v>
       </c>
-      <c r="V49" s="9">
+      <c r="V58" s="16">
         <v>73.571229000000002</v>
       </c>
-      <c r="W49" s="9">
+      <c r="W58" s="16">
         <v>68.674893999999995</v>
       </c>
-      <c r="X49" s="9">
+      <c r="X58" s="16">
         <v>53.958953000000001</v>
       </c>
     </row>
-    <row r="50" spans="1:25" x14ac:dyDescent="0.45">
-      <c r="A50" t="s">
+    <row r="59" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A59" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B50" s="9">
+      <c r="B59" s="18">
         <v>74.638721000000004</v>
       </c>
-      <c r="C50" s="9">
-        <v>74.447105999999991</v>
-      </c>
-      <c r="D50" s="9">
+      <c r="C59" s="18">
+        <v>74.447106000000005</v>
+      </c>
+      <c r="D59" s="18">
         <v>71.459827000000004</v>
       </c>
-      <c r="E50" s="9">
+      <c r="E59" s="18">
         <v>67.069000000000003</v>
       </c>
-      <c r="F50" s="9">
+      <c r="F59" s="18">
         <v>77.868117000000012</v>
       </c>
-      <c r="G50" s="9">
+      <c r="G59" s="18">
         <v>89.990096999999992</v>
       </c>
-      <c r="H50" s="9">
+      <c r="H59" s="18">
         <v>108.31240699999999</v>
       </c>
-      <c r="I50" s="9">
-        <v>119.38268500000001</v>
-      </c>
-      <c r="J50" s="9">
-        <v>122.337658</v>
-      </c>
-      <c r="K50" s="9">
-        <v>113.68425400000001</v>
-      </c>
-      <c r="L50" s="9">
+      <c r="I59" s="18">
+        <v>119.382685</v>
+      </c>
+      <c r="J59" s="18">
+        <v>122.33765799999999</v>
+      </c>
+      <c r="K59" s="18">
+        <v>113.684254</v>
+      </c>
+      <c r="L59" s="18">
         <v>112.12539899999999</v>
       </c>
-      <c r="M50" s="9">
+      <c r="M59" s="18">
         <v>124.67310699999999</v>
       </c>
-      <c r="N50" s="9">
+      <c r="N59" s="18">
         <v>133.09398999999999</v>
       </c>
-      <c r="O50" s="9">
+      <c r="O59" s="18">
         <v>125.95339499999999</v>
       </c>
-      <c r="P50" s="9">
+      <c r="P59" s="18">
         <v>140.81420900000001</v>
       </c>
-      <c r="Q50" s="9">
+      <c r="Q59" s="18">
         <v>135.51182299999999</v>
       </c>
-      <c r="R50" s="9">
+      <c r="R59" s="18">
         <v>130.160698</v>
       </c>
-      <c r="S50" s="9">
-        <v>131.35127800000001</v>
-      </c>
-      <c r="T50" s="9">
+      <c r="S59" s="18">
+        <v>131.35127799999998</v>
+      </c>
+      <c r="T59" s="18">
         <v>136.64260400000001</v>
       </c>
-      <c r="U50" s="9">
+      <c r="U59" s="18">
         <v>149.54374799999999</v>
       </c>
-      <c r="V50" s="9">
+      <c r="V59" s="18">
         <v>164.675239</v>
       </c>
-      <c r="W50" s="9">
+      <c r="W59" s="18">
         <v>161.549949</v>
       </c>
-      <c r="X50" s="9">
-        <v>165.52240800000001</v>
-      </c>
-    </row>
-    <row r="51" spans="1:25" x14ac:dyDescent="0.45">
-      <c r="A51" t="s">
+      <c r="X59" s="18">
+        <v>165.52240799999998</v>
+      </c>
+    </row>
+    <row r="60" spans="1:25" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A60" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="B51" s="9">
+      <c r="B60" s="16">
         <v>16.902000000000001</v>
       </c>
-      <c r="C51" s="9">
+      <c r="C60" s="16">
         <v>17.545249999999999</v>
       </c>
-      <c r="D51" s="9">
+      <c r="D60" s="16">
         <v>19.453749999999999</v>
       </c>
-      <c r="E51" s="9">
+      <c r="E60" s="16">
         <v>18.987500000000001</v>
       </c>
-      <c r="F51" s="9">
+      <c r="F60" s="16">
         <v>17.58775</v>
       </c>
-      <c r="G51" s="9">
+      <c r="G60" s="16">
         <v>17.08925</v>
       </c>
-      <c r="H51" s="9">
+      <c r="H60" s="16">
         <v>17.6935</v>
       </c>
-      <c r="I51" s="9">
+      <c r="I60" s="16">
         <v>18.34075</v>
       </c>
-      <c r="J51" s="9">
+      <c r="J60" s="16">
         <v>16.4495</v>
       </c>
-      <c r="K51" s="9">
+      <c r="K60" s="16">
         <v>15.85436</v>
       </c>
-      <c r="L51" s="9">
+      <c r="L60" s="16">
         <v>20.54393</v>
       </c>
-      <c r="M51" s="9">
+      <c r="M60" s="16">
         <v>27.771439999999998</v>
       </c>
-      <c r="N51" s="9">
+      <c r="N60" s="16">
         <v>32.431448000000003</v>
       </c>
-      <c r="O51" s="9">
+      <c r="O60" s="16">
         <v>33.206530000000001</v>
       </c>
-      <c r="P51" s="9">
+      <c r="P60" s="16">
         <v>34.696228000000005</v>
       </c>
-      <c r="Q51" s="9">
+      <c r="Q60" s="16">
         <v>36.429559999999995</v>
       </c>
-      <c r="R51" s="9">
+      <c r="R60" s="16">
         <v>37.539182000000004</v>
       </c>
-      <c r="S51" s="9">
+      <c r="S60" s="16">
         <v>38.023432</v>
       </c>
-      <c r="T51" s="9">
+      <c r="T60" s="16">
         <v>38.212739999999997</v>
       </c>
-      <c r="U51" s="9">
+      <c r="U60" s="16">
         <v>39.977561999999999</v>
       </c>
-      <c r="V51" s="9">
+      <c r="V60" s="16">
         <v>45.611607999999997</v>
       </c>
-      <c r="W51" s="9">
+      <c r="W60" s="16">
         <v>44.049824999999998</v>
       </c>
-      <c r="X51" s="9">
+      <c r="X60" s="16">
         <v>46.799295000000001</v>
       </c>
     </row>
-    <row r="52" spans="1:25" x14ac:dyDescent="0.45">
-      <c r="A52" t="s">
+    <row r="61" spans="1:25" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A61" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="B52" s="9">
+      <c r="B61" s="18">
         <v>10.534576999999999</v>
       </c>
-      <c r="C52" s="9">
+      <c r="C61" s="18">
         <v>10.857251</v>
       </c>
-      <c r="D52" s="9">
+      <c r="D61" s="18">
         <v>12.058078</v>
       </c>
-      <c r="E52" s="9">
+      <c r="E61" s="18">
         <v>12.496026000000001</v>
       </c>
-      <c r="F52" s="9">
+      <c r="F61" s="18">
         <v>11.376001</v>
       </c>
-      <c r="G52" s="9">
+      <c r="G61" s="18">
         <v>10.674882</v>
       </c>
-      <c r="H52" s="9">
+      <c r="H61" s="18">
         <v>11.773006000000001</v>
       </c>
-      <c r="I52" s="9">
+      <c r="I61" s="18">
         <v>12.969194</v>
       </c>
-      <c r="J52" s="9">
-        <v>14.370290000000001</v>
-      </c>
-      <c r="K52" s="9">
+      <c r="J61" s="18">
+        <v>14.370289999999999</v>
+      </c>
+      <c r="K61" s="18">
         <v>14.358307999999999</v>
       </c>
-      <c r="L52" s="9">
-        <v>12.195684000000002</v>
-      </c>
-      <c r="M52" s="9">
+      <c r="L61" s="18">
+        <v>12.195684</v>
+      </c>
+      <c r="M61" s="18">
         <v>10.572419999999999</v>
       </c>
-      <c r="N52" s="9">
-        <v>9.518834</v>
-      </c>
-      <c r="O52" s="9">
+      <c r="N61" s="18">
+        <v>9.5188339999999982</v>
+      </c>
+      <c r="O61" s="18">
         <v>10.943483000000001</v>
       </c>
-      <c r="P52" s="9">
-        <v>11.247141999999998</v>
-      </c>
-      <c r="Q52" s="9">
+      <c r="P61" s="18">
+        <v>11.247142</v>
+      </c>
+      <c r="Q61" s="18">
         <v>11.032321</v>
       </c>
-      <c r="R52" s="9">
+      <c r="R61" s="18">
         <v>9.4083230000000011</v>
       </c>
-      <c r="S52" s="9">
+      <c r="S61" s="18">
         <v>9.601699</v>
       </c>
-      <c r="T52" s="9">
+      <c r="T61" s="18">
         <v>8.1454219999999999</v>
       </c>
-      <c r="U52" s="9">
-        <v>5.2706969999999993</v>
-      </c>
-      <c r="V52" s="9">
+      <c r="U61" s="18">
+        <v>5.2706970000000002</v>
+      </c>
+      <c r="V61" s="18">
         <v>3.1995179999999999</v>
       </c>
-      <c r="W52" s="9">
-        <v>4.1615610000000007</v>
-      </c>
-      <c r="X52" s="9">
+      <c r="W61" s="18">
+        <v>4.1615609999999998</v>
+      </c>
+      <c r="X61" s="18">
         <v>4.3097060000000003</v>
       </c>
     </row>
-    <row r="53" spans="1:25" x14ac:dyDescent="0.45">
-      <c r="A53" t="s">
+    <row r="62" spans="1:25" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A62" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B53" s="9">
+      <c r="B62" s="16">
         <v>1.464E-3</v>
       </c>
-      <c r="C53" s="9">
+      <c r="C62" s="16">
         <v>7.4720000000000003E-3</v>
       </c>
-      <c r="D53" s="9">
+      <c r="D62" s="16">
         <v>9.0519999999999993E-3</v>
       </c>
-      <c r="E53" s="9">
+      <c r="E62" s="16">
         <v>1.0645E-2</v>
       </c>
-      <c r="F53" s="9">
+      <c r="F62" s="16">
         <v>1.0544000000000001E-2</v>
       </c>
-      <c r="G53" s="9">
+      <c r="G62" s="16">
         <v>1.8142999999999999E-2</v>
       </c>
-      <c r="H53" s="9">
+      <c r="H62" s="16">
         <v>1.5491E-2</v>
       </c>
-      <c r="I53" s="9">
+      <c r="I62" s="16">
         <v>3.9549000000000001E-2</v>
       </c>
-      <c r="J53" s="9">
+      <c r="J62" s="16">
         <v>4.2463000000000001E-2</v>
       </c>
-      <c r="K53" s="9">
+      <c r="K62" s="16">
         <v>5.1078999999999999E-2</v>
       </c>
-      <c r="L53" s="9">
+      <c r="L62" s="16">
         <v>6.9766999999999996E-2</v>
       </c>
-      <c r="M53" s="9">
+      <c r="M62" s="16">
         <v>0.31400400000000001</v>
       </c>
-      <c r="N53" s="9">
+      <c r="N62" s="16">
         <v>0.97958699999999999</v>
       </c>
-      <c r="O53" s="9">
+      <c r="O62" s="16">
         <v>1.689214</v>
       </c>
-      <c r="P53" s="9">
+      <c r="P62" s="16">
         <v>3.1044340000000004</v>
       </c>
-      <c r="Q53" s="9">
-        <v>5.9842300000000002</v>
-      </c>
-      <c r="R53" s="9">
+      <c r="Q62" s="16">
+        <v>5.9842299999999993</v>
+      </c>
+      <c r="R62" s="16">
         <v>10.186408999999999</v>
       </c>
-      <c r="S53" s="9">
+      <c r="S62" s="16">
         <v>18.135192</v>
       </c>
-      <c r="T53" s="9">
-        <v>31.106489</v>
-      </c>
-      <c r="U53" s="9">
+      <c r="T62" s="16">
+        <v>31.106488999999996</v>
+      </c>
+      <c r="U62" s="16">
         <v>43.933394999999997</v>
       </c>
-      <c r="V53" s="9">
+      <c r="V62" s="16">
         <v>55.098596999999998</v>
       </c>
-      <c r="W53" s="9">
+      <c r="W62" s="16">
         <v>66.237630999999993</v>
       </c>
-      <c r="X53" s="9">
+      <c r="X62" s="16">
         <v>83.631500000000003</v>
       </c>
     </row>
-    <row r="54" spans="1:25" x14ac:dyDescent="0.45">
-      <c r="A54" t="s">
+    <row r="63" spans="1:25" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A63" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B54" s="9">
+      <c r="B63" s="18">
         <v>1.3189059999999999</v>
       </c>
-      <c r="C54" s="9">
+      <c r="C63" s="18">
         <v>1.5368539999999999</v>
       </c>
-      <c r="D54" s="9">
+      <c r="D63" s="18">
         <v>2.205768</v>
       </c>
-      <c r="E54" s="9">
+      <c r="E63" s="18">
         <v>2.5505619999999998</v>
       </c>
-      <c r="F54" s="9">
+      <c r="F63" s="18">
         <v>3.9230779999999998</v>
       </c>
-      <c r="G54" s="9">
+      <c r="G63" s="18">
         <v>5.5618639999999999</v>
       </c>
-      <c r="H54" s="9">
+      <c r="H63" s="18">
         <v>6.8736920000000001</v>
       </c>
-      <c r="I54" s="9">
+      <c r="I63" s="18">
         <v>9.3870480000000001</v>
       </c>
-      <c r="J54" s="9">
+      <c r="J63" s="18">
         <v>11.835130999999999</v>
       </c>
-      <c r="K54" s="9">
+      <c r="K63" s="18">
         <v>14.595036</v>
       </c>
-      <c r="L54" s="9">
+      <c r="L63" s="18">
         <v>16.104033999999999</v>
       </c>
-      <c r="M54" s="9">
+      <c r="M63" s="18">
         <v>19.528141999999999</v>
       </c>
-      <c r="N54" s="9">
+      <c r="N63" s="18">
         <v>23.069179999999999</v>
       </c>
-      <c r="O54" s="9">
+      <c r="O63" s="18">
         <v>24.639953000000002</v>
       </c>
-      <c r="P54" s="9">
+      <c r="P63" s="18">
         <v>27.235366000000003</v>
       </c>
-      <c r="Q54" s="9">
+      <c r="Q63" s="18">
         <v>31.872871</v>
       </c>
-      <c r="R54" s="9">
+      <c r="R63" s="18">
         <v>36.273128</v>
       </c>
-      <c r="S54" s="9">
+      <c r="S63" s="18">
         <v>47.669778000000001</v>
       </c>
-      <c r="T54" s="9">
+      <c r="T63" s="18">
         <v>55.008661999999994</v>
       </c>
-      <c r="U54" s="9">
+      <c r="U63" s="18">
         <v>62.688877999999995</v>
       </c>
-      <c r="V54" s="9">
+      <c r="V63" s="18">
         <v>63.522264999999997</v>
       </c>
-      <c r="W54" s="9">
+      <c r="W63" s="18">
         <v>62.272480000000002</v>
       </c>
-      <c r="X54" s="9">
+      <c r="X63" s="18">
         <v>69.433592000000004</v>
       </c>
     </row>
-    <row r="58" spans="1:25" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A58" s="6" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="59" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A59" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="B59" s="7">
+    <row r="67" spans="1:26" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A67" s="9" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="68" spans="1:26" ht="19.149999999999999" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="A68" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="B68" s="10">
         <v>2000</v>
       </c>
-      <c r="C59" s="7">
+      <c r="C68" s="10">
         <v>2001</v>
       </c>
-      <c r="D59" s="7">
+      <c r="D68" s="10">
         <v>2002</v>
       </c>
-      <c r="E59" s="7">
+      <c r="E68" s="10">
         <v>2003</v>
       </c>
-      <c r="F59" s="7">
+      <c r="F68" s="10">
         <v>2004</v>
       </c>
-      <c r="G59" s="7">
+      <c r="G68" s="10">
         <v>2005</v>
       </c>
-      <c r="H59" s="7">
+      <c r="H68" s="10">
         <v>2006</v>
       </c>
-      <c r="I59" s="7">
+      <c r="I68" s="10">
         <v>2007</v>
       </c>
-      <c r="J59" s="7">
+      <c r="J68" s="10">
         <v>2008</v>
       </c>
-      <c r="K59" s="7">
+      <c r="K68" s="10">
         <v>2009</v>
       </c>
-      <c r="L59" s="7">
+      <c r="L68" s="10">
         <v>2010</v>
       </c>
-      <c r="M59" s="7">
+      <c r="M68" s="10">
         <v>2011</v>
       </c>
-      <c r="N59" s="7">
+      <c r="N68" s="10">
         <v>2012</v>
       </c>
-      <c r="O59" s="7">
+      <c r="O68" s="10">
         <v>2013</v>
       </c>
-      <c r="P59" s="7">
+      <c r="P68" s="10">
         <v>2014</v>
       </c>
-      <c r="Q59" s="7">
+      <c r="Q68" s="10">
         <v>2015</v>
       </c>
-      <c r="R59" s="7">
+      <c r="R68" s="10">
         <v>2016</v>
       </c>
-      <c r="S59" s="7">
+      <c r="S68" s="10">
         <v>2017</v>
       </c>
-      <c r="T59" s="7">
+      <c r="T68" s="10">
         <v>2018</v>
       </c>
-      <c r="U59" s="7">
+      <c r="U68" s="10">
         <v>2019</v>
       </c>
-      <c r="V59" s="7">
+      <c r="V68" s="10">
         <v>2020</v>
       </c>
-      <c r="W59" s="7">
+      <c r="W68" s="10">
         <v>2021</v>
       </c>
-      <c r="X59" s="7">
+      <c r="X68" s="10">
         <v>2022</v>
       </c>
-      <c r="Y59" s="7">
+      <c r="Y68" s="10">
         <v>2023</v>
       </c>
-    </row>
-    <row r="60" spans="1:25" x14ac:dyDescent="0.45">
-      <c r="A60" t="s">
-        <v>57</v>
-      </c>
-      <c r="B60" s="9">
-        <v>0.35</v>
-      </c>
-      <c r="C60" s="9">
-        <v>0.42</v>
-      </c>
-      <c r="D60" s="9">
-        <v>0.48</v>
-      </c>
-      <c r="E60" s="9">
-        <v>0.61</v>
-      </c>
-      <c r="F60" s="9">
-        <v>0.75</v>
-      </c>
-      <c r="G60" s="9">
-        <v>0.94</v>
-      </c>
-      <c r="H60" s="9">
-        <v>1.22</v>
-      </c>
-      <c r="I60" s="9">
-        <v>1.51</v>
-      </c>
-      <c r="J60" s="9">
-        <v>2.17</v>
-      </c>
-      <c r="K60" s="9">
-        <v>2.46</v>
-      </c>
-      <c r="L60" s="9">
-        <v>3.08</v>
-      </c>
-      <c r="M60" s="9">
-        <v>3.6</v>
-      </c>
-      <c r="N60" s="9">
-        <v>3.84</v>
-      </c>
-      <c r="O60" s="9">
-        <v>4.08</v>
-      </c>
-      <c r="P60" s="9">
-        <v>4.91</v>
-      </c>
-      <c r="Q60" s="9">
-        <v>5.34</v>
-      </c>
-      <c r="R60" s="9">
-        <v>8.76</v>
-      </c>
-      <c r="S60" s="9">
-        <v>9.27</v>
-      </c>
-      <c r="T60" s="9">
-        <v>9.98</v>
-      </c>
-      <c r="U60" s="9">
-        <v>10.06</v>
-      </c>
-      <c r="V60" s="9">
-        <v>10.35</v>
-      </c>
-      <c r="W60" s="9">
-        <v>10.37</v>
-      </c>
-      <c r="X60" s="9">
-        <v>10.41</v>
-      </c>
-      <c r="Y60" s="9">
-        <v>10.46</v>
-      </c>
-    </row>
-    <row r="61" spans="1:25" x14ac:dyDescent="0.45">
-      <c r="A61" t="s">
+      <c r="Z68" s="10">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="69" spans="1:26" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A69" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="B69" s="15">
+        <v>0.34689999999999999</v>
+      </c>
+      <c r="C69" s="15">
+        <v>0.41539999999999999</v>
+      </c>
+      <c r="D69" s="15">
+        <v>0.48393000000000003</v>
+      </c>
+      <c r="E69" s="15">
+        <v>0.61342999999999992</v>
+      </c>
+      <c r="F69" s="15">
+        <v>0.74952999999999992</v>
+      </c>
+      <c r="G69" s="15">
+        <v>0.96038999999999997</v>
+      </c>
+      <c r="H69" s="15">
+        <v>1.24814</v>
+      </c>
+      <c r="I69" s="15">
+        <v>1.546835</v>
+      </c>
+      <c r="J69" s="15">
+        <v>2.212809</v>
+      </c>
+      <c r="K69" s="16">
+        <v>2.5113840000000001</v>
+      </c>
+      <c r="L69" s="16">
+        <v>3.1445059999999998</v>
+      </c>
+      <c r="M69" s="16">
+        <v>3.677165</v>
+      </c>
+      <c r="N69" s="16">
+        <v>3.9289209999999999</v>
+      </c>
+      <c r="O69" s="16">
+        <v>4.1803480000000004</v>
+      </c>
+      <c r="P69" s="16">
+        <v>5.0300799999999999</v>
+      </c>
+      <c r="Q69" s="16">
+        <v>5.4782160000000006</v>
+      </c>
+      <c r="R69" s="16">
+        <v>8.8951709999999977</v>
+      </c>
+      <c r="S69" s="16">
+        <v>9.4171760000000013</v>
+      </c>
+      <c r="T69" s="16">
+        <v>10.137402</v>
+      </c>
+      <c r="U69" s="16">
+        <v>10.225633999999999</v>
+      </c>
+      <c r="V69" s="16">
+        <v>10.532757</v>
+      </c>
+      <c r="W69" s="16">
+        <v>10.591823999999999</v>
+      </c>
+      <c r="X69" s="16">
+        <v>10.669084000000002</v>
+      </c>
+      <c r="Y69" s="16">
+        <v>10.752414</v>
+      </c>
+      <c r="Z69" s="16">
+        <v>11.237339</v>
+      </c>
+    </row>
+    <row r="70" spans="1:26" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A70" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B61" s="9">
-        <v>62.17</v>
-      </c>
-      <c r="C61" s="9">
-        <v>63.17</v>
-      </c>
-      <c r="D61" s="9">
-        <v>64.209999999999994</v>
-      </c>
-      <c r="E61" s="9">
-        <v>65.83</v>
-      </c>
-      <c r="F61" s="9">
-        <v>66.319999999999993</v>
-      </c>
-      <c r="G61" s="9">
-        <v>69.64</v>
-      </c>
-      <c r="H61" s="9">
-        <v>71.930000000000007</v>
-      </c>
-      <c r="I61" s="9">
-        <v>77.14</v>
-      </c>
-      <c r="J61" s="9">
-        <v>82.33</v>
-      </c>
-      <c r="K61" s="9">
-        <v>87.79</v>
-      </c>
-      <c r="L61" s="9">
-        <v>99.04</v>
-      </c>
-      <c r="M61" s="9">
-        <v>113.4</v>
-      </c>
-      <c r="N61" s="9">
-        <v>131.56</v>
-      </c>
-      <c r="O61" s="9">
-        <v>149.36000000000001</v>
-      </c>
-      <c r="P61" s="9">
-        <v>169.52</v>
-      </c>
-      <c r="Q61" s="9">
-        <v>189.57</v>
-      </c>
-      <c r="R61" s="9">
-        <v>207.07</v>
-      </c>
-      <c r="S61" s="9">
-        <v>212.46</v>
-      </c>
-      <c r="T61" s="9">
-        <v>217.98</v>
-      </c>
-      <c r="U61" s="9">
-        <v>225.62</v>
-      </c>
-      <c r="V61" s="9">
-        <v>225.83</v>
-      </c>
-      <c r="W61" s="9">
-        <v>231.14</v>
-      </c>
-      <c r="X61" s="9">
-        <v>232.17</v>
-      </c>
-      <c r="Y61" s="9">
-        <v>237.64</v>
-      </c>
-    </row>
-    <row r="62" spans="1:25" x14ac:dyDescent="0.45">
-      <c r="A62" t="s">
+      <c r="B70" s="17">
+        <v>69.255873000000008</v>
+      </c>
+      <c r="C70" s="17">
+        <v>70.782400999999993</v>
+      </c>
+      <c r="D70" s="17">
+        <v>73.144439000000006</v>
+      </c>
+      <c r="E70" s="17">
+        <v>74.691476999999992</v>
+      </c>
+      <c r="F70" s="17">
+        <v>78.068515000000005</v>
+      </c>
+      <c r="G70" s="17">
+        <v>79.338553000000005</v>
+      </c>
+      <c r="H70" s="17">
+        <v>82.408265</v>
+      </c>
+      <c r="I70" s="17">
+        <v>87.691500000000005</v>
+      </c>
+      <c r="J70" s="17">
+        <v>90.953500000000005</v>
+      </c>
+      <c r="K70" s="18">
+        <v>100.53975</v>
+      </c>
+      <c r="L70" s="18">
+        <v>112.54774999999999</v>
+      </c>
+      <c r="M70" s="18">
+        <v>133.76124999999999</v>
+      </c>
+      <c r="N70" s="18">
+        <v>153.79225</v>
+      </c>
+      <c r="O70" s="18">
+        <v>169.80918499999999</v>
+      </c>
+      <c r="P70" s="18">
+        <v>190.390218</v>
+      </c>
+      <c r="Q70" s="18">
+        <v>213.210836</v>
+      </c>
+      <c r="R70" s="18">
+        <v>218.58873600000001</v>
+      </c>
+      <c r="S70" s="18">
+        <v>225.25529500000002</v>
+      </c>
+      <c r="T70" s="18">
+        <v>241.42537400000001</v>
+      </c>
+      <c r="U70" s="18">
+        <v>255.83132800000001</v>
+      </c>
+      <c r="V70" s="18">
+        <v>254.82983199999998</v>
+      </c>
+      <c r="W70" s="18">
+        <v>255.726427</v>
+      </c>
+      <c r="X70" s="18">
+        <v>256.971182</v>
+      </c>
+      <c r="Y70" s="18">
+        <v>261.39551</v>
+      </c>
+      <c r="Z70" s="18">
+        <v>266.03300000000002</v>
+      </c>
+    </row>
+    <row r="71" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A71" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B62" s="9">
-        <v>12.61</v>
-      </c>
-      <c r="C62" s="9">
-        <v>13.42</v>
-      </c>
-      <c r="D62" s="9">
-        <v>14.03</v>
-      </c>
-      <c r="E62" s="9">
-        <v>14.38</v>
-      </c>
-      <c r="F62" s="9">
-        <v>14.59</v>
-      </c>
-      <c r="G62" s="9">
-        <v>15.51</v>
-      </c>
-      <c r="H62" s="9">
-        <v>16.64</v>
-      </c>
-      <c r="I62" s="9">
-        <v>18.59</v>
-      </c>
-      <c r="J62" s="9">
-        <v>18.649999999999999</v>
-      </c>
-      <c r="K62" s="9">
-        <v>21.24</v>
-      </c>
-      <c r="L62" s="9">
-        <v>22.35</v>
-      </c>
-      <c r="M62" s="9">
-        <v>24.06</v>
-      </c>
-      <c r="N62" s="9">
-        <v>23.75</v>
-      </c>
-      <c r="O62" s="9">
-        <v>26.47</v>
-      </c>
-      <c r="P62" s="9">
-        <v>28.14</v>
-      </c>
-      <c r="Q62" s="9">
-        <v>30.17</v>
-      </c>
-      <c r="R62" s="9">
-        <v>31.37</v>
-      </c>
-      <c r="S62" s="9">
-        <v>32.04</v>
-      </c>
-      <c r="T62" s="9">
-        <v>33.32</v>
-      </c>
-      <c r="U62" s="9">
-        <v>32.619999999999997</v>
-      </c>
-      <c r="V62" s="9">
-        <v>32.31</v>
-      </c>
-      <c r="W62" s="9">
-        <v>32.29</v>
-      </c>
-      <c r="X62" s="9">
-        <v>32.22</v>
-      </c>
-      <c r="Y62" s="9">
-        <v>32.44</v>
-      </c>
-    </row>
-    <row r="63" spans="1:25" x14ac:dyDescent="0.45">
-      <c r="A63" t="s">
+      <c r="B71" s="15">
+        <v>12.614723</v>
+      </c>
+      <c r="C71" s="15">
+        <v>13.421867000000001</v>
+      </c>
+      <c r="D71" s="15">
+        <v>14.033393</v>
+      </c>
+      <c r="E71" s="15">
+        <v>14.381917999999999</v>
+      </c>
+      <c r="F71" s="15">
+        <v>14.593442999999999</v>
+      </c>
+      <c r="G71" s="15">
+        <v>15.514968000000001</v>
+      </c>
+      <c r="H71" s="15">
+        <v>16.639087</v>
+      </c>
+      <c r="I71" s="15">
+        <v>18.586749999999999</v>
+      </c>
+      <c r="J71" s="15">
+        <v>18.645</v>
+      </c>
+      <c r="K71" s="16">
+        <v>21.23725</v>
+      </c>
+      <c r="L71" s="16">
+        <v>22.3475</v>
+      </c>
+      <c r="M71" s="16">
+        <v>24.058250000000001</v>
+      </c>
+      <c r="N71" s="16">
+        <v>23.74775</v>
+      </c>
+      <c r="O71" s="16">
+        <v>26.470012000000001</v>
+      </c>
+      <c r="P71" s="16">
+        <v>28.145063999999998</v>
+      </c>
+      <c r="Q71" s="16">
+        <v>30.171325</v>
+      </c>
+      <c r="R71" s="16">
+        <v>31.365940999999999</v>
+      </c>
+      <c r="S71" s="16">
+        <v>32.044958000000001</v>
+      </c>
+      <c r="T71" s="16">
+        <v>33.316661000000003</v>
+      </c>
+      <c r="U71" s="16">
+        <v>32.620902999999998</v>
+      </c>
+      <c r="V71" s="16">
+        <v>32.306310000000003</v>
+      </c>
+      <c r="W71" s="16">
+        <v>31.003724999999999</v>
+      </c>
+      <c r="X71" s="16">
+        <v>30.520522</v>
+      </c>
+      <c r="Y71" s="16">
+        <v>30.738209999999999</v>
+      </c>
+      <c r="Z71" s="16">
+        <v>30.51821</v>
+      </c>
+    </row>
+    <row r="72" spans="1:26" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A72" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B63" s="9">
-        <v>23.71</v>
-      </c>
-      <c r="C63" s="9">
-        <v>24.68</v>
-      </c>
-      <c r="D63" s="9">
-        <v>24.73</v>
-      </c>
-      <c r="E63" s="9">
-        <v>27.18</v>
-      </c>
-      <c r="F63" s="9">
-        <v>28.62</v>
-      </c>
-      <c r="G63" s="9">
-        <v>30.96</v>
-      </c>
-      <c r="H63" s="9">
-        <v>33.04</v>
-      </c>
-      <c r="I63" s="9">
-        <v>34</v>
-      </c>
-      <c r="J63" s="9">
-        <v>34.69</v>
-      </c>
-      <c r="K63" s="9">
-        <v>34.78</v>
-      </c>
-      <c r="L63" s="9">
-        <v>35.869999999999997</v>
-      </c>
-      <c r="M63" s="9">
-        <v>37.630000000000003</v>
-      </c>
-      <c r="N63" s="9">
-        <v>38.25</v>
-      </c>
-      <c r="O63" s="9">
-        <v>39.39</v>
-      </c>
-      <c r="P63" s="9">
-        <v>40.619999999999997</v>
-      </c>
-      <c r="Q63" s="9">
-        <v>42.32</v>
-      </c>
-      <c r="R63" s="9">
-        <v>42.84</v>
-      </c>
-      <c r="S63" s="9">
-        <v>44.74</v>
-      </c>
-      <c r="T63" s="9">
-        <v>45.32</v>
-      </c>
-      <c r="U63" s="9">
-        <v>45.49</v>
-      </c>
-      <c r="V63" s="9">
-        <v>45.98</v>
-      </c>
-      <c r="W63" s="9">
-        <v>46.78</v>
-      </c>
-      <c r="X63" s="9">
-        <v>47.22</v>
-      </c>
-      <c r="Y63" s="9">
-        <v>47.33</v>
-      </c>
-    </row>
-    <row r="64" spans="1:25" x14ac:dyDescent="0.45">
-      <c r="A64" t="s">
+      <c r="B72" s="17">
+        <v>25.246600999999998</v>
+      </c>
+      <c r="C72" s="17">
+        <v>26.368372000000001</v>
+      </c>
+      <c r="D72" s="17">
+        <v>26.869854</v>
+      </c>
+      <c r="E72" s="17">
+        <v>29.614083999999998</v>
+      </c>
+      <c r="F72" s="17">
+        <v>31.054525999999999</v>
+      </c>
+      <c r="G72" s="17">
+        <v>34.191387000000006</v>
+      </c>
+      <c r="H72" s="17">
+        <v>36.680191000000001</v>
+      </c>
+      <c r="I72" s="17">
+        <v>38.081439999999994</v>
+      </c>
+      <c r="J72" s="17">
+        <v>39.473061999999999</v>
+      </c>
+      <c r="K72" s="18">
+        <v>39.561552999999996</v>
+      </c>
+      <c r="L72" s="18">
+        <v>40.650649999999999</v>
+      </c>
+      <c r="M72" s="18">
+        <v>42.418947999999993</v>
+      </c>
+      <c r="N72" s="18">
+        <v>43.030621999999994</v>
+      </c>
+      <c r="O72" s="18">
+        <v>44.173750999999996</v>
+      </c>
+      <c r="P72" s="18">
+        <v>45.406352999999996</v>
+      </c>
+      <c r="Q72" s="18">
+        <v>47.104570000000002</v>
+      </c>
+      <c r="R72" s="18">
+        <v>47.622264999999999</v>
+      </c>
+      <c r="S72" s="18">
+        <v>49.520788000000003</v>
+      </c>
+      <c r="T72" s="18">
+        <v>50.102229000000001</v>
+      </c>
+      <c r="U72" s="18">
+        <v>50.279371999999995</v>
+      </c>
+      <c r="V72" s="18">
+        <v>50.763075999999998</v>
+      </c>
+      <c r="W72" s="18">
+        <v>51.566144000000001</v>
+      </c>
+      <c r="X72" s="18">
+        <v>52.009144999999997</v>
+      </c>
+      <c r="Y72" s="18">
+        <v>52.121594999999999</v>
+      </c>
+      <c r="Z72" s="18">
+        <v>52.293394999999997</v>
+      </c>
+    </row>
+    <row r="73" spans="1:26" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A73" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="B64" s="9">
+      <c r="B73" s="15">
         <v>2.86</v>
       </c>
-      <c r="C64" s="9">
+      <c r="C73" s="15">
         <v>2.72</v>
       </c>
-      <c r="D64" s="9">
+      <c r="D73" s="15">
         <v>2.72</v>
       </c>
-      <c r="E64" s="9">
+      <c r="E73" s="15">
         <v>2.72</v>
       </c>
-      <c r="F64" s="9">
+      <c r="F73" s="15">
         <v>2.77</v>
       </c>
-      <c r="G64" s="9">
+      <c r="G73" s="15">
         <v>3.36</v>
       </c>
-      <c r="H64" s="9">
+      <c r="H73" s="15">
         <v>3.9</v>
       </c>
-      <c r="I64" s="9">
+      <c r="I73" s="15">
         <v>4.12</v>
       </c>
-      <c r="J64" s="9">
+      <c r="J73" s="15">
         <v>4.12</v>
       </c>
-      <c r="K64" s="9">
+      <c r="K73" s="16">
         <v>4.5599999999999996</v>
       </c>
-      <c r="L64" s="9">
+      <c r="L73" s="16">
         <v>4.78</v>
       </c>
-      <c r="M64" s="9">
+      <c r="M73" s="16">
         <v>4.78</v>
       </c>
-      <c r="N64" s="9">
+      <c r="N73" s="16">
         <v>4.78</v>
       </c>
-      <c r="O64" s="9">
+      <c r="O73" s="16">
         <v>4.78</v>
       </c>
-      <c r="P64" s="9">
+      <c r="P73" s="16">
         <v>5.78</v>
       </c>
-      <c r="Q64" s="9">
+      <c r="Q73" s="16">
         <v>5.78</v>
       </c>
-      <c r="R64" s="9">
+      <c r="R73" s="16">
         <v>5.78</v>
       </c>
-      <c r="S64" s="9">
+      <c r="S73" s="16">
         <v>6.78</v>
       </c>
-      <c r="T64" s="9">
+      <c r="T73" s="16">
         <v>6.78</v>
       </c>
-      <c r="U64" s="9">
+      <c r="U73" s="16">
         <v>6.78</v>
       </c>
-      <c r="V64" s="9">
+      <c r="V73" s="16">
         <v>6.78</v>
       </c>
-      <c r="W64" s="9">
+      <c r="W73" s="16">
         <v>6.78</v>
       </c>
-      <c r="X64" s="9">
+      <c r="X73" s="16">
         <v>6.78</v>
       </c>
-      <c r="Y64" s="9">
+      <c r="Y73" s="16">
         <v>7.48</v>
       </c>
-    </row>
-    <row r="65" spans="1:26" x14ac:dyDescent="0.45">
-      <c r="A65" t="s">
+      <c r="Z73" s="16">
+        <v>8.18</v>
+      </c>
+    </row>
+    <row r="74" spans="1:26" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A74" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="B65" s="9">
-        <v>6.79</v>
-      </c>
-      <c r="C65" s="9">
-        <v>7.06</v>
-      </c>
-      <c r="D65" s="9">
-        <v>7.43</v>
-      </c>
-      <c r="E65" s="9">
+      <c r="B74" s="17">
+        <v>6.7865200000000003</v>
+      </c>
+      <c r="C74" s="17">
+        <v>7.0619730000000001</v>
+      </c>
+      <c r="D74" s="17">
+        <v>7.4292449999999999</v>
+      </c>
+      <c r="E74" s="17">
+        <v>7.7965159999999996</v>
+      </c>
+      <c r="F74" s="17">
+        <v>8.163787000000001</v>
+      </c>
+      <c r="G74" s="17">
+        <v>8.5560480000000005</v>
+      </c>
+      <c r="H74" s="17">
+        <v>8.8759589999999982</v>
+      </c>
+      <c r="I74" s="17">
+        <v>9.6582249999999998</v>
+      </c>
+      <c r="J74" s="17">
+        <v>9.9729850000000013</v>
+      </c>
+      <c r="K74" s="18">
+        <v>10.533329999999999</v>
+      </c>
+      <c r="L74" s="18">
+        <v>10.874392</v>
+      </c>
+      <c r="M74" s="18">
+        <v>11.163295</v>
+      </c>
+      <c r="N74" s="18">
+        <v>12.143818</v>
+      </c>
+      <c r="O74" s="18">
+        <v>12.666102</v>
+      </c>
+      <c r="P74" s="18">
+        <v>13.188932999999999</v>
+      </c>
+      <c r="Q74" s="18">
+        <v>13.392975</v>
+      </c>
+      <c r="R74" s="18">
+        <v>14.075265</v>
+      </c>
+      <c r="S74" s="18">
+        <v>14.179892000000001</v>
+      </c>
+      <c r="T74" s="18">
+        <v>15.760520999999999</v>
+      </c>
+      <c r="U74" s="18">
+        <v>14.148911</v>
+      </c>
+      <c r="V74" s="18">
+        <v>17.063199000000001</v>
+      </c>
+      <c r="W74" s="18">
+        <v>19.104064999999999</v>
+      </c>
+      <c r="X74" s="18">
+        <v>19.911510000000003</v>
+      </c>
+      <c r="Y74" s="18">
+        <v>20.080645000000001</v>
+      </c>
+      <c r="Z74" s="18">
+        <v>20.099170000000001</v>
+      </c>
+    </row>
+    <row r="75" spans="1:26" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A75" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B75" s="15"/>
+      <c r="C75" s="15">
+        <v>5.535E-3</v>
+      </c>
+      <c r="D75" s="15">
+        <v>6.705E-3</v>
+      </c>
+      <c r="E75" s="15">
+        <v>7.8849999999999996E-3</v>
+      </c>
+      <c r="F75" s="15">
+        <v>7.8099999999999992E-3</v>
+      </c>
+      <c r="G75" s="15">
+        <v>1.3439E-2</v>
+      </c>
+      <c r="H75" s="15">
+        <v>1.1474999999999999E-2</v>
+      </c>
+      <c r="I75" s="15">
+        <v>2.8830999999999999E-2</v>
+      </c>
+      <c r="J75" s="15">
+        <v>3.1454000000000003E-2</v>
+      </c>
+      <c r="K75" s="16">
+        <v>4.3094E-2</v>
+      </c>
+      <c r="L75" s="16">
+        <v>6.883199999999999E-2</v>
+      </c>
+      <c r="M75" s="16">
+        <v>0.56928499999999993</v>
+      </c>
+      <c r="N75" s="16">
+        <v>0.98557099999999997</v>
+      </c>
+      <c r="O75" s="16">
+        <v>1.6028199999999999</v>
+      </c>
+      <c r="P75" s="16">
+        <v>3.7760149999999997</v>
+      </c>
+      <c r="Q75" s="16">
+        <v>5.6969899999999996</v>
+      </c>
+      <c r="R75" s="16">
+        <v>9.9821360000000006</v>
+      </c>
+      <c r="S75" s="16">
+        <v>18.256847</v>
+      </c>
+      <c r="T75" s="16">
+        <v>27.484721</v>
+      </c>
+      <c r="U75" s="16">
+        <v>35.250192999999996</v>
+      </c>
+      <c r="V75" s="16">
+        <v>39.705453999999996</v>
+      </c>
+      <c r="W75" s="16">
+        <v>49.949915999999995</v>
+      </c>
+      <c r="X75" s="16">
+        <v>63.390404000000004</v>
+      </c>
+      <c r="Y75" s="16">
+        <v>72.859280999999996</v>
+      </c>
+      <c r="Z75" s="16">
+        <v>97.384000999999998</v>
+      </c>
+    </row>
+    <row r="76" spans="1:26" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A76" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B76" s="17">
+        <v>0.94099999999999995</v>
+      </c>
+      <c r="C76" s="17">
+        <v>1.5629999999999999</v>
+      </c>
+      <c r="D76" s="17">
+        <v>1.6060000000000001</v>
+      </c>
+      <c r="E76" s="17">
+        <v>2.4609999999999999</v>
+      </c>
+      <c r="F76" s="17">
+        <v>3.8130000000000002</v>
+      </c>
+      <c r="G76" s="17">
+        <v>4.4338999999999995</v>
+      </c>
+      <c r="H76" s="17">
+        <v>6.3150000000000004</v>
+      </c>
+      <c r="I76" s="17">
+        <v>7.8445200000000002</v>
+      </c>
+      <c r="J76" s="17">
+        <v>10.2425</v>
+      </c>
+      <c r="K76" s="18">
+        <v>10.925000000000001</v>
+      </c>
+      <c r="L76" s="18">
+        <v>13.183999999999999</v>
+      </c>
+      <c r="M76" s="18">
+        <v>16.178999999999998</v>
+      </c>
+      <c r="N76" s="18">
+        <v>17.299700000000001</v>
+      </c>
+      <c r="O76" s="18">
+        <v>18.420400000000001</v>
+      </c>
+      <c r="P76" s="18">
+        <v>22.465299999999999</v>
+      </c>
+      <c r="Q76" s="18">
+        <v>25.088189999999997</v>
+      </c>
+      <c r="R76" s="18">
+        <v>28.70044</v>
+      </c>
+      <c r="S76" s="18">
+        <v>32.848459999999996</v>
+      </c>
+      <c r="T76" s="18">
+        <v>35.2881</v>
+      </c>
+      <c r="U76" s="18">
+        <v>37.505180000000003</v>
+      </c>
+      <c r="V76" s="18">
+        <v>38.558599999999998</v>
+      </c>
+      <c r="W76" s="18">
+        <v>40.067264999999999</v>
+      </c>
+      <c r="X76" s="18">
+        <v>41.929780000000001</v>
+      </c>
+      <c r="Y76" s="18">
+        <v>44.736239999999995</v>
+      </c>
+      <c r="Z76" s="18">
+        <v>48.163160000000005</v>
+      </c>
+    </row>
+    <row r="84" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="85" spans="1:26" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A85" s="9" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="86" spans="1:26" ht="19.149999999999999" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="A86" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="B86" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C86" s="10">
+        <v>2000</v>
+      </c>
+      <c r="D86" s="10">
+        <v>2001</v>
+      </c>
+      <c r="E86" s="10">
+        <v>2002</v>
+      </c>
+      <c r="F86" s="10">
+        <v>2003</v>
+      </c>
+      <c r="G86" s="10">
+        <v>2004</v>
+      </c>
+      <c r="H86" s="10">
+        <v>2005</v>
+      </c>
+      <c r="I86" s="10">
+        <v>2006</v>
+      </c>
+      <c r="J86" s="10">
+        <v>2007</v>
+      </c>
+      <c r="K86" s="10">
+        <v>2008</v>
+      </c>
+      <c r="L86" s="10">
+        <v>2009</v>
+      </c>
+      <c r="M86" s="10">
+        <v>2010</v>
+      </c>
+      <c r="N86" s="10">
+        <v>2011</v>
+      </c>
+      <c r="O86" s="10">
+        <v>2012</v>
+      </c>
+      <c r="P86" s="10">
+        <v>2013</v>
+      </c>
+      <c r="Q86" s="10">
+        <v>2014</v>
+      </c>
+      <c r="R86" s="10">
+        <v>2015</v>
+      </c>
+      <c r="S86" s="10">
+        <v>2016</v>
+      </c>
+      <c r="T86" s="10">
+        <v>2017</v>
+      </c>
+      <c r="U86" s="10">
+        <v>2018</v>
+      </c>
+      <c r="V86" s="10">
+        <v>2019</v>
+      </c>
+      <c r="W86" s="10">
+        <v>2020</v>
+      </c>
+      <c r="X86" s="10">
+        <v>2021</v>
+      </c>
+      <c r="Y86" s="10">
+        <v>2022</v>
+      </c>
+      <c r="Z86" s="10">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="87" spans="1:26" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A87" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="B87" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="C87" s="15">
+        <v>0.2</v>
+      </c>
+      <c r="D87" s="15">
+        <v>0.2</v>
+      </c>
+      <c r="E87" s="15">
+        <v>0.2</v>
+      </c>
+      <c r="F87" s="15">
+        <v>0.1</v>
+      </c>
+      <c r="G87" s="15">
+        <v>0</v>
+      </c>
+      <c r="H87" s="15">
+        <v>0.2</v>
+      </c>
+      <c r="I87" s="15">
+        <v>0.2</v>
+      </c>
+      <c r="J87" s="15">
+        <v>0.3</v>
+      </c>
+      <c r="K87" s="15">
+        <v>0.3</v>
+      </c>
+      <c r="L87" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="M87" s="15">
+        <v>0.6</v>
+      </c>
+      <c r="N87" s="15"/>
+      <c r="O87" s="15"/>
+      <c r="P87" s="15"/>
+      <c r="Q87" s="15">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="R87" s="15">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="S87" s="15">
+        <v>6.7</v>
+      </c>
+      <c r="T87" s="15">
+        <v>7.2</v>
+      </c>
+      <c r="U87" s="15">
+        <v>8.5</v>
+      </c>
+      <c r="V87" s="15">
+        <v>9.5</v>
+      </c>
+      <c r="W87" s="15">
+        <v>9.4</v>
+      </c>
+      <c r="X87" s="15">
+        <v>9.6</v>
+      </c>
+      <c r="Y87" s="16">
+        <v>10.3</v>
+      </c>
+      <c r="Z87" s="11"/>
+    </row>
+    <row r="88" spans="1:26" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A88" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="B88" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="C88" s="17">
+        <v>1.5</v>
+      </c>
+      <c r="D88" s="17">
+        <v>1.5</v>
+      </c>
+      <c r="E88" s="17">
+        <v>1.5</v>
+      </c>
+      <c r="F88" s="17">
+        <v>1.7</v>
+      </c>
+      <c r="G88" s="17">
+        <v>1.7</v>
+      </c>
+      <c r="H88" s="17">
+        <v>1.8</v>
+      </c>
+      <c r="I88" s="17">
+        <v>3</v>
+      </c>
+      <c r="J88" s="17">
+        <v>5.2</v>
+      </c>
+      <c r="K88" s="17">
+        <v>5.9</v>
+      </c>
+      <c r="L88" s="17">
+        <v>5.4</v>
+      </c>
+      <c r="M88" s="17">
+        <v>5.6</v>
+      </c>
+      <c r="N88" s="17">
+        <v>8.4</v>
+      </c>
+      <c r="O88" s="17">
+        <v>5.2</v>
+      </c>
+      <c r="P88" s="17">
+        <v>5.6</v>
+      </c>
+      <c r="Q88" s="17">
+        <v>5</v>
+      </c>
+      <c r="R88" s="17">
+        <v>5.2</v>
+      </c>
+      <c r="S88" s="17">
+        <v>5.6</v>
+      </c>
+      <c r="T88" s="17">
+        <v>5.6</v>
+      </c>
+      <c r="U88" s="17">
+        <v>4.7</v>
+      </c>
+      <c r="V88" s="17">
+        <v>6.4</v>
+      </c>
+      <c r="W88" s="17">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="X88" s="17">
+        <v>9.5</v>
+      </c>
+      <c r="Y88" s="18">
         <v>7.8</v>
       </c>
-      <c r="F65" s="9">
-        <v>8.16</v>
-      </c>
-      <c r="G65" s="9">
-        <v>8.56</v>
-      </c>
-      <c r="H65" s="9">
-        <v>8.8800000000000008</v>
-      </c>
-      <c r="I65" s="9">
-        <v>9.66</v>
-      </c>
-      <c r="J65" s="9">
-        <v>9.9700000000000006</v>
-      </c>
-      <c r="K65" s="9">
-        <v>10.53</v>
-      </c>
-      <c r="L65" s="9">
-        <v>10.87</v>
-      </c>
-      <c r="M65" s="9">
-        <v>11.16</v>
-      </c>
-      <c r="N65" s="9">
-        <v>12.14</v>
-      </c>
-      <c r="O65" s="9">
-        <v>12.67</v>
-      </c>
-      <c r="P65" s="9">
-        <v>13.19</v>
-      </c>
-      <c r="Q65" s="9">
-        <v>13.39</v>
-      </c>
-      <c r="R65" s="9">
-        <v>14.08</v>
-      </c>
-      <c r="S65" s="9">
-        <v>14.18</v>
-      </c>
-      <c r="T65" s="9">
-        <v>15.76</v>
-      </c>
-      <c r="U65" s="9">
-        <v>14.15</v>
-      </c>
-      <c r="V65" s="9">
-        <v>17.059999999999999</v>
-      </c>
-      <c r="W65" s="9">
-        <v>18.39</v>
-      </c>
-      <c r="X65" s="9">
-        <v>18.55</v>
-      </c>
-      <c r="Y65" s="9">
-        <v>18.579999999999998</v>
-      </c>
-    </row>
-    <row r="66" spans="1:26" x14ac:dyDescent="0.45">
-      <c r="A66" t="s">
-        <v>9</v>
-      </c>
-      <c r="B66" s="9">
-        <v>0</v>
-      </c>
-      <c r="C66" s="9">
-        <v>0.01</v>
-      </c>
-      <c r="D66" s="9">
-        <v>0.01</v>
-      </c>
-      <c r="E66" s="9">
-        <v>0.01</v>
-      </c>
-      <c r="F66" s="9">
-        <v>0.01</v>
-      </c>
-      <c r="G66" s="9">
-        <v>0.01</v>
-      </c>
-      <c r="H66" s="9">
-        <v>0.01</v>
-      </c>
-      <c r="I66" s="9">
-        <v>0.03</v>
-      </c>
-      <c r="J66" s="9">
-        <v>0.03</v>
-      </c>
-      <c r="K66" s="9">
-        <v>0.04</v>
-      </c>
-      <c r="L66" s="9">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="M66" s="9">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="N66" s="9">
-        <v>0.99</v>
-      </c>
-      <c r="O66" s="9">
-        <v>1.6</v>
-      </c>
-      <c r="P66" s="9">
-        <v>3.78</v>
-      </c>
-      <c r="Q66" s="9">
-        <v>5.7</v>
-      </c>
-      <c r="R66" s="9">
-        <v>9.98</v>
-      </c>
-      <c r="S66" s="9">
-        <v>18.260000000000002</v>
-      </c>
-      <c r="T66" s="9">
-        <v>27.48</v>
-      </c>
-      <c r="U66" s="9">
-        <v>35.25</v>
-      </c>
-      <c r="V66" s="9">
-        <v>39.71</v>
-      </c>
-      <c r="W66" s="9">
-        <v>49.95</v>
-      </c>
-      <c r="X66" s="9">
-        <v>63.39</v>
-      </c>
-      <c r="Y66" s="9">
-        <v>73.11</v>
-      </c>
-    </row>
-    <row r="67" spans="1:26" x14ac:dyDescent="0.45">
-      <c r="A67" t="s">
-        <v>12</v>
-      </c>
-      <c r="B67" s="9">
-        <v>0.94</v>
-      </c>
-      <c r="C67" s="9">
-        <v>1.56</v>
-      </c>
-      <c r="D67" s="9">
-        <v>1.61</v>
-      </c>
-      <c r="E67" s="9">
-        <v>2.46</v>
-      </c>
-      <c r="F67" s="9">
-        <v>3.81</v>
-      </c>
-      <c r="G67" s="9">
-        <v>4.43</v>
-      </c>
-      <c r="H67" s="9">
-        <v>6.32</v>
-      </c>
-      <c r="I67" s="9">
-        <v>7.84</v>
-      </c>
-      <c r="J67" s="9">
-        <v>10.24</v>
-      </c>
-      <c r="K67" s="9">
-        <v>10.93</v>
-      </c>
-      <c r="L67" s="9">
-        <v>13.18</v>
-      </c>
-      <c r="M67" s="9">
-        <v>16.18</v>
-      </c>
-      <c r="N67" s="9">
-        <v>17.3</v>
-      </c>
-      <c r="O67" s="9">
-        <v>18.420000000000002</v>
-      </c>
-      <c r="P67" s="9">
-        <v>22.47</v>
-      </c>
-      <c r="Q67" s="9">
-        <v>25.09</v>
-      </c>
-      <c r="R67" s="9">
-        <v>28.7</v>
-      </c>
-      <c r="S67" s="9">
-        <v>32.85</v>
-      </c>
-      <c r="T67" s="9">
-        <v>35.29</v>
-      </c>
-      <c r="U67" s="9">
-        <v>37.51</v>
-      </c>
-      <c r="V67" s="9">
-        <v>38.56</v>
-      </c>
-      <c r="W67" s="9">
-        <v>40.07</v>
-      </c>
-      <c r="X67" s="9">
-        <v>41.93</v>
-      </c>
-      <c r="Y67" s="9">
-        <v>44.74</v>
-      </c>
-    </row>
-    <row r="70" spans="1:26" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A70" s="6" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="71" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A71" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="B71" s="7">
-        <v>2000</v>
-      </c>
-      <c r="C71" s="7">
-        <v>2001</v>
-      </c>
-      <c r="D71" s="7">
-        <v>2002</v>
-      </c>
-      <c r="E71" s="7">
-        <v>2003</v>
-      </c>
-      <c r="F71" s="7">
-        <v>2004</v>
-      </c>
-      <c r="G71" s="7">
-        <v>2005</v>
-      </c>
-      <c r="H71" s="7">
-        <v>2006</v>
-      </c>
-      <c r="I71" s="7">
-        <v>2007</v>
-      </c>
-      <c r="J71" s="7">
-        <v>2008</v>
-      </c>
-      <c r="K71" s="7">
-        <v>2009</v>
-      </c>
-      <c r="L71" s="7">
-        <v>2010</v>
-      </c>
-      <c r="M71" s="7">
-        <v>2011</v>
-      </c>
-      <c r="N71" s="7">
-        <v>2012</v>
-      </c>
-      <c r="O71" s="7">
-        <v>2013</v>
-      </c>
-      <c r="P71" s="7">
-        <v>2014</v>
-      </c>
-      <c r="Q71" s="7">
-        <v>2015</v>
-      </c>
-      <c r="R71" s="7">
-        <v>2016</v>
-      </c>
-      <c r="S71" s="7">
-        <v>2017</v>
-      </c>
-      <c r="T71" s="7">
-        <v>2018</v>
-      </c>
-      <c r="U71" s="7">
-        <v>2019</v>
-      </c>
-      <c r="V71" s="7">
-        <v>2020</v>
-      </c>
-      <c r="W71" s="7">
-        <v>2021</v>
-      </c>
-      <c r="X71" s="7">
-        <v>2022</v>
-      </c>
-      <c r="Y71" s="7">
-        <v>2023</v>
-      </c>
-      <c r="Z71" s="7">
-        <v>2024</v>
-      </c>
-    </row>
-    <row r="72" spans="1:26" x14ac:dyDescent="0.45">
-      <c r="A72" t="s">
-        <v>57</v>
-      </c>
-      <c r="B72" s="9">
-        <v>0.34689999999999999</v>
-      </c>
-      <c r="C72" s="9">
-        <v>0.41539999999999999</v>
-      </c>
-      <c r="D72" s="9">
-        <v>0.48393000000000003</v>
-      </c>
-      <c r="E72" s="9">
-        <v>0.61342999999999992</v>
-      </c>
-      <c r="F72" s="9">
-        <v>0.74952999999999992</v>
-      </c>
-      <c r="G72" s="9">
-        <v>0.96038999999999997</v>
-      </c>
-      <c r="H72" s="9">
-        <v>1.24814</v>
-      </c>
-      <c r="I72" s="9">
-        <v>1.546835</v>
-      </c>
-      <c r="J72" s="9">
-        <v>2.212809</v>
-      </c>
-      <c r="K72" s="9">
-        <v>2.5113840000000001</v>
-      </c>
-      <c r="L72" s="9">
-        <v>3.1445060000000002</v>
-      </c>
-      <c r="M72" s="9">
-        <v>3.677165</v>
-      </c>
-      <c r="N72" s="9">
-        <v>3.9289209999999999</v>
-      </c>
-      <c r="O72" s="9">
-        <v>4.1803479999999995</v>
-      </c>
-      <c r="P72" s="9">
-        <v>5.0300799999999999</v>
-      </c>
-      <c r="Q72" s="9">
-        <v>5.4782159999999998</v>
-      </c>
-      <c r="R72" s="9">
-        <v>8.8951709999999995</v>
-      </c>
-      <c r="S72" s="9">
-        <v>9.4171760000000013</v>
-      </c>
-      <c r="T72" s="9">
-        <v>10.137402</v>
-      </c>
-      <c r="U72" s="9">
-        <v>10.225634000000001</v>
-      </c>
-      <c r="V72" s="9">
-        <v>10.532757000000002</v>
-      </c>
-      <c r="W72" s="9">
-        <v>10.591823999999999</v>
-      </c>
-      <c r="X72" s="9">
-        <v>10.669084</v>
-      </c>
-      <c r="Y72" s="9">
-        <v>10.752414</v>
-      </c>
-      <c r="Z72" s="9">
-        <v>11.237339</v>
-      </c>
-    </row>
-    <row r="73" spans="1:26" x14ac:dyDescent="0.45">
-      <c r="A73" t="s">
-        <v>5</v>
-      </c>
-      <c r="B73" s="9">
-        <v>69.255873000000008</v>
-      </c>
-      <c r="C73" s="9">
-        <v>70.782400999999993</v>
-      </c>
-      <c r="D73" s="9">
-        <v>73.144439000000006</v>
-      </c>
-      <c r="E73" s="9">
-        <v>74.691476999999992</v>
-      </c>
-      <c r="F73" s="9">
-        <v>78.068515000000005</v>
-      </c>
-      <c r="G73" s="9">
-        <v>79.338553000000005</v>
-      </c>
-      <c r="H73" s="9">
-        <v>82.408265</v>
-      </c>
-      <c r="I73" s="9">
-        <v>87.691500000000005</v>
-      </c>
-      <c r="J73" s="9">
-        <v>90.953500000000005</v>
-      </c>
-      <c r="K73" s="9">
-        <v>100.53975</v>
-      </c>
-      <c r="L73" s="9">
-        <v>112.54774999999999</v>
-      </c>
-      <c r="M73" s="9">
-        <v>133.76124999999999</v>
-      </c>
-      <c r="N73" s="9">
-        <v>153.79225</v>
-      </c>
-      <c r="O73" s="9">
-        <v>169.80918499999999</v>
-      </c>
-      <c r="P73" s="9">
-        <v>190.390218</v>
-      </c>
-      <c r="Q73" s="9">
-        <v>213.210836</v>
-      </c>
-      <c r="R73" s="9">
-        <v>218.58873600000001</v>
-      </c>
-      <c r="S73" s="9">
-        <v>225.25529500000002</v>
-      </c>
-      <c r="T73" s="9">
-        <v>241.42537400000001</v>
-      </c>
-      <c r="U73" s="9">
-        <v>255.83132800000001</v>
-      </c>
-      <c r="V73" s="9">
-        <v>254.82983199999998</v>
-      </c>
-      <c r="W73" s="9">
-        <v>255.726427</v>
-      </c>
-      <c r="X73" s="9">
-        <v>256.971182</v>
-      </c>
-      <c r="Y73" s="9">
-        <v>261.39551</v>
-      </c>
-      <c r="Z73" s="9">
-        <v>266.03300000000002</v>
-      </c>
-    </row>
-    <row r="74" spans="1:26" x14ac:dyDescent="0.45">
-      <c r="A74" t="s">
-        <v>8</v>
-      </c>
-      <c r="B74" s="9">
-        <v>12.614723</v>
-      </c>
-      <c r="C74" s="9">
-        <v>13.421867000000001</v>
-      </c>
-      <c r="D74" s="9">
-        <v>14.033393</v>
-      </c>
-      <c r="E74" s="9">
-        <v>14.381917999999999</v>
-      </c>
-      <c r="F74" s="9">
-        <v>14.593442999999999</v>
-      </c>
-      <c r="G74" s="9">
-        <v>15.514968000000001</v>
-      </c>
-      <c r="H74" s="9">
-        <v>16.639087</v>
-      </c>
-      <c r="I74" s="9">
-        <v>18.586749999999999</v>
-      </c>
-      <c r="J74" s="9">
-        <v>18.645</v>
-      </c>
-      <c r="K74" s="9">
-        <v>21.23725</v>
-      </c>
-      <c r="L74" s="9">
-        <v>22.3475</v>
-      </c>
-      <c r="M74" s="9">
-        <v>24.058250000000001</v>
-      </c>
-      <c r="N74" s="9">
-        <v>23.74775</v>
-      </c>
-      <c r="O74" s="9">
-        <v>26.470012000000001</v>
-      </c>
-      <c r="P74" s="9">
-        <v>28.145063999999998</v>
-      </c>
-      <c r="Q74" s="9">
-        <v>30.171325</v>
-      </c>
-      <c r="R74" s="9">
-        <v>31.365940999999999</v>
-      </c>
-      <c r="S74" s="9">
-        <v>32.044958000000001</v>
-      </c>
-      <c r="T74" s="9">
-        <v>33.316661000000003</v>
-      </c>
-      <c r="U74" s="9">
-        <v>32.620902999999998</v>
-      </c>
-      <c r="V74" s="9">
-        <v>32.306310000000003</v>
-      </c>
-      <c r="W74" s="9">
-        <v>31.003724999999999</v>
-      </c>
-      <c r="X74" s="9">
-        <v>30.520522</v>
-      </c>
-      <c r="Y74" s="9">
-        <v>30.738209999999999</v>
-      </c>
-      <c r="Z74" s="9">
-        <v>30.51821</v>
-      </c>
-    </row>
-    <row r="75" spans="1:26" x14ac:dyDescent="0.45">
-      <c r="A75" t="s">
-        <v>6</v>
-      </c>
-      <c r="B75" s="9">
-        <v>25.246600999999998</v>
-      </c>
-      <c r="C75" s="9">
-        <v>26.368372000000001</v>
-      </c>
-      <c r="D75" s="9">
-        <v>26.869854</v>
-      </c>
-      <c r="E75" s="9">
-        <v>29.614084000000002</v>
-      </c>
-      <c r="F75" s="9">
-        <v>31.054525999999999</v>
-      </c>
-      <c r="G75" s="9">
-        <v>34.191386999999999</v>
-      </c>
-      <c r="H75" s="9">
-        <v>36.680190999999994</v>
-      </c>
-      <c r="I75" s="9">
-        <v>38.081439999999994</v>
-      </c>
-      <c r="J75" s="9">
-        <v>39.473061999999999</v>
-      </c>
-      <c r="K75" s="9">
-        <v>39.561553000000004</v>
-      </c>
-      <c r="L75" s="9">
-        <v>40.650650000000006</v>
-      </c>
-      <c r="M75" s="9">
-        <v>42.418948</v>
-      </c>
-      <c r="N75" s="9">
-        <v>43.030622000000001</v>
-      </c>
-      <c r="O75" s="9">
-        <v>44.173751000000003</v>
-      </c>
-      <c r="P75" s="9">
-        <v>45.406352999999996</v>
-      </c>
-      <c r="Q75" s="9">
-        <v>47.104570000000002</v>
-      </c>
-      <c r="R75" s="9">
-        <v>47.622265000000006</v>
-      </c>
-      <c r="S75" s="9">
-        <v>49.520788000000003</v>
-      </c>
-      <c r="T75" s="9">
-        <v>50.102229000000001</v>
-      </c>
-      <c r="U75" s="9">
-        <v>50.279372000000002</v>
-      </c>
-      <c r="V75" s="9">
-        <v>50.763076000000005</v>
-      </c>
-      <c r="W75" s="9">
-        <v>51.566144000000001</v>
-      </c>
-      <c r="X75" s="9">
-        <v>52.009145000000004</v>
-      </c>
-      <c r="Y75" s="9">
-        <v>52.121595000000006</v>
-      </c>
-      <c r="Z75" s="9">
-        <v>52.293395000000004</v>
-      </c>
-    </row>
-    <row r="76" spans="1:26" x14ac:dyDescent="0.45">
-      <c r="A76" t="s">
-        <v>19</v>
-      </c>
-      <c r="B76" s="9">
-        <v>2.86</v>
-      </c>
-      <c r="C76" s="9">
-        <v>2.72</v>
-      </c>
-      <c r="D76" s="9">
-        <v>2.72</v>
-      </c>
-      <c r="E76" s="9">
-        <v>2.72</v>
-      </c>
-      <c r="F76" s="9">
-        <v>2.77</v>
-      </c>
-      <c r="G76" s="9">
-        <v>3.36</v>
-      </c>
-      <c r="H76" s="9">
-        <v>3.9</v>
-      </c>
-      <c r="I76" s="9">
-        <v>4.12</v>
-      </c>
-      <c r="J76" s="9">
-        <v>4.12</v>
-      </c>
-      <c r="K76" s="9">
-        <v>4.5599999999999996</v>
-      </c>
-      <c r="L76" s="9">
-        <v>4.78</v>
-      </c>
-      <c r="M76" s="9">
-        <v>4.78</v>
-      </c>
-      <c r="N76" s="9">
-        <v>4.78</v>
-      </c>
-      <c r="O76" s="9">
-        <v>4.78</v>
-      </c>
-      <c r="P76" s="9">
-        <v>5.78</v>
-      </c>
-      <c r="Q76" s="9">
-        <v>5.78</v>
-      </c>
-      <c r="R76" s="9">
-        <v>5.78</v>
-      </c>
-      <c r="S76" s="9">
-        <v>6.78</v>
-      </c>
-      <c r="T76" s="9">
-        <v>6.78</v>
-      </c>
-      <c r="U76" s="9">
-        <v>6.78</v>
-      </c>
-      <c r="V76" s="9">
-        <v>6.78</v>
-      </c>
-      <c r="W76" s="9">
-        <v>6.78</v>
-      </c>
-      <c r="X76" s="9">
-        <v>6.78</v>
-      </c>
-      <c r="Y76" s="9">
-        <v>7.48</v>
-      </c>
-      <c r="Z76" s="9">
-        <v>8.18</v>
-      </c>
-    </row>
-    <row r="77" spans="1:26" x14ac:dyDescent="0.45">
-      <c r="A77" t="s">
-        <v>23</v>
-      </c>
-      <c r="B77" s="9">
-        <v>6.7865200000000003</v>
-      </c>
-      <c r="C77" s="9">
-        <v>7.0619730000000001</v>
-      </c>
-      <c r="D77" s="9">
-        <v>7.4292449999999999</v>
-      </c>
-      <c r="E77" s="9">
-        <v>7.7965159999999996</v>
-      </c>
-      <c r="F77" s="9">
-        <v>8.163787000000001</v>
-      </c>
-      <c r="G77" s="9">
-        <v>8.5560480000000005</v>
-      </c>
-      <c r="H77" s="9">
-        <v>8.8759589999999999</v>
-      </c>
-      <c r="I77" s="9">
-        <v>9.6582249999999998</v>
-      </c>
-      <c r="J77" s="9">
-        <v>9.9729850000000013</v>
-      </c>
-      <c r="K77" s="9">
-        <v>10.533329999999999</v>
-      </c>
-      <c r="L77" s="9">
-        <v>10.874392</v>
-      </c>
-      <c r="M77" s="9">
-        <v>11.163295</v>
-      </c>
-      <c r="N77" s="9">
-        <v>12.143818</v>
-      </c>
-      <c r="O77" s="9">
-        <v>12.666102</v>
-      </c>
-      <c r="P77" s="9">
-        <v>13.188933</v>
-      </c>
-      <c r="Q77" s="9">
-        <v>13.392975</v>
-      </c>
-      <c r="R77" s="9">
-        <v>14.075264999999998</v>
-      </c>
-      <c r="S77" s="9">
-        <v>14.179892000000001</v>
-      </c>
-      <c r="T77" s="9">
-        <v>15.760520999999999</v>
-      </c>
-      <c r="U77" s="9">
-        <v>14.148911</v>
-      </c>
-      <c r="V77" s="9">
-        <v>17.063198999999997</v>
-      </c>
-      <c r="W77" s="9">
-        <v>19.104064999999999</v>
-      </c>
-      <c r="X77" s="9">
-        <v>19.91151</v>
-      </c>
-      <c r="Y77" s="9">
-        <v>20.080645000000001</v>
-      </c>
-      <c r="Z77" s="9">
-        <v>20.099170000000001</v>
-      </c>
-    </row>
-    <row r="78" spans="1:26" x14ac:dyDescent="0.45">
-      <c r="A78" t="s">
-        <v>9</v>
-      </c>
-      <c r="B78" s="9"/>
-      <c r="C78" s="9">
-        <v>5.535E-3</v>
-      </c>
-      <c r="D78" s="9">
-        <v>6.705E-3</v>
-      </c>
-      <c r="E78" s="9">
-        <v>7.8849999999999996E-3</v>
-      </c>
-      <c r="F78" s="9">
-        <v>7.8099999999999992E-3</v>
-      </c>
-      <c r="G78" s="9">
-        <v>1.3439E-2</v>
-      </c>
-      <c r="H78" s="9">
-        <v>1.1474999999999999E-2</v>
-      </c>
-      <c r="I78" s="9">
-        <v>2.8830999999999999E-2</v>
-      </c>
-      <c r="J78" s="9">
-        <v>3.1454000000000003E-2</v>
-      </c>
-      <c r="K78" s="9">
-        <v>4.3094E-2</v>
-      </c>
-      <c r="L78" s="9">
-        <v>6.883199999999999E-2</v>
-      </c>
-      <c r="M78" s="9">
-        <v>0.56928499999999993</v>
-      </c>
-      <c r="N78" s="9">
-        <v>0.98557099999999997</v>
-      </c>
-      <c r="O78" s="9">
-        <v>1.6028199999999999</v>
-      </c>
-      <c r="P78" s="9">
-        <v>3.7760149999999997</v>
-      </c>
-      <c r="Q78" s="9">
-        <v>5.6969899999999996</v>
-      </c>
-      <c r="R78" s="9">
-        <v>9.9821360000000006</v>
-      </c>
-      <c r="S78" s="9">
-        <v>18.256847</v>
-      </c>
-      <c r="T78" s="9">
-        <v>27.484721</v>
-      </c>
-      <c r="U78" s="9">
-        <v>35.250193000000003</v>
-      </c>
-      <c r="V78" s="9">
-        <v>39.705453999999996</v>
-      </c>
-      <c r="W78" s="9">
-        <v>49.949916000000002</v>
-      </c>
-      <c r="X78" s="9">
-        <v>63.390404000000004</v>
-      </c>
-      <c r="Y78" s="9">
-        <v>72.85928100000001</v>
-      </c>
-      <c r="Z78" s="9">
-        <v>97.384001000000012</v>
-      </c>
-    </row>
-    <row r="79" spans="1:26" x14ac:dyDescent="0.45">
-      <c r="A79" t="s">
-        <v>12</v>
-      </c>
-      <c r="B79" s="9">
-        <v>0.94099999999999995</v>
-      </c>
-      <c r="C79" s="9">
-        <v>1.5629999999999999</v>
-      </c>
-      <c r="D79" s="9">
-        <v>1.6060000000000001</v>
-      </c>
-      <c r="E79" s="9">
-        <v>2.4609999999999999</v>
-      </c>
-      <c r="F79" s="9">
-        <v>3.8130000000000002</v>
-      </c>
-      <c r="G79" s="9">
-        <v>4.4338999999999995</v>
-      </c>
-      <c r="H79" s="9">
-        <v>6.3150000000000004</v>
-      </c>
-      <c r="I79" s="9">
-        <v>7.8445200000000002</v>
-      </c>
-      <c r="J79" s="9">
-        <v>10.2425</v>
-      </c>
-      <c r="K79" s="9">
-        <v>10.925000000000001</v>
-      </c>
-      <c r="L79" s="9">
-        <v>13.183999999999999</v>
-      </c>
-      <c r="M79" s="9">
-        <v>16.178999999999998</v>
-      </c>
-      <c r="N79" s="9">
-        <v>17.299700000000001</v>
-      </c>
-      <c r="O79" s="9">
-        <v>18.420400000000001</v>
-      </c>
-      <c r="P79" s="9">
-        <v>22.465299999999999</v>
-      </c>
-      <c r="Q79" s="9">
-        <v>25.088189999999997</v>
-      </c>
-      <c r="R79" s="9">
-        <v>28.70044</v>
-      </c>
-      <c r="S79" s="9">
-        <v>32.848459999999996</v>
-      </c>
-      <c r="T79" s="9">
-        <v>35.2881</v>
-      </c>
-      <c r="U79" s="9">
-        <v>37.505180000000003</v>
-      </c>
-      <c r="V79" s="9">
-        <v>38.558599999999998</v>
-      </c>
-      <c r="W79" s="9">
-        <v>40.067264999999999</v>
-      </c>
-      <c r="X79" s="9">
-        <v>41.929780000000001</v>
-      </c>
-      <c r="Y79" s="9">
-        <v>44.736239999999995</v>
-      </c>
-      <c r="Z79" s="9">
-        <v>48.163160000000005</v>
-      </c>
-    </row>
-    <row r="84" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="85" spans="1:26" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A85" s="6" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="86" spans="1:26" x14ac:dyDescent="0.45">
-      <c r="A86" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="B86" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C86" s="7">
-        <v>2000</v>
-      </c>
-      <c r="D86" s="7">
-        <v>2001</v>
-      </c>
-      <c r="E86" s="7">
-        <v>2002</v>
-      </c>
-      <c r="F86" s="7">
-        <v>2003</v>
-      </c>
-      <c r="G86" s="7">
-        <v>2004</v>
-      </c>
-      <c r="H86" s="7">
-        <v>2005</v>
-      </c>
-      <c r="I86" s="7">
-        <v>2006</v>
-      </c>
-      <c r="J86" s="7">
-        <v>2007</v>
-      </c>
-      <c r="K86" s="7">
-        <v>2008</v>
-      </c>
-      <c r="L86" s="7">
-        <v>2009</v>
-      </c>
-      <c r="M86" s="7">
-        <v>2010</v>
-      </c>
-      <c r="N86" s="7">
-        <v>2011</v>
-      </c>
-      <c r="O86" s="7">
-        <v>2012</v>
-      </c>
-      <c r="P86" s="7">
-        <v>2013</v>
-      </c>
-      <c r="Q86" s="7">
-        <v>2014</v>
-      </c>
-      <c r="R86" s="7">
-        <v>2015</v>
-      </c>
-      <c r="S86" s="7">
-        <v>2016</v>
-      </c>
-      <c r="T86" s="7">
-        <v>2017</v>
-      </c>
-      <c r="U86" s="7">
-        <v>2018</v>
-      </c>
-      <c r="V86" s="7">
-        <v>2019</v>
-      </c>
-      <c r="W86" s="7">
-        <v>2020</v>
-      </c>
-      <c r="X86" s="7">
-        <v>2021</v>
-      </c>
-      <c r="Y86" s="7">
-        <v>2022</v>
-      </c>
-      <c r="Z86" s="7">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="87" spans="1:26" x14ac:dyDescent="0.45">
-      <c r="A87" t="s">
-        <v>66</v>
-      </c>
-      <c r="B87" t="s">
-        <v>67</v>
-      </c>
-      <c r="C87" s="9">
-        <v>0.2</v>
-      </c>
-      <c r="D87" s="9">
-        <v>0.2</v>
-      </c>
-      <c r="E87" s="9">
-        <v>0.2</v>
-      </c>
-      <c r="F87" s="9">
-        <v>0.1</v>
-      </c>
-      <c r="G87" s="9">
-        <v>0</v>
-      </c>
-      <c r="H87" s="9">
-        <v>0.2</v>
-      </c>
-      <c r="I87" s="9">
-        <v>0.2</v>
-      </c>
-      <c r="J87" s="9">
-        <v>0.3</v>
-      </c>
-      <c r="K87" s="9">
-        <v>0.3</v>
-      </c>
-      <c r="L87" s="9">
-        <v>0.5</v>
-      </c>
-      <c r="M87" s="9">
-        <v>0.6</v>
-      </c>
-      <c r="N87" s="9"/>
-      <c r="O87" s="9"/>
-      <c r="P87" s="9"/>
-      <c r="Q87" s="9">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="R87" s="9">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="S87" s="9">
-        <v>6.7</v>
-      </c>
-      <c r="T87" s="9">
-        <v>7.2</v>
-      </c>
-      <c r="U87" s="9">
-        <v>8.5</v>
-      </c>
-      <c r="V87" s="9">
-        <v>9.5</v>
-      </c>
-      <c r="W87" s="9">
-        <v>9.4</v>
-      </c>
-      <c r="X87" s="9">
-        <v>9.6</v>
-      </c>
-      <c r="Y87" s="9">
-        <v>10.3</v>
-      </c>
-      <c r="Z87" s="9"/>
-    </row>
-    <row r="88" spans="1:26" x14ac:dyDescent="0.45">
-      <c r="A88" t="s">
-        <v>66</v>
-      </c>
-      <c r="B88" t="s">
-        <v>68</v>
-      </c>
-      <c r="C88" s="9">
-        <v>1.5</v>
-      </c>
-      <c r="D88" s="9">
-        <v>1.5</v>
-      </c>
-      <c r="E88" s="9">
-        <v>1.5</v>
-      </c>
-      <c r="F88" s="9">
-        <v>1.7</v>
-      </c>
-      <c r="G88" s="9">
-        <v>1.7</v>
-      </c>
-      <c r="H88" s="9">
-        <v>1.8</v>
-      </c>
-      <c r="I88" s="9">
-        <v>3</v>
-      </c>
-      <c r="J88" s="9">
-        <v>5.2</v>
-      </c>
-      <c r="K88" s="9">
-        <v>5.9</v>
-      </c>
-      <c r="L88" s="9">
-        <v>5.4</v>
-      </c>
-      <c r="M88" s="9">
-        <v>5.6</v>
-      </c>
-      <c r="N88" s="9">
-        <v>8.4</v>
-      </c>
-      <c r="O88" s="9">
-        <v>5.2</v>
-      </c>
-      <c r="P88" s="9">
-        <v>5.6</v>
-      </c>
-      <c r="Q88" s="9">
-        <v>5</v>
-      </c>
-      <c r="R88" s="9">
-        <v>5.2</v>
-      </c>
-      <c r="S88" s="9">
-        <v>5.6</v>
-      </c>
-      <c r="T88" s="9">
-        <v>5.6</v>
-      </c>
-      <c r="U88" s="9">
-        <v>4.7</v>
-      </c>
-      <c r="V88" s="9">
-        <v>6.4</v>
-      </c>
-      <c r="W88" s="9">
-        <v>9.3000000000000007</v>
-      </c>
-      <c r="X88" s="9">
-        <v>9.5</v>
-      </c>
-      <c r="Y88" s="9">
-        <v>7.8</v>
-      </c>
-      <c r="Z88" s="9"/>
+      <c r="Z88" s="13"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:Y1"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/VerveStacks_IND/SuppXLS/Scen_Base_VS.xlsx
+++ b/VerveStacks_IND/SuppXLS/Scen_Base_VS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_IND\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD6A75DC-AA68-420A-92EB-A4AB30AB0138}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF01B8B1-98C4-4C11-A606-FDC0571FAB0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_IND/SuppXLS/Scen_Base_VS.xlsx
+++ b/VerveStacks_IND/SuppXLS/Scen_Base_VS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_IND\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF01B8B1-98C4-4C11-A606-FDC0571FAB0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{261D8D98-F6D9-4DEE-9C59-FCDCA732F168}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_IND/SuppXLS/Scen_Base_VS.xlsx
+++ b/VerveStacks_IND/SuppXLS/Scen_Base_VS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_IND\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{261D8D98-F6D9-4DEE-9C59-FCDCA732F168}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F640F6AC-C817-4538-AEB5-680ED3643D49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_IND/SuppXLS/Scen_Base_VS.xlsx
+++ b/VerveStacks_IND/SuppXLS/Scen_Base_VS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_IND\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE5F33D6-3D3E-4C15-9276-2C2491162CC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7727FEFD-FB48-4FA5-882C-08B86C796B3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_IND/SuppXLS/Scen_Base_VS.xlsx
+++ b/VerveStacks_IND/SuppXLS/Scen_Base_VS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_IND\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7727FEFD-FB48-4FA5-882C-08B86C796B3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{313B4037-B5CC-41DA-A017-7DAAF2093F63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -96,7 +96,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="80">
   <si>
     <t>~TFM_INS-AT</t>
   </si>
@@ -306,6 +306,9 @@
   </si>
   <si>
     <t>EMBER Capacity (GW)</t>
+  </si>
+  <si>
+    <t>EMBER Emissions (Mt CO2)</t>
   </si>
   <si>
     <t>IRENA Generation (TWh)</t>
@@ -480,7 +483,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -504,6 +507,8 @@
     <xf numFmtId="2" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="8" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="7" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3055,597 +3060,624 @@
       <c r="X25" s="10">
         <v>2022</v>
       </c>
+      <c r="Y25" s="10">
+        <v>2023</v>
+      </c>
     </row>
     <row r="26" spans="1:25" ht="16.5" x14ac:dyDescent="0.6">
       <c r="A26" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="B26" s="12">
-        <v>2.814441</v>
-      </c>
-      <c r="C26" s="12">
-        <v>2.9511509999999999</v>
-      </c>
-      <c r="D26" s="12">
-        <v>3.4832550000000002</v>
-      </c>
-      <c r="E26" s="12">
-        <v>4.1322770000000002</v>
-      </c>
-      <c r="F26" s="12">
-        <v>5.1441699999999999</v>
-      </c>
-      <c r="G26" s="12">
-        <v>6.1981600000000006</v>
-      </c>
-      <c r="H26" s="12">
-        <v>7.3552389999999992</v>
-      </c>
-      <c r="I26" s="12">
-        <v>9.2891490000000001</v>
-      </c>
-      <c r="J26" s="12">
-        <v>10.342782000000001</v>
-      </c>
-      <c r="K26" s="12">
-        <v>11.282382999999999</v>
-      </c>
-      <c r="L26" s="12">
-        <v>16.974319000000001</v>
+      <c r="B26" s="15">
+        <v>0.37</v>
+      </c>
+      <c r="C26" s="15">
+        <v>0.45</v>
+      </c>
+      <c r="D26" s="15">
+        <v>0.46</v>
+      </c>
+      <c r="E26" s="15">
+        <v>0.59</v>
+      </c>
+      <c r="F26" s="15">
+        <v>0.72</v>
+      </c>
+      <c r="G26" s="15">
+        <v>0.87</v>
+      </c>
+      <c r="H26" s="15">
+        <v>1.21</v>
+      </c>
+      <c r="I26" s="15">
+        <v>1.6</v>
+      </c>
+      <c r="J26" s="15">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="K26" s="15">
+        <v>2.52</v>
+      </c>
+      <c r="L26" s="15">
+        <v>3.09</v>
       </c>
       <c r="M26" s="12">
-        <v>17.600090999999999</v>
+        <v>3.71</v>
       </c>
       <c r="N26" s="12">
-        <v>23.914818</v>
+        <v>4.3099999999999996</v>
       </c>
       <c r="O26" s="12">
-        <v>28.613112000000001</v>
+        <v>4.8600000000000003</v>
       </c>
       <c r="P26" s="12">
-        <v>33.236033999999997</v>
+        <v>5.34</v>
       </c>
       <c r="Q26" s="12">
-        <v>28.86646</v>
+        <v>6.62</v>
       </c>
       <c r="R26" s="12">
-        <v>18.212263999999998</v>
+        <v>5.37</v>
       </c>
       <c r="S26" s="12">
-        <v>16.664293999999998</v>
+        <v>5.39</v>
       </c>
       <c r="T26" s="12">
-        <v>18.728638999999998</v>
+        <v>5.88</v>
       </c>
       <c r="U26" s="12">
-        <v>20.912963999999999</v>
+        <v>6.81</v>
       </c>
       <c r="V26" s="12">
-        <v>20.662521999999999</v>
+        <v>7.1</v>
       </c>
       <c r="W26" s="12">
-        <v>22.253250999999999</v>
+        <v>7.68</v>
       </c>
       <c r="X26" s="12">
-        <v>24.551218000000002</v>
+        <v>8.34</v>
+      </c>
+      <c r="Y26" s="12">
+        <v>8.06</v>
       </c>
     </row>
     <row r="27" spans="1:25" ht="16.5" x14ac:dyDescent="0.6">
       <c r="A27" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B27" s="14">
-        <v>398.14011999999997</v>
-      </c>
-      <c r="C27" s="14">
-        <v>402.047481</v>
-      </c>
-      <c r="D27" s="14">
-        <v>418.91692399999999</v>
-      </c>
-      <c r="E27" s="14">
-        <v>439.27336700000001</v>
-      </c>
-      <c r="F27" s="14">
-        <v>458.73731099999998</v>
-      </c>
-      <c r="G27" s="14">
-        <v>476.19325400000002</v>
-      </c>
-      <c r="H27" s="14">
-        <v>494.04950300000002</v>
-      </c>
-      <c r="I27" s="14">
-        <v>523.62525000000005</v>
-      </c>
-      <c r="J27" s="14">
-        <v>551.80562199999997</v>
-      </c>
-      <c r="K27" s="14">
-        <v>593.3918000000001</v>
-      </c>
-      <c r="L27" s="14">
-        <v>627.24084800000003</v>
+      <c r="B27" s="16">
+        <v>362.56</v>
+      </c>
+      <c r="C27" s="16">
+        <v>379.35</v>
+      </c>
+      <c r="D27" s="16">
+        <v>396.55</v>
+      </c>
+      <c r="E27" s="16">
+        <v>410.39</v>
+      </c>
+      <c r="F27" s="16">
+        <v>430.44</v>
+      </c>
+      <c r="G27" s="16">
+        <v>444.76</v>
+      </c>
+      <c r="H27" s="16">
+        <v>469.78</v>
+      </c>
+      <c r="I27" s="16">
+        <v>495.61</v>
+      </c>
+      <c r="J27" s="16">
+        <v>532.65</v>
+      </c>
+      <c r="K27" s="16">
+        <v>568.04999999999995</v>
+      </c>
+      <c r="L27" s="16">
+        <v>597.6</v>
       </c>
       <c r="M27" s="14">
-        <v>672.806332</v>
+        <v>650.73</v>
       </c>
       <c r="N27" s="14">
-        <v>739.146838</v>
+        <v>728.15</v>
       </c>
       <c r="O27" s="14">
-        <v>819.30900600000007</v>
+        <v>782.51</v>
       </c>
       <c r="P27" s="14">
-        <v>888.70661899999993</v>
+        <v>874.37</v>
       </c>
       <c r="Q27" s="14">
-        <v>980.78397400000006</v>
+        <v>924.16</v>
       </c>
       <c r="R27" s="14">
-        <v>1044.4478120000001</v>
+        <v>983.7</v>
       </c>
       <c r="S27" s="14">
-        <v>1093.8221880000001</v>
+        <v>1020.03</v>
       </c>
       <c r="T27" s="14">
-        <v>1149.472673</v>
+        <v>1095.1600000000001</v>
       </c>
       <c r="U27" s="14">
-        <v>1204.822467</v>
+        <v>1093.56</v>
       </c>
       <c r="V27" s="14">
-        <v>1193.453534</v>
+        <v>1042.33</v>
       </c>
       <c r="W27" s="14">
-        <v>1195.393597</v>
+        <v>1143.42</v>
       </c>
       <c r="X27" s="14">
-        <v>1287.1116669999999</v>
+        <v>1232.5999999999999</v>
+      </c>
+      <c r="Y27" s="14">
+        <v>1338.45</v>
       </c>
     </row>
     <row r="28" spans="1:25" ht="16.5" x14ac:dyDescent="0.6">
       <c r="A28" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B28" s="12">
-        <v>59.268980999999997</v>
-      </c>
-      <c r="C28" s="12">
-        <v>59.128382999999999</v>
-      </c>
-      <c r="D28" s="12">
-        <v>60.233739999999997</v>
-      </c>
-      <c r="E28" s="12">
-        <v>66.255597999999992</v>
-      </c>
-      <c r="F28" s="12">
-        <v>71.606205000000003</v>
-      </c>
-      <c r="G28" s="12">
-        <v>74.643812999999994</v>
-      </c>
-      <c r="H28" s="12">
-        <v>75.710014000000001</v>
-      </c>
-      <c r="I28" s="12">
-        <v>83.348249999999993</v>
-      </c>
-      <c r="J28" s="12">
-        <v>93.201521999999997</v>
-      </c>
-      <c r="K28" s="12">
-        <v>94.20526799999999</v>
-      </c>
-      <c r="L28" s="12">
-        <v>116.02822999999999</v>
+      <c r="B28" s="15">
+        <v>38.78</v>
+      </c>
+      <c r="C28" s="15">
+        <v>38.76</v>
+      </c>
+      <c r="D28" s="15">
+        <v>43.58</v>
+      </c>
+      <c r="E28" s="15">
+        <v>50.46</v>
+      </c>
+      <c r="F28" s="15">
+        <v>53.08</v>
+      </c>
+      <c r="G28" s="15">
+        <v>52.31</v>
+      </c>
+      <c r="H28" s="15">
+        <v>51.77</v>
+      </c>
+      <c r="I28" s="15">
+        <v>62.41</v>
+      </c>
+      <c r="J28" s="15">
+        <v>59.52</v>
+      </c>
+      <c r="K28" s="15">
+        <v>72.34</v>
+      </c>
+      <c r="L28" s="15">
+        <v>81.8</v>
       </c>
       <c r="M28" s="12">
-        <v>115.646368</v>
+        <v>81.48</v>
       </c>
       <c r="N28" s="12">
-        <v>108.29788000000001</v>
+        <v>66.709999999999994</v>
       </c>
       <c r="O28" s="12">
-        <v>81.683047000000002</v>
+        <v>45.96</v>
       </c>
       <c r="P28" s="12">
-        <v>63.877936999999996</v>
+        <v>44.36</v>
       </c>
       <c r="Q28" s="12">
-        <v>63.709078999999996</v>
+        <v>44.89</v>
       </c>
       <c r="R28" s="12">
-        <v>69.141384000000002</v>
+        <v>50.33</v>
       </c>
       <c r="S28" s="12">
-        <v>72.854422</v>
+        <v>51.97</v>
       </c>
       <c r="T28" s="12">
-        <v>74.022139999999993</v>
+        <v>49.39</v>
       </c>
       <c r="U28" s="12">
-        <v>70.505566999999999</v>
+        <v>49.87</v>
       </c>
       <c r="V28" s="12">
-        <v>73.571229000000002</v>
+        <v>51.83</v>
       </c>
       <c r="W28" s="12">
-        <v>68.674893999999995</v>
+        <v>41.86</v>
       </c>
       <c r="X28" s="12">
-        <v>53.958953000000001</v>
+        <v>32.21</v>
+      </c>
+      <c r="Y28" s="12">
+        <v>36.46</v>
       </c>
     </row>
     <row r="29" spans="1:25" ht="16.5" x14ac:dyDescent="0.6">
       <c r="A29" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B29" s="14">
-        <v>74.638721000000004</v>
-      </c>
-      <c r="C29" s="14">
-        <v>74.447106000000005</v>
-      </c>
-      <c r="D29" s="14">
-        <v>71.459827000000004</v>
-      </c>
-      <c r="E29" s="14">
-        <v>67.069000000000003</v>
-      </c>
-      <c r="F29" s="14">
-        <v>77.868117000000012</v>
-      </c>
-      <c r="G29" s="14">
-        <v>89.990096999999992</v>
-      </c>
-      <c r="H29" s="14">
-        <v>108.31240699999999</v>
-      </c>
-      <c r="I29" s="14">
-        <v>119.382685</v>
-      </c>
-      <c r="J29" s="14">
-        <v>122.33765799999999</v>
-      </c>
-      <c r="K29" s="14">
-        <v>113.684254</v>
-      </c>
-      <c r="L29" s="14">
-        <v>112.12539899999999</v>
+      <c r="B29" s="16">
+        <v>1.83</v>
+      </c>
+      <c r="C29" s="16">
+        <v>1.71</v>
+      </c>
+      <c r="D29" s="16">
+        <v>1.63</v>
+      </c>
+      <c r="E29" s="16">
+        <v>1.65</v>
+      </c>
+      <c r="F29" s="16">
+        <v>2.39</v>
+      </c>
+      <c r="G29" s="16">
+        <v>2.31</v>
+      </c>
+      <c r="H29" s="16">
+        <v>2.68</v>
+      </c>
+      <c r="I29" s="16">
+        <v>2.91</v>
+      </c>
+      <c r="J29" s="16">
+        <v>2.74</v>
+      </c>
+      <c r="K29" s="16">
+        <v>2.5299999999999998</v>
+      </c>
+      <c r="L29" s="16">
+        <v>2.58</v>
       </c>
       <c r="M29" s="14">
-        <v>124.67310699999999</v>
+        <v>3.13</v>
       </c>
       <c r="N29" s="14">
-        <v>133.09398999999999</v>
+        <v>2.75</v>
       </c>
       <c r="O29" s="14">
-        <v>125.95339499999999</v>
+        <v>3.14</v>
       </c>
       <c r="P29" s="14">
-        <v>140.81420900000001</v>
+        <v>3.3</v>
       </c>
       <c r="Q29" s="14">
-        <v>135.51182299999999</v>
+        <v>3.17</v>
       </c>
       <c r="R29" s="14">
-        <v>130.160698</v>
+        <v>3.05</v>
       </c>
       <c r="S29" s="14">
-        <v>131.35127799999998</v>
+        <v>3.23</v>
       </c>
       <c r="T29" s="14">
-        <v>136.64260400000001</v>
+        <v>3.32</v>
       </c>
       <c r="U29" s="14">
-        <v>149.54374799999999</v>
+        <v>3.85</v>
       </c>
       <c r="V29" s="14">
-        <v>164.675239</v>
+        <v>3.89</v>
       </c>
       <c r="W29" s="14">
-        <v>161.549949</v>
+        <v>3.81</v>
       </c>
       <c r="X29" s="14">
-        <v>165.52240799999998</v>
+        <v>4.16</v>
+      </c>
+      <c r="Y29" s="14">
+        <v>3.54</v>
       </c>
     </row>
     <row r="30" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A30" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="B30" s="12">
-        <v>16.902000000000001</v>
-      </c>
-      <c r="C30" s="12">
-        <v>17.545249999999999</v>
-      </c>
-      <c r="D30" s="12">
-        <v>19.453749999999999</v>
-      </c>
-      <c r="E30" s="12">
-        <v>18.987500000000001</v>
-      </c>
-      <c r="F30" s="12">
-        <v>17.58775</v>
-      </c>
-      <c r="G30" s="12">
-        <v>17.08925</v>
-      </c>
-      <c r="H30" s="12">
-        <v>17.6935</v>
-      </c>
-      <c r="I30" s="12">
-        <v>18.34075</v>
-      </c>
-      <c r="J30" s="12">
-        <v>16.4495</v>
-      </c>
-      <c r="K30" s="12">
-        <v>15.85436</v>
-      </c>
-      <c r="L30" s="12">
-        <v>20.54393</v>
+      <c r="B30" s="15">
+        <v>0.09</v>
+      </c>
+      <c r="C30" s="15">
+        <v>0.11</v>
+      </c>
+      <c r="D30" s="15">
+        <v>0.11</v>
+      </c>
+      <c r="E30" s="15">
+        <v>0.11</v>
+      </c>
+      <c r="F30" s="15">
+        <v>0.13</v>
+      </c>
+      <c r="G30" s="15">
+        <v>0.1</v>
+      </c>
+      <c r="H30" s="15">
+        <v>0.1</v>
+      </c>
+      <c r="I30" s="15">
+        <v>0.1</v>
+      </c>
+      <c r="J30" s="15">
+        <v>0.09</v>
+      </c>
+      <c r="K30" s="15">
+        <v>0.1</v>
+      </c>
+      <c r="L30" s="15">
+        <v>0.14000000000000001</v>
       </c>
       <c r="M30" s="12">
-        <v>27.771439999999998</v>
+        <v>0.19</v>
       </c>
       <c r="N30" s="12">
-        <v>32.431448000000003</v>
+        <v>0.19</v>
       </c>
       <c r="O30" s="12">
-        <v>33.206530000000001</v>
+        <v>0.2</v>
       </c>
       <c r="P30" s="12">
-        <v>34.696228000000005</v>
+        <v>0.2</v>
       </c>
       <c r="Q30" s="12">
-        <v>36.429559999999995</v>
+        <v>0.23</v>
       </c>
       <c r="R30" s="12">
-        <v>37.539182000000004</v>
+        <v>0.22</v>
       </c>
       <c r="S30" s="12">
-        <v>38.023432</v>
+        <v>0.22</v>
       </c>
       <c r="T30" s="12">
-        <v>38.212739999999997</v>
+        <v>0.23</v>
       </c>
       <c r="U30" s="12">
-        <v>39.977561999999999</v>
+        <v>0.27</v>
       </c>
       <c r="V30" s="12">
-        <v>45.611607999999997</v>
+        <v>0.26</v>
       </c>
       <c r="W30" s="12">
-        <v>44.049824999999998</v>
+        <v>0.26</v>
       </c>
       <c r="X30" s="12">
-        <v>46.799295000000001</v>
+        <v>0.27</v>
+      </c>
+      <c r="Y30" s="12">
+        <v>0.28000000000000003</v>
       </c>
     </row>
     <row r="31" spans="1:25" ht="16.5" x14ac:dyDescent="0.6">
       <c r="A31" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="B31" s="14">
-        <v>10.534576999999999</v>
-      </c>
-      <c r="C31" s="14">
-        <v>10.857251</v>
-      </c>
-      <c r="D31" s="14">
-        <v>12.058078</v>
-      </c>
-      <c r="E31" s="14">
-        <v>12.496026000000001</v>
-      </c>
-      <c r="F31" s="14">
-        <v>11.376001</v>
-      </c>
-      <c r="G31" s="14">
-        <v>10.674882</v>
-      </c>
-      <c r="H31" s="14">
-        <v>11.773006000000001</v>
-      </c>
-      <c r="I31" s="14">
-        <v>12.969194</v>
-      </c>
-      <c r="J31" s="14">
-        <v>14.370289999999999</v>
-      </c>
-      <c r="K31" s="14">
-        <v>14.358307999999999</v>
-      </c>
-      <c r="L31" s="14">
-        <v>12.195684</v>
+      <c r="B31" s="16">
+        <v>19.190000000000001</v>
+      </c>
+      <c r="C31" s="16">
+        <v>17.63</v>
+      </c>
+      <c r="D31" s="16">
+        <v>18.38</v>
+      </c>
+      <c r="E31" s="16">
+        <v>20.46</v>
+      </c>
+      <c r="F31" s="16">
+        <v>18.600000000000001</v>
+      </c>
+      <c r="G31" s="16">
+        <v>16.690000000000001</v>
+      </c>
+      <c r="H31" s="16">
+        <v>12.55</v>
+      </c>
+      <c r="I31" s="16">
+        <v>8.7899999999999991</v>
+      </c>
+      <c r="J31" s="16">
+        <v>10.050000000000001</v>
+      </c>
+      <c r="K31" s="16">
+        <v>8.61</v>
+      </c>
+      <c r="L31" s="16">
+        <v>7.09</v>
       </c>
       <c r="M31" s="14">
-        <v>10.572419999999999</v>
+        <v>6.15</v>
       </c>
       <c r="N31" s="14">
-        <v>9.5188339999999982</v>
+        <v>6.63</v>
       </c>
       <c r="O31" s="14">
-        <v>10.943483000000001</v>
+        <v>7.01</v>
       </c>
       <c r="P31" s="14">
-        <v>11.247142</v>
+        <v>7.6</v>
       </c>
       <c r="Q31" s="14">
-        <v>11.032321</v>
+        <v>6.09</v>
       </c>
       <c r="R31" s="14">
-        <v>9.4083230000000011</v>
+        <v>6.19</v>
       </c>
       <c r="S31" s="14">
-        <v>9.601699</v>
+        <v>5.78</v>
       </c>
       <c r="T31" s="14">
-        <v>8.1454219999999999</v>
+        <v>4.21</v>
       </c>
       <c r="U31" s="14">
-        <v>5.2706970000000002</v>
+        <v>2.02</v>
       </c>
       <c r="V31" s="14">
-        <v>3.1995179999999999</v>
+        <v>2.0299999999999998</v>
       </c>
       <c r="W31" s="14">
-        <v>4.1615609999999998</v>
+        <v>2.23</v>
       </c>
       <c r="X31" s="14">
-        <v>4.3097060000000003</v>
+        <v>2.42</v>
+      </c>
+      <c r="Y31" s="14">
+        <v>2.75</v>
       </c>
     </row>
     <row r="32" spans="1:25" ht="16.5" x14ac:dyDescent="0.6">
       <c r="A32" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B32" s="12">
-        <v>1.464E-3</v>
-      </c>
-      <c r="C32" s="12">
-        <v>7.4720000000000003E-3</v>
-      </c>
-      <c r="D32" s="12">
-        <v>9.0519999999999993E-3</v>
-      </c>
-      <c r="E32" s="12">
-        <v>1.0645E-2</v>
-      </c>
-      <c r="F32" s="12">
-        <v>1.0544000000000001E-2</v>
-      </c>
-      <c r="G32" s="12">
-        <v>1.8142999999999999E-2</v>
-      </c>
-      <c r="H32" s="12">
-        <v>1.5491E-2</v>
-      </c>
-      <c r="I32" s="12">
-        <v>3.9549000000000001E-2</v>
-      </c>
-      <c r="J32" s="12">
-        <v>4.2463000000000001E-2</v>
-      </c>
-      <c r="K32" s="12">
-        <v>5.1078999999999999E-2</v>
-      </c>
-      <c r="L32" s="12">
-        <v>6.9766999999999996E-2</v>
+      <c r="B32" s="15">
+        <v>0</v>
+      </c>
+      <c r="C32" s="15">
+        <v>0</v>
+      </c>
+      <c r="D32" s="15">
+        <v>0</v>
+      </c>
+      <c r="E32" s="15">
+        <v>0</v>
+      </c>
+      <c r="F32" s="15">
+        <v>0</v>
+      </c>
+      <c r="G32" s="15">
+        <v>0</v>
+      </c>
+      <c r="H32" s="15">
+        <v>0</v>
+      </c>
+      <c r="I32" s="15">
+        <v>0</v>
+      </c>
+      <c r="J32" s="15">
+        <v>0</v>
+      </c>
+      <c r="K32" s="15">
+        <v>0</v>
+      </c>
+      <c r="L32" s="15">
+        <v>0.01</v>
       </c>
       <c r="M32" s="12">
-        <v>0.31400400000000001</v>
+        <v>0.04</v>
       </c>
       <c r="N32" s="12">
-        <v>0.97958699999999999</v>
+        <v>0.1</v>
       </c>
       <c r="O32" s="12">
-        <v>1.689214</v>
+        <v>0.16</v>
       </c>
       <c r="P32" s="12">
-        <v>3.1044340000000004</v>
+        <v>0.23</v>
       </c>
       <c r="Q32" s="12">
-        <v>5.9842299999999993</v>
+        <v>0.31</v>
       </c>
       <c r="R32" s="12">
-        <v>10.186408999999999</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="S32" s="12">
-        <v>18.135192</v>
+        <v>1.02</v>
       </c>
       <c r="T32" s="12">
-        <v>31.106488999999996</v>
+        <v>1.73</v>
       </c>
       <c r="U32" s="12">
-        <v>43.933394999999997</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="V32" s="12">
-        <v>55.098596999999998</v>
+        <v>2.79</v>
       </c>
       <c r="W32" s="12">
-        <v>66.237630999999993</v>
+        <v>3.25</v>
       </c>
       <c r="X32" s="12">
-        <v>83.631500000000003</v>
+        <v>4.5199999999999996</v>
+      </c>
+      <c r="Y32" s="12">
+        <v>5.39</v>
       </c>
     </row>
     <row r="33" spans="1:26" ht="16.5" x14ac:dyDescent="0.6">
       <c r="A33" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B33" s="14">
-        <v>1.3189059999999999</v>
-      </c>
-      <c r="C33" s="14">
-        <v>1.5368539999999999</v>
-      </c>
-      <c r="D33" s="14">
-        <v>2.205768</v>
-      </c>
-      <c r="E33" s="14">
-        <v>2.5505619999999998</v>
-      </c>
-      <c r="F33" s="14">
-        <v>3.9230779999999998</v>
-      </c>
-      <c r="G33" s="14">
-        <v>5.5618639999999999</v>
-      </c>
-      <c r="H33" s="14">
-        <v>6.8736920000000001</v>
-      </c>
-      <c r="I33" s="14">
-        <v>9.3870480000000001</v>
-      </c>
-      <c r="J33" s="14">
-        <v>11.835130999999999</v>
-      </c>
-      <c r="K33" s="14">
-        <v>14.595036</v>
-      </c>
-      <c r="L33" s="14">
-        <v>16.104033999999999</v>
+      <c r="B33" s="16">
+        <v>0.03</v>
+      </c>
+      <c r="C33" s="16">
+        <v>0.03</v>
+      </c>
+      <c r="D33" s="16">
+        <v>0.03</v>
+      </c>
+      <c r="E33" s="16">
+        <v>0.04</v>
+      </c>
+      <c r="F33" s="16">
+        <v>0.08</v>
+      </c>
+      <c r="G33" s="16">
+        <v>0.1</v>
+      </c>
+      <c r="H33" s="16">
+        <v>0.15</v>
+      </c>
+      <c r="I33" s="16">
+        <v>0.19</v>
+      </c>
+      <c r="J33" s="16">
+        <v>0.23</v>
+      </c>
+      <c r="K33" s="16">
+        <v>0.26</v>
+      </c>
+      <c r="L33" s="16">
+        <v>0.31</v>
       </c>
       <c r="M33" s="14">
-        <v>19.528141999999999</v>
+        <v>0.39</v>
       </c>
       <c r="N33" s="14">
-        <v>23.069179999999999</v>
+        <v>0.44</v>
       </c>
       <c r="O33" s="14">
-        <v>24.639953000000002</v>
+        <v>0.48</v>
       </c>
       <c r="P33" s="14">
-        <v>27.235366000000003</v>
+        <v>0.54</v>
       </c>
       <c r="Q33" s="14">
-        <v>31.872871</v>
+        <v>0.53</v>
       </c>
       <c r="R33" s="14">
-        <v>36.273128</v>
+        <v>0.7</v>
       </c>
       <c r="S33" s="14">
-        <v>47.669778000000001</v>
+        <v>0.85</v>
       </c>
       <c r="T33" s="14">
-        <v>55.008661999999994</v>
+        <v>0.97</v>
       </c>
       <c r="U33" s="14">
-        <v>62.688877999999995</v>
+        <v>1.02</v>
       </c>
       <c r="V33" s="14">
-        <v>63.522264999999997</v>
+        <v>0.97</v>
       </c>
       <c r="W33" s="14">
-        <v>62.272480000000002</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="X33" s="14">
-        <v>69.433592000000004</v>
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="Y33" s="14">
+        <v>1.32</v>
       </c>
     </row>
     <row r="35" spans="1:26" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
@@ -3726,649 +3758,597 @@
       <c r="X36" s="10">
         <v>2022</v>
       </c>
-      <c r="Y36" s="10">
-        <v>2023</v>
-      </c>
-      <c r="Z36" s="10">
-        <v>2024</v>
-      </c>
     </row>
     <row r="37" spans="1:26" ht="16.5" x14ac:dyDescent="0.6">
       <c r="A37" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="B37" s="15">
-        <v>0.34689999999999999</v>
-      </c>
-      <c r="C37" s="15">
-        <v>0.41539999999999999</v>
-      </c>
-      <c r="D37" s="15">
-        <v>0.48393000000000003</v>
-      </c>
-      <c r="E37" s="15">
-        <v>0.61342999999999992</v>
-      </c>
-      <c r="F37" s="15">
-        <v>0.74952999999999992</v>
-      </c>
-      <c r="G37" s="15">
-        <v>0.96038999999999997</v>
-      </c>
-      <c r="H37" s="15">
-        <v>1.24814</v>
-      </c>
-      <c r="I37" s="15">
-        <v>1.546835</v>
-      </c>
-      <c r="J37" s="15">
-        <v>2.212809</v>
+      <c r="B37" s="12">
+        <v>2.814441</v>
+      </c>
+      <c r="C37" s="12">
+        <v>2.9511509999999999</v>
+      </c>
+      <c r="D37" s="12">
+        <v>3.4832550000000002</v>
+      </c>
+      <c r="E37" s="12">
+        <v>4.1322770000000002</v>
+      </c>
+      <c r="F37" s="12">
+        <v>5.1441699999999999</v>
+      </c>
+      <c r="G37" s="12">
+        <v>6.1981600000000006</v>
+      </c>
+      <c r="H37" s="12">
+        <v>7.3552389999999992</v>
+      </c>
+      <c r="I37" s="12">
+        <v>9.2891490000000001</v>
+      </c>
+      <c r="J37" s="12">
+        <v>10.342782000000001</v>
       </c>
       <c r="K37" s="12">
-        <v>2.5113840000000001</v>
+        <v>11.282382999999999</v>
       </c>
       <c r="L37" s="12">
-        <v>3.1445059999999998</v>
+        <v>16.974319000000001</v>
       </c>
       <c r="M37" s="12">
-        <v>3.677165</v>
+        <v>17.600090999999999</v>
       </c>
       <c r="N37" s="12">
-        <v>3.9289209999999999</v>
+        <v>23.914818</v>
       </c>
       <c r="O37" s="12">
-        <v>4.1803480000000004</v>
+        <v>28.613112000000001</v>
       </c>
       <c r="P37" s="12">
-        <v>5.0300799999999999</v>
+        <v>33.236033999999997</v>
       </c>
       <c r="Q37" s="12">
-        <v>5.4782160000000006</v>
+        <v>28.86646</v>
       </c>
       <c r="R37" s="12">
-        <v>8.8951709999999977</v>
+        <v>18.212263999999998</v>
       </c>
       <c r="S37" s="12">
-        <v>9.4171760000000013</v>
+        <v>16.664293999999998</v>
       </c>
       <c r="T37" s="12">
-        <v>10.137402</v>
+        <v>18.728638999999998</v>
       </c>
       <c r="U37" s="12">
-        <v>10.225633999999999</v>
+        <v>20.912963999999999</v>
       </c>
       <c r="V37" s="12">
-        <v>10.532757</v>
+        <v>20.662521999999999</v>
       </c>
       <c r="W37" s="12">
-        <v>10.591823999999999</v>
+        <v>22.253250999999999</v>
       </c>
       <c r="X37" s="12">
-        <v>10.669084000000002</v>
-      </c>
-      <c r="Y37" s="12">
-        <v>10.752414</v>
-      </c>
-      <c r="Z37" s="12">
-        <v>11.237339</v>
+        <v>24.551218000000002</v>
       </c>
     </row>
     <row r="38" spans="1:26" ht="16.5" x14ac:dyDescent="0.6">
       <c r="A38" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B38" s="16">
-        <v>69.255873000000008</v>
-      </c>
-      <c r="C38" s="16">
-        <v>70.782400999999993</v>
-      </c>
-      <c r="D38" s="16">
-        <v>73.144439000000006</v>
-      </c>
-      <c r="E38" s="16">
-        <v>74.691476999999992</v>
-      </c>
-      <c r="F38" s="16">
-        <v>78.068515000000005</v>
-      </c>
-      <c r="G38" s="16">
-        <v>79.338553000000005</v>
-      </c>
-      <c r="H38" s="16">
-        <v>82.408265</v>
-      </c>
-      <c r="I38" s="16">
-        <v>87.691500000000005</v>
-      </c>
-      <c r="J38" s="16">
-        <v>90.953500000000005</v>
+      <c r="B38" s="14">
+        <v>398.14011999999997</v>
+      </c>
+      <c r="C38" s="14">
+        <v>402.047481</v>
+      </c>
+      <c r="D38" s="14">
+        <v>418.91692399999999</v>
+      </c>
+      <c r="E38" s="14">
+        <v>439.27336700000001</v>
+      </c>
+      <c r="F38" s="14">
+        <v>458.73731099999998</v>
+      </c>
+      <c r="G38" s="14">
+        <v>476.19325400000002</v>
+      </c>
+      <c r="H38" s="14">
+        <v>494.04950300000002</v>
+      </c>
+      <c r="I38" s="14">
+        <v>523.62525000000005</v>
+      </c>
+      <c r="J38" s="14">
+        <v>551.80562199999997</v>
       </c>
       <c r="K38" s="14">
-        <v>100.53975</v>
+        <v>593.3918000000001</v>
       </c>
       <c r="L38" s="14">
-        <v>112.54774999999999</v>
+        <v>627.24084800000003</v>
       </c>
       <c r="M38" s="14">
-        <v>133.76124999999999</v>
+        <v>672.806332</v>
       </c>
       <c r="N38" s="14">
-        <v>153.79225</v>
+        <v>739.146838</v>
       </c>
       <c r="O38" s="14">
-        <v>169.80918499999999</v>
+        <v>819.30900600000007</v>
       </c>
       <c r="P38" s="14">
-        <v>190.390218</v>
+        <v>888.70661899999993</v>
       </c>
       <c r="Q38" s="14">
-        <v>213.210836</v>
+        <v>980.78397400000006</v>
       </c>
       <c r="R38" s="14">
-        <v>218.58873600000001</v>
+        <v>1044.4478120000001</v>
       </c>
       <c r="S38" s="14">
-        <v>225.25529500000002</v>
+        <v>1093.8221880000001</v>
       </c>
       <c r="T38" s="14">
-        <v>241.42537400000001</v>
+        <v>1149.472673</v>
       </c>
       <c r="U38" s="14">
-        <v>255.83132800000001</v>
+        <v>1204.822467</v>
       </c>
       <c r="V38" s="14">
-        <v>254.82983199999998</v>
+        <v>1193.453534</v>
       </c>
       <c r="W38" s="14">
-        <v>255.726427</v>
+        <v>1195.393597</v>
       </c>
       <c r="X38" s="14">
-        <v>256.971182</v>
-      </c>
-      <c r="Y38" s="14">
-        <v>261.39551</v>
-      </c>
-      <c r="Z38" s="14">
-        <v>266.03300000000002</v>
+        <v>1287.1116669999999</v>
       </c>
     </row>
     <row r="39" spans="1:26" ht="16.5" x14ac:dyDescent="0.6">
       <c r="A39" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B39" s="15">
-        <v>12.614723</v>
-      </c>
-      <c r="C39" s="15">
-        <v>13.421867000000001</v>
-      </c>
-      <c r="D39" s="15">
-        <v>14.033393</v>
-      </c>
-      <c r="E39" s="15">
-        <v>14.381917999999999</v>
-      </c>
-      <c r="F39" s="15">
-        <v>14.593442999999999</v>
-      </c>
-      <c r="G39" s="15">
-        <v>15.514968000000001</v>
-      </c>
-      <c r="H39" s="15">
-        <v>16.639087</v>
-      </c>
-      <c r="I39" s="15">
-        <v>18.586749999999999</v>
-      </c>
-      <c r="J39" s="15">
-        <v>18.645</v>
+      <c r="B39" s="12">
+        <v>59.268980999999997</v>
+      </c>
+      <c r="C39" s="12">
+        <v>59.128382999999999</v>
+      </c>
+      <c r="D39" s="12">
+        <v>60.233739999999997</v>
+      </c>
+      <c r="E39" s="12">
+        <v>66.255597999999992</v>
+      </c>
+      <c r="F39" s="12">
+        <v>71.606205000000003</v>
+      </c>
+      <c r="G39" s="12">
+        <v>74.643812999999994</v>
+      </c>
+      <c r="H39" s="12">
+        <v>75.710014000000001</v>
+      </c>
+      <c r="I39" s="12">
+        <v>83.348249999999993</v>
+      </c>
+      <c r="J39" s="12">
+        <v>93.201521999999997</v>
       </c>
       <c r="K39" s="12">
-        <v>21.23725</v>
+        <v>94.20526799999999</v>
       </c>
       <c r="L39" s="12">
-        <v>22.3475</v>
+        <v>116.02822999999999</v>
       </c>
       <c r="M39" s="12">
-        <v>24.058250000000001</v>
+        <v>115.646368</v>
       </c>
       <c r="N39" s="12">
-        <v>23.74775</v>
+        <v>108.29788000000001</v>
       </c>
       <c r="O39" s="12">
-        <v>26.470012000000001</v>
+        <v>81.683047000000002</v>
       </c>
       <c r="P39" s="12">
-        <v>28.145063999999998</v>
+        <v>63.877936999999996</v>
       </c>
       <c r="Q39" s="12">
-        <v>30.171325</v>
+        <v>63.709078999999996</v>
       </c>
       <c r="R39" s="12">
-        <v>31.365940999999999</v>
+        <v>69.141384000000002</v>
       </c>
       <c r="S39" s="12">
-        <v>32.044958000000001</v>
+        <v>72.854422</v>
       </c>
       <c r="T39" s="12">
-        <v>33.316661000000003</v>
+        <v>74.022139999999993</v>
       </c>
       <c r="U39" s="12">
-        <v>32.620902999999998</v>
+        <v>70.505566999999999</v>
       </c>
       <c r="V39" s="12">
-        <v>32.306310000000003</v>
+        <v>73.571229000000002</v>
       </c>
       <c r="W39" s="12">
-        <v>31.003724999999999</v>
+        <v>68.674893999999995</v>
       </c>
       <c r="X39" s="12">
-        <v>30.520522</v>
-      </c>
-      <c r="Y39" s="12">
-        <v>30.738209999999999</v>
-      </c>
-      <c r="Z39" s="12">
-        <v>30.51821</v>
+        <v>53.958953000000001</v>
       </c>
     </row>
     <row r="40" spans="1:26" ht="16.5" x14ac:dyDescent="0.6">
       <c r="A40" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B40" s="16">
-        <v>25.246600999999998</v>
-      </c>
-      <c r="C40" s="16">
-        <v>26.368372000000001</v>
-      </c>
-      <c r="D40" s="16">
-        <v>26.869854</v>
-      </c>
-      <c r="E40" s="16">
-        <v>29.614083999999998</v>
-      </c>
-      <c r="F40" s="16">
-        <v>31.054525999999999</v>
-      </c>
-      <c r="G40" s="16">
-        <v>34.191387000000006</v>
-      </c>
-      <c r="H40" s="16">
-        <v>36.680191000000001</v>
-      </c>
-      <c r="I40" s="16">
-        <v>38.081439999999994</v>
-      </c>
-      <c r="J40" s="16">
-        <v>39.473061999999999</v>
+      <c r="B40" s="14">
+        <v>74.638721000000004</v>
+      </c>
+      <c r="C40" s="14">
+        <v>74.447106000000005</v>
+      </c>
+      <c r="D40" s="14">
+        <v>71.459827000000004</v>
+      </c>
+      <c r="E40" s="14">
+        <v>67.069000000000003</v>
+      </c>
+      <c r="F40" s="14">
+        <v>77.868117000000012</v>
+      </c>
+      <c r="G40" s="14">
+        <v>89.990096999999992</v>
+      </c>
+      <c r="H40" s="14">
+        <v>108.31240699999999</v>
+      </c>
+      <c r="I40" s="14">
+        <v>119.382685</v>
+      </c>
+      <c r="J40" s="14">
+        <v>122.33765799999999</v>
       </c>
       <c r="K40" s="14">
-        <v>39.561552999999996</v>
+        <v>113.684254</v>
       </c>
       <c r="L40" s="14">
-        <v>40.650649999999999</v>
+        <v>112.12539899999999</v>
       </c>
       <c r="M40" s="14">
-        <v>42.418947999999993</v>
+        <v>124.67310699999999</v>
       </c>
       <c r="N40" s="14">
-        <v>43.030621999999994</v>
+        <v>133.09398999999999</v>
       </c>
       <c r="O40" s="14">
-        <v>44.173750999999996</v>
+        <v>125.95339499999999</v>
       </c>
       <c r="P40" s="14">
-        <v>45.406352999999996</v>
+        <v>140.81420900000001</v>
       </c>
       <c r="Q40" s="14">
-        <v>47.104570000000002</v>
+        <v>135.51182299999999</v>
       </c>
       <c r="R40" s="14">
-        <v>47.622264999999999</v>
+        <v>130.160698</v>
       </c>
       <c r="S40" s="14">
-        <v>49.520788000000003</v>
+        <v>131.35127799999998</v>
       </c>
       <c r="T40" s="14">
-        <v>50.102229000000001</v>
+        <v>136.64260400000001</v>
       </c>
       <c r="U40" s="14">
-        <v>50.279371999999995</v>
+        <v>149.54374799999999</v>
       </c>
       <c r="V40" s="14">
-        <v>50.763075999999998</v>
+        <v>164.675239</v>
       </c>
       <c r="W40" s="14">
-        <v>51.566144000000001</v>
+        <v>161.549949</v>
       </c>
       <c r="X40" s="14">
-        <v>52.009144999999997</v>
-      </c>
-      <c r="Y40" s="14">
-        <v>52.121594999999999</v>
-      </c>
-      <c r="Z40" s="14">
-        <v>52.293394999999997</v>
+        <v>165.52240799999998</v>
       </c>
     </row>
     <row r="41" spans="1:26" ht="16.5" x14ac:dyDescent="0.6">
       <c r="A41" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="B41" s="15">
-        <v>2.86</v>
-      </c>
-      <c r="C41" s="15">
-        <v>2.72</v>
-      </c>
-      <c r="D41" s="15">
-        <v>2.72</v>
-      </c>
-      <c r="E41" s="15">
-        <v>2.72</v>
-      </c>
-      <c r="F41" s="15">
-        <v>2.77</v>
-      </c>
-      <c r="G41" s="15">
-        <v>3.36</v>
-      </c>
-      <c r="H41" s="15">
-        <v>3.9</v>
-      </c>
-      <c r="I41" s="15">
-        <v>4.12</v>
-      </c>
-      <c r="J41" s="15">
-        <v>4.12</v>
+      <c r="B41" s="12">
+        <v>16.902000000000001</v>
+      </c>
+      <c r="C41" s="12">
+        <v>17.545249999999999</v>
+      </c>
+      <c r="D41" s="12">
+        <v>19.453749999999999</v>
+      </c>
+      <c r="E41" s="12">
+        <v>18.987500000000001</v>
+      </c>
+      <c r="F41" s="12">
+        <v>17.58775</v>
+      </c>
+      <c r="G41" s="12">
+        <v>17.08925</v>
+      </c>
+      <c r="H41" s="12">
+        <v>17.6935</v>
+      </c>
+      <c r="I41" s="12">
+        <v>18.34075</v>
+      </c>
+      <c r="J41" s="12">
+        <v>16.4495</v>
       </c>
       <c r="K41" s="12">
-        <v>4.5599999999999996</v>
+        <v>15.85436</v>
       </c>
       <c r="L41" s="12">
-        <v>4.78</v>
+        <v>20.54393</v>
       </c>
       <c r="M41" s="12">
-        <v>4.78</v>
+        <v>27.771439999999998</v>
       </c>
       <c r="N41" s="12">
-        <v>4.78</v>
+        <v>32.431448000000003</v>
       </c>
       <c r="O41" s="12">
-        <v>4.78</v>
+        <v>33.206530000000001</v>
       </c>
       <c r="P41" s="12">
-        <v>5.78</v>
+        <v>34.696228000000005</v>
       </c>
       <c r="Q41" s="12">
-        <v>5.78</v>
+        <v>36.429559999999995</v>
       </c>
       <c r="R41" s="12">
-        <v>5.78</v>
+        <v>37.539182000000004</v>
       </c>
       <c r="S41" s="12">
-        <v>6.78</v>
+        <v>38.023432</v>
       </c>
       <c r="T41" s="12">
-        <v>6.78</v>
+        <v>38.212739999999997</v>
       </c>
       <c r="U41" s="12">
-        <v>6.78</v>
+        <v>39.977561999999999</v>
       </c>
       <c r="V41" s="12">
-        <v>6.78</v>
+        <v>45.611607999999997</v>
       </c>
       <c r="W41" s="12">
-        <v>6.78</v>
+        <v>44.049824999999998</v>
       </c>
       <c r="X41" s="12">
-        <v>6.78</v>
-      </c>
-      <c r="Y41" s="12">
-        <v>7.48</v>
-      </c>
-      <c r="Z41" s="12">
-        <v>8.18</v>
+        <v>46.799295000000001</v>
       </c>
     </row>
     <row r="42" spans="1:26" ht="16.5" x14ac:dyDescent="0.6">
       <c r="A42" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="B42" s="16">
-        <v>6.7865200000000003</v>
-      </c>
-      <c r="C42" s="16">
-        <v>7.0619730000000001</v>
-      </c>
-      <c r="D42" s="16">
-        <v>7.4292449999999999</v>
-      </c>
-      <c r="E42" s="16">
-        <v>7.7965159999999996</v>
-      </c>
-      <c r="F42" s="16">
-        <v>8.163787000000001</v>
-      </c>
-      <c r="G42" s="16">
-        <v>8.5560480000000005</v>
-      </c>
-      <c r="H42" s="16">
-        <v>8.8759589999999982</v>
-      </c>
-      <c r="I42" s="16">
-        <v>9.6582249999999998</v>
-      </c>
-      <c r="J42" s="16">
-        <v>9.9729850000000013</v>
+      <c r="B42" s="14">
+        <v>10.534576999999999</v>
+      </c>
+      <c r="C42" s="14">
+        <v>10.857251</v>
+      </c>
+      <c r="D42" s="14">
+        <v>12.058078</v>
+      </c>
+      <c r="E42" s="14">
+        <v>12.496026000000001</v>
+      </c>
+      <c r="F42" s="14">
+        <v>11.376001</v>
+      </c>
+      <c r="G42" s="14">
+        <v>10.674882</v>
+      </c>
+      <c r="H42" s="14">
+        <v>11.773006000000001</v>
+      </c>
+      <c r="I42" s="14">
+        <v>12.969194</v>
+      </c>
+      <c r="J42" s="14">
+        <v>14.370289999999999</v>
       </c>
       <c r="K42" s="14">
-        <v>10.533329999999999</v>
+        <v>14.358307999999999</v>
       </c>
       <c r="L42" s="14">
-        <v>10.874392</v>
+        <v>12.195684</v>
       </c>
       <c r="M42" s="14">
-        <v>11.163295</v>
+        <v>10.572419999999999</v>
       </c>
       <c r="N42" s="14">
-        <v>12.143818</v>
+        <v>9.5188339999999982</v>
       </c>
       <c r="O42" s="14">
-        <v>12.666102</v>
+        <v>10.943483000000001</v>
       </c>
       <c r="P42" s="14">
-        <v>13.188932999999999</v>
+        <v>11.247142</v>
       </c>
       <c r="Q42" s="14">
-        <v>13.392975</v>
+        <v>11.032321</v>
       </c>
       <c r="R42" s="14">
-        <v>14.075265</v>
+        <v>9.4083230000000011</v>
       </c>
       <c r="S42" s="14">
-        <v>14.179892000000001</v>
+        <v>9.601699</v>
       </c>
       <c r="T42" s="14">
-        <v>15.760520999999999</v>
+        <v>8.1454219999999999</v>
       </c>
       <c r="U42" s="14">
-        <v>14.148911</v>
+        <v>5.2706970000000002</v>
       </c>
       <c r="V42" s="14">
-        <v>17.063199000000001</v>
+        <v>3.1995179999999999</v>
       </c>
       <c r="W42" s="14">
-        <v>19.104064999999999</v>
+        <v>4.1615609999999998</v>
       </c>
       <c r="X42" s="14">
-        <v>19.911510000000003</v>
-      </c>
-      <c r="Y42" s="14">
-        <v>20.080645000000001</v>
-      </c>
-      <c r="Z42" s="14">
-        <v>20.099170000000001</v>
+        <v>4.3097060000000003</v>
       </c>
     </row>
     <row r="43" spans="1:26" ht="16.5" x14ac:dyDescent="0.6">
       <c r="A43" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B43" s="15"/>
-      <c r="C43" s="15">
-        <v>5.535E-3</v>
-      </c>
-      <c r="D43" s="15">
-        <v>6.705E-3</v>
-      </c>
-      <c r="E43" s="15">
-        <v>7.8849999999999996E-3</v>
-      </c>
-      <c r="F43" s="15">
-        <v>7.8099999999999992E-3</v>
-      </c>
-      <c r="G43" s="15">
-        <v>1.3439E-2</v>
-      </c>
-      <c r="H43" s="15">
-        <v>1.1474999999999999E-2</v>
-      </c>
-      <c r="I43" s="15">
-        <v>2.8830999999999999E-2</v>
-      </c>
-      <c r="J43" s="15">
-        <v>3.1454000000000003E-2</v>
+      <c r="B43" s="12">
+        <v>1.464E-3</v>
+      </c>
+      <c r="C43" s="12">
+        <v>7.4720000000000003E-3</v>
+      </c>
+      <c r="D43" s="12">
+        <v>9.0519999999999993E-3</v>
+      </c>
+      <c r="E43" s="12">
+        <v>1.0645E-2</v>
+      </c>
+      <c r="F43" s="12">
+        <v>1.0544000000000001E-2</v>
+      </c>
+      <c r="G43" s="12">
+        <v>1.8142999999999999E-2</v>
+      </c>
+      <c r="H43" s="12">
+        <v>1.5491E-2</v>
+      </c>
+      <c r="I43" s="12">
+        <v>3.9549000000000001E-2</v>
+      </c>
+      <c r="J43" s="12">
+        <v>4.2463000000000001E-2</v>
       </c>
       <c r="K43" s="12">
-        <v>4.3094E-2</v>
+        <v>5.1078999999999999E-2</v>
       </c>
       <c r="L43" s="12">
-        <v>6.883199999999999E-2</v>
+        <v>6.9766999999999996E-2</v>
       </c>
       <c r="M43" s="12">
-        <v>0.56928499999999993</v>
+        <v>0.31400400000000001</v>
       </c>
       <c r="N43" s="12">
-        <v>0.98557099999999997</v>
+        <v>0.97958699999999999</v>
       </c>
       <c r="O43" s="12">
-        <v>1.6028199999999999</v>
+        <v>1.689214</v>
       </c>
       <c r="P43" s="12">
-        <v>3.7760149999999997</v>
+        <v>3.1044340000000004</v>
       </c>
       <c r="Q43" s="12">
-        <v>5.6969899999999996</v>
+        <v>5.9842299999999993</v>
       </c>
       <c r="R43" s="12">
-        <v>9.9821360000000006</v>
+        <v>10.186408999999999</v>
       </c>
       <c r="S43" s="12">
-        <v>18.256847</v>
+        <v>18.135192</v>
       </c>
       <c r="T43" s="12">
-        <v>27.484721</v>
+        <v>31.106488999999996</v>
       </c>
       <c r="U43" s="12">
-        <v>35.250192999999996</v>
+        <v>43.933394999999997</v>
       </c>
       <c r="V43" s="12">
-        <v>39.705453999999996</v>
+        <v>55.098596999999998</v>
       </c>
       <c r="W43" s="12">
-        <v>49.949915999999995</v>
+        <v>66.237630999999993</v>
       </c>
       <c r="X43" s="12">
-        <v>63.390404000000004</v>
-      </c>
-      <c r="Y43" s="12">
-        <v>72.859280999999996</v>
-      </c>
-      <c r="Z43" s="12">
-        <v>97.384000999999998</v>
+        <v>83.631500000000003</v>
       </c>
     </row>
     <row r="44" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A44" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B44" s="16">
-        <v>0.94099999999999995</v>
-      </c>
-      <c r="C44" s="16">
-        <v>1.5629999999999999</v>
-      </c>
-      <c r="D44" s="16">
-        <v>1.6060000000000001</v>
-      </c>
-      <c r="E44" s="16">
-        <v>2.4609999999999999</v>
-      </c>
-      <c r="F44" s="16">
-        <v>3.8130000000000002</v>
-      </c>
-      <c r="G44" s="16">
-        <v>4.4338999999999995</v>
-      </c>
-      <c r="H44" s="16">
-        <v>6.3150000000000004</v>
-      </c>
-      <c r="I44" s="16">
-        <v>7.8445200000000002</v>
-      </c>
-      <c r="J44" s="16">
-        <v>10.2425</v>
+      <c r="B44" s="14">
+        <v>1.3189059999999999</v>
+      </c>
+      <c r="C44" s="14">
+        <v>1.5368539999999999</v>
+      </c>
+      <c r="D44" s="14">
+        <v>2.205768</v>
+      </c>
+      <c r="E44" s="14">
+        <v>2.5505619999999998</v>
+      </c>
+      <c r="F44" s="14">
+        <v>3.9230779999999998</v>
+      </c>
+      <c r="G44" s="14">
+        <v>5.5618639999999999</v>
+      </c>
+      <c r="H44" s="14">
+        <v>6.8736920000000001</v>
+      </c>
+      <c r="I44" s="14">
+        <v>9.3870480000000001</v>
+      </c>
+      <c r="J44" s="14">
+        <v>11.835130999999999</v>
       </c>
       <c r="K44" s="14">
-        <v>10.925000000000001</v>
+        <v>14.595036</v>
       </c>
       <c r="L44" s="14">
-        <v>13.183999999999999</v>
+        <v>16.104033999999999</v>
       </c>
       <c r="M44" s="14">
-        <v>16.178999999999998</v>
+        <v>19.528141999999999</v>
       </c>
       <c r="N44" s="14">
-        <v>17.299700000000001</v>
+        <v>23.069179999999999</v>
       </c>
       <c r="O44" s="14">
-        <v>18.420400000000001</v>
+        <v>24.639953000000002</v>
       </c>
       <c r="P44" s="14">
-        <v>22.465299999999999</v>
+        <v>27.235366000000003</v>
       </c>
       <c r="Q44" s="14">
-        <v>25.088189999999997</v>
+        <v>31.872871</v>
       </c>
       <c r="R44" s="14">
-        <v>28.70044</v>
+        <v>36.273128</v>
       </c>
       <c r="S44" s="14">
-        <v>32.848459999999996</v>
+        <v>47.669778000000001</v>
       </c>
       <c r="T44" s="14">
-        <v>35.2881</v>
+        <v>55.008661999999994</v>
       </c>
       <c r="U44" s="14">
-        <v>37.505180000000003</v>
+        <v>62.688877999999995</v>
       </c>
       <c r="V44" s="14">
-        <v>38.558599999999998</v>
+        <v>63.522264999999997</v>
       </c>
       <c r="W44" s="14">
-        <v>40.067264999999999</v>
+        <v>62.272480000000002</v>
       </c>
       <c r="X44" s="14">
-        <v>41.929780000000001</v>
-      </c>
-      <c r="Y44" s="14">
-        <v>44.736239999999995</v>
-      </c>
-      <c r="Z44" s="14">
-        <v>48.163160000000005</v>
+        <v>69.433592000000004</v>
       </c>
     </row>
     <row r="46" spans="1:26" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
@@ -4452,629 +4432,654 @@
       <c r="Y47" s="10">
         <v>2023</v>
       </c>
+      <c r="Z47" s="10">
+        <v>2024</v>
+      </c>
     </row>
     <row r="48" spans="1:26" ht="16.5" x14ac:dyDescent="0.6">
       <c r="A48" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="B48" s="17">
-        <v>0.55120678408349644</v>
-      </c>
-      <c r="C48" s="17">
-        <v>0.56262230919765166</v>
-      </c>
-      <c r="D48" s="17">
-        <v>0.50894216133942172</v>
-      </c>
-      <c r="E48" s="17">
-        <v>0.50714873867804477</v>
-      </c>
-      <c r="F48" s="17">
-        <v>0.50380517503805178</v>
-      </c>
-      <c r="G48" s="17">
-        <v>0.49062469639560874</v>
-      </c>
-      <c r="H48" s="17">
-        <v>0.52305561793547428</v>
-      </c>
-      <c r="I48" s="17">
-        <v>0.55943633009767468</v>
-      </c>
-      <c r="J48" s="17">
-        <v>0.48923679060665365</v>
-      </c>
-      <c r="K48" s="17">
-        <v>0.54014923710880947</v>
-      </c>
-      <c r="L48" s="17">
-        <v>0.5300065231572082</v>
-      </c>
-      <c r="M48" s="17">
-        <v>0.54350583460172497</v>
-      </c>
-      <c r="N48" s="17">
-        <v>0.59277492389649933</v>
-      </c>
-      <c r="O48" s="17">
-        <v>0.62897305040737761</v>
-      </c>
-      <c r="P48" s="17">
-        <v>0.57379869616568546</v>
-      </c>
-      <c r="Q48" s="17">
-        <v>0.65457561609631798</v>
-      </c>
-      <c r="R48" s="17">
-        <v>0.32343987823439879</v>
-      </c>
-      <c r="S48" s="17">
-        <v>0.30675375468566057</v>
-      </c>
-      <c r="T48" s="17">
-        <v>0.31135330020772134</v>
-      </c>
-      <c r="U48" s="17">
-        <v>0.35755784925152284</v>
-      </c>
-      <c r="V48" s="17">
-        <v>0.36242913550834932</v>
-      </c>
-      <c r="W48" s="17">
-        <v>0.39079184334861278</v>
-      </c>
-      <c r="X48" s="17">
-        <v>0.42295562310563695</v>
-      </c>
-      <c r="Y48" s="17">
-        <v>0.40685542663069574</v>
-      </c>
-    </row>
-    <row r="49" spans="1:25" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="B48" s="15">
+        <v>0.34689999999999999</v>
+      </c>
+      <c r="C48" s="15">
+        <v>0.41539999999999999</v>
+      </c>
+      <c r="D48" s="15">
+        <v>0.48393000000000003</v>
+      </c>
+      <c r="E48" s="15">
+        <v>0.61342999999999992</v>
+      </c>
+      <c r="F48" s="15">
+        <v>0.74952999999999992</v>
+      </c>
+      <c r="G48" s="15">
+        <v>0.96038999999999997</v>
+      </c>
+      <c r="H48" s="15">
+        <v>1.24814</v>
+      </c>
+      <c r="I48" s="15">
+        <v>1.546835</v>
+      </c>
+      <c r="J48" s="15">
+        <v>2.212809</v>
+      </c>
+      <c r="K48" s="12">
+        <v>2.5113840000000001</v>
+      </c>
+      <c r="L48" s="12">
+        <v>3.1445059999999998</v>
+      </c>
+      <c r="M48" s="12">
+        <v>3.677165</v>
+      </c>
+      <c r="N48" s="12">
+        <v>3.9289209999999999</v>
+      </c>
+      <c r="O48" s="12">
+        <v>4.1803480000000004</v>
+      </c>
+      <c r="P48" s="12">
+        <v>5.0300799999999999</v>
+      </c>
+      <c r="Q48" s="12">
+        <v>5.4782160000000006</v>
+      </c>
+      <c r="R48" s="12">
+        <v>8.8951709999999977</v>
+      </c>
+      <c r="S48" s="12">
+        <v>9.4171760000000013</v>
+      </c>
+      <c r="T48" s="12">
+        <v>10.137402</v>
+      </c>
+      <c r="U48" s="12">
+        <v>10.225633999999999</v>
+      </c>
+      <c r="V48" s="12">
+        <v>10.532757</v>
+      </c>
+      <c r="W48" s="12">
+        <v>10.591823999999999</v>
+      </c>
+      <c r="X48" s="12">
+        <v>10.669084000000002</v>
+      </c>
+      <c r="Y48" s="12">
+        <v>10.752414</v>
+      </c>
+      <c r="Z48" s="12">
+        <v>11.237339</v>
+      </c>
+    </row>
+    <row r="49" spans="1:26" ht="16.5" x14ac:dyDescent="0.6">
       <c r="A49" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B49" s="18">
-        <v>0.71653214818993149</v>
-      </c>
-      <c r="C49" s="18">
-        <v>0.73782566864942978</v>
-      </c>
-      <c r="D49" s="18">
-        <v>0.75860528986295694</v>
-      </c>
-      <c r="E49" s="18">
-        <v>0.76554942611972032</v>
-      </c>
-      <c r="F49" s="18">
-        <v>0.796969584304135</v>
-      </c>
-      <c r="G49" s="18">
-        <v>0.78433378182380886</v>
-      </c>
-      <c r="H49" s="18">
-        <v>0.80218147145848917</v>
-      </c>
-      <c r="I49" s="18">
-        <v>0.78915699735877243</v>
-      </c>
-      <c r="J49" s="18">
-        <v>0.79466364064431649</v>
-      </c>
-      <c r="K49" s="18">
-        <v>0.79463965742241882</v>
-      </c>
-      <c r="L49" s="18">
-        <v>0.74109856448388545</v>
-      </c>
-      <c r="M49" s="18">
-        <v>0.70592036916237833</v>
-      </c>
-      <c r="N49" s="18">
-        <v>0.68299652501558394</v>
-      </c>
-      <c r="O49" s="18">
-        <v>0.64810008242168105</v>
-      </c>
-      <c r="P49" s="18">
-        <v>0.63968556935402887</v>
-      </c>
-      <c r="Q49" s="18">
-        <v>0.60612421815967543</v>
-      </c>
-      <c r="R49" s="18">
-        <v>0.59186303001676133</v>
-      </c>
-      <c r="S49" s="18">
-        <v>0.59922104058695769</v>
-      </c>
-      <c r="T49" s="18">
-        <v>0.62783817039894319</v>
-      </c>
-      <c r="U49" s="18">
-        <v>0.60652756341834713</v>
-      </c>
-      <c r="V49" s="18">
-        <v>0.57817160320012806</v>
-      </c>
-      <c r="W49" s="18">
-        <v>0.62009503817291545</v>
-      </c>
-      <c r="X49" s="18">
-        <v>0.66585892127934132</v>
-      </c>
-      <c r="Y49" s="18">
-        <v>0.70675954342511094</v>
-      </c>
-    </row>
-    <row r="50" spans="1:25" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="B49" s="16">
+        <v>69.255873000000008</v>
+      </c>
+      <c r="C49" s="16">
+        <v>70.782400999999993</v>
+      </c>
+      <c r="D49" s="16">
+        <v>73.144439000000006</v>
+      </c>
+      <c r="E49" s="16">
+        <v>74.691476999999992</v>
+      </c>
+      <c r="F49" s="16">
+        <v>78.068515000000005</v>
+      </c>
+      <c r="G49" s="16">
+        <v>79.338553000000005</v>
+      </c>
+      <c r="H49" s="16">
+        <v>82.408265</v>
+      </c>
+      <c r="I49" s="16">
+        <v>87.691500000000005</v>
+      </c>
+      <c r="J49" s="16">
+        <v>90.953500000000005</v>
+      </c>
+      <c r="K49" s="14">
+        <v>100.53975</v>
+      </c>
+      <c r="L49" s="14">
+        <v>112.54774999999999</v>
+      </c>
+      <c r="M49" s="14">
+        <v>133.76124999999999</v>
+      </c>
+      <c r="N49" s="14">
+        <v>153.79225</v>
+      </c>
+      <c r="O49" s="14">
+        <v>169.80918499999999</v>
+      </c>
+      <c r="P49" s="14">
+        <v>190.390218</v>
+      </c>
+      <c r="Q49" s="14">
+        <v>213.210836</v>
+      </c>
+      <c r="R49" s="14">
+        <v>218.58873600000001</v>
+      </c>
+      <c r="S49" s="14">
+        <v>225.25529500000002</v>
+      </c>
+      <c r="T49" s="14">
+        <v>241.42537400000001</v>
+      </c>
+      <c r="U49" s="14">
+        <v>255.83132800000001</v>
+      </c>
+      <c r="V49" s="14">
+        <v>254.82983199999998</v>
+      </c>
+      <c r="W49" s="14">
+        <v>255.726427</v>
+      </c>
+      <c r="X49" s="14">
+        <v>256.971182</v>
+      </c>
+      <c r="Y49" s="14">
+        <v>261.39551</v>
+      </c>
+      <c r="Z49" s="14">
+        <v>266.03300000000002</v>
+      </c>
+    </row>
+    <row r="50" spans="1:26" ht="16.5" x14ac:dyDescent="0.6">
       <c r="A50" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B50" s="17">
-        <v>0.50659221680263911</v>
-      </c>
-      <c r="C50" s="17">
-        <v>0.47576029779038992</v>
-      </c>
-      <c r="D50" s="17">
-        <v>0.5116238197990608</v>
-      </c>
-      <c r="E50" s="17">
-        <v>0.57792088199617675</v>
-      </c>
-      <c r="F50" s="17">
-        <v>0.59917814478547582</v>
-      </c>
-      <c r="G50" s="17">
-        <v>0.55546723427807665</v>
-      </c>
-      <c r="H50" s="17">
-        <v>0.51246377766069551</v>
-      </c>
-      <c r="I50" s="17">
-        <v>0.55296828215690175</v>
-      </c>
-      <c r="J50" s="17">
-        <v>0.52566503850061819</v>
-      </c>
-      <c r="K50" s="17">
-        <v>0.56094084565178148</v>
-      </c>
-      <c r="L50" s="17">
-        <v>0.60285209361241354</v>
-      </c>
-      <c r="M50" s="17">
-        <v>0.55777603176229906</v>
-      </c>
-      <c r="N50" s="17">
-        <v>0.46262917567892337</v>
-      </c>
-      <c r="O50" s="17">
-        <v>0.28597033257258586</v>
-      </c>
-      <c r="P50" s="17">
-        <v>0.25966871448368078</v>
-      </c>
-      <c r="Q50" s="17">
-        <v>0.24507244336885503</v>
-      </c>
-      <c r="R50" s="17">
-        <v>0.2642637659515315</v>
-      </c>
-      <c r="S50" s="17">
-        <v>0.26718171919803441</v>
-      </c>
-      <c r="T50" s="17">
-        <v>0.24413875139096738</v>
-      </c>
-      <c r="U50" s="17">
-        <v>0.25179246841308106</v>
-      </c>
-      <c r="V50" s="17">
-        <v>0.26424237799061323</v>
-      </c>
-      <c r="W50" s="17">
-        <v>0.21353289467171793</v>
-      </c>
-      <c r="X50" s="17">
-        <v>0.16467833870451151</v>
-      </c>
-      <c r="Y50" s="17">
-        <v>0.18513279169411459</v>
-      </c>
-    </row>
-    <row r="51" spans="1:25" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="B50" s="15">
+        <v>12.614723</v>
+      </c>
+      <c r="C50" s="15">
+        <v>13.421867000000001</v>
+      </c>
+      <c r="D50" s="15">
+        <v>14.033393</v>
+      </c>
+      <c r="E50" s="15">
+        <v>14.381917999999999</v>
+      </c>
+      <c r="F50" s="15">
+        <v>14.593442999999999</v>
+      </c>
+      <c r="G50" s="15">
+        <v>15.514968000000001</v>
+      </c>
+      <c r="H50" s="15">
+        <v>16.639087</v>
+      </c>
+      <c r="I50" s="15">
+        <v>18.586749999999999</v>
+      </c>
+      <c r="J50" s="15">
+        <v>18.645</v>
+      </c>
+      <c r="K50" s="12">
+        <v>21.23725</v>
+      </c>
+      <c r="L50" s="12">
+        <v>22.3475</v>
+      </c>
+      <c r="M50" s="12">
+        <v>24.058250000000001</v>
+      </c>
+      <c r="N50" s="12">
+        <v>23.74775</v>
+      </c>
+      <c r="O50" s="12">
+        <v>26.470012000000001</v>
+      </c>
+      <c r="P50" s="12">
+        <v>28.145063999999998</v>
+      </c>
+      <c r="Q50" s="12">
+        <v>30.171325</v>
+      </c>
+      <c r="R50" s="12">
+        <v>31.365940999999999</v>
+      </c>
+      <c r="S50" s="12">
+        <v>32.044958000000001</v>
+      </c>
+      <c r="T50" s="12">
+        <v>33.316661000000003</v>
+      </c>
+      <c r="U50" s="12">
+        <v>32.620902999999998</v>
+      </c>
+      <c r="V50" s="12">
+        <v>32.306310000000003</v>
+      </c>
+      <c r="W50" s="12">
+        <v>31.003724999999999</v>
+      </c>
+      <c r="X50" s="12">
+        <v>30.520522</v>
+      </c>
+      <c r="Y50" s="12">
+        <v>30.738209999999999</v>
+      </c>
+      <c r="Z50" s="12">
+        <v>30.51821</v>
+      </c>
+    </row>
+    <row r="51" spans="1:26" ht="16.5" x14ac:dyDescent="0.6">
       <c r="A51" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B51" s="18">
-        <v>0.3706795776207561</v>
-      </c>
-      <c r="C51" s="18">
-        <v>0.33312241439281248</v>
-      </c>
-      <c r="D51" s="18">
-        <v>0.31638499446995594</v>
-      </c>
-      <c r="E51" s="18">
-        <v>0.29105809065892524</v>
-      </c>
-      <c r="F51" s="18">
-        <v>0.40141804594290165</v>
-      </c>
-      <c r="G51" s="18">
-        <v>0.35920557384399371</v>
-      </c>
-      <c r="H51" s="18">
-        <v>0.38910909151215634</v>
-      </c>
-      <c r="I51" s="18">
-        <v>0.41166398066075749</v>
-      </c>
-      <c r="J51" s="18">
-        <v>0.37899280120993384</v>
-      </c>
-      <c r="K51" s="18">
-        <v>0.34903017269674225</v>
-      </c>
-      <c r="L51" s="18">
-        <v>0.34606194617040481</v>
-      </c>
-      <c r="M51" s="18">
-        <v>0.39952821087808832</v>
-      </c>
-      <c r="N51" s="18">
-        <v>0.34553973796520132</v>
-      </c>
-      <c r="O51" s="18">
-        <v>0.38248819613257423</v>
-      </c>
-      <c r="P51" s="18">
-        <v>0.39063466047946332</v>
-      </c>
-      <c r="Q51" s="18">
-        <v>0.35951351304693097</v>
-      </c>
-      <c r="R51" s="18">
-        <v>0.34209269704837791</v>
-      </c>
-      <c r="S51" s="18">
-        <v>0.34654819423436883</v>
-      </c>
-      <c r="T51" s="18">
-        <v>0.35201227597157908</v>
-      </c>
-      <c r="U51" s="18">
-        <v>0.40670788200728542</v>
-      </c>
-      <c r="V51" s="18">
-        <v>0.40642050047568828</v>
-      </c>
-      <c r="W51" s="18">
-        <v>0.39127090568697159</v>
-      </c>
-      <c r="X51" s="18">
-        <v>0.42292078853670473</v>
-      </c>
-      <c r="Y51" s="18">
-        <v>0.35978319908695094</v>
-      </c>
-    </row>
-    <row r="52" spans="1:25" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="B51" s="16">
+        <v>25.246600999999998</v>
+      </c>
+      <c r="C51" s="16">
+        <v>26.368372000000001</v>
+      </c>
+      <c r="D51" s="16">
+        <v>26.869854</v>
+      </c>
+      <c r="E51" s="16">
+        <v>29.614083999999998</v>
+      </c>
+      <c r="F51" s="16">
+        <v>31.054525999999999</v>
+      </c>
+      <c r="G51" s="16">
+        <v>34.191387000000006</v>
+      </c>
+      <c r="H51" s="16">
+        <v>36.680191000000001</v>
+      </c>
+      <c r="I51" s="16">
+        <v>38.081439999999994</v>
+      </c>
+      <c r="J51" s="16">
+        <v>39.473061999999999</v>
+      </c>
+      <c r="K51" s="14">
+        <v>39.561552999999996</v>
+      </c>
+      <c r="L51" s="14">
+        <v>40.650649999999999</v>
+      </c>
+      <c r="M51" s="14">
+        <v>42.418947999999993</v>
+      </c>
+      <c r="N51" s="14">
+        <v>43.030621999999994</v>
+      </c>
+      <c r="O51" s="14">
+        <v>44.173750999999996</v>
+      </c>
+      <c r="P51" s="14">
+        <v>45.406352999999996</v>
+      </c>
+      <c r="Q51" s="14">
+        <v>47.104570000000002</v>
+      </c>
+      <c r="R51" s="14">
+        <v>47.622264999999999</v>
+      </c>
+      <c r="S51" s="14">
+        <v>49.520788000000003</v>
+      </c>
+      <c r="T51" s="14">
+        <v>50.102229000000001</v>
+      </c>
+      <c r="U51" s="14">
+        <v>50.279371999999995</v>
+      </c>
+      <c r="V51" s="14">
+        <v>50.763075999999998</v>
+      </c>
+      <c r="W51" s="14">
+        <v>51.566144000000001</v>
+      </c>
+      <c r="X51" s="14">
+        <v>52.009144999999997</v>
+      </c>
+      <c r="Y51" s="14">
+        <v>52.121594999999999</v>
+      </c>
+      <c r="Z51" s="14">
+        <v>52.293394999999997</v>
+      </c>
+    </row>
+    <row r="52" spans="1:26" ht="16.5" x14ac:dyDescent="0.6">
       <c r="A52" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="B52" s="17">
-        <v>0.6294504582175815</v>
-      </c>
-      <c r="C52" s="17">
-        <v>0.79279143164114962</v>
-      </c>
-      <c r="D52" s="17">
-        <v>0.81209709911361805</v>
-      </c>
-      <c r="E52" s="17">
-        <v>0.76131479989255979</v>
-      </c>
-      <c r="F52" s="17">
-        <v>0.87615185533191575</v>
-      </c>
-      <c r="G52" s="17">
-        <v>0.60237279843444236</v>
-      </c>
-      <c r="H52" s="17">
-        <v>0.51604027631424887</v>
-      </c>
-      <c r="I52" s="17">
-        <v>0.49402624462472838</v>
-      </c>
-      <c r="J52" s="17">
-        <v>0.42198652303054485</v>
-      </c>
-      <c r="K52" s="17">
-        <v>0.42107265881598976</v>
-      </c>
-      <c r="L52" s="17">
-        <v>0.55119313731109454</v>
-      </c>
-      <c r="M52" s="17">
-        <v>0.76947326187883303</v>
-      </c>
-      <c r="N52" s="17">
-        <v>0.79144456544582642</v>
-      </c>
-      <c r="O52" s="17">
-        <v>0.79550448023537967</v>
-      </c>
-      <c r="P52" s="17">
-        <v>0.68512900728381598</v>
-      </c>
-      <c r="Q52" s="17">
-        <v>0.75662416457316206</v>
-      </c>
-      <c r="R52" s="17">
-        <v>0.74852664675862279</v>
-      </c>
-      <c r="S52" s="17">
-        <v>0.6298743282013981</v>
-      </c>
-      <c r="T52" s="17">
-        <v>0.65748710281380907</v>
-      </c>
-      <c r="U52" s="17">
-        <v>0.76036152530273027</v>
-      </c>
-      <c r="V52" s="17">
-        <v>0.75110114357295832</v>
-      </c>
-      <c r="W52" s="17">
-        <v>0.73948357376651719</v>
-      </c>
-      <c r="X52" s="17">
-        <v>0.77770369472393952</v>
-      </c>
-      <c r="Y52" s="17">
-        <v>0.73559934559128759</v>
-      </c>
-    </row>
-    <row r="53" spans="1:25" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="B52" s="15">
+        <v>2.86</v>
+      </c>
+      <c r="C52" s="15">
+        <v>2.72</v>
+      </c>
+      <c r="D52" s="15">
+        <v>2.72</v>
+      </c>
+      <c r="E52" s="15">
+        <v>2.72</v>
+      </c>
+      <c r="F52" s="15">
+        <v>2.77</v>
+      </c>
+      <c r="G52" s="15">
+        <v>3.36</v>
+      </c>
+      <c r="H52" s="15">
+        <v>3.9</v>
+      </c>
+      <c r="I52" s="15">
+        <v>4.12</v>
+      </c>
+      <c r="J52" s="15">
+        <v>4.12</v>
+      </c>
+      <c r="K52" s="12">
+        <v>4.5599999999999996</v>
+      </c>
+      <c r="L52" s="12">
+        <v>4.78</v>
+      </c>
+      <c r="M52" s="12">
+        <v>4.78</v>
+      </c>
+      <c r="N52" s="12">
+        <v>4.78</v>
+      </c>
+      <c r="O52" s="12">
+        <v>4.78</v>
+      </c>
+      <c r="P52" s="12">
+        <v>5.78</v>
+      </c>
+      <c r="Q52" s="12">
+        <v>5.78</v>
+      </c>
+      <c r="R52" s="12">
+        <v>5.78</v>
+      </c>
+      <c r="S52" s="12">
+        <v>6.78</v>
+      </c>
+      <c r="T52" s="12">
+        <v>6.78</v>
+      </c>
+      <c r="U52" s="12">
+        <v>6.78</v>
+      </c>
+      <c r="V52" s="12">
+        <v>6.78</v>
+      </c>
+      <c r="W52" s="12">
+        <v>6.78</v>
+      </c>
+      <c r="X52" s="12">
+        <v>6.78</v>
+      </c>
+      <c r="Y52" s="12">
+        <v>7.48</v>
+      </c>
+      <c r="Z52" s="12">
+        <v>8.18</v>
+      </c>
+    </row>
+    <row r="53" spans="1:26" ht="16.5" x14ac:dyDescent="0.6">
       <c r="A53" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="B53" s="18">
-        <v>0.49024552625738904</v>
-      </c>
-      <c r="C53" s="18">
-        <v>0.43317552097481471</v>
-      </c>
-      <c r="D53" s="18">
-        <v>0.42911926842309039</v>
-      </c>
-      <c r="E53" s="18">
-        <v>0.45501112281934197</v>
-      </c>
-      <c r="F53" s="18">
-        <v>0.39548639090339333</v>
-      </c>
-      <c r="G53" s="18">
-        <v>0.33833162633892372</v>
-      </c>
-      <c r="H53" s="18">
-        <v>0.24527952610144385</v>
-      </c>
-      <c r="I53" s="18">
-        <v>0.15787931213779932</v>
-      </c>
-      <c r="J53" s="18">
-        <v>0.17483958725491541</v>
-      </c>
-      <c r="K53" s="18">
-        <v>0.14179968517868063</v>
-      </c>
-      <c r="L53" s="18">
-        <v>0.11321008346880737</v>
-      </c>
-      <c r="M53" s="18">
-        <v>9.5640824209096406E-2</v>
-      </c>
-      <c r="N53" s="18">
-        <v>9.4690558401600802E-2</v>
-      </c>
-      <c r="O53" s="18">
-        <v>9.5955282135559136E-2</v>
-      </c>
-      <c r="P53" s="18">
-        <v>9.9961573213414076E-2</v>
-      </c>
-      <c r="Q53" s="18">
-        <v>7.894530437421779E-2</v>
-      </c>
-      <c r="R53" s="18">
-        <v>7.6292678497301786E-2</v>
-      </c>
-      <c r="S53" s="18">
-        <v>7.0763375002415127E-2</v>
-      </c>
-      <c r="T53" s="18">
-        <v>4.6357462392508632E-2</v>
-      </c>
-      <c r="U53" s="18">
-        <v>2.4767252367813866E-2</v>
-      </c>
-      <c r="V53" s="18">
-        <v>2.0676420048499254E-2</v>
-      </c>
-      <c r="W53" s="18">
-        <v>2.1043300781395491E-2</v>
-      </c>
-      <c r="X53" s="18">
-        <v>2.2646432571477804E-2</v>
-      </c>
-      <c r="Y53" s="18">
-        <v>2.5681859514084471E-2</v>
-      </c>
-    </row>
-    <row r="54" spans="1:25" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="B53" s="16">
+        <v>6.7865200000000003</v>
+      </c>
+      <c r="C53" s="16">
+        <v>7.0619730000000001</v>
+      </c>
+      <c r="D53" s="16">
+        <v>7.4292449999999999</v>
+      </c>
+      <c r="E53" s="16">
+        <v>7.7965159999999996</v>
+      </c>
+      <c r="F53" s="16">
+        <v>8.163787000000001</v>
+      </c>
+      <c r="G53" s="16">
+        <v>8.5560480000000005</v>
+      </c>
+      <c r="H53" s="16">
+        <v>8.8759589999999982</v>
+      </c>
+      <c r="I53" s="16">
+        <v>9.6582249999999998</v>
+      </c>
+      <c r="J53" s="16">
+        <v>9.9729850000000013</v>
+      </c>
+      <c r="K53" s="14">
+        <v>10.533329999999999</v>
+      </c>
+      <c r="L53" s="14">
+        <v>10.874392</v>
+      </c>
+      <c r="M53" s="14">
+        <v>11.163295</v>
+      </c>
+      <c r="N53" s="14">
+        <v>12.143818</v>
+      </c>
+      <c r="O53" s="14">
+        <v>12.666102</v>
+      </c>
+      <c r="P53" s="14">
+        <v>13.188932999999999</v>
+      </c>
+      <c r="Q53" s="14">
+        <v>13.392975</v>
+      </c>
+      <c r="R53" s="14">
+        <v>14.075265</v>
+      </c>
+      <c r="S53" s="14">
+        <v>14.179892000000001</v>
+      </c>
+      <c r="T53" s="14">
+        <v>15.760520999999999</v>
+      </c>
+      <c r="U53" s="14">
+        <v>14.148911</v>
+      </c>
+      <c r="V53" s="14">
+        <v>17.063199000000001</v>
+      </c>
+      <c r="W53" s="14">
+        <v>19.104064999999999</v>
+      </c>
+      <c r="X53" s="14">
+        <v>19.911510000000003</v>
+      </c>
+      <c r="Y53" s="14">
+        <v>20.080645000000001</v>
+      </c>
+      <c r="Z53" s="14">
+        <v>20.099170000000001</v>
+      </c>
+    </row>
+    <row r="54" spans="1:26" ht="16.5" x14ac:dyDescent="0.6">
       <c r="A54" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B54" s="17">
-        <v>65535</v>
-      </c>
-      <c r="C54" s="17">
-        <v>0.11415525114155252</v>
-      </c>
-      <c r="D54" s="17">
-        <v>0.11415525114155252</v>
-      </c>
-      <c r="E54" s="17">
-        <v>0.22831050228310504</v>
-      </c>
-      <c r="F54" s="17">
-        <v>0.22831050228310504</v>
-      </c>
-      <c r="G54" s="17">
-        <v>0.22831050228310504</v>
-      </c>
-      <c r="H54" s="17">
-        <v>0.11415525114155252</v>
-      </c>
-      <c r="I54" s="17">
-        <v>0.22831050228310504</v>
-      </c>
-      <c r="J54" s="17">
-        <v>0.22831050228310504</v>
-      </c>
-      <c r="K54" s="17">
-        <v>0.22831050228310504</v>
-      </c>
-      <c r="L54" s="17">
-        <v>0.17938682322243965</v>
-      </c>
-      <c r="M54" s="17">
-        <v>0.16622606745173435</v>
-      </c>
-      <c r="N54" s="17">
-        <v>0.24214750242147504</v>
-      </c>
-      <c r="O54" s="17">
-        <v>0.2447203196347032</v>
-      </c>
-      <c r="P54" s="17">
-        <v>0.14828102727646106</v>
-      </c>
-      <c r="Q54" s="17">
-        <v>0.13157894736842105</v>
-      </c>
-      <c r="R54" s="17">
-        <v>0.13222792617197865</v>
-      </c>
-      <c r="S54" s="17">
-        <v>0.1346606850815466</v>
-      </c>
-      <c r="T54" s="17">
-        <v>0.15091922394369006</v>
-      </c>
-      <c r="U54" s="17">
-        <v>0.14984293532821658</v>
-      </c>
-      <c r="V54" s="17">
-        <v>0.16868874683924204</v>
-      </c>
-      <c r="W54" s="17">
-        <v>0.15611501912871775</v>
-      </c>
-      <c r="X54" s="17">
-        <v>0.17136793971651898</v>
-      </c>
-      <c r="Y54" s="17">
-        <v>0.1770803861573447</v>
-      </c>
-    </row>
-    <row r="55" spans="1:25" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="B54" s="15"/>
+      <c r="C54" s="15">
+        <v>5.535E-3</v>
+      </c>
+      <c r="D54" s="15">
+        <v>6.705E-3</v>
+      </c>
+      <c r="E54" s="15">
+        <v>7.8849999999999996E-3</v>
+      </c>
+      <c r="F54" s="15">
+        <v>7.8099999999999992E-3</v>
+      </c>
+      <c r="G54" s="15">
+        <v>1.3439E-2</v>
+      </c>
+      <c r="H54" s="15">
+        <v>1.1474999999999999E-2</v>
+      </c>
+      <c r="I54" s="15">
+        <v>2.8830999999999999E-2</v>
+      </c>
+      <c r="J54" s="15">
+        <v>3.1454000000000003E-2</v>
+      </c>
+      <c r="K54" s="12">
+        <v>4.3094E-2</v>
+      </c>
+      <c r="L54" s="12">
+        <v>6.883199999999999E-2</v>
+      </c>
+      <c r="M54" s="12">
+        <v>0.56928499999999993</v>
+      </c>
+      <c r="N54" s="12">
+        <v>0.98557099999999997</v>
+      </c>
+      <c r="O54" s="12">
+        <v>1.6028199999999999</v>
+      </c>
+      <c r="P54" s="12">
+        <v>3.7760149999999997</v>
+      </c>
+      <c r="Q54" s="12">
+        <v>5.6969899999999996</v>
+      </c>
+      <c r="R54" s="12">
+        <v>9.9821360000000006</v>
+      </c>
+      <c r="S54" s="12">
+        <v>18.256847</v>
+      </c>
+      <c r="T54" s="12">
+        <v>27.484721</v>
+      </c>
+      <c r="U54" s="12">
+        <v>35.250192999999996</v>
+      </c>
+      <c r="V54" s="12">
+        <v>39.705453999999996</v>
+      </c>
+      <c r="W54" s="12">
+        <v>49.949915999999995</v>
+      </c>
+      <c r="X54" s="12">
+        <v>63.390404000000004</v>
+      </c>
+      <c r="Y54" s="12">
+        <v>72.859280999999996</v>
+      </c>
+      <c r="Z54" s="12">
+        <v>97.384000999999998</v>
+      </c>
+    </row>
+    <row r="55" spans="1:26" ht="16.5" x14ac:dyDescent="0.6">
       <c r="A55" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B55" s="18">
-        <v>0.1918779753230351</v>
-      </c>
-      <c r="C55" s="18">
-        <v>0.15293876595246458</v>
-      </c>
-      <c r="D55" s="18">
-        <v>0.14818911483592839</v>
-      </c>
-      <c r="E55" s="18">
-        <v>0.12065189145042136</v>
-      </c>
-      <c r="F55" s="18">
-        <v>0.15670130274811542</v>
-      </c>
-      <c r="G55" s="18">
-        <v>0.15435439149839722</v>
-      </c>
-      <c r="H55" s="18">
-        <v>0.16870412114906652</v>
-      </c>
-      <c r="I55" s="18">
-        <v>0.17006802721088435</v>
-      </c>
-      <c r="J55" s="18">
-        <v>0.16030786244292239</v>
-      </c>
-      <c r="K55" s="18">
-        <v>0.16992735005242995</v>
-      </c>
-      <c r="L55" s="18">
-        <v>0.16854788977349106</v>
-      </c>
-      <c r="M55" s="18">
-        <v>0.16897517088011019</v>
-      </c>
-      <c r="N55" s="18">
-        <v>0.18099875946894714</v>
-      </c>
-      <c r="O55" s="18">
-        <v>0.18598257799989093</v>
-      </c>
-      <c r="P55" s="18">
-        <v>0.16993738988361959</v>
-      </c>
-      <c r="Q55" s="18">
-        <v>0.14896145565462054</v>
-      </c>
-      <c r="R55" s="18">
-        <v>0.17282389066552117</v>
-      </c>
-      <c r="S55" s="18">
-        <v>0.18289165502526358</v>
-      </c>
-      <c r="T55" s="18">
-        <v>0.19508935098744778</v>
-      </c>
-      <c r="U55" s="18">
-        <v>0.19267312582702456</v>
-      </c>
-      <c r="V55" s="18">
-        <v>0.17890046230508347</v>
-      </c>
-      <c r="W55" s="18">
-        <v>0.193981308965019</v>
-      </c>
-      <c r="X55" s="18">
-        <v>0.19071250518640001</v>
-      </c>
-      <c r="Y55" s="18">
-        <v>0.20950575930337231</v>
-      </c>
-    </row>
-    <row r="57" spans="1:25" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B55" s="16">
+        <v>0.94099999999999995</v>
+      </c>
+      <c r="C55" s="16">
+        <v>1.5629999999999999</v>
+      </c>
+      <c r="D55" s="16">
+        <v>1.6060000000000001</v>
+      </c>
+      <c r="E55" s="16">
+        <v>2.4609999999999999</v>
+      </c>
+      <c r="F55" s="16">
+        <v>3.8130000000000002</v>
+      </c>
+      <c r="G55" s="16">
+        <v>4.4338999999999995</v>
+      </c>
+      <c r="H55" s="16">
+        <v>6.3150000000000004</v>
+      </c>
+      <c r="I55" s="16">
+        <v>7.8445200000000002</v>
+      </c>
+      <c r="J55" s="16">
+        <v>10.2425</v>
+      </c>
+      <c r="K55" s="14">
+        <v>10.925000000000001</v>
+      </c>
+      <c r="L55" s="14">
+        <v>13.183999999999999</v>
+      </c>
+      <c r="M55" s="14">
+        <v>16.178999999999998</v>
+      </c>
+      <c r="N55" s="14">
+        <v>17.299700000000001</v>
+      </c>
+      <c r="O55" s="14">
+        <v>18.420400000000001</v>
+      </c>
+      <c r="P55" s="14">
+        <v>22.465299999999999</v>
+      </c>
+      <c r="Q55" s="14">
+        <v>25.088189999999997</v>
+      </c>
+      <c r="R55" s="14">
+        <v>28.70044</v>
+      </c>
+      <c r="S55" s="14">
+        <v>32.848459999999996</v>
+      </c>
+      <c r="T55" s="14">
+        <v>35.2881</v>
+      </c>
+      <c r="U55" s="14">
+        <v>37.505180000000003</v>
+      </c>
+      <c r="V55" s="14">
+        <v>38.558599999999998</v>
+      </c>
+      <c r="W55" s="14">
+        <v>40.067264999999999</v>
+      </c>
+      <c r="X55" s="14">
+        <v>41.929780000000001</v>
+      </c>
+      <c r="Y55" s="14">
+        <v>44.736239999999995</v>
+      </c>
+      <c r="Z55" s="14">
+        <v>48.163160000000005</v>
+      </c>
+    </row>
+    <row r="57" spans="1:26" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A57" s="9" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="58" spans="1:25" ht="19.149999999999999" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="58" spans="1:26" ht="19.149999999999999" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A58" s="10" t="s">
         <v>61</v>
       </c>
@@ -5147,521 +5152,547 @@
       <c r="X58" s="10">
         <v>2022</v>
       </c>
-    </row>
-    <row r="59" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="Y58" s="10">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="59" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A59" s="11" t="s">
         <v>66</v>
       </c>
       <c r="B59" s="17">
-        <v>0.92615514320577175</v>
+        <v>0.55120678408349644</v>
       </c>
       <c r="C59" s="17">
-        <v>0.81099996042764533</v>
+        <v>0.56262230919765166</v>
       </c>
       <c r="D59" s="17">
-        <v>0.82167224457063737</v>
+        <v>0.50894216133942172</v>
       </c>
       <c r="E59" s="17">
-        <v>0.76898932025082123</v>
+        <v>0.50714873867804477</v>
       </c>
       <c r="F59" s="17">
-        <v>0.78346966534340223</v>
+        <v>0.50380517503805178</v>
       </c>
       <c r="G59" s="17">
-        <v>0.73673456763973511</v>
+        <v>0.49062469639560874</v>
       </c>
       <c r="H59" s="17">
-        <v>0.67271232013327142</v>
+        <v>0.52305561793547428</v>
       </c>
       <c r="I59" s="17">
-        <v>0.68553215888333363</v>
+        <v>0.55943633009767468</v>
       </c>
       <c r="J59" s="17">
-        <v>0.5335674596010449</v>
+        <v>0.48923679060665365</v>
       </c>
       <c r="K59" s="17">
-        <v>0.51284202847520821</v>
+        <v>0.54014923710880947</v>
       </c>
       <c r="L59" s="17">
-        <v>0.61622005122643342</v>
+        <v>0.5300065231572082</v>
       </c>
       <c r="M59" s="17">
-        <v>0.54638364289314678</v>
+        <v>0.54350583460172497</v>
       </c>
       <c r="N59" s="17">
-        <v>0.69484778512841583</v>
+        <v>0.59277492389649933</v>
       </c>
       <c r="O59" s="17">
-        <v>0.78135528101999385</v>
+        <v>0.62897305040737761</v>
       </c>
       <c r="P59" s="17">
-        <v>0.75427583820121702</v>
+        <v>0.57379869616568546</v>
       </c>
       <c r="Q59" s="17">
-        <v>0.60152027427680455</v>
+        <v>0.65457561609631798</v>
       </c>
       <c r="R59" s="17">
-        <v>0.23372519435278491</v>
+        <v>0.32343987823439879</v>
       </c>
       <c r="S59" s="17">
-        <v>0.20200500305682581</v>
+        <v>0.30675375468566057</v>
       </c>
       <c r="T59" s="17">
-        <v>0.21089944825947265</v>
+        <v>0.31135330020772134</v>
       </c>
       <c r="U59" s="17">
-        <v>0.23346470815738626</v>
+        <v>0.35755784925152284</v>
       </c>
       <c r="V59" s="17">
-        <v>0.22394282789661374</v>
+        <v>0.36242913550834932</v>
       </c>
       <c r="W59" s="17">
-        <v>0.23983833725154463</v>
+        <v>0.39079184334861278</v>
       </c>
       <c r="X59" s="17">
-        <v>0.26268894842528234</v>
-      </c>
-    </row>
-    <row r="60" spans="1:25" ht="16.5" x14ac:dyDescent="0.6">
+        <v>0.42295562310563695</v>
+      </c>
+      <c r="Y59" s="17">
+        <v>0.40685542663069574</v>
+      </c>
+    </row>
+    <row r="60" spans="1:26" ht="16.5" x14ac:dyDescent="0.6">
       <c r="A60" s="13" t="s">
         <v>5</v>
       </c>
       <c r="B60" s="18">
-        <v>0.6562589339986783</v>
+        <v>0.71653214818993149</v>
       </c>
       <c r="C60" s="18">
-        <v>0.64840737974378071</v>
+        <v>0.73782566864942978</v>
       </c>
       <c r="D60" s="18">
-        <v>0.65379634214798832</v>
+        <v>0.75860528986295694</v>
       </c>
       <c r="E60" s="18">
-        <v>0.67136658081725142</v>
+        <v>0.76554942611972032</v>
       </c>
       <c r="F60" s="18">
-        <v>0.67078607739887808</v>
+        <v>0.796969584304135</v>
       </c>
       <c r="G60" s="18">
-        <v>0.68516450636909287</v>
+        <v>0.78433378182380886</v>
       </c>
       <c r="H60" s="18">
-        <v>0.68437729020656124</v>
+        <v>0.80218147145848917</v>
       </c>
       <c r="I60" s="18">
-        <v>0.68164613352272707</v>
+        <v>0.78915699735877243</v>
       </c>
       <c r="J60" s="18">
-        <v>0.69256828336161436</v>
+        <v>0.79466364064431649</v>
       </c>
       <c r="K60" s="18">
-        <v>0.67375132675720706</v>
+        <v>0.79463965742241882</v>
       </c>
       <c r="L60" s="18">
-        <v>0.63619962664451646</v>
+        <v>0.74109856448388545</v>
       </c>
       <c r="M60" s="18">
-        <v>0.57419002737404723</v>
+        <v>0.70592036916237833</v>
       </c>
       <c r="N60" s="18">
-        <v>0.54864593581519505</v>
+        <v>0.68299652501558394</v>
       </c>
       <c r="O60" s="18">
-        <v>0.55078543214529752</v>
+        <v>0.64810008242168105</v>
       </c>
       <c r="P60" s="18">
-        <v>0.53285577562133479</v>
+        <v>0.63968556935402887</v>
       </c>
       <c r="Q60" s="18">
-        <v>0.52512171974026645</v>
+        <v>0.60612421815967543</v>
       </c>
       <c r="R60" s="18">
-        <v>0.54544989126569188</v>
+        <v>0.59186303001676133</v>
       </c>
       <c r="S60" s="18">
-        <v>0.55432901843813465</v>
+        <v>0.59922104058695769</v>
       </c>
       <c r="T60" s="18">
-        <v>0.54351512226161725</v>
+        <v>0.62783817039894319</v>
       </c>
       <c r="U60" s="18">
-        <v>0.53760738521190743</v>
+        <v>0.60652756341834713</v>
       </c>
       <c r="V60" s="18">
-        <v>0.53462731121505191</v>
+        <v>0.57817160320012806</v>
       </c>
       <c r="W60" s="18">
-        <v>0.53361890626399289</v>
+        <v>0.62009503817291545</v>
       </c>
       <c r="X60" s="18">
-        <v>0.57177833891742502</v>
-      </c>
-    </row>
-    <row r="61" spans="1:25" ht="16.5" x14ac:dyDescent="0.6">
+        <v>0.66585892127934132</v>
+      </c>
+      <c r="Y60" s="18">
+        <v>0.70675954342511094</v>
+      </c>
+    </row>
+    <row r="61" spans="1:26" ht="16.5" x14ac:dyDescent="0.6">
       <c r="A61" s="11" t="s">
         <v>8</v>
       </c>
       <c r="B61" s="17">
-        <v>0.53634672841876152</v>
+        <v>0.50659221680263911</v>
       </c>
       <c r="C61" s="17">
-        <v>0.50289690778182383</v>
+        <v>0.47576029779038992</v>
       </c>
       <c r="D61" s="17">
-        <v>0.48997400107692962</v>
+        <v>0.5116238197990608</v>
       </c>
       <c r="E61" s="17">
-        <v>0.52589817500167535</v>
+        <v>0.57792088199617675</v>
       </c>
       <c r="F61" s="17">
-        <v>0.56012993747044437</v>
+        <v>0.59917814478547582</v>
       </c>
       <c r="G61" s="17">
-        <v>0.54921049267894595</v>
+        <v>0.55546723427807665</v>
       </c>
       <c r="H61" s="17">
-        <v>0.51942126765131147</v>
+        <v>0.51246377766069551</v>
       </c>
       <c r="I61" s="17">
-        <v>0.51190447017143426</v>
+        <v>0.55296828215690175</v>
       </c>
       <c r="J61" s="17">
-        <v>0.57063251009305083</v>
+        <v>0.52566503850061819</v>
       </c>
       <c r="K61" s="17">
-        <v>0.50637563843705091</v>
+        <v>0.56094084565178148</v>
       </c>
       <c r="L61" s="17">
-        <v>0.59269411500882951</v>
+        <v>0.60285209361241354</v>
       </c>
       <c r="M61" s="17">
-        <v>0.54873651170174065</v>
+        <v>0.55777603176229906</v>
       </c>
       <c r="N61" s="17">
-        <v>0.52058707412271554</v>
+        <v>0.46262917567892337</v>
       </c>
       <c r="O61" s="17">
-        <v>0.35226839883156225</v>
+        <v>0.28597033257258586</v>
       </c>
       <c r="P61" s="17">
-        <v>0.25908635136304076</v>
+        <v>0.25966871448368078</v>
       </c>
       <c r="Q61" s="17">
-        <v>0.24104761435707611</v>
+        <v>0.24507244336885503</v>
       </c>
       <c r="R61" s="17">
-        <v>0.25163766184456327</v>
+        <v>0.2642637659515315</v>
       </c>
       <c r="S61" s="17">
-        <v>0.25953271151682106</v>
+        <v>0.26718171919803441</v>
       </c>
       <c r="T61" s="17">
-        <v>0.25362733623682032</v>
+        <v>0.24413875139096738</v>
       </c>
       <c r="U61" s="17">
-        <v>0.24673077590042675</v>
+        <v>0.25179246841308106</v>
       </c>
       <c r="V61" s="17">
-        <v>0.25996599807553605</v>
+        <v>0.26424237799061323</v>
       </c>
       <c r="W61" s="17">
-        <v>0.25285993124018152</v>
+        <v>0.21353289467171793</v>
       </c>
       <c r="X61" s="17">
-        <v>0.20182150983689692</v>
-      </c>
-    </row>
-    <row r="62" spans="1:25" ht="16.5" x14ac:dyDescent="0.6">
+        <v>0.16467833870451151</v>
+      </c>
+      <c r="Y61" s="17">
+        <v>0.18513279169411459</v>
+      </c>
+    </row>
+    <row r="62" spans="1:26" ht="16.5" x14ac:dyDescent="0.6">
       <c r="A62" s="13" t="s">
         <v>6</v>
       </c>
       <c r="B62" s="18">
-        <v>0.3374870914559655</v>
+        <v>0.3706795776207561</v>
       </c>
       <c r="C62" s="18">
-        <v>0.32230006775510378</v>
+        <v>0.33312241439281248</v>
       </c>
       <c r="D62" s="18">
-        <v>0.30359355498235663</v>
+        <v>0.31638499446995594</v>
       </c>
       <c r="E62" s="18">
-        <v>0.25853504497430296</v>
+        <v>0.29105809065892524</v>
       </c>
       <c r="F62" s="18">
-        <v>0.28624022314991371</v>
+        <v>0.40141804594290165</v>
       </c>
       <c r="G62" s="18">
-        <v>0.30045116693533575</v>
+        <v>0.35920557384399371</v>
       </c>
       <c r="H62" s="18">
-        <v>0.33708739474205707</v>
+        <v>0.38910909151215634</v>
       </c>
       <c r="I62" s="18">
-        <v>0.35786883027868316</v>
+        <v>0.41166398066075749</v>
       </c>
       <c r="J62" s="18">
-        <v>0.35379789064905481</v>
+        <v>0.37899280120993384</v>
       </c>
       <c r="K62" s="18">
-        <v>0.32803703550793484</v>
+        <v>0.34903017269674225</v>
       </c>
       <c r="L62" s="18">
-        <v>0.31487080974576742</v>
+        <v>0.34606194617040481</v>
       </c>
       <c r="M62" s="18">
-        <v>0.33551256009891262</v>
+        <v>0.39952821087808832</v>
       </c>
       <c r="N62" s="18">
-        <v>0.35308292438536631</v>
+        <v>0.34553973796520132</v>
       </c>
       <c r="O62" s="18">
-        <v>0.32549288011235827</v>
+        <v>0.38248819613257423</v>
       </c>
       <c r="P62" s="18">
-        <v>0.35401833291244655</v>
+        <v>0.39063466047946332</v>
       </c>
       <c r="Q62" s="18">
-        <v>0.32840520966892622</v>
+        <v>0.35951351304693097</v>
       </c>
       <c r="R62" s="18">
-        <v>0.31200798972811922</v>
+        <v>0.34209269704837791</v>
       </c>
       <c r="S62" s="18">
-        <v>0.30279078208234245</v>
+        <v>0.34654819423436883</v>
       </c>
       <c r="T62" s="18">
-        <v>0.31133287056461517</v>
+        <v>0.35201227597157908</v>
       </c>
       <c r="U62" s="18">
-        <v>0.33952699547617743</v>
+        <v>0.40670788200728542</v>
       </c>
       <c r="V62" s="18">
-        <v>0.37031923094731656</v>
+        <v>0.40642050047568828</v>
       </c>
       <c r="W62" s="18">
-        <v>0.35763339217297302</v>
+        <v>0.39127090568697159</v>
       </c>
       <c r="X62" s="18">
-        <v>0.36330633881396285</v>
-      </c>
-    </row>
-    <row r="63" spans="1:25" ht="16.5" x14ac:dyDescent="0.6">
+        <v>0.42292078853670473</v>
+      </c>
+      <c r="Y62" s="18">
+        <v>0.35978319908695094</v>
+      </c>
+    </row>
+    <row r="63" spans="1:26" ht="16.5" x14ac:dyDescent="0.6">
       <c r="A63" s="11" t="s">
         <v>19</v>
       </c>
       <c r="B63" s="17">
-        <v>0.67463358559248976</v>
+        <v>0.6294504582175815</v>
       </c>
       <c r="C63" s="17">
-        <v>0.73635383091592799</v>
+        <v>0.79279143164114962</v>
       </c>
       <c r="D63" s="17">
-        <v>0.8164513665055062</v>
+        <v>0.81209709911361805</v>
       </c>
       <c r="E63" s="17">
-        <v>0.79688339376846629</v>
+        <v>0.76131479989255979</v>
       </c>
       <c r="F63" s="17">
-        <v>0.72481372500535746</v>
+        <v>0.87615185533191575</v>
       </c>
       <c r="G63" s="17">
-        <v>0.58060345999130247</v>
+        <v>0.60237279843444236</v>
       </c>
       <c r="H63" s="17">
-        <v>0.51789895796745111</v>
+        <v>0.51604027631424887</v>
       </c>
       <c r="I63" s="17">
-        <v>0.50817789378020128</v>
+        <v>0.49402624462472838</v>
       </c>
       <c r="J63" s="17">
-        <v>0.45577592321673982</v>
+        <v>0.42198652303054485</v>
       </c>
       <c r="K63" s="17">
-        <v>0.39689878234398784</v>
+        <v>0.42107265881598976</v>
       </c>
       <c r="L63" s="17">
-        <v>0.49062708966202406</v>
+        <v>0.55119313731109454</v>
       </c>
       <c r="M63" s="17">
-        <v>0.66323341166580696</v>
+        <v>0.76947326187883303</v>
       </c>
       <c r="N63" s="17">
-        <v>0.77452303165778269</v>
+        <v>0.79144456544582642</v>
       </c>
       <c r="O63" s="17">
-        <v>0.79303342503964391</v>
+        <v>0.79550448023537967</v>
       </c>
       <c r="P63" s="17">
-        <v>0.68525201055442331</v>
+        <v>0.68512900728381598</v>
       </c>
       <c r="Q63" s="17">
-        <v>0.71948539286786417</v>
+        <v>0.75662416457316206</v>
       </c>
       <c r="R63" s="17">
-        <v>0.74140047558104627</v>
+        <v>0.74852664675862279</v>
       </c>
       <c r="S63" s="17">
-        <v>0.64020271817459351</v>
+        <v>0.6298743282013981</v>
       </c>
       <c r="T63" s="17">
-        <v>0.64339010789186557</v>
+        <v>0.65748710281380907</v>
       </c>
       <c r="U63" s="17">
-        <v>0.67310451771931945</v>
+        <v>0.76036152530273027</v>
       </c>
       <c r="V63" s="17">
-        <v>0.76796527525221903</v>
+        <v>0.75110114357295832</v>
       </c>
       <c r="W63" s="17">
-        <v>0.74166944478118557</v>
+        <v>0.73948357376651719</v>
       </c>
       <c r="X63" s="17">
-        <v>0.7879624297894694</v>
-      </c>
-    </row>
-    <row r="64" spans="1:25" ht="16.5" x14ac:dyDescent="0.6">
+        <v>0.77770369472393952</v>
+      </c>
+      <c r="Y63" s="17">
+        <v>0.73559934559128759</v>
+      </c>
+    </row>
+    <row r="64" spans="1:26" ht="16.5" x14ac:dyDescent="0.6">
       <c r="A64" s="13" t="s">
         <v>23</v>
       </c>
       <c r="B64" s="18">
-        <v>0.17720087513261917</v>
+        <v>0.49024552625738904</v>
       </c>
       <c r="C64" s="18">
-        <v>0.17550509108599993</v>
+        <v>0.43317552097481471</v>
       </c>
       <c r="D64" s="18">
-        <v>0.18528032422869742</v>
+        <v>0.42911926842309039</v>
       </c>
       <c r="E64" s="18">
-        <v>0.18296467118150853</v>
+        <v>0.45501112281934197</v>
       </c>
       <c r="F64" s="18">
-        <v>0.15907203986845228</v>
+        <v>0.39548639090339333</v>
       </c>
       <c r="G64" s="18">
-        <v>0.14242484796911359</v>
+        <v>0.33833162633892372</v>
       </c>
       <c r="H64" s="18">
-        <v>0.15141467605032932</v>
+        <v>0.24527952610144385</v>
       </c>
       <c r="I64" s="18">
-        <v>0.1532892015016751</v>
+        <v>0.15787931213779932</v>
       </c>
       <c r="J64" s="18">
-        <v>0.16448877281244687</v>
+        <v>0.17483958725491541</v>
       </c>
       <c r="K64" s="18">
-        <v>0.1556085545319251</v>
+        <v>0.14179968517868063</v>
       </c>
       <c r="L64" s="18">
-        <v>0.12802567443430526</v>
+        <v>0.11321008346880737</v>
       </c>
       <c r="M64" s="18">
-        <v>0.10811299533641031</v>
+        <v>9.5640824209096406E-2</v>
       </c>
       <c r="N64" s="18">
-        <v>8.9479674830827402E-2</v>
+        <v>9.4690558401600802E-2</v>
       </c>
       <c r="O64" s="18">
-        <v>9.8629874465586215E-2</v>
+        <v>9.5955282135559136E-2</v>
       </c>
       <c r="P64" s="18">
-        <v>9.7348308588321997E-2</v>
+        <v>9.9961573213414076E-2</v>
       </c>
       <c r="Q64" s="18">
-        <v>9.4034176456629232E-2</v>
+        <v>7.894530437421779E-2</v>
       </c>
       <c r="R64" s="18">
-        <v>7.6304742744512793E-2</v>
+        <v>7.6292678497301786E-2</v>
       </c>
       <c r="S64" s="18">
-        <v>7.7298498516814765E-2</v>
+        <v>7.0763375002415127E-2</v>
       </c>
       <c r="T64" s="18">
-        <v>5.8998220557805604E-2</v>
+        <v>4.6357462392508632E-2</v>
       </c>
       <c r="U64" s="18">
-        <v>4.2524667780158308E-2</v>
+        <v>2.4767252367813866E-2</v>
       </c>
       <c r="V64" s="18">
-        <v>2.1405234787563447E-2</v>
+        <v>2.0676420048499254E-2</v>
       </c>
       <c r="W64" s="18">
-        <v>2.486717047371282E-2</v>
+        <v>2.1043300781395491E-2</v>
       </c>
       <c r="X64" s="18">
-        <v>2.4708099525161863E-2</v>
+        <v>2.2646432571477804E-2</v>
+      </c>
+      <c r="Y64" s="18">
+        <v>2.5681859514084471E-2</v>
       </c>
     </row>
     <row r="65" spans="1:26" ht="16.5" x14ac:dyDescent="0.6">
       <c r="A65" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B65" s="17"/>
+      <c r="B65" s="17">
+        <v>65535</v>
+      </c>
       <c r="C65" s="17">
-        <v>0.15410443297735871</v>
+        <v>0.11415525114155252</v>
       </c>
       <c r="D65" s="17">
-        <v>0.15411384538901315</v>
+        <v>0.11415525114155252</v>
       </c>
       <c r="E65" s="17">
-        <v>0.15411320842128429</v>
+        <v>0.22831050228310504</v>
       </c>
       <c r="F65" s="17">
-        <v>0.1541168973158169</v>
+        <v>0.22831050228310504</v>
       </c>
       <c r="G65" s="17">
-        <v>0.1541125620553008</v>
+        <v>0.22831050228310504</v>
       </c>
       <c r="H65" s="17">
-        <v>0.15410710199858738</v>
+        <v>0.11415525114155252</v>
       </c>
       <c r="I65" s="17">
-        <v>0.15659276568267702</v>
+        <v>0.22831050228310504</v>
       </c>
       <c r="J65" s="17">
-        <v>0.15410995196870808</v>
+        <v>0.22831050228310504</v>
       </c>
       <c r="K65" s="17">
-        <v>0.13530737627185596</v>
+        <v>0.22831050228310504</v>
       </c>
       <c r="L65" s="17">
-        <v>0.11570591304034018</v>
+        <v>0.17938682322243965</v>
       </c>
       <c r="M65" s="17">
-        <v>6.296530820143173E-2</v>
+        <v>0.16622606745173435</v>
       </c>
       <c r="N65" s="17">
-        <v>0.11346214529445367</v>
+        <v>0.24214750242147504</v>
       </c>
       <c r="O65" s="17">
-        <v>0.12030836176353334</v>
+        <v>0.2447203196347032</v>
       </c>
       <c r="P65" s="17">
-        <v>9.3852233882114999E-2</v>
+        <v>0.14828102727646106</v>
       </c>
       <c r="Q65" s="17">
-        <v>0.11991091410355517</v>
+        <v>0.13157894736842105</v>
       </c>
       <c r="R65" s="17">
-        <v>0.11649130783487328</v>
+        <v>0.13222792617197865</v>
       </c>
       <c r="S65" s="17">
-        <v>0.11339457449910567</v>
+        <v>0.1346606850815466</v>
       </c>
       <c r="T65" s="17">
-        <v>0.12919793014915235</v>
+        <v>0.15091922394369006</v>
       </c>
       <c r="U65" s="17">
-        <v>0.14227518526568148</v>
+        <v>0.14984293532821658</v>
       </c>
       <c r="V65" s="17">
-        <v>0.15841134011670518</v>
+        <v>0.16868874683924204</v>
       </c>
       <c r="W65" s="17">
-        <v>0.15137910145487501</v>
+        <v>0.15611501912871775</v>
       </c>
       <c r="X65" s="17">
-        <v>0.15060599528352506</v>
+        <v>0.17136793971651898</v>
+      </c>
+      <c r="Y65" s="17">
+        <v>0.1770803861573447</v>
       </c>
     </row>
     <row r="66" spans="1:26" ht="16.5" x14ac:dyDescent="0.6">
@@ -5669,152 +5700,672 @@
         <v>12</v>
       </c>
       <c r="B66" s="18">
-        <v>0.16000004852508018</v>
+        <v>0.1918779753230351</v>
       </c>
       <c r="C66" s="18">
-        <v>0.11224565216756209</v>
+        <v>0.15293876595246458</v>
       </c>
       <c r="D66" s="18">
-        <v>0.15678704856787049</v>
+        <v>0.14818911483592839</v>
       </c>
       <c r="E66" s="18">
-        <v>0.11830964878590024</v>
+        <v>0.12065189145042136</v>
       </c>
       <c r="F66" s="18">
-        <v>0.1174508141457906</v>
+        <v>0.15670130274811542</v>
       </c>
       <c r="G66" s="18">
-        <v>0.14319582799232278</v>
+        <v>0.15435439149839722</v>
       </c>
       <c r="H66" s="18">
-        <v>0.12425463761356775</v>
+        <v>0.16870412114906652</v>
       </c>
       <c r="I66" s="18">
-        <v>0.13660247177874596</v>
+        <v>0.17006802721088435</v>
       </c>
       <c r="J66" s="18">
-        <v>0.13190552615066375</v>
+        <v>0.16030786244292239</v>
       </c>
       <c r="K66" s="18">
-        <v>0.15250343249427917</v>
+        <v>0.16992735005242995</v>
       </c>
       <c r="L66" s="18">
-        <v>0.13943871705568114</v>
+        <v>0.16854788977349106</v>
       </c>
       <c r="M66" s="18">
-        <v>0.13778601609109956</v>
+        <v>0.16897517088011019</v>
       </c>
       <c r="N66" s="18">
-        <v>0.15222622568771019</v>
+        <v>0.18099875946894714</v>
       </c>
       <c r="O66" s="18">
-        <v>0.15269918258186849</v>
+        <v>0.18598257799989093</v>
       </c>
       <c r="P66" s="18">
-        <v>0.13839388059193961</v>
+        <v>0.16993738988361959</v>
       </c>
       <c r="Q66" s="18">
-        <v>0.14502662781202258</v>
+        <v>0.14896145565462054</v>
       </c>
       <c r="R66" s="18">
-        <v>0.14427542004685923</v>
+        <v>0.17282389066552117</v>
       </c>
       <c r="S66" s="18">
-        <v>0.16566242312279042</v>
+        <v>0.18289165502526358</v>
       </c>
       <c r="T66" s="18">
-        <v>0.17795028991560258</v>
+        <v>0.19508935098744778</v>
       </c>
       <c r="U66" s="18">
-        <v>0.19080736612574969</v>
+        <v>0.19267312582702456</v>
       </c>
       <c r="V66" s="18">
-        <v>0.18806181018385656</v>
+        <v>0.17890046230508347</v>
       </c>
       <c r="W66" s="18">
-        <v>0.17741991108220906</v>
+        <v>0.193981308965019</v>
       </c>
       <c r="X66" s="18">
-        <v>0.18903531409943225</v>
-      </c>
-    </row>
-    <row r="71" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="75" spans="1:26" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A75" s="9" t="s">
+        <v>0.19071250518640001</v>
+      </c>
+      <c r="Y66" s="18">
+        <v>0.20950575930337231</v>
+      </c>
+    </row>
+    <row r="68" spans="1:26" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A68" s="9" t="s">
         <v>74</v>
+      </c>
+    </row>
+    <row r="69" spans="1:26" ht="19.149999999999999" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="A69" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="B69" s="10">
+        <v>2000</v>
+      </c>
+      <c r="C69" s="10">
+        <v>2001</v>
+      </c>
+      <c r="D69" s="10">
+        <v>2002</v>
+      </c>
+      <c r="E69" s="10">
+        <v>2003</v>
+      </c>
+      <c r="F69" s="10">
+        <v>2004</v>
+      </c>
+      <c r="G69" s="10">
+        <v>2005</v>
+      </c>
+      <c r="H69" s="10">
+        <v>2006</v>
+      </c>
+      <c r="I69" s="10">
+        <v>2007</v>
+      </c>
+      <c r="J69" s="10">
+        <v>2008</v>
+      </c>
+      <c r="K69" s="10">
+        <v>2009</v>
+      </c>
+      <c r="L69" s="10">
+        <v>2010</v>
+      </c>
+      <c r="M69" s="10">
+        <v>2011</v>
+      </c>
+      <c r="N69" s="10">
+        <v>2012</v>
+      </c>
+      <c r="O69" s="10">
+        <v>2013</v>
+      </c>
+      <c r="P69" s="10">
+        <v>2014</v>
+      </c>
+      <c r="Q69" s="10">
+        <v>2015</v>
+      </c>
+      <c r="R69" s="10">
+        <v>2016</v>
+      </c>
+      <c r="S69" s="10">
+        <v>2017</v>
+      </c>
+      <c r="T69" s="10">
+        <v>2018</v>
+      </c>
+      <c r="U69" s="10">
+        <v>2019</v>
+      </c>
+      <c r="V69" s="10">
+        <v>2020</v>
+      </c>
+      <c r="W69" s="10">
+        <v>2021</v>
+      </c>
+      <c r="X69" s="10">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="70" spans="1:26" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A70" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="B70" s="17">
+        <v>0.92615514320577175</v>
+      </c>
+      <c r="C70" s="17">
+        <v>0.81099996042764533</v>
+      </c>
+      <c r="D70" s="17">
+        <v>0.82167224457063737</v>
+      </c>
+      <c r="E70" s="17">
+        <v>0.76898932025082123</v>
+      </c>
+      <c r="F70" s="17">
+        <v>0.78346966534340223</v>
+      </c>
+      <c r="G70" s="17">
+        <v>0.73673456763973511</v>
+      </c>
+      <c r="H70" s="17">
+        <v>0.67271232013327142</v>
+      </c>
+      <c r="I70" s="17">
+        <v>0.68553215888333363</v>
+      </c>
+      <c r="J70" s="17">
+        <v>0.5335674596010449</v>
+      </c>
+      <c r="K70" s="17">
+        <v>0.51284202847520821</v>
+      </c>
+      <c r="L70" s="17">
+        <v>0.61622005122643342</v>
+      </c>
+      <c r="M70" s="17">
+        <v>0.54638364289314678</v>
+      </c>
+      <c r="N70" s="17">
+        <v>0.69484778512841583</v>
+      </c>
+      <c r="O70" s="17">
+        <v>0.78135528101999385</v>
+      </c>
+      <c r="P70" s="17">
+        <v>0.75427583820121702</v>
+      </c>
+      <c r="Q70" s="17">
+        <v>0.60152027427680455</v>
+      </c>
+      <c r="R70" s="17">
+        <v>0.23372519435278491</v>
+      </c>
+      <c r="S70" s="17">
+        <v>0.20200500305682581</v>
+      </c>
+      <c r="T70" s="17">
+        <v>0.21089944825947265</v>
+      </c>
+      <c r="U70" s="17">
+        <v>0.23346470815738626</v>
+      </c>
+      <c r="V70" s="17">
+        <v>0.22394282789661374</v>
+      </c>
+      <c r="W70" s="17">
+        <v>0.23983833725154463</v>
+      </c>
+      <c r="X70" s="17">
+        <v>0.26268894842528234</v>
+      </c>
+    </row>
+    <row r="71" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A71" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B71" s="18">
+        <v>0.6562589339986783</v>
+      </c>
+      <c r="C71" s="18">
+        <v>0.64840737974378071</v>
+      </c>
+      <c r="D71" s="18">
+        <v>0.65379634214798832</v>
+      </c>
+      <c r="E71" s="18">
+        <v>0.67136658081725142</v>
+      </c>
+      <c r="F71" s="18">
+        <v>0.67078607739887808</v>
+      </c>
+      <c r="G71" s="18">
+        <v>0.68516450636909287</v>
+      </c>
+      <c r="H71" s="18">
+        <v>0.68437729020656124</v>
+      </c>
+      <c r="I71" s="18">
+        <v>0.68164613352272707</v>
+      </c>
+      <c r="J71" s="18">
+        <v>0.69256828336161436</v>
+      </c>
+      <c r="K71" s="18">
+        <v>0.67375132675720706</v>
+      </c>
+      <c r="L71" s="18">
+        <v>0.63619962664451646</v>
+      </c>
+      <c r="M71" s="18">
+        <v>0.57419002737404723</v>
+      </c>
+      <c r="N71" s="18">
+        <v>0.54864593581519505</v>
+      </c>
+      <c r="O71" s="18">
+        <v>0.55078543214529752</v>
+      </c>
+      <c r="P71" s="18">
+        <v>0.53285577562133479</v>
+      </c>
+      <c r="Q71" s="18">
+        <v>0.52512171974026645</v>
+      </c>
+      <c r="R71" s="18">
+        <v>0.54544989126569188</v>
+      </c>
+      <c r="S71" s="18">
+        <v>0.55432901843813465</v>
+      </c>
+      <c r="T71" s="18">
+        <v>0.54351512226161725</v>
+      </c>
+      <c r="U71" s="18">
+        <v>0.53760738521190743</v>
+      </c>
+      <c r="V71" s="18">
+        <v>0.53462731121505191</v>
+      </c>
+      <c r="W71" s="18">
+        <v>0.53361890626399289</v>
+      </c>
+      <c r="X71" s="18">
+        <v>0.57177833891742502</v>
+      </c>
+    </row>
+    <row r="72" spans="1:26" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A72" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B72" s="17">
+        <v>0.53634672841876152</v>
+      </c>
+      <c r="C72" s="17">
+        <v>0.50289690778182383</v>
+      </c>
+      <c r="D72" s="17">
+        <v>0.48997400107692962</v>
+      </c>
+      <c r="E72" s="17">
+        <v>0.52589817500167535</v>
+      </c>
+      <c r="F72" s="17">
+        <v>0.56012993747044437</v>
+      </c>
+      <c r="G72" s="17">
+        <v>0.54921049267894595</v>
+      </c>
+      <c r="H72" s="17">
+        <v>0.51942126765131147</v>
+      </c>
+      <c r="I72" s="17">
+        <v>0.51190447017143426</v>
+      </c>
+      <c r="J72" s="17">
+        <v>0.57063251009305083</v>
+      </c>
+      <c r="K72" s="17">
+        <v>0.50637563843705091</v>
+      </c>
+      <c r="L72" s="17">
+        <v>0.59269411500882951</v>
+      </c>
+      <c r="M72" s="17">
+        <v>0.54873651170174065</v>
+      </c>
+      <c r="N72" s="17">
+        <v>0.52058707412271554</v>
+      </c>
+      <c r="O72" s="17">
+        <v>0.35226839883156225</v>
+      </c>
+      <c r="P72" s="17">
+        <v>0.25908635136304076</v>
+      </c>
+      <c r="Q72" s="17">
+        <v>0.24104761435707611</v>
+      </c>
+      <c r="R72" s="17">
+        <v>0.25163766184456327</v>
+      </c>
+      <c r="S72" s="17">
+        <v>0.25953271151682106</v>
+      </c>
+      <c r="T72" s="17">
+        <v>0.25362733623682032</v>
+      </c>
+      <c r="U72" s="17">
+        <v>0.24673077590042675</v>
+      </c>
+      <c r="V72" s="17">
+        <v>0.25996599807553605</v>
+      </c>
+      <c r="W72" s="17">
+        <v>0.25285993124018152</v>
+      </c>
+      <c r="X72" s="17">
+        <v>0.20182150983689692</v>
+      </c>
+    </row>
+    <row r="73" spans="1:26" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A73" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B73" s="18">
+        <v>0.3374870914559655</v>
+      </c>
+      <c r="C73" s="18">
+        <v>0.32230006775510378</v>
+      </c>
+      <c r="D73" s="18">
+        <v>0.30359355498235663</v>
+      </c>
+      <c r="E73" s="18">
+        <v>0.25853504497430296</v>
+      </c>
+      <c r="F73" s="18">
+        <v>0.28624022314991371</v>
+      </c>
+      <c r="G73" s="18">
+        <v>0.30045116693533575</v>
+      </c>
+      <c r="H73" s="18">
+        <v>0.33708739474205707</v>
+      </c>
+      <c r="I73" s="18">
+        <v>0.35786883027868316</v>
+      </c>
+      <c r="J73" s="18">
+        <v>0.35379789064905481</v>
+      </c>
+      <c r="K73" s="18">
+        <v>0.32803703550793484</v>
+      </c>
+      <c r="L73" s="18">
+        <v>0.31487080974576742</v>
+      </c>
+      <c r="M73" s="18">
+        <v>0.33551256009891262</v>
+      </c>
+      <c r="N73" s="18">
+        <v>0.35308292438536631</v>
+      </c>
+      <c r="O73" s="18">
+        <v>0.32549288011235827</v>
+      </c>
+      <c r="P73" s="18">
+        <v>0.35401833291244655</v>
+      </c>
+      <c r="Q73" s="18">
+        <v>0.32840520966892622</v>
+      </c>
+      <c r="R73" s="18">
+        <v>0.31200798972811922</v>
+      </c>
+      <c r="S73" s="18">
+        <v>0.30279078208234245</v>
+      </c>
+      <c r="T73" s="18">
+        <v>0.31133287056461517</v>
+      </c>
+      <c r="U73" s="18">
+        <v>0.33952699547617743</v>
+      </c>
+      <c r="V73" s="18">
+        <v>0.37031923094731656</v>
+      </c>
+      <c r="W73" s="18">
+        <v>0.35763339217297302</v>
+      </c>
+      <c r="X73" s="18">
+        <v>0.36330633881396285</v>
+      </c>
+    </row>
+    <row r="74" spans="1:26" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A74" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B74" s="17">
+        <v>0.67463358559248976</v>
+      </c>
+      <c r="C74" s="17">
+        <v>0.73635383091592799</v>
+      </c>
+      <c r="D74" s="17">
+        <v>0.8164513665055062</v>
+      </c>
+      <c r="E74" s="17">
+        <v>0.79688339376846629</v>
+      </c>
+      <c r="F74" s="17">
+        <v>0.72481372500535746</v>
+      </c>
+      <c r="G74" s="17">
+        <v>0.58060345999130247</v>
+      </c>
+      <c r="H74" s="17">
+        <v>0.51789895796745111</v>
+      </c>
+      <c r="I74" s="17">
+        <v>0.50817789378020128</v>
+      </c>
+      <c r="J74" s="17">
+        <v>0.45577592321673982</v>
+      </c>
+      <c r="K74" s="17">
+        <v>0.39689878234398784</v>
+      </c>
+      <c r="L74" s="17">
+        <v>0.49062708966202406</v>
+      </c>
+      <c r="M74" s="17">
+        <v>0.66323341166580696</v>
+      </c>
+      <c r="N74" s="17">
+        <v>0.77452303165778269</v>
+      </c>
+      <c r="O74" s="17">
+        <v>0.79303342503964391</v>
+      </c>
+      <c r="P74" s="17">
+        <v>0.68525201055442331</v>
+      </c>
+      <c r="Q74" s="17">
+        <v>0.71948539286786417</v>
+      </c>
+      <c r="R74" s="17">
+        <v>0.74140047558104627</v>
+      </c>
+      <c r="S74" s="17">
+        <v>0.64020271817459351</v>
+      </c>
+      <c r="T74" s="17">
+        <v>0.64339010789186557</v>
+      </c>
+      <c r="U74" s="17">
+        <v>0.67310451771931945</v>
+      </c>
+      <c r="V74" s="17">
+        <v>0.76796527525221903</v>
+      </c>
+      <c r="W74" s="17">
+        <v>0.74166944478118557</v>
+      </c>
+      <c r="X74" s="17">
+        <v>0.7879624297894694</v>
+      </c>
+    </row>
+    <row r="75" spans="1:26" ht="16.899999999999999" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="A75" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="B75" s="18">
+        <v>0.17720087513261917</v>
+      </c>
+      <c r="C75" s="18">
+        <v>0.17550509108599993</v>
+      </c>
+      <c r="D75" s="18">
+        <v>0.18528032422869742</v>
+      </c>
+      <c r="E75" s="18">
+        <v>0.18296467118150853</v>
+      </c>
+      <c r="F75" s="18">
+        <v>0.15907203986845228</v>
+      </c>
+      <c r="G75" s="18">
+        <v>0.14242484796911359</v>
+      </c>
+      <c r="H75" s="18">
+        <v>0.15141467605032932</v>
+      </c>
+      <c r="I75" s="18">
+        <v>0.1532892015016751</v>
+      </c>
+      <c r="J75" s="18">
+        <v>0.16448877281244687</v>
+      </c>
+      <c r="K75" s="18">
+        <v>0.1556085545319251</v>
+      </c>
+      <c r="L75" s="18">
+        <v>0.12802567443430526</v>
+      </c>
+      <c r="M75" s="18">
+        <v>0.10811299533641031</v>
+      </c>
+      <c r="N75" s="18">
+        <v>8.9479674830827402E-2</v>
+      </c>
+      <c r="O75" s="18">
+        <v>9.8629874465586215E-2</v>
+      </c>
+      <c r="P75" s="18">
+        <v>9.7348308588321997E-2</v>
+      </c>
+      <c r="Q75" s="18">
+        <v>9.4034176456629232E-2</v>
+      </c>
+      <c r="R75" s="18">
+        <v>7.6304742744512793E-2</v>
+      </c>
+      <c r="S75" s="18">
+        <v>7.7298498516814765E-2</v>
+      </c>
+      <c r="T75" s="18">
+        <v>5.8998220557805604E-2</v>
+      </c>
+      <c r="U75" s="18">
+        <v>4.2524667780158308E-2</v>
+      </c>
+      <c r="V75" s="18">
+        <v>2.1405234787563447E-2</v>
+      </c>
+      <c r="W75" s="18">
+        <v>2.486717047371282E-2</v>
+      </c>
+      <c r="X75" s="18">
+        <v>2.4708099525161863E-2</v>
       </c>
     </row>
     <row r="76" spans="1:26" ht="19.149999999999999" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A76" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="B76" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="B76" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="C76" s="10">
+      <c r="C76" s="20">
         <v>2000</v>
       </c>
-      <c r="D76" s="10">
+      <c r="D76" s="20">
         <v>2001</v>
       </c>
-      <c r="E76" s="10">
+      <c r="E76" s="20">
         <v>2002</v>
       </c>
-      <c r="F76" s="10">
+      <c r="F76" s="20">
         <v>2003</v>
       </c>
-      <c r="G76" s="10">
+      <c r="G76" s="20">
         <v>2004</v>
       </c>
-      <c r="H76" s="10">
+      <c r="H76" s="20">
         <v>2005</v>
       </c>
-      <c r="I76" s="10">
+      <c r="I76" s="20">
         <v>2006</v>
       </c>
-      <c r="J76" s="10">
+      <c r="J76" s="20">
         <v>2007</v>
       </c>
-      <c r="K76" s="10">
+      <c r="K76" s="20">
         <v>2008</v>
       </c>
-      <c r="L76" s="10">
+      <c r="L76" s="20">
         <v>2009</v>
       </c>
-      <c r="M76" s="10">
+      <c r="M76" s="20">
         <v>2010</v>
       </c>
-      <c r="N76" s="10">
+      <c r="N76" s="20">
         <v>2011</v>
       </c>
-      <c r="O76" s="10">
+      <c r="O76" s="20">
         <v>2012</v>
       </c>
-      <c r="P76" s="10">
+      <c r="P76" s="20">
         <v>2013</v>
       </c>
-      <c r="Q76" s="10">
+      <c r="Q76" s="20">
         <v>2014</v>
       </c>
-      <c r="R76" s="10">
+      <c r="R76" s="20">
         <v>2015</v>
       </c>
-      <c r="S76" s="10">
+      <c r="S76" s="20">
         <v>2016</v>
       </c>
-      <c r="T76" s="10">
+      <c r="T76" s="20">
         <v>2017</v>
       </c>
-      <c r="U76" s="10">
+      <c r="U76" s="20">
         <v>2018</v>
       </c>
-      <c r="V76" s="10">
+      <c r="V76" s="20">
         <v>2019</v>
       </c>
-      <c r="W76" s="10">
+      <c r="W76" s="20">
         <v>2020</v>
       </c>
-      <c r="X76" s="10">
+      <c r="X76" s="20">
         <v>2021</v>
       </c>
       <c r="Y76" s="10">
@@ -5826,10 +6377,10 @@
     </row>
     <row r="77" spans="1:26" ht="16.5" x14ac:dyDescent="0.6">
       <c r="A77" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="B77" s="11" t="s">
         <v>77</v>
+      </c>
+      <c r="B77" s="17" t="s">
+        <v>78</v>
       </c>
       <c r="C77" s="15">
         <v>0.2</v>
@@ -5898,10 +6449,10 @@
     </row>
     <row r="78" spans="1:26" ht="16.5" x14ac:dyDescent="0.6">
       <c r="A78" s="13" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B78" s="13" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C78" s="16">
         <v>1.5</v>

--- a/VerveStacks_IND/SuppXLS/Scen_Base_VS.xlsx
+++ b/VerveStacks_IND/SuppXLS/Scen_Base_VS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_IND\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{313B4037-B5CC-41DA-A017-7DAAF2093F63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F120DD9-530C-4862-AA24-60ECAFD9521C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -96,7 +96,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="80">
   <si>
     <t>~TFM_INS-AT</t>
   </si>
@@ -483,7 +483,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -507,8 +507,6 @@
     <xf numFmtId="2" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="8" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="7" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1536,10 +1534,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:Z84"/>
+  <dimension ref="A1:Z93"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:Z78"/>
+      <selection sqref="A1:Z93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -5618,7 +5616,7 @@
         <v>2.5681859514084471E-2</v>
       </c>
     </row>
-    <row r="65" spans="1:26" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="65" spans="1:25" ht="16.5" x14ac:dyDescent="0.6">
       <c r="A65" s="11" t="s">
         <v>9</v>
       </c>
@@ -5695,7 +5693,7 @@
         <v>0.1770803861573447</v>
       </c>
     </row>
-    <row r="66" spans="1:26" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="66" spans="1:25" ht="16.5" x14ac:dyDescent="0.6">
       <c r="A66" s="13" t="s">
         <v>12</v>
       </c>
@@ -5772,12 +5770,12 @@
         <v>0.20950575930337231</v>
       </c>
     </row>
-    <row r="68" spans="1:26" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="68" spans="1:25" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A68" s="9" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="69" spans="1:26" ht="19.149999999999999" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="69" spans="1:25" ht="19.149999999999999" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A69" s="10" t="s">
         <v>61</v>
       </c>
@@ -5851,7 +5849,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="70" spans="1:26" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="70" spans="1:25" ht="16.5" x14ac:dyDescent="0.6">
       <c r="A70" s="11" t="s">
         <v>66</v>
       </c>
@@ -5925,7 +5923,7 @@
         <v>0.26268894842528234</v>
       </c>
     </row>
-    <row r="71" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="71" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A71" s="13" t="s">
         <v>5</v>
       </c>
@@ -5999,7 +5997,7 @@
         <v>0.57177833891742502</v>
       </c>
     </row>
-    <row r="72" spans="1:26" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="72" spans="1:25" ht="16.5" x14ac:dyDescent="0.6">
       <c r="A72" s="11" t="s">
         <v>8</v>
       </c>
@@ -6073,7 +6071,7 @@
         <v>0.20182150983689692</v>
       </c>
     </row>
-    <row r="73" spans="1:26" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="73" spans="1:25" ht="16.5" x14ac:dyDescent="0.6">
       <c r="A73" s="13" t="s">
         <v>6</v>
       </c>
@@ -6147,7 +6145,7 @@
         <v>0.36330633881396285</v>
       </c>
     </row>
-    <row r="74" spans="1:26" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="74" spans="1:25" ht="16.5" x14ac:dyDescent="0.6">
       <c r="A74" s="11" t="s">
         <v>19</v>
       </c>
@@ -6221,9 +6219,9 @@
         <v>0.7879624297894694</v>
       </c>
     </row>
-    <row r="75" spans="1:26" ht="16.899999999999999" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="A75" s="19" t="s">
-        <v>75</v>
+    <row r="75" spans="1:25" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A75" s="13" t="s">
+        <v>23</v>
       </c>
       <c r="B75" s="18">
         <v>0.17720087513261917</v>
@@ -6295,237 +6293,388 @@
         <v>2.4708099525161863E-2</v>
       </c>
     </row>
-    <row r="76" spans="1:26" ht="19.149999999999999" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A76" s="10" t="s">
+    <row r="76" spans="1:25" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A76" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B76" s="17"/>
+      <c r="C76" s="17">
+        <v>0.15410443297735871</v>
+      </c>
+      <c r="D76" s="17">
+        <v>0.15411384538901315</v>
+      </c>
+      <c r="E76" s="17">
+        <v>0.15411320842128429</v>
+      </c>
+      <c r="F76" s="17">
+        <v>0.1541168973158169</v>
+      </c>
+      <c r="G76" s="17">
+        <v>0.1541125620553008</v>
+      </c>
+      <c r="H76" s="17">
+        <v>0.15410710199858738</v>
+      </c>
+      <c r="I76" s="17">
+        <v>0.15659276568267702</v>
+      </c>
+      <c r="J76" s="17">
+        <v>0.15410995196870808</v>
+      </c>
+      <c r="K76" s="17">
+        <v>0.13530737627185596</v>
+      </c>
+      <c r="L76" s="17">
+        <v>0.11570591304034018</v>
+      </c>
+      <c r="M76" s="17">
+        <v>6.296530820143173E-2</v>
+      </c>
+      <c r="N76" s="17">
+        <v>0.11346214529445367</v>
+      </c>
+      <c r="O76" s="17">
+        <v>0.12030836176353334</v>
+      </c>
+      <c r="P76" s="17">
+        <v>9.3852233882114999E-2</v>
+      </c>
+      <c r="Q76" s="17">
+        <v>0.11991091410355517</v>
+      </c>
+      <c r="R76" s="17">
+        <v>0.11649130783487328</v>
+      </c>
+      <c r="S76" s="17">
+        <v>0.11339457449910567</v>
+      </c>
+      <c r="T76" s="17">
+        <v>0.12919793014915235</v>
+      </c>
+      <c r="U76" s="17">
+        <v>0.14227518526568148</v>
+      </c>
+      <c r="V76" s="17">
+        <v>0.15841134011670518</v>
+      </c>
+      <c r="W76" s="17">
+        <v>0.15137910145487501</v>
+      </c>
+      <c r="X76" s="17">
+        <v>0.15060599528352506</v>
+      </c>
+    </row>
+    <row r="77" spans="1:25" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A77" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B77" s="18">
+        <v>0.16000004852508018</v>
+      </c>
+      <c r="C77" s="18">
+        <v>0.11224565216756209</v>
+      </c>
+      <c r="D77" s="18">
+        <v>0.15678704856787049</v>
+      </c>
+      <c r="E77" s="18">
+        <v>0.11830964878590024</v>
+      </c>
+      <c r="F77" s="18">
+        <v>0.1174508141457906</v>
+      </c>
+      <c r="G77" s="18">
+        <v>0.14319582799232278</v>
+      </c>
+      <c r="H77" s="18">
+        <v>0.12425463761356775</v>
+      </c>
+      <c r="I77" s="18">
+        <v>0.13660247177874596</v>
+      </c>
+      <c r="J77" s="18">
+        <v>0.13190552615066375</v>
+      </c>
+      <c r="K77" s="18">
+        <v>0.15250343249427917</v>
+      </c>
+      <c r="L77" s="18">
+        <v>0.13943871705568114</v>
+      </c>
+      <c r="M77" s="18">
+        <v>0.13778601609109956</v>
+      </c>
+      <c r="N77" s="18">
+        <v>0.15222622568771019</v>
+      </c>
+      <c r="O77" s="18">
+        <v>0.15269918258186849</v>
+      </c>
+      <c r="P77" s="18">
+        <v>0.13839388059193961</v>
+      </c>
+      <c r="Q77" s="18">
+        <v>0.14502662781202258</v>
+      </c>
+      <c r="R77" s="18">
+        <v>0.14427542004685923</v>
+      </c>
+      <c r="S77" s="18">
+        <v>0.16566242312279042</v>
+      </c>
+      <c r="T77" s="18">
+        <v>0.17795028991560258</v>
+      </c>
+      <c r="U77" s="18">
+        <v>0.19080736612574969</v>
+      </c>
+      <c r="V77" s="18">
+        <v>0.18806181018385656</v>
+      </c>
+      <c r="W77" s="18">
+        <v>0.17741991108220906</v>
+      </c>
+      <c r="X77" s="18">
+        <v>0.18903531409943225</v>
+      </c>
+    </row>
+    <row r="84" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="90" spans="1:26" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A90" s="9" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="91" spans="1:26" ht="19.149999999999999" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="A91" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="B76" s="20" t="s">
+      <c r="B91" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="C76" s="20">
+      <c r="C91" s="10">
         <v>2000</v>
       </c>
-      <c r="D76" s="20">
+      <c r="D91" s="10">
         <v>2001</v>
       </c>
-      <c r="E76" s="20">
+      <c r="E91" s="10">
         <v>2002</v>
       </c>
-      <c r="F76" s="20">
+      <c r="F91" s="10">
         <v>2003</v>
       </c>
-      <c r="G76" s="20">
+      <c r="G91" s="10">
         <v>2004</v>
       </c>
-      <c r="H76" s="20">
+      <c r="H91" s="10">
         <v>2005</v>
       </c>
-      <c r="I76" s="20">
+      <c r="I91" s="10">
         <v>2006</v>
       </c>
-      <c r="J76" s="20">
+      <c r="J91" s="10">
         <v>2007</v>
       </c>
-      <c r="K76" s="20">
+      <c r="K91" s="10">
         <v>2008</v>
       </c>
-      <c r="L76" s="20">
+      <c r="L91" s="10">
         <v>2009</v>
       </c>
-      <c r="M76" s="20">
+      <c r="M91" s="10">
         <v>2010</v>
       </c>
-      <c r="N76" s="20">
+      <c r="N91" s="10">
         <v>2011</v>
       </c>
-      <c r="O76" s="20">
+      <c r="O91" s="10">
         <v>2012</v>
       </c>
-      <c r="P76" s="20">
+      <c r="P91" s="10">
         <v>2013</v>
       </c>
-      <c r="Q76" s="20">
+      <c r="Q91" s="10">
         <v>2014</v>
       </c>
-      <c r="R76" s="20">
+      <c r="R91" s="10">
         <v>2015</v>
       </c>
-      <c r="S76" s="20">
+      <c r="S91" s="10">
         <v>2016</v>
       </c>
-      <c r="T76" s="20">
+      <c r="T91" s="10">
         <v>2017</v>
       </c>
-      <c r="U76" s="20">
+      <c r="U91" s="10">
         <v>2018</v>
       </c>
-      <c r="V76" s="20">
+      <c r="V91" s="10">
         <v>2019</v>
       </c>
-      <c r="W76" s="20">
+      <c r="W91" s="10">
         <v>2020</v>
       </c>
-      <c r="X76" s="20">
+      <c r="X91" s="10">
         <v>2021</v>
       </c>
-      <c r="Y76" s="10">
+      <c r="Y91" s="10">
         <v>2022</v>
       </c>
-      <c r="Z76" s="10">
+      <c r="Z91" s="10">
         <v>2023</v>
       </c>
     </row>
-    <row r="77" spans="1:26" ht="16.5" x14ac:dyDescent="0.6">
-      <c r="A77" s="11" t="s">
+    <row r="92" spans="1:26" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A92" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="B77" s="17" t="s">
+      <c r="B92" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="C77" s="15">
+      <c r="C92" s="15">
         <v>0.2</v>
       </c>
-      <c r="D77" s="15">
+      <c r="D92" s="15">
         <v>0.2</v>
       </c>
-      <c r="E77" s="15">
+      <c r="E92" s="15">
         <v>0.2</v>
       </c>
-      <c r="F77" s="15">
+      <c r="F92" s="15">
         <v>0.1</v>
       </c>
-      <c r="G77" s="15">
+      <c r="G92" s="15">
         <v>0</v>
       </c>
-      <c r="H77" s="15">
+      <c r="H92" s="15">
         <v>0.2</v>
       </c>
-      <c r="I77" s="15">
+      <c r="I92" s="15">
         <v>0.2</v>
       </c>
-      <c r="J77" s="15">
+      <c r="J92" s="15">
         <v>0.3</v>
       </c>
-      <c r="K77" s="15">
+      <c r="K92" s="15">
         <v>0.3</v>
       </c>
-      <c r="L77" s="15">
+      <c r="L92" s="15">
         <v>0.5</v>
       </c>
-      <c r="M77" s="15">
+      <c r="M92" s="15">
         <v>0.6</v>
       </c>
-      <c r="N77" s="15"/>
-      <c r="O77" s="15"/>
-      <c r="P77" s="15"/>
-      <c r="Q77" s="15">
+      <c r="N92" s="15"/>
+      <c r="O92" s="15"/>
+      <c r="P92" s="15"/>
+      <c r="Q92" s="15">
         <v>4.4000000000000004</v>
       </c>
-      <c r="R77" s="15">
+      <c r="R92" s="15">
         <v>5.0999999999999996</v>
       </c>
-      <c r="S77" s="15">
+      <c r="S92" s="15">
         <v>6.7</v>
       </c>
-      <c r="T77" s="15">
+      <c r="T92" s="15">
         <v>7.2</v>
       </c>
-      <c r="U77" s="15">
+      <c r="U92" s="15">
         <v>8.5</v>
       </c>
-      <c r="V77" s="15">
+      <c r="V92" s="15">
         <v>9.5</v>
       </c>
-      <c r="W77" s="15">
+      <c r="W92" s="15">
         <v>9.4</v>
       </c>
-      <c r="X77" s="15">
+      <c r="X92" s="15">
         <v>9.6</v>
       </c>
-      <c r="Y77" s="12">
+      <c r="Y92" s="12">
         <v>10.3</v>
       </c>
-      <c r="Z77" s="11"/>
-    </row>
-    <row r="78" spans="1:26" ht="16.5" x14ac:dyDescent="0.6">
-      <c r="A78" s="13" t="s">
+      <c r="Z92" s="11"/>
+    </row>
+    <row r="93" spans="1:26" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A93" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="B78" s="13" t="s">
+      <c r="B93" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="C78" s="16">
+      <c r="C93" s="16">
         <v>1.5</v>
       </c>
-      <c r="D78" s="16">
+      <c r="D93" s="16">
         <v>1.5</v>
       </c>
-      <c r="E78" s="16">
+      <c r="E93" s="16">
         <v>1.5</v>
       </c>
-      <c r="F78" s="16">
+      <c r="F93" s="16">
         <v>1.7</v>
       </c>
-      <c r="G78" s="16">
+      <c r="G93" s="16">
         <v>1.7</v>
       </c>
-      <c r="H78" s="16">
+      <c r="H93" s="16">
         <v>1.8</v>
       </c>
-      <c r="I78" s="16">
+      <c r="I93" s="16">
         <v>3</v>
       </c>
-      <c r="J78" s="16">
+      <c r="J93" s="16">
         <v>5.2</v>
       </c>
-      <c r="K78" s="16">
+      <c r="K93" s="16">
         <v>5.9</v>
       </c>
-      <c r="L78" s="16">
+      <c r="L93" s="16">
         <v>5.4</v>
       </c>
-      <c r="M78" s="16">
+      <c r="M93" s="16">
         <v>5.6</v>
       </c>
-      <c r="N78" s="16">
+      <c r="N93" s="16">
         <v>8.4</v>
       </c>
-      <c r="O78" s="16">
+      <c r="O93" s="16">
         <v>5.2</v>
       </c>
-      <c r="P78" s="16">
+      <c r="P93" s="16">
         <v>5.6</v>
       </c>
-      <c r="Q78" s="16">
+      <c r="Q93" s="16">
         <v>5</v>
       </c>
-      <c r="R78" s="16">
+      <c r="R93" s="16">
         <v>5.2</v>
       </c>
-      <c r="S78" s="16">
+      <c r="S93" s="16">
         <v>5.6</v>
       </c>
-      <c r="T78" s="16">
+      <c r="T93" s="16">
         <v>5.6</v>
       </c>
-      <c r="U78" s="16">
+      <c r="U93" s="16">
         <v>4.7</v>
       </c>
-      <c r="V78" s="16">
+      <c r="V93" s="16">
         <v>6.4</v>
       </c>
-      <c r="W78" s="16">
+      <c r="W93" s="16">
         <v>9.3000000000000007</v>
       </c>
-      <c r="X78" s="16">
+      <c r="X93" s="16">
         <v>9.5</v>
       </c>
-      <c r="Y78" s="14">
+      <c r="Y93" s="14">
         <v>7.8</v>
       </c>
-      <c r="Z78" s="13"/>
-    </row>
-    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.45"/>
+      <c r="Z93" s="13"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:Y1"/>

--- a/VerveStacks_IND/SuppXLS/Scen_Base_VS.xlsx
+++ b/VerveStacks_IND/SuppXLS/Scen_Base_VS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_IND\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{386247FF-6A30-4CC3-9CB4-054F121F4076}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7B7D5D4-8916-4FD3-876D-8665F942E258}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -896,7 +896,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6825E20D-3644-469D-B5FA-8A4155520A86}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE1D8379-48EC-47BA-AAA7-FEC01B736762}">
   <dimension ref="A1:S578"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/VerveStacks_IND/SuppXLS/Scen_Base_VS.xlsx
+++ b/VerveStacks_IND/SuppXLS/Scen_Base_VS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_IND\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21A6DF3A-0211-480D-8030-FCEE75B9C2E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED9A51C5-074B-4AF2-9339-7B5A1D9C5064}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_IND/SuppXLS/Scen_Base_VS.xlsx
+++ b/VerveStacks_IND/SuppXLS/Scen_Base_VS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_IND\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED9A51C5-074B-4AF2-9339-7B5A1D9C5064}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F8B4EE3-3263-49B7-9697-86A5EC035510}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_IND/SuppXLS/Scen_Base_VS.xlsx
+++ b/VerveStacks_IND/SuppXLS/Scen_Base_VS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_IND\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F8B4EE3-3263-49B7-9697-86A5EC035510}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD6CA5A2-7E30-4829-8493-27B5ED53EB0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_IND/SuppXLS/Scen_Base_VS.xlsx
+++ b/VerveStacks_IND/SuppXLS/Scen_Base_VS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_IND\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD6CA5A2-7E30-4829-8493-27B5ED53EB0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFCE7486-28FD-4291-A474-79110B21742C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_IND/SuppXLS/Scen_Base_VS.xlsx
+++ b/VerveStacks_IND/SuppXLS/Scen_Base_VS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_IND\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFCE7486-28FD-4291-A474-79110B21742C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0553AB54-85FB-4847-A44E-AD7DEBE40ED3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_IND/SuppXLS/Scen_Base_VS.xlsx
+++ b/VerveStacks_IND/SuppXLS/Scen_Base_VS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_IND\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0553AB54-85FB-4847-A44E-AD7DEBE40ED3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1EFC14A-9FD3-4DCA-910B-969FD5CCFE4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_IND/SuppXLS/Scen_Base_VS.xlsx
+++ b/VerveStacks_IND/SuppXLS/Scen_Base_VS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_IND\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1EFC14A-9FD3-4DCA-910B-969FD5CCFE4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26975627-7FA7-4757-88C5-C41570A17AA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -96,7 +96,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1357" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1362" uniqueCount="78">
   <si>
     <t>~TFM_INS-AT</t>
   </si>
@@ -322,6 +322,15 @@
   <si>
     <t>Import</t>
   </si>
+  <si>
+    <t>\I:</t>
+  </si>
+  <si>
+    <t>UCE_max nuclear capacity</t>
+  </si>
+  <si>
+    <t>UC_RHSRT~2050</t>
+  </si>
 </sst>
 </file>
 
@@ -367,20 +376,20 @@
     </font>
     <font>
       <i/>
-      <sz val="9"/>
+      <sz val="7"/>
       <color rgb="FF969696"/>
       <name val="Consolas"/>
       <family val="3"/>
     </font>
     <font>
       <b/>
-      <sz val="12"/>
+      <sz val="10"/>
       <color rgb="FFFFFFFF"/>
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="9"/>
       <color theme="1"/>
       <name val="Segoe UI"/>
       <family val="2"/>
@@ -807,9 +816,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AJ40"/>
+  <dimension ref="A1:AL40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="AD11" sqref="AD11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -829,29 +840,30 @@
     <col min="20" max="20" width="4.73046875" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="24" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="6.33203125" customWidth="1"/>
+    <col min="23" max="23" width="12.06640625" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="7" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="7.86328125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="9.19921875" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="11.19921875" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="23.73046875" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="7" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="7.86328125" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="4.73046875" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="9.19921875" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="11.19921875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="7.1328125" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="4.73046875" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="9.19921875" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="11.19921875" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="23.73046875" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="7" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="7.86328125" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="4.73046875" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="9.19921875" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="11.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.45">
-      <c r="AA1">
+    <row r="1" spans="1:38" x14ac:dyDescent="0.45">
+      <c r="AB1">
         <v>1.1000000000000001</v>
       </c>
-      <c r="AC1">
+      <c r="AD1">
         <v>0.9</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:38" x14ac:dyDescent="0.45">
       <c r="F2" s="7" t="s">
         <v>61</v>
       </c>
@@ -868,7 +880,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:38" x14ac:dyDescent="0.45">
       <c r="B3" t="s">
         <v>0</v>
       </c>
@@ -891,7 +903,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>59</v>
       </c>
@@ -920,7 +932,7 @@
         <v>0.69256828336161436</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:38" x14ac:dyDescent="0.45">
       <c r="B5" t="s">
         <v>6</v>
       </c>
@@ -947,7 +959,7 @@
         <v>0.59269411500882951</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A6" s="6">
         <v>0.28000000000000003</v>
       </c>
@@ -979,11 +991,11 @@
       <c r="U6" t="s">
         <v>11</v>
       </c>
-      <c r="AD6" t="s">
+      <c r="AF6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:38" x14ac:dyDescent="0.45">
       <c r="B7" t="s">
         <v>12</v>
       </c>
@@ -1021,41 +1033,47 @@
       <c r="X7" t="s">
         <v>15</v>
       </c>
-      <c r="Y7">
+      <c r="Y7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Z7">
         <v>2022</v>
       </c>
-      <c r="Z7">
+      <c r="AA7">
         <v>2050</v>
       </c>
-      <c r="AA7" t="s">
+      <c r="AB7" t="s">
         <v>16</v>
       </c>
-      <c r="AB7" t="s">
+      <c r="AC7" t="s">
         <v>17</v>
       </c>
       <c r="AD7" t="s">
+        <v>77</v>
+      </c>
+      <c r="AF7" t="s">
         <v>13</v>
       </c>
-      <c r="AE7" t="s">
+      <c r="AG7" t="s">
         <v>2</v>
       </c>
-      <c r="AF7" t="s">
+      <c r="AH7" t="s">
         <v>15</v>
       </c>
-      <c r="AG7" t="s">
+      <c r="AI7" t="s">
         <v>18</v>
       </c>
-      <c r="AH7">
+      <c r="AJ7">
         <v>2050</v>
       </c>
-      <c r="AI7" t="s">
+      <c r="AK7" t="s">
         <v>16</v>
       </c>
-      <c r="AJ7" t="s">
+      <c r="AL7" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:38" x14ac:dyDescent="0.45">
       <c r="B8" t="s">
         <v>19</v>
       </c>
@@ -1090,50 +1108,50 @@
       <c r="W8" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="X8">
+      <c r="X8" s="3">
         <f>-1/8.76</f>
         <v>-0.11415525114155252</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <f>VLOOKUP(V8,$F$3:$J$11,3,FALSE)</f>
         <v>0.80218147145848917</v>
       </c>
-      <c r="Z8" s="3">
-        <f>Y8*$AA$1</f>
+      <c r="AA8" s="3">
+        <f>Z8*$AB$1</f>
         <v>0.88239961860433813</v>
       </c>
-      <c r="AA8">
+      <c r="AB8">
         <v>0</v>
       </c>
-      <c r="AB8">
+      <c r="AC8">
         <v>3</v>
       </c>
-      <c r="AD8" t="s">
+      <c r="AF8" t="s">
         <v>22</v>
       </c>
-      <c r="AE8" t="s">
+      <c r="AG8" t="s">
         <v>5</v>
       </c>
-      <c r="AF8">
+      <c r="AH8">
         <f>-1/8.76</f>
         <v>-0.11415525114155252</v>
       </c>
-      <c r="AG8" s="3">
-        <f>VLOOKUP(AE8,$F$3:$J$11,2,FALSE)</f>
+      <c r="AI8" s="3">
+        <f>VLOOKUP(AG8,$F$3:$J$11,2,FALSE)</f>
         <v>0.57817160320012806</v>
       </c>
-      <c r="AH8">
-        <f>AG8*$AC$1</f>
+      <c r="AJ8">
+        <f>AI8*$AD$1</f>
         <v>0.52035444288011523</v>
       </c>
-      <c r="AI8">
+      <c r="AK8">
         <v>0</v>
       </c>
-      <c r="AJ8">
+      <c r="AL8">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:38" x14ac:dyDescent="0.45">
       <c r="F9" t="s">
         <v>9</v>
       </c>
@@ -1158,50 +1176,50 @@
       <c r="W9" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="X9">
+      <c r="X9" s="3">
         <f>-1/8.76</f>
         <v>-0.11415525114155252</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <f>VLOOKUP(V9,$F$3:$J$11,3,FALSE)</f>
         <v>0.60285209361241354</v>
       </c>
-      <c r="Z9" s="3">
-        <f>Y9*$AA$1</f>
+      <c r="AA9" s="3">
+        <f>Z9*$AB$1</f>
         <v>0.66313730297365492</v>
       </c>
-      <c r="AA9">
+      <c r="AB9">
         <v>0</v>
       </c>
-      <c r="AB9">
+      <c r="AC9">
         <v>3</v>
       </c>
-      <c r="AD9" t="s">
+      <c r="AF9" t="s">
         <v>25</v>
       </c>
-      <c r="AE9" t="s">
+      <c r="AG9" t="s">
         <v>8</v>
       </c>
-      <c r="AF9">
+      <c r="AH9">
         <f>-1/8.76</f>
         <v>-0.11415525114155252</v>
       </c>
-      <c r="AG9" s="3">
-        <f>VLOOKUP(AE9,$F$3:$J$11,2,FALSE)</f>
+      <c r="AI9" s="3">
+        <f>VLOOKUP(AG9,$F$3:$J$11,2,FALSE)</f>
         <v>0.16467833870451151</v>
       </c>
-      <c r="AH9">
-        <f>AG9*$AC$1</f>
+      <c r="AJ9">
+        <f>AI9*$AD$1</f>
         <v>0.14821050483406037</v>
       </c>
-      <c r="AI9">
+      <c r="AK9">
         <v>0</v>
       </c>
-      <c r="AJ9">
+      <c r="AL9">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:36" ht="14.65" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:38" ht="14.65" customHeight="1" x14ac:dyDescent="0.45">
       <c r="F10" t="s">
         <v>12</v>
       </c>
@@ -1217,19 +1235,42 @@
       <c r="J10" s="4">
         <v>0.19080736612574969</v>
       </c>
-    </row>
-    <row r="11" spans="1:36" ht="14.65" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="U10" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="11" spans="1:38" ht="14.65" customHeight="1" x14ac:dyDescent="0.45">
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
-    </row>
-    <row r="13" spans="1:36" x14ac:dyDescent="0.45">
+      <c r="U11" t="s">
+        <v>76</v>
+      </c>
+      <c r="V11" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y11">
+        <v>1</v>
+      </c>
+      <c r="AB11">
+        <f>SUMIFS(historical_data_long!$D$3:$D$626,historical_data_long!$A$3:$A$626,Veda!$V11,historical_data_long!$C$3:$C$626,"GW",historical_data_long!$B$3:$B$626,2022)</f>
+        <v>6.78</v>
+      </c>
+      <c r="AC11">
+        <v>3</v>
+      </c>
+      <c r="AD11">
+        <f>AB11*2</f>
+        <v>13.56</v>
+      </c>
+    </row>
+    <row r="13" spans="1:38" x14ac:dyDescent="0.45">
       <c r="B13" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:38" x14ac:dyDescent="0.45">
       <c r="B14" t="s">
         <v>27</v>
       </c>
@@ -1240,7 +1281,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:38" x14ac:dyDescent="0.45">
       <c r="B15" t="s">
         <v>29</v>
       </c>
@@ -1255,7 +1296,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:38" x14ac:dyDescent="0.45">
       <c r="L16" t="s">
         <v>31</v>
       </c>
@@ -1508,7 +1549,7 @@
     <row r="1" spans="1:4" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A1" s="8"/>
     </row>
-    <row r="2" spans="1:4" ht="19.149999999999999" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A2" s="9" t="s">
         <v>61</v>
       </c>
@@ -1522,7 +1563,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" s="10" t="s">
         <v>66</v>
       </c>
@@ -1536,7 +1577,7 @@
         <v>1.69</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" s="12" t="s">
         <v>5</v>
       </c>
@@ -1550,7 +1591,7 @@
         <v>390.23</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A5" s="10" t="s">
         <v>8</v>
       </c>
@@ -1564,7 +1605,7 @@
         <v>55.96</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A6" s="12" t="s">
         <v>6</v>
       </c>
@@ -1578,7 +1619,7 @@
         <v>76.989999999999995</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A7" s="10" t="s">
         <v>19</v>
       </c>
@@ -1592,7 +1633,7 @@
         <v>15.77</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A8" s="12" t="s">
         <v>23</v>
       </c>
@@ -1606,7 +1647,7 @@
         <v>29.16</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A9" s="10" t="s">
         <v>9</v>
       </c>
@@ -1620,7 +1661,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A10" s="12" t="s">
         <v>12</v>
       </c>
@@ -1634,7 +1675,7 @@
         <v>1.58</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A11" s="10" t="s">
         <v>66</v>
       </c>
@@ -1648,7 +1689,7 @@
         <v>2.0699999999999998</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A12" s="12" t="s">
         <v>5</v>
       </c>
@@ -1662,7 +1703,7 @@
         <v>408.29</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A13" s="10" t="s">
         <v>8</v>
       </c>
@@ -1676,7 +1717,7 @@
         <v>55.93</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A14" s="12" t="s">
         <v>6</v>
       </c>
@@ -1690,7 +1731,7 @@
         <v>72.02</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A15" s="10" t="s">
         <v>19</v>
       </c>
@@ -1704,7 +1745,7 @@
         <v>18.89</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A16" s="12" t="s">
         <v>23</v>
       </c>
@@ -1718,7 +1759,7 @@
         <v>26.79</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A17" s="10" t="s">
         <v>9</v>
       </c>
@@ -1732,7 +1773,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A18" s="12" t="s">
         <v>12</v>
       </c>
@@ -1746,7 +1787,7 @@
         <v>2.09</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A19" s="10" t="s">
         <v>66</v>
       </c>
@@ -1760,7 +1801,7 @@
         <v>2.14</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A20" s="12" t="s">
         <v>5</v>
       </c>
@@ -1774,7 +1815,7 @@
         <v>426.7</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A21" s="10" t="s">
         <v>8</v>
       </c>
@@ -1788,7 +1829,7 @@
         <v>62.88</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A22" s="12" t="s">
         <v>6</v>
       </c>
@@ -1802,7 +1843,7 @@
         <v>68.540000000000006</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A23" s="10" t="s">
         <v>19</v>
       </c>
@@ -1816,7 +1857,7 @@
         <v>19.350000000000001</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A24" s="12" t="s">
         <v>23</v>
       </c>
@@ -1830,7 +1871,7 @@
         <v>27.93</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A25" s="10" t="s">
         <v>9</v>
       </c>
@@ -1844,7 +1885,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A26" s="12" t="s">
         <v>12</v>
       </c>
@@ -1858,7 +1899,7 @@
         <v>2.09</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A27" s="10" t="s">
         <v>66</v>
       </c>
@@ -1872,7 +1913,7 @@
         <v>2.71</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A28" s="12" t="s">
         <v>5</v>
       </c>
@@ -1886,7 +1927,7 @@
         <v>441.47</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A29" s="10" t="s">
         <v>8</v>
       </c>
@@ -1900,7 +1941,7 @@
         <v>72.8</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A30" s="12" t="s">
         <v>6</v>
       </c>
@@ -1914,7 +1955,7 @@
         <v>69.3</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A31" s="10" t="s">
         <v>19</v>
       </c>
@@ -1928,7 +1969,7 @@
         <v>18.14</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A32" s="12" t="s">
         <v>23</v>
       </c>
@@ -1942,7 +1983,7 @@
         <v>31.09</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A33" s="10" t="s">
         <v>9</v>
       </c>
@@ -1956,7 +1997,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A34" s="12" t="s">
         <v>12</v>
       </c>
@@ -1970,7 +2011,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A35" s="10" t="s">
         <v>66</v>
       </c>
@@ -1984,7 +2025,7 @@
         <v>3.31</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A36" s="12" t="s">
         <v>5</v>
       </c>
@@ -1998,7 +2039,7 @@
         <v>463.01</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A37" s="10" t="s">
         <v>8</v>
       </c>
@@ -2012,7 +2053,7 @@
         <v>76.58</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A38" s="12" t="s">
         <v>6</v>
       </c>
@@ -2026,7 +2067,7 @@
         <v>100.64</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A39" s="10" t="s">
         <v>19</v>
       </c>
@@ -2040,7 +2081,7 @@
         <v>21.26</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A40" s="12" t="s">
         <v>23</v>
       </c>
@@ -2054,7 +2095,7 @@
         <v>28.27</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A41" s="10" t="s">
         <v>9</v>
       </c>
@@ -2068,7 +2109,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A42" s="12" t="s">
         <v>12</v>
       </c>
@@ -2082,7 +2123,7 @@
         <v>5.23</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A43" s="10" t="s">
         <v>66</v>
       </c>
@@ -2096,7 +2137,7 @@
         <v>4.04</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A44" s="12" t="s">
         <v>5</v>
       </c>
@@ -2110,7 +2151,7 @@
         <v>478.48</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A45" s="10" t="s">
         <v>8</v>
       </c>
@@ -2124,7 +2165,7 @@
         <v>75.47</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A46" s="12" t="s">
         <v>6</v>
       </c>
@@ -2138,7 +2179,7 @@
         <v>97.42</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A47" s="10" t="s">
         <v>19</v>
       </c>
@@ -2152,7 +2193,7 @@
         <v>17.73</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A48" s="12" t="s">
         <v>23</v>
       </c>
@@ -2166,7 +2207,7 @@
         <v>25.37</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A49" s="10" t="s">
         <v>9</v>
       </c>
@@ -2180,7 +2221,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A50" s="12" t="s">
         <v>12</v>
       </c>
@@ -2194,7 +2235,7 @@
         <v>5.99</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A51" s="10" t="s">
         <v>66</v>
       </c>
@@ -2208,7 +2249,7 @@
         <v>5.59</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A52" s="12" t="s">
         <v>5</v>
       </c>
@@ -2222,7 +2263,7 @@
         <v>505.46</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A53" s="10" t="s">
         <v>8</v>
       </c>
@@ -2236,7 +2277,7 @@
         <v>74.7</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A54" s="12" t="s">
         <v>6</v>
       </c>
@@ -2250,7 +2291,7 @@
         <v>112.62</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A55" s="10" t="s">
         <v>19</v>
       </c>
@@ -2264,7 +2305,7 @@
         <v>17.63</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A56" s="12" t="s">
         <v>23</v>
       </c>
@@ -2278,7 +2319,7 @@
         <v>19.079999999999998</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A57" s="10" t="s">
         <v>9</v>
       </c>
@@ -2292,7 +2333,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A58" s="12" t="s">
         <v>12</v>
       </c>
@@ -2306,7 +2347,7 @@
         <v>9.34</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A59" s="10" t="s">
         <v>66</v>
       </c>
@@ -2320,7 +2361,7 @@
         <v>7.4</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A60" s="12" t="s">
         <v>5</v>
       </c>
@@ -2334,7 +2375,7 @@
         <v>533.27</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A61" s="10" t="s">
         <v>8</v>
       </c>
@@ -2348,7 +2389,7 @@
         <v>90.05</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A62" s="12" t="s">
         <v>6</v>
       </c>
@@ -2362,7 +2403,7 @@
         <v>122.61</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A63" s="10" t="s">
         <v>19</v>
       </c>
@@ -2376,7 +2417,7 @@
         <v>17.829999999999998</v>
       </c>
     </row>
-    <row r="64" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A64" s="12" t="s">
         <v>23</v>
       </c>
@@ -2390,7 +2431,7 @@
         <v>13.36</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A65" s="10" t="s">
         <v>9</v>
       </c>
@@ -2404,7 +2445,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="66" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A66" s="12" t="s">
         <v>12</v>
       </c>
@@ -2418,7 +2459,7 @@
         <v>11.68</v>
       </c>
     </row>
-    <row r="67" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A67" s="10" t="s">
         <v>66</v>
       </c>
@@ -2432,7 +2473,7 @@
         <v>9.3000000000000007</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A68" s="12" t="s">
         <v>5</v>
       </c>
@@ -2446,7 +2487,7 @@
         <v>573.12</v>
       </c>
     </row>
-    <row r="69" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A69" s="10" t="s">
         <v>8</v>
       </c>
@@ -2460,7 +2501,7 @@
         <v>85.88</v>
       </c>
     </row>
-    <row r="70" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A70" s="12" t="s">
         <v>6</v>
       </c>
@@ -2474,7 +2515,7 @@
         <v>115.17</v>
       </c>
     </row>
-    <row r="71" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A71" s="10" t="s">
         <v>19</v>
       </c>
@@ -2488,7 +2529,7 @@
         <v>15.23</v>
       </c>
     </row>
-    <row r="72" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A72" s="12" t="s">
         <v>23</v>
       </c>
@@ -2502,7 +2543,7 @@
         <v>15.27</v>
       </c>
     </row>
-    <row r="73" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A73" s="10" t="s">
         <v>9</v>
       </c>
@@ -2516,7 +2557,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="74" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A74" s="12" t="s">
         <v>12</v>
       </c>
@@ -2530,7 +2571,7 @@
         <v>14.38</v>
       </c>
     </row>
-    <row r="75" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A75" s="10" t="s">
         <v>66</v>
       </c>
@@ -2544,7 +2585,7 @@
         <v>11.64</v>
       </c>
     </row>
-    <row r="76" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A76" s="12" t="s">
         <v>5</v>
       </c>
@@ -2558,7 +2599,7 @@
         <v>611.11</v>
       </c>
     </row>
-    <row r="77" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A77" s="10" t="s">
         <v>8</v>
       </c>
@@ -2572,7 +2613,7 @@
         <v>104.37</v>
       </c>
     </row>
-    <row r="78" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A78" s="12" t="s">
         <v>6</v>
       </c>
@@ -2586,7 +2627,7 @@
         <v>106.34</v>
       </c>
     </row>
-    <row r="79" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A79" s="10" t="s">
         <v>19</v>
       </c>
@@ -2600,7 +2641,7 @@
         <v>16.82</v>
       </c>
     </row>
-    <row r="80" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A80" s="12" t="s">
         <v>23</v>
       </c>
@@ -2614,7 +2655,7 @@
         <v>13.08</v>
       </c>
     </row>
-    <row r="81" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A81" s="10" t="s">
         <v>9</v>
       </c>
@@ -2628,7 +2669,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="82" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A82" s="12" t="s">
         <v>12</v>
       </c>
@@ -2642,7 +2683,7 @@
         <v>16.27</v>
       </c>
     </row>
-    <row r="83" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A83" s="10" t="s">
         <v>66</v>
       </c>
@@ -2656,7 +2697,7 @@
         <v>14.3</v>
       </c>
     </row>
-    <row r="84" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A84" s="12" t="s">
         <v>5</v>
       </c>
@@ -2670,7 +2711,7 @@
         <v>642.97</v>
       </c>
     </row>
-    <row r="85" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A85" s="10" t="s">
         <v>8</v>
       </c>
@@ -2684,7 +2725,7 @@
         <v>118.03</v>
       </c>
     </row>
-    <row r="86" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A86" s="12" t="s">
         <v>6</v>
       </c>
@@ -2698,7 +2739,7 @@
         <v>108.74</v>
       </c>
     </row>
-    <row r="87" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A87" s="10" t="s">
         <v>19</v>
       </c>
@@ -2712,7 +2753,7 @@
         <v>23.08</v>
       </c>
     </row>
-    <row r="88" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A88" s="12" t="s">
         <v>23</v>
       </c>
@@ -2726,7 +2767,7 @@
         <v>10.78</v>
       </c>
     </row>
-    <row r="89" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A89" s="10" t="s">
         <v>9</v>
       </c>
@@ -2740,7 +2781,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="90" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A90" s="12" t="s">
         <v>12</v>
       </c>
@@ -2754,7 +2795,7 @@
         <v>19.46</v>
       </c>
     </row>
-    <row r="91" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A91" s="10" t="s">
         <v>66</v>
       </c>
@@ -2768,7 +2809,7 @@
         <v>17.14</v>
       </c>
     </row>
-    <row r="92" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A92" s="12" t="s">
         <v>5</v>
       </c>
@@ -2782,7 +2823,7 @@
         <v>701.25</v>
       </c>
     </row>
-    <row r="93" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A93" s="10" t="s">
         <v>8</v>
       </c>
@@ -2796,7 +2837,7 @@
         <v>117.56</v>
       </c>
     </row>
-    <row r="94" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A94" s="12" t="s">
         <v>6</v>
       </c>
@@ -2810,7 +2851,7 @@
         <v>131.69999999999999</v>
       </c>
     </row>
-    <row r="95" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A95" s="10" t="s">
         <v>19</v>
       </c>
@@ -2824,7 +2865,7 @@
         <v>32.22</v>
       </c>
     </row>
-    <row r="96" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A96" s="12" t="s">
         <v>23</v>
       </c>
@@ -2838,7 +2879,7 @@
         <v>9.35</v>
       </c>
     </row>
-    <row r="97" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A97" s="10" t="s">
         <v>9</v>
       </c>
@@ -2852,7 +2893,7 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="98" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A98" s="12" t="s">
         <v>12</v>
       </c>
@@ -2866,7 +2907,7 @@
         <v>23.95</v>
       </c>
     </row>
-    <row r="99" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A99" s="10" t="s">
         <v>66</v>
       </c>
@@ -2880,7 +2921,7 @@
         <v>19.940000000000001</v>
       </c>
     </row>
-    <row r="100" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A100" s="12" t="s">
         <v>5</v>
       </c>
@@ -2894,7 +2935,7 @@
         <v>787.13</v>
       </c>
     </row>
-    <row r="101" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A101" s="10" t="s">
         <v>8</v>
       </c>
@@ -2908,7 +2949,7 @@
         <v>96.25</v>
       </c>
     </row>
-    <row r="102" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A102" s="12" t="s">
         <v>6</v>
       </c>
@@ -2922,7 +2963,7 @@
         <v>115.78</v>
       </c>
     </row>
-    <row r="103" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A103" s="10" t="s">
         <v>19</v>
       </c>
@@ -2936,7 +2977,7 @@
         <v>33.14</v>
       </c>
     </row>
-    <row r="104" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A104" s="12" t="s">
         <v>23</v>
       </c>
@@ -2950,7 +2991,7 @@
         <v>10.07</v>
       </c>
     </row>
-    <row r="105" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A105" s="10" t="s">
         <v>9</v>
       </c>
@@ -2964,7 +3005,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="106" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A106" s="12" t="s">
         <v>12</v>
       </c>
@@ -2978,7 +3019,7 @@
         <v>27.43</v>
       </c>
     </row>
-    <row r="107" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A107" s="10" t="s">
         <v>66</v>
       </c>
@@ -2992,7 +3033,7 @@
         <v>22.48</v>
       </c>
     </row>
-    <row r="108" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A108" s="12" t="s">
         <v>5</v>
       </c>
@@ -3006,7 +3047,7 @@
         <v>847.97</v>
       </c>
     </row>
-    <row r="109" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A109" s="10" t="s">
         <v>8</v>
       </c>
@@ -3020,7 +3061,7 @@
         <v>66.31</v>
       </c>
     </row>
-    <row r="110" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A110" s="12" t="s">
         <v>6</v>
       </c>
@@ -3034,7 +3075,7 @@
         <v>131.97999999999999</v>
       </c>
     </row>
-    <row r="111" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A111" s="10" t="s">
         <v>19</v>
       </c>
@@ -3048,7 +3089,7 @@
         <v>33.31</v>
       </c>
     </row>
-    <row r="112" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A112" s="12" t="s">
         <v>23</v>
       </c>
@@ -3062,7 +3103,7 @@
         <v>10.65</v>
       </c>
     </row>
-    <row r="113" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A113" s="10" t="s">
         <v>9</v>
       </c>
@@ -3076,7 +3117,7 @@
         <v>3.43</v>
       </c>
     </row>
-    <row r="114" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A114" s="12" t="s">
         <v>12</v>
       </c>
@@ -3090,7 +3131,7 @@
         <v>30.01</v>
       </c>
     </row>
-    <row r="115" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A115" s="10" t="s">
         <v>66</v>
       </c>
@@ -3104,7 +3145,7 @@
         <v>24.68</v>
       </c>
     </row>
-    <row r="116" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A116" s="12" t="s">
         <v>5</v>
       </c>
@@ -3118,7 +3159,7 @@
         <v>949.93</v>
       </c>
     </row>
-    <row r="117" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A117" s="10" t="s">
         <v>8</v>
       </c>
@@ -3132,7 +3173,7 @@
         <v>64.010000000000005</v>
       </c>
     </row>
-    <row r="118" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A118" s="12" t="s">
         <v>6</v>
       </c>
@@ -3146,7 +3187,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="119" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A119" s="10" t="s">
         <v>19</v>
       </c>
@@ -3160,7 +3201,7 @@
         <v>34.69</v>
       </c>
     </row>
-    <row r="120" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A120" s="12" t="s">
         <v>23</v>
       </c>
@@ -3174,7 +3215,7 @@
         <v>11.55</v>
       </c>
     </row>
-    <row r="121" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A121" s="10" t="s">
         <v>9</v>
       </c>
@@ -3188,7 +3229,7 @@
         <v>4.91</v>
       </c>
     </row>
-    <row r="122" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A122" s="12" t="s">
         <v>12</v>
       </c>
@@ -3202,7 +3243,7 @@
         <v>33.450000000000003</v>
       </c>
     </row>
-    <row r="123" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A123" s="10" t="s">
         <v>66</v>
       </c>
@@ -3216,7 +3257,7 @@
         <v>30.62</v>
       </c>
     </row>
-    <row r="124" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A124" s="12" t="s">
         <v>5</v>
       </c>
@@ -3230,7 +3271,7 @@
         <v>1006.55</v>
       </c>
     </row>
-    <row r="125" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A125" s="10" t="s">
         <v>8</v>
       </c>
@@ -3244,7 +3285,7 @@
         <v>64.77</v>
       </c>
     </row>
-    <row r="126" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A126" s="12" t="s">
         <v>6</v>
       </c>
@@ -3258,7 +3299,7 @@
         <v>133.28</v>
       </c>
     </row>
-    <row r="127" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A127" s="10" t="s">
         <v>19</v>
       </c>
@@ -3272,7 +3313,7 @@
         <v>38.31</v>
       </c>
     </row>
-    <row r="128" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A128" s="12" t="s">
         <v>23</v>
       </c>
@@ -3286,7 +3327,7 @@
         <v>9.26</v>
       </c>
     </row>
-    <row r="129" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A129" s="10" t="s">
         <v>9</v>
       </c>
@@ -3300,7 +3341,7 @@
         <v>6.57</v>
       </c>
     </row>
-    <row r="130" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A130" s="12" t="s">
         <v>12</v>
       </c>
@@ -3314,7 +3355,7 @@
         <v>32.74</v>
       </c>
     </row>
-    <row r="131" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A131" s="10" t="s">
         <v>66</v>
       </c>
@@ -3328,7 +3369,7 @@
         <v>24.82</v>
       </c>
     </row>
-    <row r="132" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A132" s="12" t="s">
         <v>5</v>
       </c>
@@ -3342,7 +3383,7 @@
         <v>1073.5999999999999</v>
       </c>
     </row>
-    <row r="133" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A133" s="10" t="s">
         <v>8</v>
       </c>
@@ -3356,7 +3397,7 @@
         <v>72.62</v>
       </c>
     </row>
-    <row r="134" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A134" s="12" t="s">
         <v>6</v>
       </c>
@@ -3370,7 +3411,7 @@
         <v>128.38</v>
       </c>
     </row>
-    <row r="135" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A135" s="10" t="s">
         <v>19</v>
       </c>
@@ -3384,7 +3425,7 @@
         <v>37.9</v>
       </c>
     </row>
-    <row r="136" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A136" s="12" t="s">
         <v>23</v>
       </c>
@@ -3398,7 +3439,7 @@
         <v>9.41</v>
       </c>
     </row>
-    <row r="137" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A137" s="10" t="s">
         <v>9</v>
       </c>
@@ -3412,7 +3453,7 @@
         <v>11.56</v>
       </c>
     </row>
-    <row r="138" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A138" s="12" t="s">
         <v>12</v>
       </c>
@@ -3426,7 +3467,7 @@
         <v>43.45</v>
       </c>
     </row>
-    <row r="139" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A139" s="10" t="s">
         <v>66</v>
       </c>
@@ -3440,7 +3481,7 @@
         <v>24.91</v>
       </c>
     </row>
-    <row r="140" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A140" s="12" t="s">
         <v>5</v>
       </c>
@@ -3454,7 +3495,7 @@
         <v>1115.24</v>
       </c>
     </row>
-    <row r="141" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A141" s="10" t="s">
         <v>8</v>
       </c>
@@ -3468,7 +3509,7 @@
         <v>74.989999999999995</v>
       </c>
     </row>
-    <row r="142" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A142" s="12" t="s">
         <v>6</v>
       </c>
@@ -3482,7 +3523,7 @@
         <v>135.82</v>
       </c>
     </row>
-    <row r="143" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A143" s="10" t="s">
         <v>19</v>
       </c>
@@ -3496,7 +3537,7 @@
         <v>37.409999999999997</v>
       </c>
     </row>
-    <row r="144" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A144" s="12" t="s">
         <v>23</v>
       </c>
@@ -3510,7 +3551,7 @@
         <v>8.7899999999999991</v>
       </c>
     </row>
-    <row r="145" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A145" s="10" t="s">
         <v>9</v>
       </c>
@@ -3524,7 +3565,7 @@
         <v>21.54</v>
       </c>
     </row>
-    <row r="146" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A146" s="12" t="s">
         <v>12</v>
       </c>
@@ -3538,7 +3579,7 @@
         <v>52.63</v>
       </c>
     </row>
-    <row r="147" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A147" s="10" t="s">
         <v>66</v>
       </c>
@@ -3552,7 +3593,7 @@
         <v>27.22</v>
       </c>
     </row>
-    <row r="148" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A148" s="12" t="s">
         <v>5</v>
       </c>
@@ -3566,7 +3607,7 @@
         <v>1198.8599999999999</v>
       </c>
     </row>
-    <row r="149" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A149" s="10" t="s">
         <v>8</v>
       </c>
@@ -3580,7 +3621,7 @@
         <v>71.260000000000005</v>
       </c>
     </row>
-    <row r="150" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A150" s="12" t="s">
         <v>6</v>
       </c>
@@ -3594,7 +3635,7 @@
         <v>139.75</v>
       </c>
     </row>
-    <row r="151" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A151" s="10" t="s">
         <v>19</v>
       </c>
@@ -3608,7 +3649,7 @@
         <v>39.049999999999997</v>
       </c>
     </row>
-    <row r="152" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A152" s="12" t="s">
         <v>23</v>
       </c>
@@ -3622,7 +3663,7 @@
         <v>6.4</v>
       </c>
     </row>
-    <row r="153" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A153" s="10" t="s">
         <v>9</v>
       </c>
@@ -3636,7 +3677,7 @@
         <v>36.33</v>
       </c>
     </row>
-    <row r="154" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A154" s="12" t="s">
         <v>12</v>
       </c>
@@ -3650,7 +3691,7 @@
         <v>60.31</v>
       </c>
     </row>
-    <row r="155" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A155" s="10" t="s">
         <v>66</v>
       </c>
@@ -3664,7 +3705,7 @@
         <v>31.51</v>
       </c>
     </row>
-    <row r="156" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A156" s="12" t="s">
         <v>5</v>
       </c>
@@ -3678,7 +3719,7 @@
         <v>1198.76</v>
       </c>
     </row>
-    <row r="157" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A157" s="10" t="s">
         <v>8</v>
       </c>
@@ -3692,7 +3733,7 @@
         <v>71.95</v>
       </c>
     </row>
-    <row r="158" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A158" s="12" t="s">
         <v>6</v>
       </c>
@@ -3706,7 +3747,7 @@
         <v>162.07</v>
       </c>
     </row>
-    <row r="159" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A159" s="10" t="s">
         <v>19</v>
       </c>
@@ -3720,7 +3761,7 @@
         <v>45.16</v>
       </c>
     </row>
-    <row r="160" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A160" s="12" t="s">
         <v>23</v>
       </c>
@@ -3734,7 +3775,7 @@
         <v>3.07</v>
       </c>
     </row>
-    <row r="161" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A161" s="10" t="s">
         <v>9</v>
       </c>
@@ -3748,7 +3789,7 @@
         <v>46.27</v>
       </c>
     </row>
-    <row r="162" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A162" s="12" t="s">
         <v>12</v>
       </c>
@@ -3762,7 +3803,7 @@
         <v>63.31</v>
       </c>
     </row>
-    <row r="163" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A163" s="10" t="s">
         <v>66</v>
       </c>
@@ -3776,7 +3817,7 @@
         <v>32.86</v>
       </c>
     </row>
-    <row r="164" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A164" s="12" t="s">
         <v>5</v>
       </c>
@@ -3790,7 +3831,7 @@
         <v>1143.78</v>
       </c>
     </row>
-    <row r="165" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A165" s="10" t="s">
         <v>8</v>
       </c>
@@ -3804,7 +3845,7 @@
         <v>74.790000000000006</v>
       </c>
     </row>
-    <row r="166" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A166" s="12" t="s">
         <v>6</v>
       </c>
@@ -3818,7 +3859,7 @@
         <v>163.69999999999999</v>
       </c>
     </row>
-    <row r="167" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A167" s="10" t="s">
         <v>19</v>
       </c>
@@ -3832,7 +3873,7 @@
         <v>44.61</v>
       </c>
     </row>
-    <row r="168" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A168" s="12" t="s">
         <v>23</v>
       </c>
@@ -3846,7 +3887,7 @@
         <v>3.09</v>
       </c>
     </row>
-    <row r="169" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A169" s="10" t="s">
         <v>9</v>
       </c>
@@ -3860,7 +3901,7 @@
         <v>58.68</v>
       </c>
     </row>
-    <row r="170" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A170" s="12" t="s">
         <v>12</v>
       </c>
@@ -3874,7 +3915,7 @@
         <v>60.43</v>
       </c>
     </row>
-    <row r="171" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A171" s="10" t="s">
         <v>66</v>
       </c>
@@ -3888,7 +3929,7 @@
         <v>35.5</v>
       </c>
     </row>
-    <row r="172" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A172" s="12" t="s">
         <v>5</v>
       </c>
@@ -3902,7 +3943,7 @@
         <v>1255.56</v>
       </c>
     </row>
-    <row r="173" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A173" s="10" t="s">
         <v>8</v>
       </c>
@@ -3916,7 +3957,7 @@
         <v>60.4</v>
       </c>
     </row>
-    <row r="174" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A174" s="12" t="s">
         <v>6</v>
       </c>
@@ -3930,7 +3971,7 @@
         <v>160.34</v>
       </c>
     </row>
-    <row r="175" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A175" s="10" t="s">
         <v>19</v>
       </c>
@@ -3944,7 +3985,7 @@
         <v>43.92</v>
       </c>
     </row>
-    <row r="176" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A176" s="12" t="s">
         <v>23</v>
       </c>
@@ -3958,7 +3999,7 @@
         <v>3.39</v>
       </c>
     </row>
-    <row r="177" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A177" s="10" t="s">
         <v>9</v>
       </c>
@@ -3972,7 +4013,7 @@
         <v>68.31</v>
       </c>
     </row>
-    <row r="178" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A178" s="12" t="s">
         <v>12</v>
       </c>
@@ -3986,7 +4027,7 @@
         <v>68.09</v>
       </c>
     </row>
-    <row r="179" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A179" s="10" t="s">
         <v>66</v>
       </c>
@@ -4000,7 +4041,7 @@
         <v>38.57</v>
       </c>
     </row>
-    <row r="180" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A180" s="12" t="s">
         <v>5</v>
       </c>
@@ -4014,7 +4055,7 @@
         <v>1354.23</v>
       </c>
     </row>
-    <row r="181" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A181" s="10" t="s">
         <v>8</v>
       </c>
@@ -4028,7 +4069,7 @@
         <v>46.48</v>
       </c>
     </row>
-    <row r="182" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A182" s="12" t="s">
         <v>6</v>
       </c>
@@ -4042,7 +4083,7 @@
         <v>174.94</v>
       </c>
     </row>
-    <row r="183" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A183" s="10" t="s">
         <v>19</v>
       </c>
@@ -4056,7 +4097,7 @@
         <v>46.19</v>
       </c>
     </row>
-    <row r="184" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A184" s="12" t="s">
         <v>23</v>
       </c>
@@ -4070,7 +4111,7 @@
         <v>3.68</v>
       </c>
     </row>
-    <row r="185" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A185" s="10" t="s">
         <v>9</v>
       </c>
@@ -4084,7 +4125,7 @@
         <v>95.16</v>
       </c>
     </row>
-    <row r="186" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A186" s="12" t="s">
         <v>12</v>
       </c>
@@ -4098,7 +4139,7 @@
         <v>70.05</v>
       </c>
     </row>
-    <row r="187" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A187" s="10" t="s">
         <v>66</v>
       </c>
@@ -4112,7 +4153,7 @@
         <v>37.28</v>
       </c>
     </row>
-    <row r="188" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A188" s="12" t="s">
         <v>5</v>
       </c>
@@ -4126,7 +4167,7 @@
         <v>1471.28</v>
       </c>
     </row>
-    <row r="189" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A189" s="10" t="s">
         <v>8</v>
       </c>
@@ -4140,7 +4181,7 @@
         <v>52.61</v>
       </c>
     </row>
-    <row r="190" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A190" s="12" t="s">
         <v>6</v>
       </c>
@@ -4154,7 +4195,7 @@
         <v>149.16999999999999</v>
       </c>
     </row>
-    <row r="191" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A191" s="10" t="s">
         <v>19</v>
       </c>
@@ -4168,7 +4209,7 @@
         <v>48.2</v>
       </c>
     </row>
-    <row r="192" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A192" s="12" t="s">
         <v>23</v>
       </c>
@@ -4182,7 +4223,7 @@
         <v>4.18</v>
       </c>
     </row>
-    <row r="193" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A193" s="10" t="s">
         <v>9</v>
       </c>
@@ -4196,7 +4237,7 @@
         <v>113.41</v>
       </c>
     </row>
-    <row r="194" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A194" s="12" t="s">
         <v>12</v>
       </c>
@@ -4210,7 +4251,7 @@
         <v>82.11</v>
       </c>
     </row>
-    <row r="195" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A195" s="10" t="s">
         <v>66</v>
       </c>
@@ -4224,7 +4265,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="196" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A196" s="12" t="s">
         <v>5</v>
       </c>
@@ -4238,7 +4279,7 @@
         <v>62.17</v>
       </c>
     </row>
-    <row r="197" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A197" s="10" t="s">
         <v>8</v>
       </c>
@@ -4252,7 +4293,7 @@
         <v>12.61</v>
       </c>
     </row>
-    <row r="198" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A198" s="12" t="s">
         <v>6</v>
       </c>
@@ -4266,7 +4307,7 @@
         <v>23.71</v>
       </c>
     </row>
-    <row r="199" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A199" s="10" t="s">
         <v>19</v>
       </c>
@@ -4280,7 +4321,7 @@
         <v>2.86</v>
       </c>
     </row>
-    <row r="200" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A200" s="12" t="s">
         <v>23</v>
       </c>
@@ -4294,7 +4335,7 @@
         <v>6.79</v>
       </c>
     </row>
-    <row r="201" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A201" s="10" t="s">
         <v>9</v>
       </c>
@@ -4308,7 +4349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A202" s="12" t="s">
         <v>12</v>
       </c>
@@ -4322,7 +4363,7 @@
         <v>0.94</v>
       </c>
     </row>
-    <row r="203" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A203" s="10" t="s">
         <v>66</v>
       </c>
@@ -4336,7 +4377,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="204" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A204" s="12" t="s">
         <v>5</v>
       </c>
@@ -4350,7 +4391,7 @@
         <v>63.17</v>
       </c>
     </row>
-    <row r="205" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A205" s="10" t="s">
         <v>8</v>
       </c>
@@ -4364,7 +4405,7 @@
         <v>13.42</v>
       </c>
     </row>
-    <row r="206" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A206" s="12" t="s">
         <v>6</v>
       </c>
@@ -4378,7 +4419,7 @@
         <v>24.68</v>
       </c>
     </row>
-    <row r="207" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A207" s="10" t="s">
         <v>19</v>
       </c>
@@ -4392,7 +4433,7 @@
         <v>2.72</v>
       </c>
     </row>
-    <row r="208" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A208" s="12" t="s">
         <v>23</v>
       </c>
@@ -4406,7 +4447,7 @@
         <v>7.06</v>
       </c>
     </row>
-    <row r="209" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A209" s="10" t="s">
         <v>9</v>
       </c>
@@ -4420,7 +4461,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="210" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A210" s="12" t="s">
         <v>12</v>
       </c>
@@ -4434,7 +4475,7 @@
         <v>1.56</v>
       </c>
     </row>
-    <row r="211" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A211" s="10" t="s">
         <v>66</v>
       </c>
@@ -4448,7 +4489,7 @@
         <v>0.48</v>
       </c>
     </row>
-    <row r="212" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A212" s="12" t="s">
         <v>5</v>
       </c>
@@ -4462,7 +4503,7 @@
         <v>64.209999999999994</v>
       </c>
     </row>
-    <row r="213" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A213" s="10" t="s">
         <v>8</v>
       </c>
@@ -4476,7 +4517,7 @@
         <v>14.03</v>
       </c>
     </row>
-    <row r="214" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A214" s="12" t="s">
         <v>6</v>
       </c>
@@ -4490,7 +4531,7 @@
         <v>24.73</v>
       </c>
     </row>
-    <row r="215" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A215" s="10" t="s">
         <v>19</v>
       </c>
@@ -4504,7 +4545,7 @@
         <v>2.72</v>
       </c>
     </row>
-    <row r="216" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A216" s="12" t="s">
         <v>23</v>
       </c>
@@ -4518,7 +4559,7 @@
         <v>7.43</v>
       </c>
     </row>
-    <row r="217" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A217" s="10" t="s">
         <v>9</v>
       </c>
@@ -4532,7 +4573,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="218" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A218" s="12" t="s">
         <v>12</v>
       </c>
@@ -4546,7 +4587,7 @@
         <v>1.61</v>
       </c>
     </row>
-    <row r="219" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A219" s="10" t="s">
         <v>66</v>
       </c>
@@ -4560,7 +4601,7 @@
         <v>0.61</v>
       </c>
     </row>
-    <row r="220" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A220" s="12" t="s">
         <v>5</v>
       </c>
@@ -4574,7 +4615,7 @@
         <v>65.83</v>
       </c>
     </row>
-    <row r="221" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A221" s="10" t="s">
         <v>8</v>
       </c>
@@ -4588,7 +4629,7 @@
         <v>14.38</v>
       </c>
     </row>
-    <row r="222" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A222" s="12" t="s">
         <v>6</v>
       </c>
@@ -4602,7 +4643,7 @@
         <v>27.18</v>
       </c>
     </row>
-    <row r="223" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A223" s="10" t="s">
         <v>19</v>
       </c>
@@ -4616,7 +4657,7 @@
         <v>2.72</v>
       </c>
     </row>
-    <row r="224" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A224" s="12" t="s">
         <v>23</v>
       </c>
@@ -4630,7 +4671,7 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="225" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A225" s="10" t="s">
         <v>9</v>
       </c>
@@ -4644,7 +4685,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="226" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A226" s="12" t="s">
         <v>12</v>
       </c>
@@ -4658,7 +4699,7 @@
         <v>2.46</v>
       </c>
     </row>
-    <row r="227" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A227" s="10" t="s">
         <v>66</v>
       </c>
@@ -4672,7 +4713,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="228" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A228" s="12" t="s">
         <v>5</v>
       </c>
@@ -4686,7 +4727,7 @@
         <v>66.319999999999993</v>
       </c>
     </row>
-    <row r="229" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A229" s="10" t="s">
         <v>8</v>
       </c>
@@ -4700,7 +4741,7 @@
         <v>14.59</v>
       </c>
     </row>
-    <row r="230" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A230" s="12" t="s">
         <v>6</v>
       </c>
@@ -4714,7 +4755,7 @@
         <v>28.62</v>
       </c>
     </row>
-    <row r="231" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A231" s="10" t="s">
         <v>19</v>
       </c>
@@ -4728,7 +4769,7 @@
         <v>2.77</v>
       </c>
     </row>
-    <row r="232" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A232" s="12" t="s">
         <v>23</v>
       </c>
@@ -4742,7 +4783,7 @@
         <v>8.16</v>
       </c>
     </row>
-    <row r="233" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A233" s="10" t="s">
         <v>9</v>
       </c>
@@ -4756,7 +4797,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="234" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A234" s="12" t="s">
         <v>12</v>
       </c>
@@ -4770,7 +4811,7 @@
         <v>3.81</v>
       </c>
     </row>
-    <row r="235" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A235" s="10" t="s">
         <v>66</v>
       </c>
@@ -4784,7 +4825,7 @@
         <v>0.94</v>
       </c>
     </row>
-    <row r="236" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="236" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A236" s="12" t="s">
         <v>5</v>
       </c>
@@ -4798,7 +4839,7 @@
         <v>69.64</v>
       </c>
     </row>
-    <row r="237" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A237" s="10" t="s">
         <v>8</v>
       </c>
@@ -4812,7 +4853,7 @@
         <v>15.51</v>
       </c>
     </row>
-    <row r="238" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="238" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A238" s="12" t="s">
         <v>6</v>
       </c>
@@ -4826,7 +4867,7 @@
         <v>30.96</v>
       </c>
     </row>
-    <row r="239" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="239" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A239" s="10" t="s">
         <v>19</v>
       </c>
@@ -4840,7 +4881,7 @@
         <v>3.36</v>
       </c>
     </row>
-    <row r="240" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="240" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A240" s="12" t="s">
         <v>23</v>
       </c>
@@ -4854,7 +4895,7 @@
         <v>8.56</v>
       </c>
     </row>
-    <row r="241" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="241" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A241" s="10" t="s">
         <v>9</v>
       </c>
@@ -4868,7 +4909,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="242" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="242" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A242" s="12" t="s">
         <v>12</v>
       </c>
@@ -4882,7 +4923,7 @@
         <v>4.43</v>
       </c>
     </row>
-    <row r="243" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="243" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A243" s="10" t="s">
         <v>66</v>
       </c>
@@ -4896,7 +4937,7 @@
         <v>1.22</v>
       </c>
     </row>
-    <row r="244" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="244" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A244" s="12" t="s">
         <v>5</v>
       </c>
@@ -4910,7 +4951,7 @@
         <v>71.930000000000007</v>
       </c>
     </row>
-    <row r="245" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="245" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A245" s="10" t="s">
         <v>8</v>
       </c>
@@ -4924,7 +4965,7 @@
         <v>16.64</v>
       </c>
     </row>
-    <row r="246" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="246" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A246" s="12" t="s">
         <v>6</v>
       </c>
@@ -4938,7 +4979,7 @@
         <v>33.04</v>
       </c>
     </row>
-    <row r="247" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="247" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A247" s="10" t="s">
         <v>19</v>
       </c>
@@ -4952,7 +4993,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="248" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="248" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A248" s="12" t="s">
         <v>23</v>
       </c>
@@ -4966,7 +5007,7 @@
         <v>8.8800000000000008</v>
       </c>
     </row>
-    <row r="249" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="249" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A249" s="10" t="s">
         <v>9</v>
       </c>
@@ -4980,7 +5021,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="250" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="250" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A250" s="12" t="s">
         <v>12</v>
       </c>
@@ -4994,7 +5035,7 @@
         <v>6.32</v>
       </c>
     </row>
-    <row r="251" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="251" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A251" s="10" t="s">
         <v>66</v>
       </c>
@@ -5008,7 +5049,7 @@
         <v>1.51</v>
       </c>
     </row>
-    <row r="252" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="252" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A252" s="12" t="s">
         <v>5</v>
       </c>
@@ -5022,7 +5063,7 @@
         <v>77.14</v>
       </c>
     </row>
-    <row r="253" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="253" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A253" s="10" t="s">
         <v>8</v>
       </c>
@@ -5036,7 +5077,7 @@
         <v>18.59</v>
       </c>
     </row>
-    <row r="254" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="254" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A254" s="12" t="s">
         <v>6</v>
       </c>
@@ -5050,7 +5091,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="255" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="255" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A255" s="10" t="s">
         <v>19</v>
       </c>
@@ -5064,7 +5105,7 @@
         <v>4.12</v>
       </c>
     </row>
-    <row r="256" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="256" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A256" s="12" t="s">
         <v>23</v>
       </c>
@@ -5078,7 +5119,7 @@
         <v>9.66</v>
       </c>
     </row>
-    <row r="257" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="257" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A257" s="10" t="s">
         <v>9</v>
       </c>
@@ -5092,7 +5133,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="258" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="258" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A258" s="12" t="s">
         <v>12</v>
       </c>
@@ -5106,7 +5147,7 @@
         <v>7.84</v>
       </c>
     </row>
-    <row r="259" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="259" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A259" s="10" t="s">
         <v>66</v>
       </c>
@@ -5120,7 +5161,7 @@
         <v>2.17</v>
       </c>
     </row>
-    <row r="260" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="260" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A260" s="12" t="s">
         <v>5</v>
       </c>
@@ -5134,7 +5175,7 @@
         <v>82.33</v>
       </c>
     </row>
-    <row r="261" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="261" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A261" s="10" t="s">
         <v>8</v>
       </c>
@@ -5148,7 +5189,7 @@
         <v>18.649999999999999</v>
       </c>
     </row>
-    <row r="262" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="262" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A262" s="12" t="s">
         <v>6</v>
       </c>
@@ -5162,7 +5203,7 @@
         <v>34.69</v>
       </c>
     </row>
-    <row r="263" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="263" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A263" s="10" t="s">
         <v>19</v>
       </c>
@@ -5176,7 +5217,7 @@
         <v>4.12</v>
       </c>
     </row>
-    <row r="264" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="264" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A264" s="12" t="s">
         <v>23</v>
       </c>
@@ -5190,7 +5231,7 @@
         <v>9.9700000000000006</v>
       </c>
     </row>
-    <row r="265" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="265" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A265" s="10" t="s">
         <v>9</v>
       </c>
@@ -5204,7 +5245,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="266" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="266" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A266" s="12" t="s">
         <v>12</v>
       </c>
@@ -5218,7 +5259,7 @@
         <v>10.24</v>
       </c>
     </row>
-    <row r="267" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="267" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A267" s="10" t="s">
         <v>66</v>
       </c>
@@ -5232,7 +5273,7 @@
         <v>2.46</v>
       </c>
     </row>
-    <row r="268" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="268" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A268" s="12" t="s">
         <v>5</v>
       </c>
@@ -5246,7 +5287,7 @@
         <v>87.79</v>
       </c>
     </row>
-    <row r="269" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="269" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A269" s="10" t="s">
         <v>8</v>
       </c>
@@ -5260,7 +5301,7 @@
         <v>21.24</v>
       </c>
     </row>
-    <row r="270" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="270" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A270" s="12" t="s">
         <v>6</v>
       </c>
@@ -5274,7 +5315,7 @@
         <v>34.78</v>
       </c>
     </row>
-    <row r="271" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="271" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A271" s="10" t="s">
         <v>19</v>
       </c>
@@ -5288,7 +5329,7 @@
         <v>4.5599999999999996</v>
       </c>
     </row>
-    <row r="272" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="272" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A272" s="12" t="s">
         <v>23</v>
       </c>
@@ -5302,7 +5343,7 @@
         <v>10.53</v>
       </c>
     </row>
-    <row r="273" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="273" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A273" s="10" t="s">
         <v>9</v>
       </c>
@@ -5316,7 +5357,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="274" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="274" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A274" s="12" t="s">
         <v>12</v>
       </c>
@@ -5330,7 +5371,7 @@
         <v>10.93</v>
       </c>
     </row>
-    <row r="275" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="275" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A275" s="10" t="s">
         <v>66</v>
       </c>
@@ -5344,7 +5385,7 @@
         <v>3.08</v>
       </c>
     </row>
-    <row r="276" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="276" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A276" s="12" t="s">
         <v>5</v>
       </c>
@@ -5358,7 +5399,7 @@
         <v>99.04</v>
       </c>
     </row>
-    <row r="277" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="277" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A277" s="10" t="s">
         <v>8</v>
       </c>
@@ -5372,7 +5413,7 @@
         <v>22.35</v>
       </c>
     </row>
-    <row r="278" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="278" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A278" s="12" t="s">
         <v>6</v>
       </c>
@@ -5386,7 +5427,7 @@
         <v>35.869999999999997</v>
       </c>
     </row>
-    <row r="279" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="279" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A279" s="10" t="s">
         <v>19</v>
       </c>
@@ -5400,7 +5441,7 @@
         <v>4.78</v>
       </c>
     </row>
-    <row r="280" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="280" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A280" s="12" t="s">
         <v>23</v>
       </c>
@@ -5414,7 +5455,7 @@
         <v>10.87</v>
       </c>
     </row>
-    <row r="281" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="281" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A281" s="10" t="s">
         <v>9</v>
       </c>
@@ -5428,7 +5469,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="282" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="282" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A282" s="12" t="s">
         <v>12</v>
       </c>
@@ -5442,7 +5483,7 @@
         <v>13.18</v>
       </c>
     </row>
-    <row r="283" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="283" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A283" s="10" t="s">
         <v>66</v>
       </c>
@@ -5456,7 +5497,7 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="284" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="284" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A284" s="12" t="s">
         <v>5</v>
       </c>
@@ -5470,7 +5511,7 @@
         <v>113.4</v>
       </c>
     </row>
-    <row r="285" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="285" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A285" s="10" t="s">
         <v>8</v>
       </c>
@@ -5484,7 +5525,7 @@
         <v>24.06</v>
       </c>
     </row>
-    <row r="286" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="286" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A286" s="12" t="s">
         <v>6</v>
       </c>
@@ -5498,7 +5539,7 @@
         <v>37.630000000000003</v>
       </c>
     </row>
-    <row r="287" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="287" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A287" s="10" t="s">
         <v>19</v>
       </c>
@@ -5512,7 +5553,7 @@
         <v>4.78</v>
       </c>
     </row>
-    <row r="288" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="288" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A288" s="12" t="s">
         <v>23</v>
       </c>
@@ -5526,7 +5567,7 @@
         <v>11.16</v>
       </c>
     </row>
-    <row r="289" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="289" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A289" s="10" t="s">
         <v>9</v>
       </c>
@@ -5540,7 +5581,7 @@
         <v>0.56999999999999995</v>
       </c>
     </row>
-    <row r="290" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="290" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A290" s="12" t="s">
         <v>12</v>
       </c>
@@ -5554,7 +5595,7 @@
         <v>16.18</v>
       </c>
     </row>
-    <row r="291" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="291" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A291" s="10" t="s">
         <v>66</v>
       </c>
@@ -5568,7 +5609,7 @@
         <v>3.84</v>
       </c>
     </row>
-    <row r="292" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="292" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A292" s="12" t="s">
         <v>5</v>
       </c>
@@ -5582,7 +5623,7 @@
         <v>131.56</v>
       </c>
     </row>
-    <row r="293" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="293" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A293" s="10" t="s">
         <v>8</v>
       </c>
@@ -5596,7 +5637,7 @@
         <v>23.75</v>
       </c>
     </row>
-    <row r="294" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="294" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A294" s="12" t="s">
         <v>6</v>
       </c>
@@ -5610,7 +5651,7 @@
         <v>38.25</v>
       </c>
     </row>
-    <row r="295" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="295" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A295" s="10" t="s">
         <v>19</v>
       </c>
@@ -5624,7 +5665,7 @@
         <v>4.78</v>
       </c>
     </row>
-    <row r="296" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="296" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A296" s="12" t="s">
         <v>23</v>
       </c>
@@ -5638,7 +5679,7 @@
         <v>12.14</v>
       </c>
     </row>
-    <row r="297" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="297" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A297" s="10" t="s">
         <v>9</v>
       </c>
@@ -5652,7 +5693,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="298" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="298" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A298" s="12" t="s">
         <v>12</v>
       </c>
@@ -5666,7 +5707,7 @@
         <v>17.3</v>
       </c>
     </row>
-    <row r="299" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="299" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A299" s="10" t="s">
         <v>66</v>
       </c>
@@ -5680,7 +5721,7 @@
         <v>4.08</v>
       </c>
     </row>
-    <row r="300" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="300" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A300" s="12" t="s">
         <v>5</v>
       </c>
@@ -5694,7 +5735,7 @@
         <v>149.36000000000001</v>
       </c>
     </row>
-    <row r="301" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="301" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A301" s="10" t="s">
         <v>8</v>
       </c>
@@ -5708,7 +5749,7 @@
         <v>26.47</v>
       </c>
     </row>
-    <row r="302" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="302" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A302" s="12" t="s">
         <v>6</v>
       </c>
@@ -5722,7 +5763,7 @@
         <v>39.39</v>
       </c>
     </row>
-    <row r="303" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="303" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A303" s="10" t="s">
         <v>19</v>
       </c>
@@ -5736,7 +5777,7 @@
         <v>4.78</v>
       </c>
     </row>
-    <row r="304" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="304" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A304" s="12" t="s">
         <v>23</v>
       </c>
@@ -5750,7 +5791,7 @@
         <v>12.67</v>
       </c>
     </row>
-    <row r="305" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="305" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A305" s="10" t="s">
         <v>9</v>
       </c>
@@ -5764,7 +5805,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="306" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="306" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A306" s="12" t="s">
         <v>12</v>
       </c>
@@ -5778,7 +5819,7 @@
         <v>18.420000000000002</v>
       </c>
     </row>
-    <row r="307" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="307" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A307" s="10" t="s">
         <v>66</v>
       </c>
@@ -5792,7 +5833,7 @@
         <v>4.91</v>
       </c>
     </row>
-    <row r="308" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="308" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A308" s="12" t="s">
         <v>5</v>
       </c>
@@ -5806,7 +5847,7 @@
         <v>169.52</v>
       </c>
     </row>
-    <row r="309" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="309" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A309" s="10" t="s">
         <v>8</v>
       </c>
@@ -5820,7 +5861,7 @@
         <v>28.14</v>
       </c>
     </row>
-    <row r="310" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="310" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A310" s="12" t="s">
         <v>6</v>
       </c>
@@ -5834,7 +5875,7 @@
         <v>40.619999999999997</v>
       </c>
     </row>
-    <row r="311" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="311" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A311" s="10" t="s">
         <v>19</v>
       </c>
@@ -5848,7 +5889,7 @@
         <v>5.78</v>
       </c>
     </row>
-    <row r="312" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="312" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A312" s="12" t="s">
         <v>23</v>
       </c>
@@ -5862,7 +5903,7 @@
         <v>13.19</v>
       </c>
     </row>
-    <row r="313" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="313" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A313" s="10" t="s">
         <v>9</v>
       </c>
@@ -5876,7 +5917,7 @@
         <v>3.78</v>
       </c>
     </row>
-    <row r="314" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="314" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A314" s="12" t="s">
         <v>12</v>
       </c>
@@ -5890,7 +5931,7 @@
         <v>22.47</v>
       </c>
     </row>
-    <row r="315" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="315" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A315" s="10" t="s">
         <v>66</v>
       </c>
@@ -5904,7 +5945,7 @@
         <v>5.34</v>
       </c>
     </row>
-    <row r="316" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="316" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A316" s="12" t="s">
         <v>5</v>
       </c>
@@ -5918,7 +5959,7 @@
         <v>189.57</v>
       </c>
     </row>
-    <row r="317" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="317" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A317" s="10" t="s">
         <v>8</v>
       </c>
@@ -5932,7 +5973,7 @@
         <v>30.17</v>
       </c>
     </row>
-    <row r="318" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="318" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A318" s="12" t="s">
         <v>6</v>
       </c>
@@ -5946,7 +5987,7 @@
         <v>42.32</v>
       </c>
     </row>
-    <row r="319" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="319" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A319" s="10" t="s">
         <v>19</v>
       </c>
@@ -5960,7 +6001,7 @@
         <v>5.78</v>
       </c>
     </row>
-    <row r="320" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="320" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A320" s="12" t="s">
         <v>23</v>
       </c>
@@ -5974,7 +6015,7 @@
         <v>13.39</v>
       </c>
     </row>
-    <row r="321" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="321" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A321" s="10" t="s">
         <v>9</v>
       </c>
@@ -5988,7 +6029,7 @@
         <v>5.7</v>
       </c>
     </row>
-    <row r="322" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="322" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A322" s="12" t="s">
         <v>12</v>
       </c>
@@ -6002,7 +6043,7 @@
         <v>25.09</v>
       </c>
     </row>
-    <row r="323" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="323" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A323" s="10" t="s">
         <v>66</v>
       </c>
@@ -6016,7 +6057,7 @@
         <v>8.76</v>
       </c>
     </row>
-    <row r="324" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="324" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A324" s="12" t="s">
         <v>5</v>
       </c>
@@ -6030,7 +6071,7 @@
         <v>207.07</v>
       </c>
     </row>
-    <row r="325" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="325" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A325" s="10" t="s">
         <v>8</v>
       </c>
@@ -6044,7 +6085,7 @@
         <v>31.37</v>
       </c>
     </row>
-    <row r="326" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="326" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A326" s="12" t="s">
         <v>6</v>
       </c>
@@ -6058,7 +6099,7 @@
         <v>42.84</v>
       </c>
     </row>
-    <row r="327" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="327" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A327" s="10" t="s">
         <v>19</v>
       </c>
@@ -6072,7 +6113,7 @@
         <v>5.78</v>
       </c>
     </row>
-    <row r="328" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="328" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A328" s="12" t="s">
         <v>23</v>
       </c>
@@ -6086,7 +6127,7 @@
         <v>14.08</v>
       </c>
     </row>
-    <row r="329" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="329" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A329" s="10" t="s">
         <v>9</v>
       </c>
@@ -6100,7 +6141,7 @@
         <v>9.98</v>
       </c>
     </row>
-    <row r="330" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="330" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A330" s="12" t="s">
         <v>12</v>
       </c>
@@ -6114,7 +6155,7 @@
         <v>28.7</v>
       </c>
     </row>
-    <row r="331" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="331" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A331" s="10" t="s">
         <v>66</v>
       </c>
@@ -6128,7 +6169,7 @@
         <v>9.27</v>
       </c>
     </row>
-    <row r="332" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="332" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A332" s="12" t="s">
         <v>5</v>
       </c>
@@ -6142,7 +6183,7 @@
         <v>212.46</v>
       </c>
     </row>
-    <row r="333" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="333" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A333" s="10" t="s">
         <v>8</v>
       </c>
@@ -6156,7 +6197,7 @@
         <v>32.04</v>
       </c>
     </row>
-    <row r="334" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="334" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A334" s="12" t="s">
         <v>6</v>
       </c>
@@ -6170,7 +6211,7 @@
         <v>44.74</v>
       </c>
     </row>
-    <row r="335" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="335" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A335" s="10" t="s">
         <v>19</v>
       </c>
@@ -6184,7 +6225,7 @@
         <v>6.78</v>
       </c>
     </row>
-    <row r="336" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="336" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A336" s="12" t="s">
         <v>23</v>
       </c>
@@ -6198,7 +6239,7 @@
         <v>14.18</v>
       </c>
     </row>
-    <row r="337" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="337" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A337" s="10" t="s">
         <v>9</v>
       </c>
@@ -6212,7 +6253,7 @@
         <v>18.260000000000002</v>
       </c>
     </row>
-    <row r="338" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="338" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A338" s="12" t="s">
         <v>12</v>
       </c>
@@ -6226,7 +6267,7 @@
         <v>32.85</v>
       </c>
     </row>
-    <row r="339" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="339" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A339" s="10" t="s">
         <v>66</v>
       </c>
@@ -6240,7 +6281,7 @@
         <v>9.98</v>
       </c>
     </row>
-    <row r="340" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="340" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A340" s="12" t="s">
         <v>5</v>
       </c>
@@ -6254,7 +6295,7 @@
         <v>217.98</v>
       </c>
     </row>
-    <row r="341" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="341" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A341" s="10" t="s">
         <v>8</v>
       </c>
@@ -6268,7 +6309,7 @@
         <v>33.32</v>
       </c>
     </row>
-    <row r="342" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="342" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A342" s="12" t="s">
         <v>6</v>
       </c>
@@ -6282,7 +6323,7 @@
         <v>45.32</v>
       </c>
     </row>
-    <row r="343" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="343" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A343" s="10" t="s">
         <v>19</v>
       </c>
@@ -6296,7 +6337,7 @@
         <v>6.78</v>
       </c>
     </row>
-    <row r="344" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="344" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A344" s="12" t="s">
         <v>23</v>
       </c>
@@ -6310,7 +6351,7 @@
         <v>15.76</v>
       </c>
     </row>
-    <row r="345" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="345" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A345" s="10" t="s">
         <v>9</v>
       </c>
@@ -6324,7 +6365,7 @@
         <v>27.48</v>
       </c>
     </row>
-    <row r="346" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="346" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A346" s="12" t="s">
         <v>12</v>
       </c>
@@ -6338,7 +6379,7 @@
         <v>35.29</v>
       </c>
     </row>
-    <row r="347" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="347" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A347" s="10" t="s">
         <v>66</v>
       </c>
@@ -6352,7 +6393,7 @@
         <v>10.06</v>
       </c>
     </row>
-    <row r="348" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="348" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A348" s="12" t="s">
         <v>5</v>
       </c>
@@ -6366,7 +6407,7 @@
         <v>225.62</v>
       </c>
     </row>
-    <row r="349" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="349" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A349" s="10" t="s">
         <v>8</v>
       </c>
@@ -6380,7 +6421,7 @@
         <v>32.619999999999997</v>
       </c>
     </row>
-    <row r="350" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="350" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A350" s="12" t="s">
         <v>6</v>
       </c>
@@ -6394,7 +6435,7 @@
         <v>45.49</v>
       </c>
     </row>
-    <row r="351" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="351" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A351" s="10" t="s">
         <v>19</v>
       </c>
@@ -6408,7 +6449,7 @@
         <v>6.78</v>
       </c>
     </row>
-    <row r="352" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="352" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A352" s="12" t="s">
         <v>23</v>
       </c>
@@ -6422,7 +6463,7 @@
         <v>14.15</v>
       </c>
     </row>
-    <row r="353" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="353" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A353" s="10" t="s">
         <v>9</v>
       </c>
@@ -6436,7 +6477,7 @@
         <v>35.25</v>
       </c>
     </row>
-    <row r="354" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="354" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A354" s="12" t="s">
         <v>12</v>
       </c>
@@ -6450,7 +6491,7 @@
         <v>37.51</v>
       </c>
     </row>
-    <row r="355" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="355" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A355" s="10" t="s">
         <v>66</v>
       </c>
@@ -6464,7 +6505,7 @@
         <v>10.35</v>
       </c>
     </row>
-    <row r="356" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="356" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A356" s="12" t="s">
         <v>5</v>
       </c>
@@ -6478,7 +6519,7 @@
         <v>225.83</v>
       </c>
     </row>
-    <row r="357" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="357" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A357" s="10" t="s">
         <v>8</v>
       </c>
@@ -6492,7 +6533,7 @@
         <v>32.31</v>
       </c>
     </row>
-    <row r="358" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="358" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A358" s="12" t="s">
         <v>6</v>
       </c>
@@ -6506,7 +6547,7 @@
         <v>45.98</v>
       </c>
     </row>
-    <row r="359" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="359" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A359" s="10" t="s">
         <v>19</v>
       </c>
@@ -6520,7 +6561,7 @@
         <v>6.78</v>
       </c>
     </row>
-    <row r="360" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="360" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A360" s="12" t="s">
         <v>23</v>
       </c>
@@ -6534,7 +6575,7 @@
         <v>17.059999999999999</v>
       </c>
     </row>
-    <row r="361" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="361" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A361" s="10" t="s">
         <v>9</v>
       </c>
@@ -6548,7 +6589,7 @@
         <v>39.71</v>
       </c>
     </row>
-    <row r="362" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="362" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A362" s="12" t="s">
         <v>12</v>
       </c>
@@ -6562,7 +6603,7 @@
         <v>38.56</v>
       </c>
     </row>
-    <row r="363" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="363" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A363" s="10" t="s">
         <v>66</v>
       </c>
@@ -6576,7 +6617,7 @@
         <v>10.37</v>
       </c>
     </row>
-    <row r="364" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="364" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A364" s="12" t="s">
         <v>5</v>
       </c>
@@ -6590,7 +6631,7 @@
         <v>231.14</v>
       </c>
     </row>
-    <row r="365" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="365" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A365" s="10" t="s">
         <v>8</v>
       </c>
@@ -6604,7 +6645,7 @@
         <v>32.29</v>
       </c>
     </row>
-    <row r="366" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="366" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A366" s="12" t="s">
         <v>6</v>
       </c>
@@ -6618,7 +6659,7 @@
         <v>46.78</v>
       </c>
     </row>
-    <row r="367" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="367" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A367" s="10" t="s">
         <v>19</v>
       </c>
@@ -6632,7 +6673,7 @@
         <v>6.78</v>
       </c>
     </row>
-    <row r="368" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="368" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A368" s="12" t="s">
         <v>23</v>
       </c>
@@ -6646,7 +6687,7 @@
         <v>18.39</v>
       </c>
     </row>
-    <row r="369" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="369" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A369" s="10" t="s">
         <v>9</v>
       </c>
@@ -6660,7 +6701,7 @@
         <v>49.95</v>
       </c>
     </row>
-    <row r="370" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="370" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A370" s="12" t="s">
         <v>12</v>
       </c>
@@ -6674,7 +6715,7 @@
         <v>40.07</v>
       </c>
     </row>
-    <row r="371" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="371" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A371" s="10" t="s">
         <v>66</v>
       </c>
@@ -6688,7 +6729,7 @@
         <v>10.41</v>
       </c>
     </row>
-    <row r="372" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="372" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A372" s="12" t="s">
         <v>5</v>
       </c>
@@ -6702,7 +6743,7 @@
         <v>232.17</v>
       </c>
     </row>
-    <row r="373" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="373" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A373" s="10" t="s">
         <v>8</v>
       </c>
@@ -6716,7 +6757,7 @@
         <v>32.22</v>
       </c>
     </row>
-    <row r="374" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="374" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A374" s="12" t="s">
         <v>6</v>
       </c>
@@ -6730,7 +6771,7 @@
         <v>47.22</v>
       </c>
     </row>
-    <row r="375" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="375" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A375" s="10" t="s">
         <v>19</v>
       </c>
@@ -6744,7 +6785,7 @@
         <v>6.78</v>
       </c>
     </row>
-    <row r="376" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="376" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A376" s="12" t="s">
         <v>23</v>
       </c>
@@ -6758,7 +6799,7 @@
         <v>18.55</v>
       </c>
     </row>
-    <row r="377" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="377" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A377" s="10" t="s">
         <v>9</v>
       </c>
@@ -6772,7 +6813,7 @@
         <v>63.39</v>
       </c>
     </row>
-    <row r="378" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="378" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A378" s="12" t="s">
         <v>12</v>
       </c>
@@ -6786,7 +6827,7 @@
         <v>41.93</v>
       </c>
     </row>
-    <row r="379" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="379" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A379" s="10" t="s">
         <v>66</v>
       </c>
@@ -6800,7 +6841,7 @@
         <v>10.46</v>
       </c>
     </row>
-    <row r="380" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="380" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A380" s="12" t="s">
         <v>5</v>
       </c>
@@ -6814,7 +6855,7 @@
         <v>237.64</v>
       </c>
     </row>
-    <row r="381" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="381" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A381" s="10" t="s">
         <v>8</v>
       </c>
@@ -6828,7 +6869,7 @@
         <v>32.44</v>
       </c>
     </row>
-    <row r="382" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="382" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A382" s="12" t="s">
         <v>6</v>
       </c>
@@ -6842,7 +6883,7 @@
         <v>47.33</v>
       </c>
     </row>
-    <row r="383" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="383" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A383" s="10" t="s">
         <v>19</v>
       </c>
@@ -6856,7 +6897,7 @@
         <v>7.48</v>
       </c>
     </row>
-    <row r="384" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="384" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A384" s="12" t="s">
         <v>23</v>
       </c>
@@ -6870,7 +6911,7 @@
         <v>18.579999999999998</v>
       </c>
     </row>
-    <row r="385" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="385" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A385" s="10" t="s">
         <v>9</v>
       </c>
@@ -6884,7 +6925,7 @@
         <v>73.11</v>
       </c>
     </row>
-    <row r="386" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="386" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A386" s="12" t="s">
         <v>12</v>
       </c>
@@ -6898,7 +6939,7 @@
         <v>44.74</v>
       </c>
     </row>
-    <row r="387" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="387" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A387" s="10" t="s">
         <v>66</v>
       </c>
@@ -6912,7 +6953,7 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="388" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="388" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A388" s="12" t="s">
         <v>5</v>
       </c>
@@ -6926,7 +6967,7 @@
         <v>362.56</v>
       </c>
     </row>
-    <row r="389" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="389" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A389" s="10" t="s">
         <v>8</v>
       </c>
@@ -6940,7 +6981,7 @@
         <v>38.78</v>
       </c>
     </row>
-    <row r="390" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="390" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A390" s="12" t="s">
         <v>6</v>
       </c>
@@ -6954,7 +6995,7 @@
         <v>1.83</v>
       </c>
     </row>
-    <row r="391" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="391" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A391" s="10" t="s">
         <v>19</v>
       </c>
@@ -6968,7 +7009,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="392" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="392" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A392" s="12" t="s">
         <v>23</v>
       </c>
@@ -6982,7 +7023,7 @@
         <v>19.190000000000001</v>
       </c>
     </row>
-    <row r="393" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="393" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A393" s="10" t="s">
         <v>9</v>
       </c>
@@ -6996,7 +7037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="394" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="394" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A394" s="12" t="s">
         <v>12</v>
       </c>
@@ -7010,7 +7051,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="395" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="395" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A395" s="10" t="s">
         <v>66</v>
       </c>
@@ -7024,7 +7065,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="396" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="396" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A396" s="12" t="s">
         <v>5</v>
       </c>
@@ -7038,7 +7079,7 @@
         <v>379.35</v>
       </c>
     </row>
-    <row r="397" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="397" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A397" s="10" t="s">
         <v>8</v>
       </c>
@@ -7052,7 +7093,7 @@
         <v>38.76</v>
       </c>
     </row>
-    <row r="398" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="398" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A398" s="12" t="s">
         <v>6</v>
       </c>
@@ -7066,7 +7107,7 @@
         <v>1.71</v>
       </c>
     </row>
-    <row r="399" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="399" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A399" s="10" t="s">
         <v>19</v>
       </c>
@@ -7080,7 +7121,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="400" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="400" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A400" s="12" t="s">
         <v>23</v>
       </c>
@@ -7094,7 +7135,7 @@
         <v>17.63</v>
       </c>
     </row>
-    <row r="401" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="401" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A401" s="10" t="s">
         <v>9</v>
       </c>
@@ -7108,7 +7149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="402" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="402" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A402" s="12" t="s">
         <v>12</v>
       </c>
@@ -7122,7 +7163,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="403" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="403" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A403" s="10" t="s">
         <v>66</v>
       </c>
@@ -7136,7 +7177,7 @@
         <v>0.46</v>
       </c>
     </row>
-    <row r="404" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="404" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A404" s="12" t="s">
         <v>5</v>
       </c>
@@ -7150,7 +7191,7 @@
         <v>396.55</v>
       </c>
     </row>
-    <row r="405" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="405" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A405" s="10" t="s">
         <v>8</v>
       </c>
@@ -7164,7 +7205,7 @@
         <v>43.58</v>
       </c>
     </row>
-    <row r="406" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="406" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A406" s="12" t="s">
         <v>6</v>
       </c>
@@ -7178,7 +7219,7 @@
         <v>1.63</v>
       </c>
     </row>
-    <row r="407" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="407" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A407" s="10" t="s">
         <v>19</v>
       </c>
@@ -7192,7 +7233,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="408" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="408" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A408" s="12" t="s">
         <v>23</v>
       </c>
@@ -7206,7 +7247,7 @@
         <v>18.38</v>
       </c>
     </row>
-    <row r="409" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="409" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A409" s="10" t="s">
         <v>9</v>
       </c>
@@ -7220,7 +7261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="410" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="410" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A410" s="12" t="s">
         <v>12</v>
       </c>
@@ -7234,7 +7275,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="411" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="411" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A411" s="10" t="s">
         <v>66</v>
       </c>
@@ -7248,7 +7289,7 @@
         <v>0.59</v>
       </c>
     </row>
-    <row r="412" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="412" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A412" s="12" t="s">
         <v>5</v>
       </c>
@@ -7262,7 +7303,7 @@
         <v>410.39</v>
       </c>
     </row>
-    <row r="413" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="413" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A413" s="10" t="s">
         <v>8</v>
       </c>
@@ -7276,7 +7317,7 @@
         <v>50.46</v>
       </c>
     </row>
-    <row r="414" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="414" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A414" s="12" t="s">
         <v>6</v>
       </c>
@@ -7290,7 +7331,7 @@
         <v>1.65</v>
       </c>
     </row>
-    <row r="415" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="415" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A415" s="10" t="s">
         <v>19</v>
       </c>
@@ -7304,7 +7345,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="416" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="416" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A416" s="12" t="s">
         <v>23</v>
       </c>
@@ -7318,7 +7359,7 @@
         <v>20.46</v>
       </c>
     </row>
-    <row r="417" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="417" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A417" s="10" t="s">
         <v>9</v>
       </c>
@@ -7332,7 +7373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="418" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="418" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A418" s="12" t="s">
         <v>12</v>
       </c>
@@ -7346,7 +7387,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="419" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="419" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A419" s="10" t="s">
         <v>66</v>
       </c>
@@ -7360,7 +7401,7 @@
         <v>0.72</v>
       </c>
     </row>
-    <row r="420" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="420" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A420" s="12" t="s">
         <v>5</v>
       </c>
@@ -7374,7 +7415,7 @@
         <v>430.44</v>
       </c>
     </row>
-    <row r="421" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="421" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A421" s="10" t="s">
         <v>8</v>
       </c>
@@ -7388,7 +7429,7 @@
         <v>53.08</v>
       </c>
     </row>
-    <row r="422" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="422" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A422" s="12" t="s">
         <v>6</v>
       </c>
@@ -7402,7 +7443,7 @@
         <v>2.39</v>
       </c>
     </row>
-    <row r="423" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="423" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A423" s="10" t="s">
         <v>19</v>
       </c>
@@ -7416,7 +7457,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="424" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="424" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A424" s="12" t="s">
         <v>23</v>
       </c>
@@ -7430,7 +7471,7 @@
         <v>18.600000000000001</v>
       </c>
     </row>
-    <row r="425" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="425" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A425" s="10" t="s">
         <v>9</v>
       </c>
@@ -7444,7 +7485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="426" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="426" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A426" s="12" t="s">
         <v>12</v>
       </c>
@@ -7458,7 +7499,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="427" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="427" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A427" s="10" t="s">
         <v>66</v>
       </c>
@@ -7472,7 +7513,7 @@
         <v>0.87</v>
       </c>
     </row>
-    <row r="428" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="428" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A428" s="12" t="s">
         <v>5</v>
       </c>
@@ -7486,7 +7527,7 @@
         <v>444.76</v>
       </c>
     </row>
-    <row r="429" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="429" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A429" s="10" t="s">
         <v>8</v>
       </c>
@@ -7500,7 +7541,7 @@
         <v>52.31</v>
       </c>
     </row>
-    <row r="430" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="430" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A430" s="12" t="s">
         <v>6</v>
       </c>
@@ -7514,7 +7555,7 @@
         <v>2.31</v>
       </c>
     </row>
-    <row r="431" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="431" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A431" s="10" t="s">
         <v>19</v>
       </c>
@@ -7528,7 +7569,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="432" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="432" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A432" s="12" t="s">
         <v>23</v>
       </c>
@@ -7542,7 +7583,7 @@
         <v>16.690000000000001</v>
       </c>
     </row>
-    <row r="433" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="433" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A433" s="10" t="s">
         <v>9</v>
       </c>
@@ -7556,7 +7597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="434" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="434" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A434" s="12" t="s">
         <v>12</v>
       </c>
@@ -7570,7 +7611,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="435" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="435" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A435" s="10" t="s">
         <v>66</v>
       </c>
@@ -7584,7 +7625,7 @@
         <v>1.21</v>
       </c>
     </row>
-    <row r="436" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="436" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A436" s="12" t="s">
         <v>5</v>
       </c>
@@ -7598,7 +7639,7 @@
         <v>469.78</v>
       </c>
     </row>
-    <row r="437" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="437" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A437" s="10" t="s">
         <v>8</v>
       </c>
@@ -7612,7 +7653,7 @@
         <v>51.77</v>
       </c>
     </row>
-    <row r="438" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="438" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A438" s="12" t="s">
         <v>6</v>
       </c>
@@ -7626,7 +7667,7 @@
         <v>2.68</v>
       </c>
     </row>
-    <row r="439" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="439" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A439" s="10" t="s">
         <v>19</v>
       </c>
@@ -7640,7 +7681,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="440" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="440" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A440" s="12" t="s">
         <v>23</v>
       </c>
@@ -7654,7 +7695,7 @@
         <v>12.55</v>
       </c>
     </row>
-    <row r="441" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="441" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A441" s="10" t="s">
         <v>9</v>
       </c>
@@ -7668,7 +7709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="442" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="442" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A442" s="12" t="s">
         <v>12</v>
       </c>
@@ -7682,7 +7723,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="443" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="443" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A443" s="10" t="s">
         <v>66</v>
       </c>
@@ -7696,7 +7737,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="444" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="444" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A444" s="12" t="s">
         <v>5</v>
       </c>
@@ -7710,7 +7751,7 @@
         <v>495.61</v>
       </c>
     </row>
-    <row r="445" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="445" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A445" s="10" t="s">
         <v>8</v>
       </c>
@@ -7724,7 +7765,7 @@
         <v>62.41</v>
       </c>
     </row>
-    <row r="446" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="446" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A446" s="12" t="s">
         <v>6</v>
       </c>
@@ -7738,7 +7779,7 @@
         <v>2.91</v>
       </c>
     </row>
-    <row r="447" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="447" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A447" s="10" t="s">
         <v>19</v>
       </c>
@@ -7752,7 +7793,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="448" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="448" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A448" s="12" t="s">
         <v>23</v>
       </c>
@@ -7766,7 +7807,7 @@
         <v>8.7899999999999991</v>
       </c>
     </row>
-    <row r="449" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="449" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A449" s="10" t="s">
         <v>9</v>
       </c>
@@ -7780,7 +7821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="450" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="450" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A450" s="12" t="s">
         <v>12</v>
       </c>
@@ -7794,7 +7835,7 @@
         <v>0.19</v>
       </c>
     </row>
-    <row r="451" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="451" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A451" s="10" t="s">
         <v>66</v>
       </c>
@@ -7808,7 +7849,7 @@
         <v>2.0099999999999998</v>
       </c>
     </row>
-    <row r="452" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="452" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A452" s="12" t="s">
         <v>5</v>
       </c>
@@ -7822,7 +7863,7 @@
         <v>532.65</v>
       </c>
     </row>
-    <row r="453" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="453" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A453" s="10" t="s">
         <v>8</v>
       </c>
@@ -7836,7 +7877,7 @@
         <v>59.52</v>
       </c>
     </row>
-    <row r="454" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="454" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A454" s="12" t="s">
         <v>6</v>
       </c>
@@ -7850,7 +7891,7 @@
         <v>2.74</v>
       </c>
     </row>
-    <row r="455" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="455" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A455" s="10" t="s">
         <v>19</v>
       </c>
@@ -7864,7 +7905,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="456" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="456" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A456" s="12" t="s">
         <v>23</v>
       </c>
@@ -7878,7 +7919,7 @@
         <v>10.050000000000001</v>
       </c>
     </row>
-    <row r="457" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="457" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A457" s="10" t="s">
         <v>9</v>
       </c>
@@ -7892,7 +7933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="458" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="458" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A458" s="12" t="s">
         <v>12</v>
       </c>
@@ -7906,7 +7947,7 @@
         <v>0.23</v>
       </c>
     </row>
-    <row r="459" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="459" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A459" s="10" t="s">
         <v>66</v>
       </c>
@@ -7920,7 +7961,7 @@
         <v>2.52</v>
       </c>
     </row>
-    <row r="460" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="460" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A460" s="12" t="s">
         <v>5</v>
       </c>
@@ -7934,7 +7975,7 @@
         <v>568.04999999999995</v>
       </c>
     </row>
-    <row r="461" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="461" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A461" s="10" t="s">
         <v>8</v>
       </c>
@@ -7948,7 +7989,7 @@
         <v>72.34</v>
       </c>
     </row>
-    <row r="462" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="462" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A462" s="12" t="s">
         <v>6</v>
       </c>
@@ -7962,7 +8003,7 @@
         <v>2.5299999999999998</v>
       </c>
     </row>
-    <row r="463" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="463" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A463" s="10" t="s">
         <v>19</v>
       </c>
@@ -7976,7 +8017,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="464" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="464" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A464" s="12" t="s">
         <v>23</v>
       </c>
@@ -7990,7 +8031,7 @@
         <v>8.61</v>
       </c>
     </row>
-    <row r="465" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="465" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A465" s="10" t="s">
         <v>9</v>
       </c>
@@ -8004,7 +8045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="466" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="466" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A466" s="12" t="s">
         <v>12</v>
       </c>
@@ -8018,7 +8059,7 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="467" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="467" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A467" s="10" t="s">
         <v>66</v>
       </c>
@@ -8032,7 +8073,7 @@
         <v>3.09</v>
       </c>
     </row>
-    <row r="468" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="468" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A468" s="12" t="s">
         <v>5</v>
       </c>
@@ -8046,7 +8087,7 @@
         <v>597.6</v>
       </c>
     </row>
-    <row r="469" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="469" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A469" s="10" t="s">
         <v>8</v>
       </c>
@@ -8060,7 +8101,7 @@
         <v>81.8</v>
       </c>
     </row>
-    <row r="470" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="470" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A470" s="12" t="s">
         <v>6</v>
       </c>
@@ -8074,7 +8115,7 @@
         <v>2.58</v>
       </c>
     </row>
-    <row r="471" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="471" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A471" s="10" t="s">
         <v>19</v>
       </c>
@@ -8088,7 +8129,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="472" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="472" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A472" s="12" t="s">
         <v>23</v>
       </c>
@@ -8102,7 +8143,7 @@
         <v>7.09</v>
       </c>
     </row>
-    <row r="473" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="473" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A473" s="10" t="s">
         <v>9</v>
       </c>
@@ -8116,7 +8157,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="474" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="474" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A474" s="12" t="s">
         <v>12</v>
       </c>
@@ -8130,7 +8171,7 @@
         <v>0.31</v>
       </c>
     </row>
-    <row r="475" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="475" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A475" s="10" t="s">
         <v>66</v>
       </c>
@@ -8144,7 +8185,7 @@
         <v>3.71</v>
       </c>
     </row>
-    <row r="476" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="476" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A476" s="12" t="s">
         <v>5</v>
       </c>
@@ -8158,7 +8199,7 @@
         <v>650.73</v>
       </c>
     </row>
-    <row r="477" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="477" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A477" s="10" t="s">
         <v>8</v>
       </c>
@@ -8172,7 +8213,7 @@
         <v>81.48</v>
       </c>
     </row>
-    <row r="478" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="478" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A478" s="12" t="s">
         <v>6</v>
       </c>
@@ -8186,7 +8227,7 @@
         <v>3.13</v>
       </c>
     </row>
-    <row r="479" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="479" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A479" s="10" t="s">
         <v>19</v>
       </c>
@@ -8200,7 +8241,7 @@
         <v>0.19</v>
       </c>
     </row>
-    <row r="480" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="480" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A480" s="12" t="s">
         <v>23</v>
       </c>
@@ -8214,7 +8255,7 @@
         <v>6.15</v>
       </c>
     </row>
-    <row r="481" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="481" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A481" s="10" t="s">
         <v>9</v>
       </c>
@@ -8228,7 +8269,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="482" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="482" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A482" s="12" t="s">
         <v>12</v>
       </c>
@@ -8242,7 +8283,7 @@
         <v>0.39</v>
       </c>
     </row>
-    <row r="483" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="483" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A483" s="10" t="s">
         <v>66</v>
       </c>
@@ -8256,7 +8297,7 @@
         <v>4.3099999999999996</v>
       </c>
     </row>
-    <row r="484" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="484" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A484" s="12" t="s">
         <v>5</v>
       </c>
@@ -8270,7 +8311,7 @@
         <v>728.15</v>
       </c>
     </row>
-    <row r="485" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="485" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A485" s="10" t="s">
         <v>8</v>
       </c>
@@ -8284,7 +8325,7 @@
         <v>66.709999999999994</v>
       </c>
     </row>
-    <row r="486" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="486" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A486" s="12" t="s">
         <v>6</v>
       </c>
@@ -8298,7 +8339,7 @@
         <v>2.75</v>
       </c>
     </row>
-    <row r="487" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="487" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A487" s="10" t="s">
         <v>19</v>
       </c>
@@ -8312,7 +8353,7 @@
         <v>0.19</v>
       </c>
     </row>
-    <row r="488" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="488" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A488" s="12" t="s">
         <v>23</v>
       </c>
@@ -8326,7 +8367,7 @@
         <v>6.63</v>
       </c>
     </row>
-    <row r="489" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="489" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A489" s="10" t="s">
         <v>9</v>
       </c>
@@ -8340,7 +8381,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="490" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="490" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A490" s="12" t="s">
         <v>12</v>
       </c>
@@ -8354,7 +8395,7 @@
         <v>0.44</v>
       </c>
     </row>
-    <row r="491" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="491" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A491" s="10" t="s">
         <v>66</v>
       </c>
@@ -8368,7 +8409,7 @@
         <v>4.8600000000000003</v>
       </c>
     </row>
-    <row r="492" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="492" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A492" s="12" t="s">
         <v>5</v>
       </c>
@@ -8382,7 +8423,7 @@
         <v>782.51</v>
       </c>
     </row>
-    <row r="493" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="493" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A493" s="10" t="s">
         <v>8</v>
       </c>
@@ -8396,7 +8437,7 @@
         <v>45.96</v>
       </c>
     </row>
-    <row r="494" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="494" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A494" s="12" t="s">
         <v>6</v>
       </c>
@@ -8410,7 +8451,7 @@
         <v>3.14</v>
       </c>
     </row>
-    <row r="495" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="495" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A495" s="10" t="s">
         <v>19</v>
       </c>
@@ -8424,7 +8465,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="496" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="496" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A496" s="12" t="s">
         <v>23</v>
       </c>
@@ -8438,7 +8479,7 @@
         <v>7.01</v>
       </c>
     </row>
-    <row r="497" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="497" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A497" s="10" t="s">
         <v>9</v>
       </c>
@@ -8452,7 +8493,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="498" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="498" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A498" s="12" t="s">
         <v>12</v>
       </c>
@@ -8466,7 +8507,7 @@
         <v>0.48</v>
       </c>
     </row>
-    <row r="499" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="499" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A499" s="10" t="s">
         <v>66</v>
       </c>
@@ -8480,7 +8521,7 @@
         <v>5.34</v>
       </c>
     </row>
-    <row r="500" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="500" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A500" s="12" t="s">
         <v>5</v>
       </c>
@@ -8494,7 +8535,7 @@
         <v>874.37</v>
       </c>
     </row>
-    <row r="501" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="501" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A501" s="10" t="s">
         <v>8</v>
       </c>
@@ -8508,7 +8549,7 @@
         <v>44.36</v>
       </c>
     </row>
-    <row r="502" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="502" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A502" s="12" t="s">
         <v>6</v>
       </c>
@@ -8522,7 +8563,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="503" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="503" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A503" s="10" t="s">
         <v>19</v>
       </c>
@@ -8536,7 +8577,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="504" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="504" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A504" s="12" t="s">
         <v>23</v>
       </c>
@@ -8550,7 +8591,7 @@
         <v>7.6</v>
       </c>
     </row>
-    <row r="505" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="505" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A505" s="10" t="s">
         <v>9</v>
       </c>
@@ -8564,7 +8605,7 @@
         <v>0.23</v>
       </c>
     </row>
-    <row r="506" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="506" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A506" s="12" t="s">
         <v>12</v>
       </c>
@@ -8578,7 +8619,7 @@
         <v>0.54</v>
       </c>
     </row>
-    <row r="507" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="507" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A507" s="10" t="s">
         <v>66</v>
       </c>
@@ -8592,7 +8633,7 @@
         <v>6.62</v>
       </c>
     </row>
-    <row r="508" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="508" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A508" s="12" t="s">
         <v>5</v>
       </c>
@@ -8606,7 +8647,7 @@
         <v>924.16</v>
       </c>
     </row>
-    <row r="509" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="509" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A509" s="10" t="s">
         <v>8</v>
       </c>
@@ -8620,7 +8661,7 @@
         <v>44.89</v>
       </c>
     </row>
-    <row r="510" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="510" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A510" s="12" t="s">
         <v>6</v>
       </c>
@@ -8634,7 +8675,7 @@
         <v>3.17</v>
       </c>
     </row>
-    <row r="511" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="511" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A511" s="10" t="s">
         <v>19</v>
       </c>
@@ -8648,7 +8689,7 @@
         <v>0.23</v>
       </c>
     </row>
-    <row r="512" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="512" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A512" s="12" t="s">
         <v>23</v>
       </c>
@@ -8662,7 +8703,7 @@
         <v>6.09</v>
       </c>
     </row>
-    <row r="513" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="513" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A513" s="10" t="s">
         <v>9</v>
       </c>
@@ -8676,7 +8717,7 @@
         <v>0.31</v>
       </c>
     </row>
-    <row r="514" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="514" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A514" s="12" t="s">
         <v>12</v>
       </c>
@@ -8690,7 +8731,7 @@
         <v>0.53</v>
       </c>
     </row>
-    <row r="515" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="515" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A515" s="10" t="s">
         <v>66</v>
       </c>
@@ -8704,7 +8745,7 @@
         <v>5.37</v>
       </c>
     </row>
-    <row r="516" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="516" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A516" s="12" t="s">
         <v>5</v>
       </c>
@@ -8718,7 +8759,7 @@
         <v>983.7</v>
       </c>
     </row>
-    <row r="517" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="517" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A517" s="10" t="s">
         <v>8</v>
       </c>
@@ -8732,7 +8773,7 @@
         <v>50.33</v>
       </c>
     </row>
-    <row r="518" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="518" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A518" s="12" t="s">
         <v>6</v>
       </c>
@@ -8746,7 +8787,7 @@
         <v>3.05</v>
       </c>
     </row>
-    <row r="519" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="519" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A519" s="10" t="s">
         <v>19</v>
       </c>
@@ -8760,7 +8801,7 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="520" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="520" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A520" s="12" t="s">
         <v>23</v>
       </c>
@@ -8774,7 +8815,7 @@
         <v>6.19</v>
       </c>
     </row>
-    <row r="521" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="521" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A521" s="10" t="s">
         <v>9</v>
       </c>
@@ -8788,7 +8829,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="522" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="522" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A522" s="12" t="s">
         <v>12</v>
       </c>
@@ -8802,7 +8843,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="523" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="523" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A523" s="10" t="s">
         <v>66</v>
       </c>
@@ -8816,7 +8857,7 @@
         <v>5.39</v>
       </c>
     </row>
-    <row r="524" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="524" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A524" s="12" t="s">
         <v>5</v>
       </c>
@@ -8830,7 +8871,7 @@
         <v>1020.03</v>
       </c>
     </row>
-    <row r="525" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="525" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A525" s="10" t="s">
         <v>8</v>
       </c>
@@ -8844,7 +8885,7 @@
         <v>51.97</v>
       </c>
     </row>
-    <row r="526" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="526" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A526" s="12" t="s">
         <v>6</v>
       </c>
@@ -8858,7 +8899,7 @@
         <v>3.23</v>
       </c>
     </row>
-    <row r="527" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="527" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A527" s="10" t="s">
         <v>19</v>
       </c>
@@ -8872,7 +8913,7 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="528" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="528" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A528" s="12" t="s">
         <v>23</v>
       </c>
@@ -8886,7 +8927,7 @@
         <v>5.78</v>
       </c>
     </row>
-    <row r="529" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="529" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A529" s="10" t="s">
         <v>9</v>
       </c>
@@ -8900,7 +8941,7 @@
         <v>1.02</v>
       </c>
     </row>
-    <row r="530" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="530" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A530" s="12" t="s">
         <v>12</v>
       </c>
@@ -8914,7 +8955,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="531" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="531" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A531" s="10" t="s">
         <v>66</v>
       </c>
@@ -8928,7 +8969,7 @@
         <v>5.88</v>
       </c>
     </row>
-    <row r="532" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="532" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A532" s="12" t="s">
         <v>5</v>
       </c>
@@ -8942,7 +8983,7 @@
         <v>1095.1600000000001</v>
       </c>
     </row>
-    <row r="533" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="533" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A533" s="10" t="s">
         <v>8</v>
       </c>
@@ -8956,7 +8997,7 @@
         <v>49.39</v>
       </c>
     </row>
-    <row r="534" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="534" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A534" s="12" t="s">
         <v>6</v>
       </c>
@@ -8970,7 +9011,7 @@
         <v>3.32</v>
       </c>
     </row>
-    <row r="535" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="535" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A535" s="10" t="s">
         <v>19</v>
       </c>
@@ -8984,7 +9025,7 @@
         <v>0.23</v>
       </c>
     </row>
-    <row r="536" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="536" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A536" s="12" t="s">
         <v>23</v>
       </c>
@@ -8998,7 +9039,7 @@
         <v>4.21</v>
       </c>
     </row>
-    <row r="537" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="537" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A537" s="10" t="s">
         <v>9</v>
       </c>
@@ -9012,7 +9053,7 @@
         <v>1.73</v>
       </c>
     </row>
-    <row r="538" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="538" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A538" s="12" t="s">
         <v>12</v>
       </c>
@@ -9026,7 +9067,7 @@
         <v>0.97</v>
       </c>
     </row>
-    <row r="539" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="539" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A539" s="10" t="s">
         <v>66</v>
       </c>
@@ -9040,7 +9081,7 @@
         <v>6.81</v>
       </c>
     </row>
-    <row r="540" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="540" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A540" s="12" t="s">
         <v>5</v>
       </c>
@@ -9054,7 +9095,7 @@
         <v>1093.56</v>
       </c>
     </row>
-    <row r="541" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="541" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A541" s="10" t="s">
         <v>8</v>
       </c>
@@ -9068,7 +9109,7 @@
         <v>49.87</v>
       </c>
     </row>
-    <row r="542" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="542" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A542" s="12" t="s">
         <v>6</v>
       </c>
@@ -9082,7 +9123,7 @@
         <v>3.85</v>
       </c>
     </row>
-    <row r="543" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="543" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A543" s="10" t="s">
         <v>19</v>
       </c>
@@ -9096,7 +9137,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="544" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="544" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A544" s="12" t="s">
         <v>23</v>
       </c>
@@ -9110,7 +9151,7 @@
         <v>2.02</v>
       </c>
     </row>
-    <row r="545" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="545" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A545" s="10" t="s">
         <v>9</v>
       </c>
@@ -9124,7 +9165,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="546" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="546" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A546" s="12" t="s">
         <v>12</v>
       </c>
@@ -9138,7 +9179,7 @@
         <v>1.02</v>
       </c>
     </row>
-    <row r="547" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="547" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A547" s="10" t="s">
         <v>66</v>
       </c>
@@ -9152,7 +9193,7 @@
         <v>7.1</v>
       </c>
     </row>
-    <row r="548" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="548" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A548" s="12" t="s">
         <v>5</v>
       </c>
@@ -9166,7 +9207,7 @@
         <v>1042.33</v>
       </c>
     </row>
-    <row r="549" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="549" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A549" s="10" t="s">
         <v>8</v>
       </c>
@@ -9180,7 +9221,7 @@
         <v>51.83</v>
       </c>
     </row>
-    <row r="550" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="550" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A550" s="12" t="s">
         <v>6</v>
       </c>
@@ -9194,7 +9235,7 @@
         <v>3.89</v>
       </c>
     </row>
-    <row r="551" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="551" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A551" s="10" t="s">
         <v>19</v>
       </c>
@@ -9208,7 +9249,7 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="552" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="552" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A552" s="12" t="s">
         <v>23</v>
       </c>
@@ -9222,7 +9263,7 @@
         <v>2.0299999999999998</v>
       </c>
     </row>
-    <row r="553" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="553" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A553" s="10" t="s">
         <v>9</v>
       </c>
@@ -9236,7 +9277,7 @@
         <v>2.79</v>
       </c>
     </row>
-    <row r="554" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="554" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A554" s="12" t="s">
         <v>12</v>
       </c>
@@ -9250,7 +9291,7 @@
         <v>0.97</v>
       </c>
     </row>
-    <row r="555" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="555" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A555" s="10" t="s">
         <v>66</v>
       </c>
@@ -9264,7 +9305,7 @@
         <v>7.68</v>
       </c>
     </row>
-    <row r="556" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="556" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A556" s="12" t="s">
         <v>5</v>
       </c>
@@ -9278,7 +9319,7 @@
         <v>1143.42</v>
       </c>
     </row>
-    <row r="557" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="557" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A557" s="10" t="s">
         <v>8</v>
       </c>
@@ -9292,7 +9333,7 @@
         <v>41.86</v>
       </c>
     </row>
-    <row r="558" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="558" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A558" s="12" t="s">
         <v>6</v>
       </c>
@@ -9306,7 +9347,7 @@
         <v>3.81</v>
       </c>
     </row>
-    <row r="559" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="559" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A559" s="10" t="s">
         <v>19</v>
       </c>
@@ -9320,7 +9361,7 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="560" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="560" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A560" s="12" t="s">
         <v>23</v>
       </c>
@@ -9334,7 +9375,7 @@
         <v>2.23</v>
       </c>
     </row>
-    <row r="561" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="561" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A561" s="10" t="s">
         <v>9</v>
       </c>
@@ -9348,7 +9389,7 @@
         <v>3.25</v>
       </c>
     </row>
-    <row r="562" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="562" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A562" s="12" t="s">
         <v>12</v>
       </c>
@@ -9362,7 +9403,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="563" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="563" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A563" s="10" t="s">
         <v>66</v>
       </c>
@@ -9376,7 +9417,7 @@
         <v>8.34</v>
       </c>
     </row>
-    <row r="564" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="564" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A564" s="12" t="s">
         <v>5</v>
       </c>
@@ -9390,7 +9431,7 @@
         <v>1232.5999999999999</v>
       </c>
     </row>
-    <row r="565" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="565" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A565" s="10" t="s">
         <v>8</v>
       </c>
@@ -9404,7 +9445,7 @@
         <v>32.21</v>
       </c>
     </row>
-    <row r="566" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="566" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A566" s="12" t="s">
         <v>6</v>
       </c>
@@ -9418,7 +9459,7 @@
         <v>4.16</v>
       </c>
     </row>
-    <row r="567" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="567" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A567" s="10" t="s">
         <v>19</v>
       </c>
@@ -9432,7 +9473,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="568" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="568" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A568" s="12" t="s">
         <v>23</v>
       </c>
@@ -9446,7 +9487,7 @@
         <v>2.42</v>
       </c>
     </row>
-    <row r="569" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="569" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A569" s="10" t="s">
         <v>9</v>
       </c>
@@ -9460,7 +9501,7 @@
         <v>4.5199999999999996</v>
       </c>
     </row>
-    <row r="570" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="570" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A570" s="12" t="s">
         <v>12</v>
       </c>
@@ -9474,7 +9515,7 @@
         <v>1.1299999999999999</v>
       </c>
     </row>
-    <row r="571" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="571" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A571" s="10" t="s">
         <v>66</v>
       </c>
@@ -9488,7 +9529,7 @@
         <v>8.06</v>
       </c>
     </row>
-    <row r="572" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="572" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A572" s="12" t="s">
         <v>5</v>
       </c>
@@ -9502,7 +9543,7 @@
         <v>1338.45</v>
       </c>
     </row>
-    <row r="573" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="573" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A573" s="10" t="s">
         <v>8</v>
       </c>
@@ -9516,7 +9557,7 @@
         <v>36.46</v>
       </c>
     </row>
-    <row r="574" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="574" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A574" s="12" t="s">
         <v>6</v>
       </c>
@@ -9530,7 +9571,7 @@
         <v>3.54</v>
       </c>
     </row>
-    <row r="575" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="575" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A575" s="10" t="s">
         <v>19</v>
       </c>
@@ -9544,7 +9585,7 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="576" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="576" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A576" s="12" t="s">
         <v>23</v>
       </c>
@@ -9558,7 +9599,7 @@
         <v>2.75</v>
       </c>
     </row>
-    <row r="577" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="577" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A577" s="10" t="s">
         <v>9</v>
       </c>
@@ -9572,7 +9613,7 @@
         <v>5.39</v>
       </c>
     </row>
-    <row r="578" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="578" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A578" s="12" t="s">
         <v>12</v>
       </c>
@@ -9586,7 +9627,7 @@
         <v>1.32</v>
       </c>
     </row>
-    <row r="579" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="579" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A579" s="10" t="s">
         <v>73</v>
       </c>
@@ -9600,7 +9641,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="580" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="580" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A580" s="12" t="s">
         <v>74</v>
       </c>
@@ -9614,7 +9655,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="581" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="581" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A581" s="10" t="s">
         <v>73</v>
       </c>
@@ -9628,7 +9669,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="582" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="582" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A582" s="12" t="s">
         <v>74</v>
       </c>
@@ -9642,7 +9683,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="583" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="583" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A583" s="10" t="s">
         <v>73</v>
       </c>
@@ -9656,7 +9697,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="584" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="584" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A584" s="12" t="s">
         <v>74</v>
       </c>
@@ -9670,7 +9711,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="585" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="585" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A585" s="10" t="s">
         <v>73</v>
       </c>
@@ -9684,7 +9725,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="586" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="586" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A586" s="12" t="s">
         <v>74</v>
       </c>
@@ -9698,7 +9739,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="587" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="587" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A587" s="10" t="s">
         <v>73</v>
       </c>
@@ -9712,7 +9753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="588" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="588" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A588" s="12" t="s">
         <v>74</v>
       </c>
@@ -9726,7 +9767,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="589" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="589" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A589" s="10" t="s">
         <v>73</v>
       </c>
@@ -9740,7 +9781,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="590" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="590" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A590" s="12" t="s">
         <v>74</v>
       </c>
@@ -9754,7 +9795,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="591" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="591" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A591" s="10" t="s">
         <v>73</v>
       </c>
@@ -9768,7 +9809,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="592" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="592" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A592" s="12" t="s">
         <v>74</v>
       </c>
@@ -9782,7 +9823,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="593" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="593" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A593" s="10" t="s">
         <v>73</v>
       </c>
@@ -9796,7 +9837,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="594" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="594" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A594" s="12" t="s">
         <v>74</v>
       </c>
@@ -9810,7 +9851,7 @@
         <v>5.2</v>
       </c>
     </row>
-    <row r="595" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="595" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A595" s="10" t="s">
         <v>73</v>
       </c>
@@ -9824,7 +9865,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="596" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="596" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A596" s="12" t="s">
         <v>74</v>
       </c>
@@ -9838,7 +9879,7 @@
         <v>5.9</v>
       </c>
     </row>
-    <row r="597" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="597" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A597" s="10" t="s">
         <v>73</v>
       </c>
@@ -9852,7 +9893,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="598" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="598" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A598" s="12" t="s">
         <v>74</v>
       </c>
@@ -9866,7 +9907,7 @@
         <v>5.4</v>
       </c>
     </row>
-    <row r="599" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="599" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A599" s="10" t="s">
         <v>73</v>
       </c>
@@ -9880,7 +9921,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="600" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="600" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A600" s="12" t="s">
         <v>74</v>
       </c>
@@ -9894,7 +9935,7 @@
         <v>5.6</v>
       </c>
     </row>
-    <row r="601" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="601" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A601" s="10" t="s">
         <v>73</v>
       </c>
@@ -9906,7 +9947,7 @@
       </c>
       <c r="D601" s="11"/>
     </row>
-    <row r="602" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="602" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A602" s="12" t="s">
         <v>74</v>
       </c>
@@ -9920,7 +9961,7 @@
         <v>8.4</v>
       </c>
     </row>
-    <row r="603" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="603" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A603" s="10" t="s">
         <v>73</v>
       </c>
@@ -9932,7 +9973,7 @@
       </c>
       <c r="D603" s="11"/>
     </row>
-    <row r="604" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="604" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A604" s="12" t="s">
         <v>74</v>
       </c>
@@ -9946,7 +9987,7 @@
         <v>5.2</v>
       </c>
     </row>
-    <row r="605" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="605" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A605" s="10" t="s">
         <v>73</v>
       </c>
@@ -9958,7 +9999,7 @@
       </c>
       <c r="D605" s="11"/>
     </row>
-    <row r="606" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="606" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A606" s="12" t="s">
         <v>74</v>
       </c>
@@ -9972,7 +10013,7 @@
         <v>5.6</v>
       </c>
     </row>
-    <row r="607" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="607" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A607" s="10" t="s">
         <v>73</v>
       </c>
@@ -9986,7 +10027,7 @@
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="608" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="608" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A608" s="12" t="s">
         <v>74</v>
       </c>
@@ -10000,7 +10041,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="609" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="609" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A609" s="10" t="s">
         <v>73</v>
       </c>
@@ -10014,7 +10055,7 @@
         <v>5.0999999999999996</v>
       </c>
     </row>
-    <row r="610" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="610" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A610" s="12" t="s">
         <v>74</v>
       </c>
@@ -10028,7 +10069,7 @@
         <v>5.2</v>
       </c>
     </row>
-    <row r="611" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="611" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A611" s="10" t="s">
         <v>73</v>
       </c>
@@ -10042,7 +10083,7 @@
         <v>6.7</v>
       </c>
     </row>
-    <row r="612" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="612" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A612" s="12" t="s">
         <v>74</v>
       </c>
@@ -10056,7 +10097,7 @@
         <v>5.6</v>
       </c>
     </row>
-    <row r="613" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="613" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A613" s="10" t="s">
         <v>73</v>
       </c>
@@ -10070,7 +10111,7 @@
         <v>7.2</v>
       </c>
     </row>
-    <row r="614" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="614" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A614" s="12" t="s">
         <v>74</v>
       </c>
@@ -10084,7 +10125,7 @@
         <v>5.6</v>
       </c>
     </row>
-    <row r="615" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="615" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A615" s="10" t="s">
         <v>73</v>
       </c>
@@ -10098,7 +10139,7 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="616" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="616" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A616" s="12" t="s">
         <v>74</v>
       </c>
@@ -10112,7 +10153,7 @@
         <v>4.7</v>
       </c>
     </row>
-    <row r="617" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="617" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A617" s="10" t="s">
         <v>73</v>
       </c>
@@ -10126,7 +10167,7 @@
         <v>9.5</v>
       </c>
     </row>
-    <row r="618" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="618" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A618" s="12" t="s">
         <v>74</v>
       </c>
@@ -10140,7 +10181,7 @@
         <v>6.4</v>
       </c>
     </row>
-    <row r="619" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="619" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A619" s="10" t="s">
         <v>73</v>
       </c>
@@ -10154,7 +10195,7 @@
         <v>9.4</v>
       </c>
     </row>
-    <row r="620" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="620" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A620" s="12" t="s">
         <v>74</v>
       </c>
@@ -10168,7 +10209,7 @@
         <v>9.3000000000000007</v>
       </c>
     </row>
-    <row r="621" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="621" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A621" s="10" t="s">
         <v>73</v>
       </c>
@@ -10182,7 +10223,7 @@
         <v>9.6</v>
       </c>
     </row>
-    <row r="622" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="622" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A622" s="12" t="s">
         <v>74</v>
       </c>
@@ -10196,7 +10237,7 @@
         <v>9.5</v>
       </c>
     </row>
-    <row r="623" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="623" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A623" s="10" t="s">
         <v>73</v>
       </c>
@@ -10210,7 +10251,7 @@
         <v>10.3</v>
       </c>
     </row>
-    <row r="624" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="624" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A624" s="12" t="s">
         <v>74</v>
       </c>
@@ -10224,7 +10265,7 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="625" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="625" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A625" s="10" t="s">
         <v>73</v>
       </c>
@@ -10236,7 +10277,7 @@
       </c>
       <c r="D625" s="11"/>
     </row>
-    <row r="626" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="626" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A626" s="12" t="s">
         <v>74</v>
       </c>
